--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -582,6 +582,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,7 +722,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,34 +734,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,8 +863,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,21 +1340,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
+    <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1355,7 +1370,7 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1391,7 +1406,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="12" t="str">
-        <f>IF(G2&lt;&gt;"",UPPER(LEFT(G2,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G2,G2),"0000"),"")</f>
+        <f>IF(G2&lt;&gt;"",UPPER(LEFT(G2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G2,G2),"0000"),"")</f>
         <v/>
       </c>
       <c r="B2" s="6"/>
@@ -1404,7 +1419,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="12" t="str">
-        <f>IF(G3&lt;&gt;"",UPPER(LEFT(G3,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G3,G3),"0000"),"")</f>
+        <f>IF(G3&lt;&gt;"",UPPER(LEFT(G3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G3,G3),"0000"),"")</f>
         <v/>
       </c>
       <c r="B3" s="6"/>
@@ -1417,7 +1432,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="12" t="str">
-        <f>IF(G4&lt;&gt;"",UPPER(LEFT(G4,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G4,G4),"0000"),"")</f>
+        <f>IF(G4&lt;&gt;"",UPPER(LEFT(G4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G4,G4),"0000"),"")</f>
         <v/>
       </c>
       <c r="B4" s="6"/>
@@ -1430,7 +1445,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="12" t="str">
-        <f>IF(G5&lt;&gt;"",UPPER(LEFT(G5,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G5,G5),"0000"),"")</f>
+        <f>IF(G5&lt;&gt;"",UPPER(LEFT(G5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G5,G5),"0000"),"")</f>
         <v/>
       </c>
       <c r="B5" s="6"/>
@@ -1443,7 +1458,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="12" t="str">
-        <f>IF(G6&lt;&gt;"",UPPER(LEFT(G6,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G6,G6),"0000"),"")</f>
+        <f>IF(G6&lt;&gt;"",UPPER(LEFT(G6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G6,G6),"0000"),"")</f>
         <v/>
       </c>
       <c r="B6" s="6"/>
@@ -1456,7 +1471,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="12" t="str">
-        <f>IF(G7&lt;&gt;"",UPPER(LEFT(G7,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G7,G7),"0000"),"")</f>
+        <f>IF(G7&lt;&gt;"",UPPER(LEFT(G7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G7,G7),"0000"),"")</f>
         <v/>
       </c>
       <c r="B7" s="6"/>
@@ -1471,7 +1486,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="12" t="str">
-        <f>IF(G8&lt;&gt;"",UPPER(LEFT(G8,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G8,G8),"0000"),"")</f>
+        <f>IF(G8&lt;&gt;"",UPPER(LEFT(G8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G8,G8),"0000"),"")</f>
         <v/>
       </c>
       <c r="B8" s="6"/>
@@ -1485,7 +1500,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="12" t="str">
-        <f>IF(G9&lt;&gt;"",UPPER(LEFT(G9,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G9,G9),"0000"),"")</f>
+        <f>IF(G9&lt;&gt;"",UPPER(LEFT(G9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G9,G9),"0000"),"")</f>
         <v/>
       </c>
       <c r="B9" s="6"/>
@@ -1498,7 +1513,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="12" t="str">
-        <f>IF(G10&lt;&gt;"",UPPER(LEFT(G10,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G10,G10),"0000"),"")</f>
+        <f>IF(G10&lt;&gt;"",UPPER(LEFT(G10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G10,G10),"0000"),"")</f>
         <v/>
       </c>
       <c r="B10" s="6"/>
@@ -1511,7 +1526,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="12" t="str">
-        <f>IF(G11&lt;&gt;"",UPPER(LEFT(G11,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G11,G11),"0000"),"")</f>
+        <f>IF(G11&lt;&gt;"",UPPER(LEFT(G11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G11,G11),"0000"),"")</f>
         <v/>
       </c>
       <c r="B11" s="6"/>
@@ -1524,7 +1539,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="12" t="str">
-        <f>IF(G12&lt;&gt;"",UPPER(LEFT(G12,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G12,G12),"0000"),"")</f>
+        <f>IF(G12&lt;&gt;"",UPPER(LEFT(G12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G12,G12),"0000"),"")</f>
         <v/>
       </c>
       <c r="B12" s="5"/>
@@ -1537,7 +1552,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="12" t="str">
-        <f>IF(G13&lt;&gt;"",UPPER(LEFT(G13,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G13,G13),"0000"),"")</f>
+        <f>IF(G13&lt;&gt;"",UPPER(LEFT(G13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G13,G13),"0000"),"")</f>
         <v/>
       </c>
       <c r="B13" s="5"/>
@@ -1550,7 +1565,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="12" t="str">
-        <f>IF(G14&lt;&gt;"",UPPER(LEFT(G14,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G14,G14),"0000"),"")</f>
+        <f>IF(G14&lt;&gt;"",UPPER(LEFT(G14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G14,G14),"0000"),"")</f>
         <v/>
       </c>
       <c r="B14" s="5"/>
@@ -1563,7 +1578,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="12" t="str">
-        <f>IF(G15&lt;&gt;"",UPPER(LEFT(G15,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G15,G15),"0000"),"")</f>
+        <f>IF(G15&lt;&gt;"",UPPER(LEFT(G15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G15,G15),"0000"),"")</f>
         <v/>
       </c>
       <c r="B15" s="5"/>
@@ -1576,7 +1591,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="12" t="str">
-        <f>IF(G16&lt;&gt;"",UPPER(LEFT(G16,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G16,G16),"0000"),"")</f>
+        <f>IF(G16&lt;&gt;"",UPPER(LEFT(G16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G16,G16),"0000"),"")</f>
         <v/>
       </c>
       <c r="B16" s="5"/>
@@ -1589,7 +1604,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="12" t="str">
-        <f>IF(G17&lt;&gt;"",UPPER(LEFT(G17,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G17,G17),"0000"),"")</f>
+        <f>IF(G17&lt;&gt;"",UPPER(LEFT(G17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G17,G17),"0000"),"")</f>
         <v/>
       </c>
       <c r="B17" s="5"/>
@@ -1602,7 +1617,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="12" t="str">
-        <f>IF(G18&lt;&gt;"",UPPER(LEFT(G18,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G18,G18),"0000"),"")</f>
+        <f>IF(G18&lt;&gt;"",UPPER(LEFT(G18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G18,G18),"0000"),"")</f>
         <v/>
       </c>
       <c r="B18" s="5"/>
@@ -1615,7 +1630,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="12" t="str">
-        <f>IF(G19&lt;&gt;"",UPPER(LEFT(G19,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G19,G19),"0000"),"")</f>
+        <f>IF(G19&lt;&gt;"",UPPER(LEFT(G19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G19,G19),"0000"),"")</f>
         <v/>
       </c>
       <c r="B19" s="5"/>
@@ -1628,7 +1643,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="12" t="str">
-        <f>IF(G20&lt;&gt;"",UPPER(LEFT(G20,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G20,G20),"0000"),"")</f>
+        <f>IF(G20&lt;&gt;"",UPPER(LEFT(G20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G20,G20),"0000"),"")</f>
         <v/>
       </c>
       <c r="B20" s="5"/>
@@ -1641,7 +1656,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="12" t="str">
-        <f>IF(G21&lt;&gt;"",UPPER(LEFT(G21,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G21,G21),"0000"),"")</f>
+        <f>IF(G21&lt;&gt;"",UPPER(LEFT(G21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G21,G21),"0000"),"")</f>
         <v/>
       </c>
       <c r="B21" s="5"/>
@@ -1654,7 +1669,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="12" t="str">
-        <f>IF(G22&lt;&gt;"",UPPER(LEFT(G22,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G22,G22),"0000"),"")</f>
+        <f>IF(G22&lt;&gt;"",UPPER(LEFT(G22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G22,G22),"0000"),"")</f>
         <v/>
       </c>
       <c r="B22" s="5"/>
@@ -1667,7 +1682,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="12" t="str">
-        <f>IF(G23&lt;&gt;"",UPPER(LEFT(G23,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G23,G23),"0000"),"")</f>
+        <f>IF(G23&lt;&gt;"",UPPER(LEFT(G23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G23,G23),"0000"),"")</f>
         <v/>
       </c>
       <c r="B23" s="5"/>
@@ -1680,7 +1695,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="12" t="str">
-        <f>IF(G24&lt;&gt;"",UPPER(LEFT(G24,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G24,G24),"0000"),"")</f>
+        <f>IF(G24&lt;&gt;"",UPPER(LEFT(G24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G24,G24),"0000"),"")</f>
         <v/>
       </c>
       <c r="B24" s="5"/>
@@ -1693,7 +1708,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="12" t="str">
-        <f>IF(G25&lt;&gt;"",UPPER(LEFT(G25,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G25,G25),"0000"),"")</f>
+        <f>IF(G25&lt;&gt;"",UPPER(LEFT(G25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G25,G25),"0000"),"")</f>
         <v/>
       </c>
       <c r="B25" s="5"/>
@@ -1706,7 +1721,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="12" t="str">
-        <f>IF(G26&lt;&gt;"",UPPER(LEFT(G26,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G26,G26),"0000"),"")</f>
+        <f>IF(G26&lt;&gt;"",UPPER(LEFT(G26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G26,G26),"0000"),"")</f>
         <v/>
       </c>
       <c r="B26" s="5"/>
@@ -1719,7 +1734,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="12" t="str">
-        <f>IF(G27&lt;&gt;"",UPPER(LEFT(G27,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G27,G27),"0000"),"")</f>
+        <f>IF(G27&lt;&gt;"",UPPER(LEFT(G27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G27,G27),"0000"),"")</f>
         <v/>
       </c>
       <c r="B27" s="5"/>
@@ -1732,7 +1747,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="12" t="str">
-        <f>IF(G28&lt;&gt;"",UPPER(LEFT(G28,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G28,G28),"0000"),"")</f>
+        <f>IF(G28&lt;&gt;"",UPPER(LEFT(G28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G28,G28),"0000"),"")</f>
         <v/>
       </c>
       <c r="B28" s="5"/>
@@ -1745,7 +1760,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="12" t="str">
-        <f>IF(G29&lt;&gt;"",UPPER(LEFT(G29,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G29,G29),"0000"),"")</f>
+        <f>IF(G29&lt;&gt;"",UPPER(LEFT(G29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G29,G29),"0000"),"")</f>
         <v/>
       </c>
       <c r="B29" s="5"/>
@@ -1758,7 +1773,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="12" t="str">
-        <f>IF(G30&lt;&gt;"",UPPER(LEFT(G30,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G30,G30),"0000"),"")</f>
+        <f>IF(G30&lt;&gt;"",UPPER(LEFT(G30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G30,G30),"0000"),"")</f>
         <v/>
       </c>
       <c r="B30" s="5"/>
@@ -1771,7 +1786,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="12" t="str">
-        <f>IF(G31&lt;&gt;"",UPPER(LEFT(G31,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G31,G31),"0000"),"")</f>
+        <f>IF(G31&lt;&gt;"",UPPER(LEFT(G31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G31,G31),"0000"),"")</f>
         <v/>
       </c>
       <c r="B31" s="5"/>
@@ -1784,7 +1799,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="12" t="str">
-        <f>IF(G32&lt;&gt;"",UPPER(LEFT(G32,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G32,G32),"0000"),"")</f>
+        <f>IF(G32&lt;&gt;"",UPPER(LEFT(G32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G32,G32),"0000"),"")</f>
         <v/>
       </c>
       <c r="B32" s="5"/>
@@ -1797,7 +1812,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="12" t="str">
-        <f>IF(G33&lt;&gt;"",UPPER(LEFT(G33,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G33,G33),"0000"),"")</f>
+        <f>IF(G33&lt;&gt;"",UPPER(LEFT(G33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G33,G33),"0000"),"")</f>
         <v/>
       </c>
       <c r="B33" s="5"/>
@@ -1810,7 +1825,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="12" t="str">
-        <f>IF(G34&lt;&gt;"",UPPER(LEFT(G34,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G34,G34),"0000"),"")</f>
+        <f>IF(G34&lt;&gt;"",UPPER(LEFT(G34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G34,G34),"0000"),"")</f>
         <v/>
       </c>
       <c r="B34" s="5"/>
@@ -1823,7 +1838,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="12" t="str">
-        <f>IF(G35&lt;&gt;"",UPPER(LEFT(G35,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G35,G35),"0000"),"")</f>
+        <f>IF(G35&lt;&gt;"",UPPER(LEFT(G35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G35,G35),"0000"),"")</f>
         <v/>
       </c>
       <c r="B35" s="5"/>
@@ -1836,7 +1851,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="12" t="str">
-        <f>IF(G36&lt;&gt;"",UPPER(LEFT(G36,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G36,G36),"0000"),"")</f>
+        <f>IF(G36&lt;&gt;"",UPPER(LEFT(G36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G36,G36),"0000"),"")</f>
         <v/>
       </c>
       <c r="B36" s="5"/>
@@ -1849,7 +1864,7 @@
     </row>
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="12" t="str">
-        <f>IF(G37&lt;&gt;"",UPPER(LEFT(G37,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G37,G37),"0000"),"")</f>
+        <f>IF(G37&lt;&gt;"",UPPER(LEFT(G37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G37,G37),"0000"),"")</f>
         <v/>
       </c>
       <c r="B37" s="5"/>
@@ -1862,7 +1877,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="12" t="str">
-        <f>IF(G38&lt;&gt;"",UPPER(LEFT(G38,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G38,G38),"0000"),"")</f>
+        <f>IF(G38&lt;&gt;"",UPPER(LEFT(G38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G38,G38),"0000"),"")</f>
         <v/>
       </c>
       <c r="B38" s="5"/>
@@ -1875,7 +1890,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="12" t="str">
-        <f>IF(G39&lt;&gt;"",UPPER(LEFT(G39,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G39,G39),"0000"),"")</f>
+        <f>IF(G39&lt;&gt;"",UPPER(LEFT(G39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G39,G39),"0000"),"")</f>
         <v/>
       </c>
       <c r="B39" s="5"/>
@@ -1888,7 +1903,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="12" t="str">
-        <f>IF(G40&lt;&gt;"",UPPER(LEFT(G40,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G40,G40),"0000"),"")</f>
+        <f>IF(G40&lt;&gt;"",UPPER(LEFT(G40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G40,G40),"0000"),"")</f>
         <v/>
       </c>
       <c r="B40" s="5"/>
@@ -1901,7 +1916,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="12" t="str">
-        <f>IF(G41&lt;&gt;"",UPPER(LEFT(G41,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G41,G41),"0000"),"")</f>
+        <f>IF(G41&lt;&gt;"",UPPER(LEFT(G41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G41,G41),"0000"),"")</f>
         <v/>
       </c>
       <c r="B41" s="5"/>
@@ -1914,7 +1929,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="12" t="str">
-        <f>IF(G42&lt;&gt;"",UPPER(LEFT(G42,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G42,G42),"0000"),"")</f>
+        <f>IF(G42&lt;&gt;"",UPPER(LEFT(G42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G42,G42),"0000"),"")</f>
         <v/>
       </c>
       <c r="B42" s="5"/>
@@ -1927,7 +1942,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="12" t="str">
-        <f>IF(G43&lt;&gt;"",UPPER(LEFT(G43,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G43,G43),"0000"),"")</f>
+        <f>IF(G43&lt;&gt;"",UPPER(LEFT(G43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G43,G43),"0000"),"")</f>
         <v/>
       </c>
       <c r="B43" s="5"/>
@@ -1940,7 +1955,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="12" t="str">
-        <f>IF(G44&lt;&gt;"",UPPER(LEFT(G44,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G44,G44),"0000"),"")</f>
+        <f>IF(G44&lt;&gt;"",UPPER(LEFT(G44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G44,G44),"0000"),"")</f>
         <v/>
       </c>
       <c r="B44" s="5"/>
@@ -1953,7 +1968,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="12" t="str">
-        <f>IF(G45&lt;&gt;"",UPPER(LEFT(G45,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G45,G45),"0000"),"")</f>
+        <f>IF(G45&lt;&gt;"",UPPER(LEFT(G45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G45,G45),"0000"),"")</f>
         <v/>
       </c>
       <c r="B45" s="5"/>
@@ -1966,7 +1981,7 @@
     </row>
     <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="12" t="str">
-        <f>IF(G46&lt;&gt;"",UPPER(LEFT(G46,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G46,G46),"0000"),"")</f>
+        <f>IF(G46&lt;&gt;"",UPPER(LEFT(G46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G46,G46),"0000"),"")</f>
         <v/>
       </c>
       <c r="B46" s="5"/>
@@ -1979,7 +1994,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="12" t="str">
-        <f>IF(G47&lt;&gt;"",UPPER(LEFT(G47,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G47,G47),"0000"),"")</f>
+        <f>IF(G47&lt;&gt;"",UPPER(LEFT(G47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G47,G47),"0000"),"")</f>
         <v/>
       </c>
       <c r="B47" s="5"/>
@@ -1992,7 +2007,7 @@
     </row>
     <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="12" t="str">
-        <f>IF(G48&lt;&gt;"",UPPER(LEFT(G48,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G48,G48),"0000"),"")</f>
+        <f>IF(G48&lt;&gt;"",UPPER(LEFT(G48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G48,G48),"0000"),"")</f>
         <v/>
       </c>
       <c r="B48" s="5"/>
@@ -2005,7 +2020,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="12" t="str">
-        <f>IF(G49&lt;&gt;"",UPPER(LEFT(G49,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G49,G49),"0000"),"")</f>
+        <f>IF(G49&lt;&gt;"",UPPER(LEFT(G49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G49,G49),"0000"),"")</f>
         <v/>
       </c>
       <c r="B49" s="5"/>
@@ -2018,7 +2033,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="12" t="str">
-        <f>IF(G50&lt;&gt;"",UPPER(LEFT(G50,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G50,G50),"0000"),"")</f>
+        <f>IF(G50&lt;&gt;"",UPPER(LEFT(G50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G50,G50),"0000"),"")</f>
         <v/>
       </c>
       <c r="B50" s="5"/>
@@ -2031,7 +2046,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="12" t="str">
-        <f>IF(G51&lt;&gt;"",UPPER(LEFT(G51,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G51,G51),"0000"),"")</f>
+        <f>IF(G51&lt;&gt;"",UPPER(LEFT(G51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G51,G51),"0000"),"")</f>
         <v/>
       </c>
       <c r="B51" s="5"/>
@@ -2044,7 +2059,7 @@
     </row>
     <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="12" t="str">
-        <f>IF(G52&lt;&gt;"",UPPER(LEFT(G52,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G52,G52),"0000"),"")</f>
+        <f>IF(G52&lt;&gt;"",UPPER(LEFT(G52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G52,G52),"0000"),"")</f>
         <v/>
       </c>
       <c r="B52" s="5"/>
@@ -2057,7 +2072,7 @@
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="12" t="str">
-        <f>IF(G53&lt;&gt;"",UPPER(LEFT(G53,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G53,G53),"0000"),"")</f>
+        <f>IF(G53&lt;&gt;"",UPPER(LEFT(G53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G53,G53),"0000"),"")</f>
         <v/>
       </c>
       <c r="B53" s="5"/>
@@ -2070,7 +2085,7 @@
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="12" t="str">
-        <f>IF(G54&lt;&gt;"",UPPER(LEFT(G54,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G54,G54),"0000"),"")</f>
+        <f>IF(G54&lt;&gt;"",UPPER(LEFT(G54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G54,G54),"0000"),"")</f>
         <v/>
       </c>
       <c r="B54" s="5"/>
@@ -2083,7 +2098,7 @@
     </row>
     <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="12" t="str">
-        <f>IF(G55&lt;&gt;"",UPPER(LEFT(G55,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G55,G55),"0000"),"")</f>
+        <f>IF(G55&lt;&gt;"",UPPER(LEFT(G55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G55,G55),"0000"),"")</f>
         <v/>
       </c>
       <c r="B55" s="5"/>
@@ -2096,7 +2111,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="12" t="str">
-        <f>IF(G56&lt;&gt;"",UPPER(LEFT(G56,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G56,G56),"0000"),"")</f>
+        <f>IF(G56&lt;&gt;"",UPPER(LEFT(G56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G56,G56),"0000"),"")</f>
         <v/>
       </c>
       <c r="B56" s="5"/>
@@ -2109,7 +2124,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="12" t="str">
-        <f>IF(G57&lt;&gt;"",UPPER(LEFT(G57,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G57,G57),"0000"),"")</f>
+        <f>IF(G57&lt;&gt;"",UPPER(LEFT(G57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G57,G57),"0000"),"")</f>
         <v/>
       </c>
       <c r="B57" s="5"/>
@@ -2122,7 +2137,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="12" t="str">
-        <f>IF(G58&lt;&gt;"",UPPER(LEFT(G58,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G58,G58),"0000"),"")</f>
+        <f>IF(G58&lt;&gt;"",UPPER(LEFT(G58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G58,G58),"0000"),"")</f>
         <v/>
       </c>
       <c r="B58" s="5"/>
@@ -2135,7 +2150,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="12" t="str">
-        <f>IF(G59&lt;&gt;"",UPPER(LEFT(G59,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G59,G59),"0000"),"")</f>
+        <f>IF(G59&lt;&gt;"",UPPER(LEFT(G59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G59,G59),"0000"),"")</f>
         <v/>
       </c>
       <c r="B59" s="5"/>
@@ -2148,7 +2163,7 @@
     </row>
     <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="12" t="str">
-        <f>IF(G60&lt;&gt;"",UPPER(LEFT(G60,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G60,G60),"0000"),"")</f>
+        <f>IF(G60&lt;&gt;"",UPPER(LEFT(G60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G60,G60),"0000"),"")</f>
         <v/>
       </c>
       <c r="B60" s="5"/>
@@ -2161,7 +2176,7 @@
     </row>
     <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="12" t="str">
-        <f>IF(G61&lt;&gt;"",UPPER(LEFT(G61,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G61,G61),"0000"),"")</f>
+        <f>IF(G61&lt;&gt;"",UPPER(LEFT(G61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G61,G61),"0000"),"")</f>
         <v/>
       </c>
       <c r="B61" s="5"/>
@@ -2174,7 +2189,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="12" t="str">
-        <f>IF(G62&lt;&gt;"",UPPER(LEFT(G62,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G62,G62),"0000"),"")</f>
+        <f>IF(G62&lt;&gt;"",UPPER(LEFT(G62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G62,G62),"0000"),"")</f>
         <v/>
       </c>
       <c r="B62" s="5"/>
@@ -2187,7 +2202,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="12" t="str">
-        <f>IF(G63&lt;&gt;"",UPPER(LEFT(G63,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G63,G63),"0000"),"")</f>
+        <f>IF(G63&lt;&gt;"",UPPER(LEFT(G63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G63,G63),"0000"),"")</f>
         <v/>
       </c>
       <c r="B63" s="5"/>
@@ -2200,7 +2215,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="12" t="str">
-        <f>IF(G64&lt;&gt;"",UPPER(LEFT(G64,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G64,G64),"0000"),"")</f>
+        <f>IF(G64&lt;&gt;"",UPPER(LEFT(G64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G64,G64),"0000"),"")</f>
         <v/>
       </c>
       <c r="B64" s="5"/>
@@ -2213,7 +2228,7 @@
     </row>
     <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="12" t="str">
-        <f>IF(G65&lt;&gt;"",UPPER(LEFT(G65,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G65,G65),"0000"),"")</f>
+        <f>IF(G65&lt;&gt;"",UPPER(LEFT(G65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G65,G65),"0000"),"")</f>
         <v/>
       </c>
       <c r="B65" s="5"/>
@@ -2226,7 +2241,7 @@
     </row>
     <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="12" t="str">
-        <f>IF(G66&lt;&gt;"",UPPER(LEFT(G66,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G66,G66),"0000"),"")</f>
+        <f>IF(G66&lt;&gt;"",UPPER(LEFT(G66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G66,G66),"0000"),"")</f>
         <v/>
       </c>
       <c r="B66" s="5"/>
@@ -2239,7 +2254,7 @@
     </row>
     <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="12" t="str">
-        <f>IF(G67&lt;&gt;"",UPPER(LEFT(G67,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G67,G67),"0000"),"")</f>
+        <f>IF(G67&lt;&gt;"",UPPER(LEFT(G67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G67,G67),"0000"),"")</f>
         <v/>
       </c>
       <c r="B67" s="5"/>
@@ -2252,7 +2267,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="12" t="str">
-        <f>IF(G68&lt;&gt;"",UPPER(LEFT(G68,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G68,G68),"0000"),"")</f>
+        <f>IF(G68&lt;&gt;"",UPPER(LEFT(G68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G68,G68),"0000"),"")</f>
         <v/>
       </c>
       <c r="B68" s="5"/>
@@ -2265,7 +2280,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="12" t="str">
-        <f>IF(G69&lt;&gt;"",UPPER(LEFT(G69,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G69,G69),"0000"),"")</f>
+        <f>IF(G69&lt;&gt;"",UPPER(LEFT(G69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G69,G69),"0000"),"")</f>
         <v/>
       </c>
       <c r="B69" s="5"/>
@@ -2278,7 +2293,7 @@
     </row>
     <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="12" t="str">
-        <f>IF(G70&lt;&gt;"",UPPER(LEFT(G70,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G70,G70),"0000"),"")</f>
+        <f>IF(G70&lt;&gt;"",UPPER(LEFT(G70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G70,G70),"0000"),"")</f>
         <v/>
       </c>
       <c r="B70" s="5"/>
@@ -2291,7 +2306,7 @@
     </row>
     <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="12" t="str">
-        <f>IF(G71&lt;&gt;"",UPPER(LEFT(G71,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G71,G71),"0000"),"")</f>
+        <f>IF(G71&lt;&gt;"",UPPER(LEFT(G71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G71,G71),"0000"),"")</f>
         <v/>
       </c>
       <c r="B71" s="5"/>
@@ -2304,7 +2319,7 @@
     </row>
     <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="12" t="str">
-        <f>IF(G72&lt;&gt;"",UPPER(LEFT(G72,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G72,G72),"0000"),"")</f>
+        <f>IF(G72&lt;&gt;"",UPPER(LEFT(G72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G72,G72),"0000"),"")</f>
         <v/>
       </c>
       <c r="B72" s="5"/>
@@ -2317,7 +2332,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="12" t="str">
-        <f>IF(G73&lt;&gt;"",UPPER(LEFT(G73,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G73,G73),"0000"),"")</f>
+        <f>IF(G73&lt;&gt;"",UPPER(LEFT(G73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G73,G73),"0000"),"")</f>
         <v/>
       </c>
       <c r="B73" s="5"/>
@@ -2330,7 +2345,7 @@
     </row>
     <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="12" t="str">
-        <f>IF(G74&lt;&gt;"",UPPER(LEFT(G74,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G74,G74),"0000"),"")</f>
+        <f>IF(G74&lt;&gt;"",UPPER(LEFT(G74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G74,G74),"0000"),"")</f>
         <v/>
       </c>
       <c r="B74" s="5"/>
@@ -2343,7 +2358,7 @@
     </row>
     <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="12" t="str">
-        <f>IF(G75&lt;&gt;"",UPPER(LEFT(G75,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G75,G75),"0000"),"")</f>
+        <f>IF(G75&lt;&gt;"",UPPER(LEFT(G75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G75,G75),"0000"),"")</f>
         <v/>
       </c>
       <c r="B75" s="5"/>
@@ -2356,7 +2371,7 @@
     </row>
     <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="12" t="str">
-        <f>IF(G76&lt;&gt;"",UPPER(LEFT(G76,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G76,G76),"0000"),"")</f>
+        <f>IF(G76&lt;&gt;"",UPPER(LEFT(G76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G76,G76),"0000"),"")</f>
         <v/>
       </c>
       <c r="B76" s="5"/>
@@ -2369,7 +2384,7 @@
     </row>
     <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="12" t="str">
-        <f>IF(G77&lt;&gt;"",UPPER(LEFT(G77,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G77,G77),"0000"),"")</f>
+        <f>IF(G77&lt;&gt;"",UPPER(LEFT(G77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G77,G77),"0000"),"")</f>
         <v/>
       </c>
       <c r="B77" s="5"/>
@@ -2382,7 +2397,7 @@
     </row>
     <row r="78" customHeight="1" spans="1:8">
       <c r="A78" s="12" t="str">
-        <f>IF(G78&lt;&gt;"",UPPER(LEFT(G78,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G78,G78),"0000"),"")</f>
+        <f>IF(G78&lt;&gt;"",UPPER(LEFT(G78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G78,G78),"0000"),"")</f>
         <v/>
       </c>
       <c r="B78" s="5"/>
@@ -2395,7 +2410,7 @@
     </row>
     <row r="79" customHeight="1" spans="1:8">
       <c r="A79" s="12" t="str">
-        <f>IF(G79&lt;&gt;"",UPPER(LEFT(G79,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G79,G79),"0000"),"")</f>
+        <f>IF(G79&lt;&gt;"",UPPER(LEFT(G79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G79,G79),"0000"),"")</f>
         <v/>
       </c>
       <c r="B79" s="5"/>
@@ -2408,7 +2423,7 @@
     </row>
     <row r="80" customHeight="1" spans="1:8">
       <c r="A80" s="12" t="str">
-        <f>IF(G80&lt;&gt;"",UPPER(LEFT(G80,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G80,G80),"0000"),"")</f>
+        <f>IF(G80&lt;&gt;"",UPPER(LEFT(G80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G80,G80),"0000"),"")</f>
         <v/>
       </c>
       <c r="B80" s="5"/>
@@ -2421,7 +2436,7 @@
     </row>
     <row r="81" customHeight="1" spans="1:8">
       <c r="A81" s="12" t="str">
-        <f>IF(G81&lt;&gt;"",UPPER(LEFT(G81,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G81,G81),"0000"),"")</f>
+        <f>IF(G81&lt;&gt;"",UPPER(LEFT(G81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G81,G81),"0000"),"")</f>
         <v/>
       </c>
       <c r="B81" s="5"/>
@@ -2434,7 +2449,7 @@
     </row>
     <row r="82" customHeight="1" spans="1:8">
       <c r="A82" s="12" t="str">
-        <f>IF(G82&lt;&gt;"",UPPER(LEFT(G82,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G82,G82),"0000"),"")</f>
+        <f>IF(G82&lt;&gt;"",UPPER(LEFT(G82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G82,G82),"0000"),"")</f>
         <v/>
       </c>
       <c r="B82" s="5"/>
@@ -2447,7 +2462,7 @@
     </row>
     <row r="83" customHeight="1" spans="1:8">
       <c r="A83" s="12" t="str">
-        <f>IF(G83&lt;&gt;"",UPPER(LEFT(G83,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G83,G83),"0000"),"")</f>
+        <f>IF(G83&lt;&gt;"",UPPER(LEFT(G83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G83,G83),"0000"),"")</f>
         <v/>
       </c>
       <c r="B83" s="5"/>
@@ -2460,7 +2475,7 @@
     </row>
     <row r="84" customHeight="1" spans="1:8">
       <c r="A84" s="12" t="str">
-        <f>IF(G84&lt;&gt;"",UPPER(LEFT(G84,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G84,G84),"0000"),"")</f>
+        <f>IF(G84&lt;&gt;"",UPPER(LEFT(G84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G84,G84),"0000"),"")</f>
         <v/>
       </c>
       <c r="B84" s="5"/>
@@ -2473,7 +2488,7 @@
     </row>
     <row r="85" customHeight="1" spans="1:8">
       <c r="A85" s="12" t="str">
-        <f>IF(G85&lt;&gt;"",UPPER(LEFT(G85,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G85,G85),"0000"),"")</f>
+        <f>IF(G85&lt;&gt;"",UPPER(LEFT(G85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G85,G85),"0000"),"")</f>
         <v/>
       </c>
       <c r="B85" s="5"/>
@@ -2486,7 +2501,7 @@
     </row>
     <row r="86" customHeight="1" spans="1:8">
       <c r="A86" s="12" t="str">
-        <f>IF(G86&lt;&gt;"",UPPER(LEFT(G86,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G86,G86),"0000"),"")</f>
+        <f>IF(G86&lt;&gt;"",UPPER(LEFT(G86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G86,G86),"0000"),"")</f>
         <v/>
       </c>
       <c r="B86" s="5"/>
@@ -2499,7 +2514,7 @@
     </row>
     <row r="87" customHeight="1" spans="1:8">
       <c r="A87" s="12" t="str">
-        <f>IF(G87&lt;&gt;"",UPPER(LEFT(G87,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G87,G87),"0000"),"")</f>
+        <f>IF(G87&lt;&gt;"",UPPER(LEFT(G87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G87,G87),"0000"),"")</f>
         <v/>
       </c>
       <c r="B87" s="5"/>
@@ -2512,7 +2527,7 @@
     </row>
     <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="12" t="str">
-        <f>IF(G88&lt;&gt;"",UPPER(LEFT(G88,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G88,G88),"0000"),"")</f>
+        <f>IF(G88&lt;&gt;"",UPPER(LEFT(G88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G88,G88),"0000"),"")</f>
         <v/>
       </c>
       <c r="B88" s="5"/>
@@ -2525,7 +2540,7 @@
     </row>
     <row r="89" customHeight="1" spans="1:8">
       <c r="A89" s="12" t="str">
-        <f>IF(G89&lt;&gt;"",UPPER(LEFT(G89,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G89,G89),"0000"),"")</f>
+        <f>IF(G89&lt;&gt;"",UPPER(LEFT(G89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G89,G89),"0000"),"")</f>
         <v/>
       </c>
       <c r="B89" s="5"/>
@@ -2538,7 +2553,7 @@
     </row>
     <row r="90" customHeight="1" spans="1:8">
       <c r="A90" s="12" t="str">
-        <f>IF(G90&lt;&gt;"",UPPER(LEFT(G90,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G90,G90),"0000"),"")</f>
+        <f>IF(G90&lt;&gt;"",UPPER(LEFT(G90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G90,G90),"0000"),"")</f>
         <v/>
       </c>
       <c r="B90" s="5"/>
@@ -2551,7 +2566,7 @@
     </row>
     <row r="91" customHeight="1" spans="1:8">
       <c r="A91" s="12" t="str">
-        <f>IF(G91&lt;&gt;"",UPPER(LEFT(G91,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G91,G91),"0000"),"")</f>
+        <f>IF(G91&lt;&gt;"",UPPER(LEFT(G91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G91,G91),"0000"),"")</f>
         <v/>
       </c>
       <c r="B91" s="5"/>
@@ -2564,7 +2579,7 @@
     </row>
     <row r="92" customHeight="1" spans="1:8">
       <c r="A92" s="12" t="str">
-        <f>IF(G92&lt;&gt;"",UPPER(LEFT(G92,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G92,G92),"0000"),"")</f>
+        <f>IF(G92&lt;&gt;"",UPPER(LEFT(G92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G92,G92),"0000"),"")</f>
         <v/>
       </c>
       <c r="B92" s="5"/>
@@ -2577,7 +2592,7 @@
     </row>
     <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="12" t="str">
-        <f>IF(G93&lt;&gt;"",UPPER(LEFT(G93,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G93,G93),"0000"),"")</f>
+        <f>IF(G93&lt;&gt;"",UPPER(LEFT(G93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G93,G93),"0000"),"")</f>
         <v/>
       </c>
       <c r="B93" s="5"/>
@@ -2590,7 +2605,7 @@
     </row>
     <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="12" t="str">
-        <f>IF(G94&lt;&gt;"",UPPER(LEFT(G94,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G94,G94),"0000"),"")</f>
+        <f>IF(G94&lt;&gt;"",UPPER(LEFT(G94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G94,G94),"0000"),"")</f>
         <v/>
       </c>
       <c r="B94" s="5"/>
@@ -2603,7 +2618,7 @@
     </row>
     <row r="95" customHeight="1" spans="1:8">
       <c r="A95" s="12" t="str">
-        <f>IF(G95&lt;&gt;"",UPPER(LEFT(G95,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G95,G95),"0000"),"")</f>
+        <f>IF(G95&lt;&gt;"",UPPER(LEFT(G95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G95,G95),"0000"),"")</f>
         <v/>
       </c>
       <c r="B95" s="5"/>
@@ -2616,7 +2631,7 @@
     </row>
     <row r="96" customHeight="1" spans="1:8">
       <c r="A96" s="12" t="str">
-        <f>IF(G96&lt;&gt;"",UPPER(LEFT(G96,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G96,G96),"0000"),"")</f>
+        <f>IF(G96&lt;&gt;"",UPPER(LEFT(G96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G96,G96),"0000"),"")</f>
         <v/>
       </c>
       <c r="B96" s="5"/>
@@ -2629,7 +2644,7 @@
     </row>
     <row r="97" customHeight="1" spans="1:8">
       <c r="A97" s="12" t="str">
-        <f>IF(G97&lt;&gt;"",UPPER(LEFT(G97,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G97,G97),"0000"),"")</f>
+        <f>IF(G97&lt;&gt;"",UPPER(LEFT(G97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G97,G97),"0000"),"")</f>
         <v/>
       </c>
       <c r="B97" s="5"/>
@@ -2642,7 +2657,7 @@
     </row>
     <row r="98" customHeight="1" spans="1:8">
       <c r="A98" s="12" t="str">
-        <f>IF(G98&lt;&gt;"",UPPER(LEFT(G98,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G98,G98),"0000"),"")</f>
+        <f>IF(G98&lt;&gt;"",UPPER(LEFT(G98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G98,G98),"0000"),"")</f>
         <v/>
       </c>
       <c r="B98" s="5"/>
@@ -2655,7 +2670,7 @@
     </row>
     <row r="99" customHeight="1" spans="1:8">
       <c r="A99" s="12" t="str">
-        <f>IF(G99&lt;&gt;"",UPPER(LEFT(G99,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G99,G99),"0000"),"")</f>
+        <f>IF(G99&lt;&gt;"",UPPER(LEFT(G99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G99,G99),"0000"),"")</f>
         <v/>
       </c>
       <c r="B99" s="5"/>
@@ -2668,7 +2683,7 @@
     </row>
     <row r="100" customHeight="1" spans="1:8">
       <c r="A100" s="12" t="str">
-        <f>IF(G100&lt;&gt;"",UPPER(LEFT(G100,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G100,G100),"0000"),"")</f>
+        <f>IF(G100&lt;&gt;"",UPPER(LEFT(G100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G100,G100),"0000"),"")</f>
         <v/>
       </c>
       <c r="B100" s="5"/>
@@ -2681,7 +2696,7 @@
     </row>
     <row r="101" customHeight="1" spans="1:8">
       <c r="A101" s="12" t="str">
-        <f>IF(G101&lt;&gt;"",UPPER(LEFT(G101,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G101,G101),"0000"),"")</f>
+        <f>IF(G101&lt;&gt;"",UPPER(LEFT(G101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G101,G101),"0000"),"")</f>
         <v/>
       </c>
       <c r="B101" s="5"/>
@@ -2694,7 +2709,7 @@
     </row>
     <row r="102" customHeight="1" spans="1:8">
       <c r="A102" s="12" t="str">
-        <f>IF(G102&lt;&gt;"",UPPER(LEFT(G102,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G102,G102),"0000"),"")</f>
+        <f>IF(G102&lt;&gt;"",UPPER(LEFT(G102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G102,G102),"0000"),"")</f>
         <v/>
       </c>
       <c r="B102" s="5"/>
@@ -2707,7 +2722,7 @@
     </row>
     <row r="103" customHeight="1" spans="1:8">
       <c r="A103" s="12" t="str">
-        <f>IF(G103&lt;&gt;"",UPPER(LEFT(G103,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G103,G103),"0000"),"")</f>
+        <f>IF(G103&lt;&gt;"",UPPER(LEFT(G103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G103,G103),"0000"),"")</f>
         <v/>
       </c>
       <c r="B103" s="5"/>
@@ -2720,7 +2735,7 @@
     </row>
     <row r="104" customHeight="1" spans="1:8">
       <c r="A104" s="12" t="str">
-        <f>IF(G104&lt;&gt;"",UPPER(LEFT(G104,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G104,G104),"0000"),"")</f>
+        <f>IF(G104&lt;&gt;"",UPPER(LEFT(G104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G104,G104),"0000"),"")</f>
         <v/>
       </c>
       <c r="B104" s="5"/>
@@ -2733,7 +2748,7 @@
     </row>
     <row r="105" customHeight="1" spans="1:8">
       <c r="A105" s="12" t="str">
-        <f>IF(G105&lt;&gt;"",UPPER(LEFT(G105,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G105,G105),"0000"),"")</f>
+        <f>IF(G105&lt;&gt;"",UPPER(LEFT(G105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G105,G105),"0000"),"")</f>
         <v/>
       </c>
       <c r="B105" s="5"/>
@@ -2746,7 +2761,7 @@
     </row>
     <row r="106" customHeight="1" spans="1:8">
       <c r="A106" s="12" t="str">
-        <f>IF(G106&lt;&gt;"",UPPER(LEFT(G106,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G106,G106),"0000"),"")</f>
+        <f>IF(G106&lt;&gt;"",UPPER(LEFT(G106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G106,G106),"0000"),"")</f>
         <v/>
       </c>
       <c r="B106" s="5"/>
@@ -2759,7 +2774,7 @@
     </row>
     <row r="107" customHeight="1" spans="1:8">
       <c r="A107" s="12" t="str">
-        <f>IF(G107&lt;&gt;"",UPPER(LEFT(G107,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G107,G107),"0000"),"")</f>
+        <f>IF(G107&lt;&gt;"",UPPER(LEFT(G107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G107,G107),"0000"),"")</f>
         <v/>
       </c>
       <c r="B107" s="5"/>
@@ -2772,7 +2787,7 @@
     </row>
     <row r="108" customHeight="1" spans="1:8">
       <c r="A108" s="12" t="str">
-        <f>IF(G108&lt;&gt;"",UPPER(LEFT(G108,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G108,G108),"0000"),"")</f>
+        <f>IF(G108&lt;&gt;"",UPPER(LEFT(G108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G108,G108),"0000"),"")</f>
         <v/>
       </c>
       <c r="B108" s="5"/>
@@ -2785,7 +2800,7 @@
     </row>
     <row r="109" customHeight="1" spans="1:8">
       <c r="A109" s="12" t="str">
-        <f>IF(G109&lt;&gt;"",UPPER(LEFT(G109,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G109,G109),"0000"),"")</f>
+        <f>IF(G109&lt;&gt;"",UPPER(LEFT(G109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G109,G109),"0000"),"")</f>
         <v/>
       </c>
       <c r="B109" s="5"/>
@@ -2798,7 +2813,7 @@
     </row>
     <row r="110" customHeight="1" spans="1:8">
       <c r="A110" s="12" t="str">
-        <f>IF(G110&lt;&gt;"",UPPER(LEFT(G110,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G110,G110),"0000"),"")</f>
+        <f>IF(G110&lt;&gt;"",UPPER(LEFT(G110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G110,G110),"0000"),"")</f>
         <v/>
       </c>
       <c r="B110" s="5"/>
@@ -2811,7 +2826,7 @@
     </row>
     <row r="111" customHeight="1" spans="1:8">
       <c r="A111" s="12" t="str">
-        <f>IF(G111&lt;&gt;"",UPPER(LEFT(G111,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G111,G111),"0000"),"")</f>
+        <f>IF(G111&lt;&gt;"",UPPER(LEFT(G111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G111,G111),"0000"),"")</f>
         <v/>
       </c>
       <c r="B111" s="5"/>
@@ -2824,7 +2839,7 @@
     </row>
     <row r="112" customHeight="1" spans="1:8">
       <c r="A112" s="12" t="str">
-        <f>IF(G112&lt;&gt;"",UPPER(LEFT(G112,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G112,G112),"0000"),"")</f>
+        <f>IF(G112&lt;&gt;"",UPPER(LEFT(G112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G112,G112),"0000"),"")</f>
         <v/>
       </c>
       <c r="B112" s="5"/>
@@ -2837,7 +2852,7 @@
     </row>
     <row r="113" customHeight="1" spans="1:8">
       <c r="A113" s="12" t="str">
-        <f>IF(G113&lt;&gt;"",UPPER(LEFT(G113,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G113,G113),"0000"),"")</f>
+        <f>IF(G113&lt;&gt;"",UPPER(LEFT(G113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G113,G113),"0000"),"")</f>
         <v/>
       </c>
       <c r="B113" s="5"/>
@@ -2850,7 +2865,7 @@
     </row>
     <row r="114" customHeight="1" spans="1:8">
       <c r="A114" s="12" t="str">
-        <f>IF(G114&lt;&gt;"",UPPER(LEFT(G114,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G114,G114),"0000"),"")</f>
+        <f>IF(G114&lt;&gt;"",UPPER(LEFT(G114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G114,G114),"0000"),"")</f>
         <v/>
       </c>
       <c r="B114" s="5"/>
@@ -2863,7 +2878,7 @@
     </row>
     <row r="115" customHeight="1" spans="1:8">
       <c r="A115" s="12" t="str">
-        <f>IF(G115&lt;&gt;"",UPPER(LEFT(G115,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G115,G115),"0000"),"")</f>
+        <f>IF(G115&lt;&gt;"",UPPER(LEFT(G115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G115,G115),"0000"),"")</f>
         <v/>
       </c>
       <c r="B115" s="5"/>
@@ -2876,7 +2891,7 @@
     </row>
     <row r="116" customHeight="1" spans="1:8">
       <c r="A116" s="12" t="str">
-        <f>IF(G116&lt;&gt;"",UPPER(LEFT(G116,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G116,G116),"0000"),"")</f>
+        <f>IF(G116&lt;&gt;"",UPPER(LEFT(G116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G116,G116),"0000"),"")</f>
         <v/>
       </c>
       <c r="B116" s="5"/>
@@ -2889,7 +2904,7 @@
     </row>
     <row r="117" customHeight="1" spans="1:8">
       <c r="A117" s="12" t="str">
-        <f>IF(G117&lt;&gt;"",UPPER(LEFT(G117,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G117,G117),"0000"),"")</f>
+        <f>IF(G117&lt;&gt;"",UPPER(LEFT(G117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G117,G117),"0000"),"")</f>
         <v/>
       </c>
       <c r="B117" s="5"/>
@@ -2902,7 +2917,7 @@
     </row>
     <row r="118" customHeight="1" spans="1:8">
       <c r="A118" s="12" t="str">
-        <f>IF(G118&lt;&gt;"",UPPER(LEFT(G118,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G118,G118),"0000"),"")</f>
+        <f>IF(G118&lt;&gt;"",UPPER(LEFT(G118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G118,G118),"0000"),"")</f>
         <v/>
       </c>
       <c r="B118" s="5"/>
@@ -2915,7 +2930,7 @@
     </row>
     <row r="119" customHeight="1" spans="1:8">
       <c r="A119" s="12" t="str">
-        <f>IF(G119&lt;&gt;"",UPPER(LEFT(G119,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G119,G119),"0000"),"")</f>
+        <f>IF(G119&lt;&gt;"",UPPER(LEFT(G119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G119,G119),"0000"),"")</f>
         <v/>
       </c>
       <c r="B119" s="5"/>
@@ -2928,7 +2943,7 @@
     </row>
     <row r="120" customHeight="1" spans="1:8">
       <c r="A120" s="12" t="str">
-        <f>IF(G120&lt;&gt;"",UPPER(LEFT(G120,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G120,G120),"0000"),"")</f>
+        <f>IF(G120&lt;&gt;"",UPPER(LEFT(G120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G120,G120),"0000"),"")</f>
         <v/>
       </c>
       <c r="B120" s="5"/>
@@ -2941,7 +2956,7 @@
     </row>
     <row r="121" customHeight="1" spans="1:8">
       <c r="A121" s="12" t="str">
-        <f>IF(G121&lt;&gt;"",UPPER(LEFT(G121,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G121,G121),"0000"),"")</f>
+        <f>IF(G121&lt;&gt;"",UPPER(LEFT(G121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G121,G121),"0000"),"")</f>
         <v/>
       </c>
       <c r="B121" s="5"/>
@@ -2954,7 +2969,7 @@
     </row>
     <row r="122" customHeight="1" spans="1:8">
       <c r="A122" s="12" t="str">
-        <f>IF(G122&lt;&gt;"",UPPER(LEFT(G122,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G122,G122),"0000"),"")</f>
+        <f>IF(G122&lt;&gt;"",UPPER(LEFT(G122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G122,G122),"0000"),"")</f>
         <v/>
       </c>
       <c r="B122" s="5"/>
@@ -2967,7 +2982,7 @@
     </row>
     <row r="123" customHeight="1" spans="1:8">
       <c r="A123" s="12" t="str">
-        <f>IF(G123&lt;&gt;"",UPPER(LEFT(G123,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G123,G123),"0000"),"")</f>
+        <f>IF(G123&lt;&gt;"",UPPER(LEFT(G123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G123,G123),"0000"),"")</f>
         <v/>
       </c>
       <c r="B123" s="5"/>
@@ -2980,7 +2995,7 @@
     </row>
     <row r="124" customHeight="1" spans="1:8">
       <c r="A124" s="12" t="str">
-        <f>IF(G124&lt;&gt;"",UPPER(LEFT(G124,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G124,G124),"0000"),"")</f>
+        <f>IF(G124&lt;&gt;"",UPPER(LEFT(G124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G124,G124),"0000"),"")</f>
         <v/>
       </c>
       <c r="B124" s="5"/>
@@ -2993,7 +3008,7 @@
     </row>
     <row r="125" customHeight="1" spans="1:8">
       <c r="A125" s="12" t="str">
-        <f>IF(G125&lt;&gt;"",UPPER(LEFT(G125,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G125,G125),"0000"),"")</f>
+        <f>IF(G125&lt;&gt;"",UPPER(LEFT(G125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G125,G125),"0000"),"")</f>
         <v/>
       </c>
       <c r="B125" s="5"/>
@@ -3006,7 +3021,7 @@
     </row>
     <row r="126" customHeight="1" spans="1:8">
       <c r="A126" s="12" t="str">
-        <f>IF(G126&lt;&gt;"",UPPER(LEFT(G126,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G126,G126),"0000"),"")</f>
+        <f>IF(G126&lt;&gt;"",UPPER(LEFT(G126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G126,G126),"0000"),"")</f>
         <v/>
       </c>
       <c r="B126" s="5"/>
@@ -3019,7 +3034,7 @@
     </row>
     <row r="127" customHeight="1" spans="1:8">
       <c r="A127" s="12" t="str">
-        <f>IF(G127&lt;&gt;"",UPPER(LEFT(G127,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G127,G127),"0000"),"")</f>
+        <f>IF(G127&lt;&gt;"",UPPER(LEFT(G127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G127,G127),"0000"),"")</f>
         <v/>
       </c>
       <c r="B127" s="5"/>
@@ -3032,7 +3047,7 @@
     </row>
     <row r="128" customHeight="1" spans="1:8">
       <c r="A128" s="12" t="str">
-        <f>IF(G128&lt;&gt;"",UPPER(LEFT(G128,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G128,G128),"0000"),"")</f>
+        <f>IF(G128&lt;&gt;"",UPPER(LEFT(G128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G128,G128),"0000"),"")</f>
         <v/>
       </c>
       <c r="B128" s="5"/>
@@ -3045,7 +3060,7 @@
     </row>
     <row r="129" customHeight="1" spans="1:8">
       <c r="A129" s="12" t="str">
-        <f>IF(G129&lt;&gt;"",UPPER(LEFT(G129,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G129,G129),"0000"),"")</f>
+        <f>IF(G129&lt;&gt;"",UPPER(LEFT(G129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G129,G129),"0000"),"")</f>
         <v/>
       </c>
       <c r="B129" s="5"/>
@@ -3058,7 +3073,7 @@
     </row>
     <row r="130" customHeight="1" spans="1:8">
       <c r="A130" s="12" t="str">
-        <f>IF(G130&lt;&gt;"",UPPER(LEFT(G130,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G130,G130),"0000"),"")</f>
+        <f>IF(G130&lt;&gt;"",UPPER(LEFT(G130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G130,G130),"0000"),"")</f>
         <v/>
       </c>
       <c r="B130" s="5"/>
@@ -3071,7 +3086,7 @@
     </row>
     <row r="131" customHeight="1" spans="1:8">
       <c r="A131" s="12" t="str">
-        <f>IF(G131&lt;&gt;"",UPPER(LEFT(G131,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G131,G131),"0000"),"")</f>
+        <f>IF(G131&lt;&gt;"",UPPER(LEFT(G131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G131,G131),"0000"),"")</f>
         <v/>
       </c>
       <c r="B131" s="5"/>
@@ -3084,7 +3099,7 @@
     </row>
     <row r="132" customHeight="1" spans="1:8">
       <c r="A132" s="12" t="str">
-        <f>IF(G132&lt;&gt;"",UPPER(LEFT(G132,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G132,G132),"0000"),"")</f>
+        <f>IF(G132&lt;&gt;"",UPPER(LEFT(G132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G132,G132),"0000"),"")</f>
         <v/>
       </c>
       <c r="B132" s="5"/>
@@ -3097,7 +3112,7 @@
     </row>
     <row r="133" customHeight="1" spans="1:8">
       <c r="A133" s="12" t="str">
-        <f>IF(G133&lt;&gt;"",UPPER(LEFT(G133,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G133,G133),"0000"),"")</f>
+        <f>IF(G133&lt;&gt;"",UPPER(LEFT(G133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G133,G133),"0000"),"")</f>
         <v/>
       </c>
       <c r="B133" s="5"/>
@@ -3110,7 +3125,7 @@
     </row>
     <row r="134" customHeight="1" spans="1:8">
       <c r="A134" s="12" t="str">
-        <f>IF(G134&lt;&gt;"",UPPER(LEFT(G134,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G134,G134),"0000"),"")</f>
+        <f>IF(G134&lt;&gt;"",UPPER(LEFT(G134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G134,G134),"0000"),"")</f>
         <v/>
       </c>
       <c r="B134" s="5"/>
@@ -3123,7 +3138,7 @@
     </row>
     <row r="135" customHeight="1" spans="1:8">
       <c r="A135" s="12" t="str">
-        <f>IF(G135&lt;&gt;"",UPPER(LEFT(G135,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G135,G135),"0000"),"")</f>
+        <f>IF(G135&lt;&gt;"",UPPER(LEFT(G135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G135,G135),"0000"),"")</f>
         <v/>
       </c>
       <c r="B135" s="5"/>
@@ -3136,7 +3151,7 @@
     </row>
     <row r="136" customHeight="1" spans="1:8">
       <c r="A136" s="12" t="str">
-        <f>IF(G136&lt;&gt;"",UPPER(LEFT(G136,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G136,G136),"0000"),"")</f>
+        <f>IF(G136&lt;&gt;"",UPPER(LEFT(G136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G136,G136),"0000"),"")</f>
         <v/>
       </c>
       <c r="B136" s="5"/>
@@ -3149,7 +3164,7 @@
     </row>
     <row r="137" customHeight="1" spans="1:8">
       <c r="A137" s="12" t="str">
-        <f>IF(G137&lt;&gt;"",UPPER(LEFT(G137,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G137,G137),"0000"),"")</f>
+        <f>IF(G137&lt;&gt;"",UPPER(LEFT(G137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G137,G137),"0000"),"")</f>
         <v/>
       </c>
       <c r="B137" s="5"/>
@@ -3162,7 +3177,7 @@
     </row>
     <row r="138" customHeight="1" spans="1:8">
       <c r="A138" s="12" t="str">
-        <f>IF(G138&lt;&gt;"",UPPER(LEFT(G138,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G138,G138),"0000"),"")</f>
+        <f>IF(G138&lt;&gt;"",UPPER(LEFT(G138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G138,G138),"0000"),"")</f>
         <v/>
       </c>
       <c r="B138" s="5"/>
@@ -3175,7 +3190,7 @@
     </row>
     <row r="139" customHeight="1" spans="1:8">
       <c r="A139" s="12" t="str">
-        <f>IF(G139&lt;&gt;"",UPPER(LEFT(G139,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G139,G139),"0000"),"")</f>
+        <f>IF(G139&lt;&gt;"",UPPER(LEFT(G139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G139,G139),"0000"),"")</f>
         <v/>
       </c>
       <c r="B139" s="5"/>
@@ -3188,7 +3203,7 @@
     </row>
     <row r="140" customHeight="1" spans="1:8">
       <c r="A140" s="12" t="str">
-        <f>IF(G140&lt;&gt;"",UPPER(LEFT(G140,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G140,G140),"0000"),"")</f>
+        <f>IF(G140&lt;&gt;"",UPPER(LEFT(G140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G140,G140),"0000"),"")</f>
         <v/>
       </c>
       <c r="B140" s="5"/>
@@ -3201,7 +3216,7 @@
     </row>
     <row r="141" customHeight="1" spans="1:8">
       <c r="A141" s="12" t="str">
-        <f>IF(G141&lt;&gt;"",UPPER(LEFT(G141,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G141,G141),"0000"),"")</f>
+        <f>IF(G141&lt;&gt;"",UPPER(LEFT(G141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G141,G141),"0000"),"")</f>
         <v/>
       </c>
       <c r="B141" s="5"/>
@@ -3214,7 +3229,7 @@
     </row>
     <row r="142" customHeight="1" spans="1:8">
       <c r="A142" s="12" t="str">
-        <f>IF(G142&lt;&gt;"",UPPER(LEFT(G142,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G142,G142),"0000"),"")</f>
+        <f>IF(G142&lt;&gt;"",UPPER(LEFT(G142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G142,G142),"0000"),"")</f>
         <v/>
       </c>
       <c r="B142" s="5"/>
@@ -3227,7 +3242,7 @@
     </row>
     <row r="143" customHeight="1" spans="1:8">
       <c r="A143" s="12" t="str">
-        <f>IF(G143&lt;&gt;"",UPPER(LEFT(G143,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G143,G143),"0000"),"")</f>
+        <f>IF(G143&lt;&gt;"",UPPER(LEFT(G143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G143,G143),"0000"),"")</f>
         <v/>
       </c>
       <c r="B143" s="5"/>
@@ -3240,7 +3255,7 @@
     </row>
     <row r="144" customHeight="1" spans="1:8">
       <c r="A144" s="12" t="str">
-        <f>IF(G144&lt;&gt;"",UPPER(LEFT(G144,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G144,G144),"0000"),"")</f>
+        <f>IF(G144&lt;&gt;"",UPPER(LEFT(G144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G144,G144),"0000"),"")</f>
         <v/>
       </c>
       <c r="B144" s="5"/>
@@ -3253,7 +3268,7 @@
     </row>
     <row r="145" customHeight="1" spans="1:8">
       <c r="A145" s="12" t="str">
-        <f>IF(G145&lt;&gt;"",UPPER(LEFT(G145,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G145,G145),"0000"),"")</f>
+        <f>IF(G145&lt;&gt;"",UPPER(LEFT(G145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G145,G145),"0000"),"")</f>
         <v/>
       </c>
       <c r="B145" s="5"/>
@@ -3266,7 +3281,7 @@
     </row>
     <row r="146" customHeight="1" spans="1:8">
       <c r="A146" s="12" t="str">
-        <f>IF(G146&lt;&gt;"",UPPER(LEFT(G146,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G146,G146),"0000"),"")</f>
+        <f>IF(G146&lt;&gt;"",UPPER(LEFT(G146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G146,G146),"0000"),"")</f>
         <v/>
       </c>
       <c r="B146" s="5"/>
@@ -3279,7 +3294,7 @@
     </row>
     <row r="147" customHeight="1" spans="1:8">
       <c r="A147" s="12" t="str">
-        <f>IF(G147&lt;&gt;"",UPPER(LEFT(G147,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G147,G147),"0000"),"")</f>
+        <f>IF(G147&lt;&gt;"",UPPER(LEFT(G147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G147,G147),"0000"),"")</f>
         <v/>
       </c>
       <c r="B147" s="5"/>
@@ -3292,7 +3307,7 @@
     </row>
     <row r="148" customHeight="1" spans="1:8">
       <c r="A148" s="12" t="str">
-        <f>IF(G148&lt;&gt;"",UPPER(LEFT(G148,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G148,G148),"0000"),"")</f>
+        <f>IF(G148&lt;&gt;"",UPPER(LEFT(G148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G148,G148),"0000"),"")</f>
         <v/>
       </c>
       <c r="B148" s="5"/>
@@ -3305,7 +3320,7 @@
     </row>
     <row r="149" customHeight="1" spans="1:8">
       <c r="A149" s="12" t="str">
-        <f>IF(G149&lt;&gt;"",UPPER(LEFT(G149,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G149,G149),"0000"),"")</f>
+        <f>IF(G149&lt;&gt;"",UPPER(LEFT(G149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G149,G149),"0000"),"")</f>
         <v/>
       </c>
       <c r="B149" s="5"/>
@@ -3318,7 +3333,7 @@
     </row>
     <row r="150" customHeight="1" spans="1:8">
       <c r="A150" s="12" t="str">
-        <f>IF(G150&lt;&gt;"",UPPER(LEFT(G150,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G150,G150),"0000"),"")</f>
+        <f>IF(G150&lt;&gt;"",UPPER(LEFT(G150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G150,G150),"0000"),"")</f>
         <v/>
       </c>
       <c r="B150" s="5"/>
@@ -3331,7 +3346,7 @@
     </row>
     <row r="151" customHeight="1" spans="1:8">
       <c r="A151" s="12" t="str">
-        <f>IF(G151&lt;&gt;"",UPPER(LEFT(G151,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G151,G151),"0000"),"")</f>
+        <f>IF(G151&lt;&gt;"",UPPER(LEFT(G151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G151,G151),"0000"),"")</f>
         <v/>
       </c>
       <c r="B151" s="5"/>
@@ -3344,7 +3359,7 @@
     </row>
     <row r="152" customHeight="1" spans="1:8">
       <c r="A152" s="12" t="str">
-        <f>IF(G152&lt;&gt;"",UPPER(LEFT(G152,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G152,G152),"0000"),"")</f>
+        <f>IF(G152&lt;&gt;"",UPPER(LEFT(G152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G152,G152),"0000"),"")</f>
         <v/>
       </c>
       <c r="B152" s="5"/>
@@ -3357,7 +3372,7 @@
     </row>
     <row r="153" customHeight="1" spans="1:8">
       <c r="A153" s="12" t="str">
-        <f>IF(G153&lt;&gt;"",UPPER(LEFT(G153,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G153,G153),"0000"),"")</f>
+        <f>IF(G153&lt;&gt;"",UPPER(LEFT(G153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G153,G153),"0000"),"")</f>
         <v/>
       </c>
       <c r="B153" s="5"/>
@@ -3370,7 +3385,7 @@
     </row>
     <row r="154" customHeight="1" spans="1:8">
       <c r="A154" s="12" t="str">
-        <f>IF(G154&lt;&gt;"",UPPER(LEFT(G154,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G154,G154),"0000"),"")</f>
+        <f>IF(G154&lt;&gt;"",UPPER(LEFT(G154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G154,G154),"0000"),"")</f>
         <v/>
       </c>
       <c r="B154" s="5"/>
@@ -3383,7 +3398,7 @@
     </row>
     <row r="155" customHeight="1" spans="1:8">
       <c r="A155" s="12" t="str">
-        <f>IF(G155&lt;&gt;"",UPPER(LEFT(G155,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G155,G155),"0000"),"")</f>
+        <f>IF(G155&lt;&gt;"",UPPER(LEFT(G155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G155,G155),"0000"),"")</f>
         <v/>
       </c>
       <c r="B155" s="5"/>
@@ -3396,7 +3411,7 @@
     </row>
     <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="12" t="str">
-        <f>IF(G156&lt;&gt;"",UPPER(LEFT(G156,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G156,G156),"0000"),"")</f>
+        <f>IF(G156&lt;&gt;"",UPPER(LEFT(G156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G156,G156),"0000"),"")</f>
         <v/>
       </c>
       <c r="B156" s="5"/>
@@ -3409,7 +3424,7 @@
     </row>
     <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="12" t="str">
-        <f>IF(G157&lt;&gt;"",UPPER(LEFT(G157,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G157,G157),"0000"),"")</f>
+        <f>IF(G157&lt;&gt;"",UPPER(LEFT(G157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G157,G157),"0000"),"")</f>
         <v/>
       </c>
       <c r="B157" s="5"/>
@@ -3422,7 +3437,7 @@
     </row>
     <row r="158" customHeight="1" spans="1:8">
       <c r="A158" s="12" t="str">
-        <f>IF(G158&lt;&gt;"",UPPER(LEFT(G158,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G158,G158),"0000"),"")</f>
+        <f>IF(G158&lt;&gt;"",UPPER(LEFT(G158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G158,G158),"0000"),"")</f>
         <v/>
       </c>
       <c r="B158" s="5"/>
@@ -3435,7 +3450,7 @@
     </row>
     <row r="159" customHeight="1" spans="1:8">
       <c r="A159" s="12" t="str">
-        <f>IF(G159&lt;&gt;"",UPPER(LEFT(G159,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G159,G159),"0000"),"")</f>
+        <f>IF(G159&lt;&gt;"",UPPER(LEFT(G159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G159,G159),"0000"),"")</f>
         <v/>
       </c>
       <c r="B159" s="5"/>
@@ -3448,7 +3463,7 @@
     </row>
     <row r="160" customHeight="1" spans="1:8">
       <c r="A160" s="12" t="str">
-        <f>IF(G160&lt;&gt;"",UPPER(LEFT(G160,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G160,G160),"0000"),"")</f>
+        <f>IF(G160&lt;&gt;"",UPPER(LEFT(G160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G160,G160),"0000"),"")</f>
         <v/>
       </c>
       <c r="B160" s="5"/>
@@ -3461,7 +3476,7 @@
     </row>
     <row r="161" customHeight="1" spans="1:8">
       <c r="A161" s="12" t="str">
-        <f>IF(G161&lt;&gt;"",UPPER(LEFT(G161,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G161,G161),"0000"),"")</f>
+        <f>IF(G161&lt;&gt;"",UPPER(LEFT(G161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G161,G161),"0000"),"")</f>
         <v/>
       </c>
       <c r="B161" s="5"/>
@@ -3474,7 +3489,7 @@
     </row>
     <row r="162" customHeight="1" spans="1:8">
       <c r="A162" s="12" t="str">
-        <f>IF(G162&lt;&gt;"",UPPER(LEFT(G162,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G162,G162),"0000"),"")</f>
+        <f>IF(G162&lt;&gt;"",UPPER(LEFT(G162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G162,G162),"0000"),"")</f>
         <v/>
       </c>
       <c r="B162" s="5"/>
@@ -3487,7 +3502,7 @@
     </row>
     <row r="163" customHeight="1" spans="1:8">
       <c r="A163" s="12" t="str">
-        <f>IF(G163&lt;&gt;"",UPPER(LEFT(G163,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G163,G163),"0000"),"")</f>
+        <f>IF(G163&lt;&gt;"",UPPER(LEFT(G163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G163,G163),"0000"),"")</f>
         <v/>
       </c>
       <c r="B163" s="5"/>
@@ -3500,7 +3515,7 @@
     </row>
     <row r="164" customHeight="1" spans="1:8">
       <c r="A164" s="12" t="str">
-        <f>IF(G164&lt;&gt;"",UPPER(LEFT(G164,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G164,G164),"0000"),"")</f>
+        <f>IF(G164&lt;&gt;"",UPPER(LEFT(G164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G164,G164),"0000"),"")</f>
         <v/>
       </c>
       <c r="B164" s="5"/>
@@ -3513,7 +3528,7 @@
     </row>
     <row r="165" customHeight="1" spans="1:8">
       <c r="A165" s="12" t="str">
-        <f>IF(G165&lt;&gt;"",UPPER(LEFT(G165,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G165,G165),"0000"),"")</f>
+        <f>IF(G165&lt;&gt;"",UPPER(LEFT(G165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G165,G165),"0000"),"")</f>
         <v/>
       </c>
       <c r="B165" s="5"/>
@@ -3526,7 +3541,7 @@
     </row>
     <row r="166" customHeight="1" spans="1:8">
       <c r="A166" s="12" t="str">
-        <f>IF(G166&lt;&gt;"",UPPER(LEFT(G166,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G166,G166),"0000"),"")</f>
+        <f>IF(G166&lt;&gt;"",UPPER(LEFT(G166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G166,G166),"0000"),"")</f>
         <v/>
       </c>
       <c r="B166" s="5"/>
@@ -3539,7 +3554,7 @@
     </row>
     <row r="167" customHeight="1" spans="1:8">
       <c r="A167" s="12" t="str">
-        <f>IF(G167&lt;&gt;"",UPPER(LEFT(G167,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G167,G167),"0000"),"")</f>
+        <f>IF(G167&lt;&gt;"",UPPER(LEFT(G167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G167,G167),"0000"),"")</f>
         <v/>
       </c>
       <c r="B167" s="5"/>
@@ -3552,7 +3567,7 @@
     </row>
     <row r="168" customHeight="1" spans="1:8">
       <c r="A168" s="12" t="str">
-        <f>IF(G168&lt;&gt;"",UPPER(LEFT(G168,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G168,G168),"0000"),"")</f>
+        <f>IF(G168&lt;&gt;"",UPPER(LEFT(G168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G168,G168),"0000"),"")</f>
         <v/>
       </c>
       <c r="B168" s="5"/>
@@ -3565,7 +3580,7 @@
     </row>
     <row r="169" customHeight="1" spans="1:8">
       <c r="A169" s="12" t="str">
-        <f>IF(G169&lt;&gt;"",UPPER(LEFT(G169,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G169,G169),"0000"),"")</f>
+        <f>IF(G169&lt;&gt;"",UPPER(LEFT(G169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G169,G169),"0000"),"")</f>
         <v/>
       </c>
       <c r="B169" s="5"/>
@@ -3578,7 +3593,7 @@
     </row>
     <row r="170" customHeight="1" spans="1:8">
       <c r="A170" s="12" t="str">
-        <f>IF(G170&lt;&gt;"",UPPER(LEFT(G170,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G170,G170),"0000"),"")</f>
+        <f>IF(G170&lt;&gt;"",UPPER(LEFT(G170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G170,G170),"0000"),"")</f>
         <v/>
       </c>
       <c r="B170" s="5"/>
@@ -3591,7 +3606,7 @@
     </row>
     <row r="171" customHeight="1" spans="1:8">
       <c r="A171" s="12" t="str">
-        <f>IF(G171&lt;&gt;"",UPPER(LEFT(G171,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G171,G171),"0000"),"")</f>
+        <f>IF(G171&lt;&gt;"",UPPER(LEFT(G171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G171,G171),"0000"),"")</f>
         <v/>
       </c>
       <c r="B171" s="5"/>
@@ -3604,7 +3619,7 @@
     </row>
     <row r="172" customHeight="1" spans="1:8">
       <c r="A172" s="12" t="str">
-        <f>IF(G172&lt;&gt;"",UPPER(LEFT(G172,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G172,G172),"0000"),"")</f>
+        <f>IF(G172&lt;&gt;"",UPPER(LEFT(G172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G172,G172),"0000"),"")</f>
         <v/>
       </c>
       <c r="B172" s="5"/>
@@ -3617,7 +3632,7 @@
     </row>
     <row r="173" customHeight="1" spans="1:8">
       <c r="A173" s="12" t="str">
-        <f>IF(G173&lt;&gt;"",UPPER(LEFT(G173,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G173,G173),"0000"),"")</f>
+        <f>IF(G173&lt;&gt;"",UPPER(LEFT(G173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G173,G173),"0000"),"")</f>
         <v/>
       </c>
       <c r="B173" s="5"/>
@@ -3630,7 +3645,7 @@
     </row>
     <row r="174" customHeight="1" spans="1:8">
       <c r="A174" s="12" t="str">
-        <f>IF(G174&lt;&gt;"",UPPER(LEFT(G174,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G174,G174),"0000"),"")</f>
+        <f>IF(G174&lt;&gt;"",UPPER(LEFT(G174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G174,G174),"0000"),"")</f>
         <v/>
       </c>
       <c r="B174" s="5"/>
@@ -3643,7 +3658,7 @@
     </row>
     <row r="175" customHeight="1" spans="1:8">
       <c r="A175" s="12" t="str">
-        <f>IF(G175&lt;&gt;"",UPPER(LEFT(G175,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G175,G175),"0000"),"")</f>
+        <f>IF(G175&lt;&gt;"",UPPER(LEFT(G175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G175,G175),"0000"),"")</f>
         <v/>
       </c>
       <c r="B175" s="5"/>
@@ -3656,7 +3671,7 @@
     </row>
     <row r="176" customHeight="1" spans="1:8">
       <c r="A176" s="12" t="str">
-        <f>IF(G176&lt;&gt;"",UPPER(LEFT(G176,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G176,G176),"0000"),"")</f>
+        <f>IF(G176&lt;&gt;"",UPPER(LEFT(G176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G176,G176),"0000"),"")</f>
         <v/>
       </c>
       <c r="B176" s="5"/>
@@ -3669,7 +3684,7 @@
     </row>
     <row r="177" customHeight="1" spans="1:8">
       <c r="A177" s="12" t="str">
-        <f>IF(G177&lt;&gt;"",UPPER(LEFT(G177,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G177,G177),"0000"),"")</f>
+        <f>IF(G177&lt;&gt;"",UPPER(LEFT(G177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G177,G177),"0000"),"")</f>
         <v/>
       </c>
       <c r="B177" s="5"/>
@@ -3682,7 +3697,7 @@
     </row>
     <row r="178" customHeight="1" spans="1:8">
       <c r="A178" s="12" t="str">
-        <f>IF(G178&lt;&gt;"",UPPER(LEFT(G178,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G178,G178),"0000"),"")</f>
+        <f>IF(G178&lt;&gt;"",UPPER(LEFT(G178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G178,G178),"0000"),"")</f>
         <v/>
       </c>
       <c r="B178" s="5"/>
@@ -3695,7 +3710,7 @@
     </row>
     <row r="179" customHeight="1" spans="1:8">
       <c r="A179" s="12" t="str">
-        <f>IF(G179&lt;&gt;"",UPPER(LEFT(G179,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G179,G179),"0000"),"")</f>
+        <f>IF(G179&lt;&gt;"",UPPER(LEFT(G179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G179,G179),"0000"),"")</f>
         <v/>
       </c>
       <c r="B179" s="5"/>
@@ -3708,7 +3723,7 @@
     </row>
     <row r="180" customHeight="1" spans="1:8">
       <c r="A180" s="12" t="str">
-        <f>IF(G180&lt;&gt;"",UPPER(LEFT(G180,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G180,G180),"0000"),"")</f>
+        <f>IF(G180&lt;&gt;"",UPPER(LEFT(G180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G180,G180),"0000"),"")</f>
         <v/>
       </c>
       <c r="B180" s="5"/>
@@ -3721,7 +3736,7 @@
     </row>
     <row r="181" customHeight="1" spans="1:8">
       <c r="A181" s="12" t="str">
-        <f>IF(G181&lt;&gt;"",UPPER(LEFT(G181,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G181,G181),"0000"),"")</f>
+        <f>IF(G181&lt;&gt;"",UPPER(LEFT(G181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G181,G181),"0000"),"")</f>
         <v/>
       </c>
       <c r="B181" s="5"/>
@@ -3734,7 +3749,7 @@
     </row>
     <row r="182" customHeight="1" spans="1:8">
       <c r="A182" s="12" t="str">
-        <f>IF(G182&lt;&gt;"",UPPER(LEFT(G182,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G182,G182),"0000"),"")</f>
+        <f>IF(G182&lt;&gt;"",UPPER(LEFT(G182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G182,G182),"0000"),"")</f>
         <v/>
       </c>
       <c r="B182" s="5"/>
@@ -3747,7 +3762,7 @@
     </row>
     <row r="183" customHeight="1" spans="1:8">
       <c r="A183" s="12" t="str">
-        <f>IF(G183&lt;&gt;"",UPPER(LEFT(G183,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G183,G183),"0000"),"")</f>
+        <f>IF(G183&lt;&gt;"",UPPER(LEFT(G183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G183,G183),"0000"),"")</f>
         <v/>
       </c>
       <c r="B183" s="5"/>
@@ -3760,7 +3775,7 @@
     </row>
     <row r="184" customHeight="1" spans="1:8">
       <c r="A184" s="12" t="str">
-        <f>IF(G184&lt;&gt;"",UPPER(LEFT(G184,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G184,G184),"0000"),"")</f>
+        <f>IF(G184&lt;&gt;"",UPPER(LEFT(G184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G184,G184),"0000"),"")</f>
         <v/>
       </c>
       <c r="B184" s="5"/>
@@ -3773,7 +3788,7 @@
     </row>
     <row r="185" customHeight="1" spans="1:8">
       <c r="A185" s="12" t="str">
-        <f>IF(G185&lt;&gt;"",UPPER(LEFT(G185,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G185,G185),"0000"),"")</f>
+        <f>IF(G185&lt;&gt;"",UPPER(LEFT(G185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G185,G185),"0000"),"")</f>
         <v/>
       </c>
       <c r="B185" s="5"/>
@@ -3786,7 +3801,7 @@
     </row>
     <row r="186" customHeight="1" spans="1:8">
       <c r="A186" s="12" t="str">
-        <f>IF(G186&lt;&gt;"",UPPER(LEFT(G186,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G186,G186),"0000"),"")</f>
+        <f>IF(G186&lt;&gt;"",UPPER(LEFT(G186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G186,G186),"0000"),"")</f>
         <v/>
       </c>
       <c r="B186" s="5"/>
@@ -3799,7 +3814,7 @@
     </row>
     <row r="187" customHeight="1" spans="1:8">
       <c r="A187" s="12" t="str">
-        <f>IF(G187&lt;&gt;"",UPPER(LEFT(G187,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G187,G187),"0000"),"")</f>
+        <f>IF(G187&lt;&gt;"",UPPER(LEFT(G187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G187,G187),"0000"),"")</f>
         <v/>
       </c>
       <c r="B187" s="5"/>
@@ -3812,7 +3827,7 @@
     </row>
     <row r="188" customHeight="1" spans="1:8">
       <c r="A188" s="12" t="str">
-        <f>IF(G188&lt;&gt;"",UPPER(LEFT(G188,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G188,G188),"0000"),"")</f>
+        <f>IF(G188&lt;&gt;"",UPPER(LEFT(G188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G188,G188),"0000"),"")</f>
         <v/>
       </c>
       <c r="B188" s="5"/>
@@ -3825,7 +3840,7 @@
     </row>
     <row r="189" customHeight="1" spans="1:8">
       <c r="A189" s="12" t="str">
-        <f>IF(G189&lt;&gt;"",UPPER(LEFT(G189,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G189,G189),"0000"),"")</f>
+        <f>IF(G189&lt;&gt;"",UPPER(LEFT(G189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G189,G189),"0000"),"")</f>
         <v/>
       </c>
       <c r="B189" s="5"/>
@@ -3838,7 +3853,7 @@
     </row>
     <row r="190" customHeight="1" spans="1:8">
       <c r="A190" s="12" t="str">
-        <f>IF(G190&lt;&gt;"",UPPER(LEFT(G190,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G190,G190),"0000"),"")</f>
+        <f>IF(G190&lt;&gt;"",UPPER(LEFT(G190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G190,G190),"0000"),"")</f>
         <v/>
       </c>
       <c r="B190" s="5"/>
@@ -3851,7 +3866,7 @@
     </row>
     <row r="191" customHeight="1" spans="1:8">
       <c r="A191" s="12" t="str">
-        <f>IF(G191&lt;&gt;"",UPPER(LEFT(G191,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G191,G191),"0000"),"")</f>
+        <f>IF(G191&lt;&gt;"",UPPER(LEFT(G191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G191,G191),"0000"),"")</f>
         <v/>
       </c>
       <c r="B191" s="5"/>
@@ -3864,7 +3879,7 @@
     </row>
     <row r="192" customHeight="1" spans="1:8">
       <c r="A192" s="12" t="str">
-        <f>IF(G192&lt;&gt;"",UPPER(LEFT(G192,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G192,G192),"0000"),"")</f>
+        <f>IF(G192&lt;&gt;"",UPPER(LEFT(G192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G192,G192),"0000"),"")</f>
         <v/>
       </c>
       <c r="B192" s="5"/>
@@ -3877,7 +3892,7 @@
     </row>
     <row r="193" customHeight="1" spans="1:8">
       <c r="A193" s="12" t="str">
-        <f>IF(G193&lt;&gt;"",UPPER(LEFT(G193,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G193,G193),"0000"),"")</f>
+        <f>IF(G193&lt;&gt;"",UPPER(LEFT(G193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G193,G193),"0000"),"")</f>
         <v/>
       </c>
       <c r="B193" s="5"/>
@@ -3890,7 +3905,7 @@
     </row>
     <row r="194" customHeight="1" spans="1:8">
       <c r="A194" s="12" t="str">
-        <f>IF(G194&lt;&gt;"",UPPER(LEFT(G194,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G194,G194),"0000"),"")</f>
+        <f>IF(G194&lt;&gt;"",UPPER(LEFT(G194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G194,G194),"0000"),"")</f>
         <v/>
       </c>
       <c r="B194" s="5"/>
@@ -3903,7 +3918,7 @@
     </row>
     <row r="195" customHeight="1" spans="1:8">
       <c r="A195" s="12" t="str">
-        <f>IF(G195&lt;&gt;"",UPPER(LEFT(G195,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G195,G195),"0000"),"")</f>
+        <f>IF(G195&lt;&gt;"",UPPER(LEFT(G195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G195,G195),"0000"),"")</f>
         <v/>
       </c>
       <c r="B195" s="5"/>
@@ -3916,7 +3931,7 @@
     </row>
     <row r="196" customHeight="1" spans="1:8">
       <c r="A196" s="12" t="str">
-        <f>IF(G196&lt;&gt;"",UPPER(LEFT(G196,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G196,G196),"0000"),"")</f>
+        <f>IF(G196&lt;&gt;"",UPPER(LEFT(G196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G196,G196),"0000"),"")</f>
         <v/>
       </c>
       <c r="B196" s="5"/>
@@ -3929,7 +3944,7 @@
     </row>
     <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="12" t="str">
-        <f>IF(G197&lt;&gt;"",UPPER(LEFT(G197,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G197,G197),"0000"),"")</f>
+        <f>IF(G197&lt;&gt;"",UPPER(LEFT(G197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G197,G197),"0000"),"")</f>
         <v/>
       </c>
       <c r="B197" s="5"/>
@@ -3942,7 +3957,7 @@
     </row>
     <row r="198" customHeight="1" spans="1:8">
       <c r="A198" s="12" t="str">
-        <f>IF(G198&lt;&gt;"",UPPER(LEFT(G198,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G198,G198),"0000"),"")</f>
+        <f>IF(G198&lt;&gt;"",UPPER(LEFT(G198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G198,G198),"0000"),"")</f>
         <v/>
       </c>
       <c r="B198" s="5"/>
@@ -3955,7 +3970,7 @@
     </row>
     <row r="199" customHeight="1" spans="1:8">
       <c r="A199" s="12" t="str">
-        <f>IF(G199&lt;&gt;"",UPPER(LEFT(G199,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G199,G199),"0000"),"")</f>
+        <f>IF(G199&lt;&gt;"",UPPER(LEFT(G199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G199,G199),"0000"),"")</f>
         <v/>
       </c>
       <c r="B199" s="5"/>
@@ -3968,7 +3983,7 @@
     </row>
     <row r="200" customHeight="1" spans="1:8">
       <c r="A200" s="12" t="str">
-        <f>IF(G200&lt;&gt;"",UPPER(LEFT(G200,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G200,G200),"0000"),"")</f>
+        <f>IF(G200&lt;&gt;"",UPPER(LEFT(G200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G200,G200),"0000"),"")</f>
         <v/>
       </c>
       <c r="B200" s="5"/>
@@ -3981,7 +3996,7 @@
     </row>
     <row r="201" customHeight="1" spans="1:8">
       <c r="A201" s="12" t="str">
-        <f>IF(G201&lt;&gt;"",UPPER(LEFT(G201,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G201,G201),"0000"),"")</f>
+        <f>IF(G201&lt;&gt;"",UPPER(LEFT(G201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G201,G201),"0000"),"")</f>
         <v/>
       </c>
       <c r="B201" s="5"/>
@@ -3994,7 +4009,7 @@
     </row>
     <row r="202" customHeight="1" spans="1:8">
       <c r="A202" s="12" t="str">
-        <f>IF(G202&lt;&gt;"",UPPER(LEFT(G202,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G202,G202),"0000"),"")</f>
+        <f>IF(G202&lt;&gt;"",UPPER(LEFT(G202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G202,G202),"0000"),"")</f>
         <v/>
       </c>
       <c r="B202" s="5"/>
@@ -4007,7 +4022,7 @@
     </row>
     <row r="203" customHeight="1" spans="1:8">
       <c r="A203" s="12" t="str">
-        <f>IF(G203&lt;&gt;"",UPPER(LEFT(G203,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G203,G203),"0000"),"")</f>
+        <f>IF(G203&lt;&gt;"",UPPER(LEFT(G203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G203,G203),"0000"),"")</f>
         <v/>
       </c>
       <c r="B203" s="5"/>
@@ -4020,7 +4035,7 @@
     </row>
     <row r="204" customHeight="1" spans="1:8">
       <c r="A204" s="12" t="str">
-        <f>IF(G204&lt;&gt;"",UPPER(LEFT(G204,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G204,G204),"0000"),"")</f>
+        <f>IF(G204&lt;&gt;"",UPPER(LEFT(G204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G204,G204),"0000"),"")</f>
         <v/>
       </c>
       <c r="B204" s="5"/>
@@ -4033,7 +4048,7 @@
     </row>
     <row r="205" customHeight="1" spans="1:8">
       <c r="A205" s="12" t="str">
-        <f>IF(G205&lt;&gt;"",UPPER(LEFT(G205,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G205,G205),"0000"),"")</f>
+        <f>IF(G205&lt;&gt;"",UPPER(LEFT(G205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G205,G205),"0000"),"")</f>
         <v/>
       </c>
       <c r="B205" s="5"/>
@@ -4046,7 +4061,7 @@
     </row>
     <row r="206" customHeight="1" spans="1:8">
       <c r="A206" s="12" t="str">
-        <f>IF(G206&lt;&gt;"",UPPER(LEFT(G206,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G206,G206),"0000"),"")</f>
+        <f>IF(G206&lt;&gt;"",UPPER(LEFT(G206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G206,G206),"0000"),"")</f>
         <v/>
       </c>
       <c r="B206" s="5"/>
@@ -4059,7 +4074,7 @@
     </row>
     <row r="207" customHeight="1" spans="1:8">
       <c r="A207" s="12" t="str">
-        <f>IF(G207&lt;&gt;"",UPPER(LEFT(G207,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G207,G207),"0000"),"")</f>
+        <f>IF(G207&lt;&gt;"",UPPER(LEFT(G207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G207,G207),"0000"),"")</f>
         <v/>
       </c>
       <c r="B207" s="5"/>
@@ -4072,7 +4087,7 @@
     </row>
     <row r="208" customHeight="1" spans="1:8">
       <c r="A208" s="12" t="str">
-        <f>IF(G208&lt;&gt;"",UPPER(LEFT(G208,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G208,G208),"0000"),"")</f>
+        <f>IF(G208&lt;&gt;"",UPPER(LEFT(G208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G208,G208),"0000"),"")</f>
         <v/>
       </c>
       <c r="B208" s="5"/>
@@ -4085,7 +4100,7 @@
     </row>
     <row r="209" customHeight="1" spans="1:8">
       <c r="A209" s="12" t="str">
-        <f>IF(G209&lt;&gt;"",UPPER(LEFT(G209,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G209,G209),"0000"),"")</f>
+        <f>IF(G209&lt;&gt;"",UPPER(LEFT(G209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G209,G209),"0000"),"")</f>
         <v/>
       </c>
       <c r="B209" s="5"/>
@@ -4098,7 +4113,7 @@
     </row>
     <row r="210" customHeight="1" spans="1:8">
       <c r="A210" s="12" t="str">
-        <f>IF(G210&lt;&gt;"",UPPER(LEFT(G210,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G210,G210),"0000"),"")</f>
+        <f>IF(G210&lt;&gt;"",UPPER(LEFT(G210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G210,G210),"0000"),"")</f>
         <v/>
       </c>
       <c r="B210" s="5"/>
@@ -4111,7 +4126,7 @@
     </row>
     <row r="211" customHeight="1" spans="1:8">
       <c r="A211" s="12" t="str">
-        <f>IF(G211&lt;&gt;"",UPPER(LEFT(G211,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G211,G211),"0000"),"")</f>
+        <f>IF(G211&lt;&gt;"",UPPER(LEFT(G211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G211,G211),"0000"),"")</f>
         <v/>
       </c>
       <c r="B211" s="5"/>
@@ -4124,7 +4139,7 @@
     </row>
     <row r="212" customHeight="1" spans="1:8">
       <c r="A212" s="12" t="str">
-        <f>IF(G212&lt;&gt;"",UPPER(LEFT(G212,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G212,G212),"0000"),"")</f>
+        <f>IF(G212&lt;&gt;"",UPPER(LEFT(G212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G212,G212),"0000"),"")</f>
         <v/>
       </c>
       <c r="B212" s="5"/>
@@ -4137,7 +4152,7 @@
     </row>
     <row r="213" customHeight="1" spans="1:8">
       <c r="A213" s="12" t="str">
-        <f>IF(G213&lt;&gt;"",UPPER(LEFT(G213,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G213,G213),"0000"),"")</f>
+        <f>IF(G213&lt;&gt;"",UPPER(LEFT(G213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G213,G213),"0000"),"")</f>
         <v/>
       </c>
       <c r="B213" s="5"/>
@@ -4150,7 +4165,7 @@
     </row>
     <row r="214" customHeight="1" spans="1:8">
       <c r="A214" s="12" t="str">
-        <f>IF(G214&lt;&gt;"",UPPER(LEFT(G214,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G214,G214),"0000"),"")</f>
+        <f>IF(G214&lt;&gt;"",UPPER(LEFT(G214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G214,G214),"0000"),"")</f>
         <v/>
       </c>
       <c r="B214" s="5"/>
@@ -4163,7 +4178,7 @@
     </row>
     <row r="215" customHeight="1" spans="1:8">
       <c r="A215" s="12" t="str">
-        <f>IF(G215&lt;&gt;"",UPPER(LEFT(G215,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G215,G215),"0000"),"")</f>
+        <f>IF(G215&lt;&gt;"",UPPER(LEFT(G215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G215,G215),"0000"),"")</f>
         <v/>
       </c>
       <c r="B215" s="5"/>
@@ -4176,7 +4191,7 @@
     </row>
     <row r="216" customHeight="1" spans="1:8">
       <c r="A216" s="12" t="str">
-        <f>IF(G216&lt;&gt;"",UPPER(LEFT(G216,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G216,G216),"0000"),"")</f>
+        <f>IF(G216&lt;&gt;"",UPPER(LEFT(G216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G216,G216),"0000"),"")</f>
         <v/>
       </c>
       <c r="B216" s="5"/>
@@ -4189,7 +4204,7 @@
     </row>
     <row r="217" customHeight="1" spans="1:8">
       <c r="A217" s="12" t="str">
-        <f>IF(G217&lt;&gt;"",UPPER(LEFT(G217,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G217,G217),"0000"),"")</f>
+        <f>IF(G217&lt;&gt;"",UPPER(LEFT(G217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G217,G217),"0000"),"")</f>
         <v/>
       </c>
       <c r="B217" s="5"/>
@@ -4202,7 +4217,7 @@
     </row>
     <row r="218" customHeight="1" spans="1:8">
       <c r="A218" s="12" t="str">
-        <f>IF(G218&lt;&gt;"",UPPER(LEFT(G218,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G218,G218),"0000"),"")</f>
+        <f>IF(G218&lt;&gt;"",UPPER(LEFT(G218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G218,G218),"0000"),"")</f>
         <v/>
       </c>
       <c r="B218" s="5"/>
@@ -4215,7 +4230,7 @@
     </row>
     <row r="219" customHeight="1" spans="1:8">
       <c r="A219" s="12" t="str">
-        <f>IF(G219&lt;&gt;"",UPPER(LEFT(G219,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G219,G219),"0000"),"")</f>
+        <f>IF(G219&lt;&gt;"",UPPER(LEFT(G219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G219,G219),"0000"),"")</f>
         <v/>
       </c>
       <c r="B219" s="5"/>
@@ -4228,7 +4243,7 @@
     </row>
     <row r="220" customHeight="1" spans="1:8">
       <c r="A220" s="12" t="str">
-        <f>IF(G220&lt;&gt;"",UPPER(LEFT(G220,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G220,G220),"0000"),"")</f>
+        <f>IF(G220&lt;&gt;"",UPPER(LEFT(G220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G220,G220),"0000"),"")</f>
         <v/>
       </c>
       <c r="B220" s="5"/>
@@ -4241,7 +4256,7 @@
     </row>
     <row r="221" customHeight="1" spans="1:8">
       <c r="A221" s="12" t="str">
-        <f>IF(G221&lt;&gt;"",UPPER(LEFT(G221,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G221,G221),"0000"),"")</f>
+        <f>IF(G221&lt;&gt;"",UPPER(LEFT(G221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G221,G221),"0000"),"")</f>
         <v/>
       </c>
       <c r="B221" s="5"/>
@@ -4254,7 +4269,7 @@
     </row>
     <row r="222" customHeight="1" spans="1:8">
       <c r="A222" s="12" t="str">
-        <f>IF(G222&lt;&gt;"",UPPER(LEFT(G222,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G222,G222),"0000"),"")</f>
+        <f>IF(G222&lt;&gt;"",UPPER(LEFT(G222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G222,G222),"0000"),"")</f>
         <v/>
       </c>
       <c r="B222" s="5"/>
@@ -4267,7 +4282,7 @@
     </row>
     <row r="223" customHeight="1" spans="1:8">
       <c r="A223" s="12" t="str">
-        <f>IF(G223&lt;&gt;"",UPPER(LEFT(G223,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G223,G223),"0000"),"")</f>
+        <f>IF(G223&lt;&gt;"",UPPER(LEFT(G223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G223,G223),"0000"),"")</f>
         <v/>
       </c>
       <c r="B223" s="5"/>
@@ -4280,7 +4295,7 @@
     </row>
     <row r="224" customHeight="1" spans="1:8">
       <c r="A224" s="12" t="str">
-        <f>IF(G224&lt;&gt;"",UPPER(LEFT(G224,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G224,G224),"0000"),"")</f>
+        <f>IF(G224&lt;&gt;"",UPPER(LEFT(G224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G224,G224),"0000"),"")</f>
         <v/>
       </c>
       <c r="B224" s="5"/>
@@ -4293,7 +4308,7 @@
     </row>
     <row r="225" customHeight="1" spans="1:8">
       <c r="A225" s="12" t="str">
-        <f>IF(G225&lt;&gt;"",UPPER(LEFT(G225,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G225,G225),"0000"),"")</f>
+        <f>IF(G225&lt;&gt;"",UPPER(LEFT(G225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G225,G225),"0000"),"")</f>
         <v/>
       </c>
       <c r="B225" s="5"/>
@@ -4306,7 +4321,7 @@
     </row>
     <row r="226" customHeight="1" spans="1:8">
       <c r="A226" s="12" t="str">
-        <f>IF(G226&lt;&gt;"",UPPER(LEFT(G226,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G226,G226),"0000"),"")</f>
+        <f>IF(G226&lt;&gt;"",UPPER(LEFT(G226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G226,G226),"0000"),"")</f>
         <v/>
       </c>
       <c r="B226" s="5"/>
@@ -4319,7 +4334,7 @@
     </row>
     <row r="227" customHeight="1" spans="1:8">
       <c r="A227" s="12" t="str">
-        <f>IF(G227&lt;&gt;"",UPPER(LEFT(G227,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G227,G227),"0000"),"")</f>
+        <f>IF(G227&lt;&gt;"",UPPER(LEFT(G227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G227,G227),"0000"),"")</f>
         <v/>
       </c>
       <c r="B227" s="5"/>
@@ -4332,7 +4347,7 @@
     </row>
     <row r="228" customHeight="1" spans="1:8">
       <c r="A228" s="12" t="str">
-        <f>IF(G228&lt;&gt;"",UPPER(LEFT(G228,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G228,G228),"0000"),"")</f>
+        <f>IF(G228&lt;&gt;"",UPPER(LEFT(G228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G228,G228),"0000"),"")</f>
         <v/>
       </c>
       <c r="B228" s="5"/>
@@ -4345,7 +4360,7 @@
     </row>
     <row r="229" customHeight="1" spans="1:8">
       <c r="A229" s="12" t="str">
-        <f>IF(G229&lt;&gt;"",UPPER(LEFT(G229,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G229,G229),"0000"),"")</f>
+        <f>IF(G229&lt;&gt;"",UPPER(LEFT(G229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G229,G229),"0000"),"")</f>
         <v/>
       </c>
       <c r="B229" s="5"/>
@@ -4358,7 +4373,7 @@
     </row>
     <row r="230" customHeight="1" spans="1:8">
       <c r="A230" s="12" t="str">
-        <f>IF(G230&lt;&gt;"",UPPER(LEFT(G230,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G230,G230),"0000"),"")</f>
+        <f>IF(G230&lt;&gt;"",UPPER(LEFT(G230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G230,G230),"0000"),"")</f>
         <v/>
       </c>
       <c r="B230" s="5"/>
@@ -4371,7 +4386,7 @@
     </row>
     <row r="231" customHeight="1" spans="1:8">
       <c r="A231" s="12" t="str">
-        <f>IF(G231&lt;&gt;"",UPPER(LEFT(G231,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G231,G231),"0000"),"")</f>
+        <f>IF(G231&lt;&gt;"",UPPER(LEFT(G231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G231,G231),"0000"),"")</f>
         <v/>
       </c>
       <c r="B231" s="5"/>
@@ -4384,7 +4399,7 @@
     </row>
     <row r="232" customHeight="1" spans="1:8">
       <c r="A232" s="12" t="str">
-        <f>IF(G232&lt;&gt;"",UPPER(LEFT(G232,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G232,G232),"0000"),"")</f>
+        <f>IF(G232&lt;&gt;"",UPPER(LEFT(G232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G232,G232),"0000"),"")</f>
         <v/>
       </c>
       <c r="B232" s="5"/>
@@ -4397,7 +4412,7 @@
     </row>
     <row r="233" customHeight="1" spans="1:8">
       <c r="A233" s="12" t="str">
-        <f>IF(G233&lt;&gt;"",UPPER(LEFT(G233,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G233,G233),"0000"),"")</f>
+        <f>IF(G233&lt;&gt;"",UPPER(LEFT(G233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G233,G233),"0000"),"")</f>
         <v/>
       </c>
       <c r="B233" s="5"/>
@@ -4410,7 +4425,7 @@
     </row>
     <row r="234" customHeight="1" spans="1:8">
       <c r="A234" s="12" t="str">
-        <f>IF(G234&lt;&gt;"",UPPER(LEFT(G234,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G234,G234),"0000"),"")</f>
+        <f>IF(G234&lt;&gt;"",UPPER(LEFT(G234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G234,G234),"0000"),"")</f>
         <v/>
       </c>
       <c r="B234" s="5"/>
@@ -4423,7 +4438,7 @@
     </row>
     <row r="235" customHeight="1" spans="1:8">
       <c r="A235" s="12" t="str">
-        <f>IF(G235&lt;&gt;"",UPPER(LEFT(G235,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G235,G235),"0000"),"")</f>
+        <f>IF(G235&lt;&gt;"",UPPER(LEFT(G235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G235,G235),"0000"),"")</f>
         <v/>
       </c>
       <c r="B235" s="5"/>
@@ -4436,7 +4451,7 @@
     </row>
     <row r="236" customHeight="1" spans="1:8">
       <c r="A236" s="12" t="str">
-        <f>IF(G236&lt;&gt;"",UPPER(LEFT(G236,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G236,G236),"0000"),"")</f>
+        <f>IF(G236&lt;&gt;"",UPPER(LEFT(G236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G236,G236),"0000"),"")</f>
         <v/>
       </c>
       <c r="B236" s="5"/>
@@ -4449,7 +4464,7 @@
     </row>
     <row r="237" customHeight="1" spans="1:8">
       <c r="A237" s="12" t="str">
-        <f>IF(G237&lt;&gt;"",UPPER(LEFT(G237,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G237,G237),"0000"),"")</f>
+        <f>IF(G237&lt;&gt;"",UPPER(LEFT(G237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G237,G237),"0000"),"")</f>
         <v/>
       </c>
       <c r="B237" s="5"/>
@@ -4462,7 +4477,7 @@
     </row>
     <row r="238" customHeight="1" spans="1:8">
       <c r="A238" s="12" t="str">
-        <f>IF(G238&lt;&gt;"",UPPER(LEFT(G238,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G238,G238),"0000"),"")</f>
+        <f>IF(G238&lt;&gt;"",UPPER(LEFT(G238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G238,G238),"0000"),"")</f>
         <v/>
       </c>
       <c r="B238" s="5"/>
@@ -4475,7 +4490,7 @@
     </row>
     <row r="239" customHeight="1" spans="1:8">
       <c r="A239" s="12" t="str">
-        <f>IF(G239&lt;&gt;"",UPPER(LEFT(G239,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G239,G239),"0000"),"")</f>
+        <f>IF(G239&lt;&gt;"",UPPER(LEFT(G239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G239,G239),"0000"),"")</f>
         <v/>
       </c>
       <c r="B239" s="5"/>
@@ -4488,7 +4503,7 @@
     </row>
     <row r="240" customHeight="1" spans="1:8">
       <c r="A240" s="12" t="str">
-        <f>IF(G240&lt;&gt;"",UPPER(LEFT(G240,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G240,G240),"0000"),"")</f>
+        <f>IF(G240&lt;&gt;"",UPPER(LEFT(G240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G240,G240),"0000"),"")</f>
         <v/>
       </c>
       <c r="B240" s="5"/>
@@ -4501,7 +4516,7 @@
     </row>
     <row r="241" customHeight="1" spans="1:8">
       <c r="A241" s="12" t="str">
-        <f>IF(G241&lt;&gt;"",UPPER(LEFT(G241,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G241,G241),"0000"),"")</f>
+        <f>IF(G241&lt;&gt;"",UPPER(LEFT(G241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G241,G241),"0000"),"")</f>
         <v/>
       </c>
       <c r="B241" s="5"/>
@@ -4514,7 +4529,7 @@
     </row>
     <row r="242" customHeight="1" spans="1:8">
       <c r="A242" s="12" t="str">
-        <f>IF(G242&lt;&gt;"",UPPER(LEFT(G242,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G242,G242),"0000"),"")</f>
+        <f>IF(G242&lt;&gt;"",UPPER(LEFT(G242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G242,G242),"0000"),"")</f>
         <v/>
       </c>
       <c r="B242" s="5"/>
@@ -4527,7 +4542,7 @@
     </row>
     <row r="243" customHeight="1" spans="1:8">
       <c r="A243" s="12" t="str">
-        <f>IF(G243&lt;&gt;"",UPPER(LEFT(G243,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G243,G243),"0000"),"")</f>
+        <f>IF(G243&lt;&gt;"",UPPER(LEFT(G243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G243,G243),"0000"),"")</f>
         <v/>
       </c>
       <c r="B243" s="5"/>
@@ -4540,7 +4555,7 @@
     </row>
     <row r="244" customHeight="1" spans="1:8">
       <c r="A244" s="12" t="str">
-        <f>IF(G244&lt;&gt;"",UPPER(LEFT(G244,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G244,G244),"0000"),"")</f>
+        <f>IF(G244&lt;&gt;"",UPPER(LEFT(G244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G244,G244),"0000"),"")</f>
         <v/>
       </c>
       <c r="B244" s="5"/>
@@ -4553,7 +4568,7 @@
     </row>
     <row r="245" customHeight="1" spans="1:8">
       <c r="A245" s="12" t="str">
-        <f>IF(G245&lt;&gt;"",UPPER(LEFT(G245,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G245,G245),"0000"),"")</f>
+        <f>IF(G245&lt;&gt;"",UPPER(LEFT(G245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G245,G245),"0000"),"")</f>
         <v/>
       </c>
       <c r="B245" s="5"/>
@@ -4566,7 +4581,7 @@
     </row>
     <row r="246" customHeight="1" spans="1:8">
       <c r="A246" s="12" t="str">
-        <f>IF(G246&lt;&gt;"",UPPER(LEFT(G246,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G246,G246),"0000"),"")</f>
+        <f>IF(G246&lt;&gt;"",UPPER(LEFT(G246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G246,G246),"0000"),"")</f>
         <v/>
       </c>
       <c r="B246" s="5"/>
@@ -4579,7 +4594,7 @@
     </row>
     <row r="247" customHeight="1" spans="1:8">
       <c r="A247" s="12" t="str">
-        <f>IF(G247&lt;&gt;"",UPPER(LEFT(G247,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G247,G247),"0000"),"")</f>
+        <f>IF(G247&lt;&gt;"",UPPER(LEFT(G247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G247,G247),"0000"),"")</f>
         <v/>
       </c>
       <c r="B247" s="5"/>
@@ -4592,7 +4607,7 @@
     </row>
     <row r="248" customHeight="1" spans="1:8">
       <c r="A248" s="12" t="str">
-        <f>IF(G248&lt;&gt;"",UPPER(LEFT(G248,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G248,G248),"0000"),"")</f>
+        <f>IF(G248&lt;&gt;"",UPPER(LEFT(G248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G248,G248),"0000"),"")</f>
         <v/>
       </c>
       <c r="B248" s="5"/>
@@ -4605,7 +4620,7 @@
     </row>
     <row r="249" customHeight="1" spans="1:8">
       <c r="A249" s="12" t="str">
-        <f>IF(G249&lt;&gt;"",UPPER(LEFT(G249,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G249,G249),"0000"),"")</f>
+        <f>IF(G249&lt;&gt;"",UPPER(LEFT(G249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G249,G249),"0000"),"")</f>
         <v/>
       </c>
       <c r="B249" s="5"/>
@@ -4618,7 +4633,7 @@
     </row>
     <row r="250" customHeight="1" spans="1:8">
       <c r="A250" s="12" t="str">
-        <f>IF(G250&lt;&gt;"",UPPER(LEFT(G250,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G250,G250),"0000"),"")</f>
+        <f>IF(G250&lt;&gt;"",UPPER(LEFT(G250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G250,G250),"0000"),"")</f>
         <v/>
       </c>
       <c r="B250" s="5"/>
@@ -4631,7 +4646,7 @@
     </row>
     <row r="251" customHeight="1" spans="1:8">
       <c r="A251" s="12" t="str">
-        <f>IF(G251&lt;&gt;"",UPPER(LEFT(G251,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G251,G251),"0000"),"")</f>
+        <f>IF(G251&lt;&gt;"",UPPER(LEFT(G251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G251,G251),"0000"),"")</f>
         <v/>
       </c>
       <c r="B251" s="5"/>
@@ -4644,7 +4659,7 @@
     </row>
     <row r="252" customHeight="1" spans="1:8">
       <c r="A252" s="12" t="str">
-        <f>IF(G252&lt;&gt;"",UPPER(LEFT(G252,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G252,G252),"0000"),"")</f>
+        <f>IF(G252&lt;&gt;"",UPPER(LEFT(G252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G252,G252),"0000"),"")</f>
         <v/>
       </c>
       <c r="B252" s="5"/>
@@ -4657,7 +4672,7 @@
     </row>
     <row r="253" customHeight="1" spans="1:8">
       <c r="A253" s="12" t="str">
-        <f>IF(G253&lt;&gt;"",UPPER(LEFT(G253,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G253,G253),"0000"),"")</f>
+        <f>IF(G253&lt;&gt;"",UPPER(LEFT(G253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G253,G253),"0000"),"")</f>
         <v/>
       </c>
       <c r="B253" s="5"/>
@@ -4670,7 +4685,7 @@
     </row>
     <row r="254" customHeight="1" spans="1:8">
       <c r="A254" s="12" t="str">
-        <f>IF(G254&lt;&gt;"",UPPER(LEFT(G254,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G254,G254),"0000"),"")</f>
+        <f>IF(G254&lt;&gt;"",UPPER(LEFT(G254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G254,G254),"0000"),"")</f>
         <v/>
       </c>
       <c r="B254" s="5"/>
@@ -4683,7 +4698,7 @@
     </row>
     <row r="255" customHeight="1" spans="1:8">
       <c r="A255" s="12" t="str">
-        <f>IF(G255&lt;&gt;"",UPPER(LEFT(G255,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G255,G255),"0000"),"")</f>
+        <f>IF(G255&lt;&gt;"",UPPER(LEFT(G255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G255,G255),"0000"),"")</f>
         <v/>
       </c>
       <c r="B255" s="5"/>
@@ -4696,7 +4711,7 @@
     </row>
     <row r="256" customHeight="1" spans="1:8">
       <c r="A256" s="12" t="str">
-        <f>IF(G256&lt;&gt;"",UPPER(LEFT(G256,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G256,G256),"0000"),"")</f>
+        <f>IF(G256&lt;&gt;"",UPPER(LEFT(G256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G256,G256),"0000"),"")</f>
         <v/>
       </c>
       <c r="B256" s="5"/>
@@ -4709,7 +4724,7 @@
     </row>
     <row r="257" customHeight="1" spans="1:8">
       <c r="A257" s="12" t="str">
-        <f>IF(G257&lt;&gt;"",UPPER(LEFT(G257,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G257,G257),"0000"),"")</f>
+        <f>IF(G257&lt;&gt;"",UPPER(LEFT(G257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G257,G257),"0000"),"")</f>
         <v/>
       </c>
       <c r="B257" s="5"/>
@@ -4722,7 +4737,7 @@
     </row>
     <row r="258" customHeight="1" spans="1:8">
       <c r="A258" s="12" t="str">
-        <f>IF(G258&lt;&gt;"",UPPER(LEFT(G258,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G258,G258),"0000"),"")</f>
+        <f>IF(G258&lt;&gt;"",UPPER(LEFT(G258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G258,G258),"0000"),"")</f>
         <v/>
       </c>
       <c r="B258" s="5"/>
@@ -4735,7 +4750,7 @@
     </row>
     <row r="259" customHeight="1" spans="1:8">
       <c r="A259" s="12" t="str">
-        <f>IF(G259&lt;&gt;"",UPPER(LEFT(G259,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G259,G259),"0000"),"")</f>
+        <f>IF(G259&lt;&gt;"",UPPER(LEFT(G259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G259,G259),"0000"),"")</f>
         <v/>
       </c>
       <c r="B259" s="5"/>
@@ -4748,7 +4763,7 @@
     </row>
     <row r="260" customHeight="1" spans="1:8">
       <c r="A260" s="12" t="str">
-        <f>IF(G260&lt;&gt;"",UPPER(LEFT(G260,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G260,G260),"0000"),"")</f>
+        <f>IF(G260&lt;&gt;"",UPPER(LEFT(G260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G260,G260),"0000"),"")</f>
         <v/>
       </c>
       <c r="B260" s="5"/>
@@ -4761,7 +4776,7 @@
     </row>
     <row r="261" customHeight="1" spans="1:8">
       <c r="A261" s="12" t="str">
-        <f>IF(G261&lt;&gt;"",UPPER(LEFT(G261,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G261,G261),"0000"),"")</f>
+        <f>IF(G261&lt;&gt;"",UPPER(LEFT(G261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G261,G261),"0000"),"")</f>
         <v/>
       </c>
       <c r="B261" s="5"/>
@@ -4774,7 +4789,7 @@
     </row>
     <row r="262" customHeight="1" spans="1:8">
       <c r="A262" s="12" t="str">
-        <f>IF(G262&lt;&gt;"",UPPER(LEFT(G262,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G262,G262),"0000"),"")</f>
+        <f>IF(G262&lt;&gt;"",UPPER(LEFT(G262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G262,G262),"0000"),"")</f>
         <v/>
       </c>
       <c r="B262" s="5"/>
@@ -4787,7 +4802,7 @@
     </row>
     <row r="263" customHeight="1" spans="1:8">
       <c r="A263" s="12" t="str">
-        <f>IF(G263&lt;&gt;"",UPPER(LEFT(G263,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G263,G263),"0000"),"")</f>
+        <f>IF(G263&lt;&gt;"",UPPER(LEFT(G263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G263,G263),"0000"),"")</f>
         <v/>
       </c>
       <c r="B263" s="5"/>
@@ -4800,7 +4815,7 @@
     </row>
     <row r="264" customHeight="1" spans="1:8">
       <c r="A264" s="12" t="str">
-        <f>IF(G264&lt;&gt;"",UPPER(LEFT(G264,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G264,G264),"0000"),"")</f>
+        <f>IF(G264&lt;&gt;"",UPPER(LEFT(G264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G264,G264),"0000"),"")</f>
         <v/>
       </c>
       <c r="B264" s="5"/>
@@ -4813,7 +4828,7 @@
     </row>
     <row r="265" customHeight="1" spans="1:8">
       <c r="A265" s="12" t="str">
-        <f>IF(G265&lt;&gt;"",UPPER(LEFT(G265,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G265,G265),"0000"),"")</f>
+        <f>IF(G265&lt;&gt;"",UPPER(LEFT(G265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G265,G265),"0000"),"")</f>
         <v/>
       </c>
       <c r="B265" s="5"/>
@@ -4826,7 +4841,7 @@
     </row>
     <row r="266" customHeight="1" spans="1:8">
       <c r="A266" s="12" t="str">
-        <f>IF(G266&lt;&gt;"",UPPER(LEFT(G266,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G266,G266),"0000"),"")</f>
+        <f>IF(G266&lt;&gt;"",UPPER(LEFT(G266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G266,G266),"0000"),"")</f>
         <v/>
       </c>
       <c r="B266" s="5"/>
@@ -4839,7 +4854,7 @@
     </row>
     <row r="267" customHeight="1" spans="1:8">
       <c r="A267" s="12" t="str">
-        <f>IF(G267&lt;&gt;"",UPPER(LEFT(G267,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G267,G267),"0000"),"")</f>
+        <f>IF(G267&lt;&gt;"",UPPER(LEFT(G267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G267,G267),"0000"),"")</f>
         <v/>
       </c>
       <c r="B267" s="5"/>
@@ -4852,7 +4867,7 @@
     </row>
     <row r="268" customHeight="1" spans="1:8">
       <c r="A268" s="12" t="str">
-        <f>IF(G268&lt;&gt;"",UPPER(LEFT(G268,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G268,G268),"0000"),"")</f>
+        <f>IF(G268&lt;&gt;"",UPPER(LEFT(G268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G268,G268),"0000"),"")</f>
         <v/>
       </c>
       <c r="B268" s="5"/>
@@ -4865,7 +4880,7 @@
     </row>
     <row r="269" customHeight="1" spans="1:8">
       <c r="A269" s="12" t="str">
-        <f>IF(G269&lt;&gt;"",UPPER(LEFT(G269,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G269,G269),"0000"),"")</f>
+        <f>IF(G269&lt;&gt;"",UPPER(LEFT(G269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G269,G269),"0000"),"")</f>
         <v/>
       </c>
       <c r="B269" s="5"/>
@@ -4878,7 +4893,7 @@
     </row>
     <row r="270" customHeight="1" spans="1:8">
       <c r="A270" s="12" t="str">
-        <f>IF(G270&lt;&gt;"",UPPER(LEFT(G270,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G270,G270),"0000"),"")</f>
+        <f>IF(G270&lt;&gt;"",UPPER(LEFT(G270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G270,G270),"0000"),"")</f>
         <v/>
       </c>
       <c r="B270" s="5"/>
@@ -4891,7 +4906,7 @@
     </row>
     <row r="271" customHeight="1" spans="1:8">
       <c r="A271" s="12" t="str">
-        <f>IF(G271&lt;&gt;"",UPPER(LEFT(G271,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G271,G271),"0000"),"")</f>
+        <f>IF(G271&lt;&gt;"",UPPER(LEFT(G271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G271,G271),"0000"),"")</f>
         <v/>
       </c>
       <c r="B271" s="5"/>
@@ -4904,7 +4919,7 @@
     </row>
     <row r="272" customHeight="1" spans="1:8">
       <c r="A272" s="12" t="str">
-        <f>IF(G272&lt;&gt;"",UPPER(LEFT(G272,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G272,G272),"0000"),"")</f>
+        <f>IF(G272&lt;&gt;"",UPPER(LEFT(G272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G272,G272),"0000"),"")</f>
         <v/>
       </c>
       <c r="B272" s="5"/>
@@ -4917,7 +4932,7 @@
     </row>
     <row r="273" customHeight="1" spans="1:8">
       <c r="A273" s="12" t="str">
-        <f>IF(G273&lt;&gt;"",UPPER(LEFT(G273,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G273,G273),"0000"),"")</f>
+        <f>IF(G273&lt;&gt;"",UPPER(LEFT(G273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G273,G273),"0000"),"")</f>
         <v/>
       </c>
       <c r="B273" s="5"/>
@@ -4930,7 +4945,7 @@
     </row>
     <row r="274" customHeight="1" spans="1:8">
       <c r="A274" s="12" t="str">
-        <f>IF(G274&lt;&gt;"",UPPER(LEFT(G274,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G274,G274),"0000"),"")</f>
+        <f>IF(G274&lt;&gt;"",UPPER(LEFT(G274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G274,G274),"0000"),"")</f>
         <v/>
       </c>
       <c r="B274" s="5"/>
@@ -4943,7 +4958,7 @@
     </row>
     <row r="275" customHeight="1" spans="1:8">
       <c r="A275" s="12" t="str">
-        <f>IF(G275&lt;&gt;"",UPPER(LEFT(G275,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G275,G275),"0000"),"")</f>
+        <f>IF(G275&lt;&gt;"",UPPER(LEFT(G275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G275,G275),"0000"),"")</f>
         <v/>
       </c>
       <c r="B275" s="5"/>
@@ -4956,7 +4971,7 @@
     </row>
     <row r="276" customHeight="1" spans="1:8">
       <c r="A276" s="12" t="str">
-        <f>IF(G276&lt;&gt;"",UPPER(LEFT(G276,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G276,G276),"0000"),"")</f>
+        <f>IF(G276&lt;&gt;"",UPPER(LEFT(G276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G276,G276),"0000"),"")</f>
         <v/>
       </c>
       <c r="B276" s="5"/>
@@ -4969,7 +4984,7 @@
     </row>
     <row r="277" customHeight="1" spans="1:8">
       <c r="A277" s="12" t="str">
-        <f>IF(G277&lt;&gt;"",UPPER(LEFT(G277,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G277,G277),"0000"),"")</f>
+        <f>IF(G277&lt;&gt;"",UPPER(LEFT(G277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G277,G277),"0000"),"")</f>
         <v/>
       </c>
       <c r="B277" s="5"/>
@@ -4982,7 +4997,7 @@
     </row>
     <row r="278" customHeight="1" spans="1:8">
       <c r="A278" s="12" t="str">
-        <f>IF(G278&lt;&gt;"",UPPER(LEFT(G278,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G278,G278),"0000"),"")</f>
+        <f>IF(G278&lt;&gt;"",UPPER(LEFT(G278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G278,G278),"0000"),"")</f>
         <v/>
       </c>
       <c r="B278" s="5"/>
@@ -4995,7 +5010,7 @@
     </row>
     <row r="279" customHeight="1" spans="1:8">
       <c r="A279" s="12" t="str">
-        <f>IF(G279&lt;&gt;"",UPPER(LEFT(G279,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G279,G279),"0000"),"")</f>
+        <f>IF(G279&lt;&gt;"",UPPER(LEFT(G279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G279,G279),"0000"),"")</f>
         <v/>
       </c>
       <c r="B279" s="5"/>
@@ -5008,7 +5023,7 @@
     </row>
     <row r="280" customHeight="1" spans="1:8">
       <c r="A280" s="12" t="str">
-        <f>IF(G280&lt;&gt;"",UPPER(LEFT(G280,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G280,G280),"0000"),"")</f>
+        <f>IF(G280&lt;&gt;"",UPPER(LEFT(G280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G280,G280),"0000"),"")</f>
         <v/>
       </c>
       <c r="B280" s="5"/>
@@ -5021,7 +5036,7 @@
     </row>
     <row r="281" customHeight="1" spans="1:8">
       <c r="A281" s="12" t="str">
-        <f>IF(G281&lt;&gt;"",UPPER(LEFT(G281,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G281,G281),"0000"),"")</f>
+        <f>IF(G281&lt;&gt;"",UPPER(LEFT(G281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G281,G281),"0000"),"")</f>
         <v/>
       </c>
       <c r="B281" s="5"/>
@@ -5034,7 +5049,7 @@
     </row>
     <row r="282" customHeight="1" spans="1:8">
       <c r="A282" s="12" t="str">
-        <f>IF(G282&lt;&gt;"",UPPER(LEFT(G282,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G282,G282),"0000"),"")</f>
+        <f>IF(G282&lt;&gt;"",UPPER(LEFT(G282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G282,G282),"0000"),"")</f>
         <v/>
       </c>
       <c r="B282" s="5"/>
@@ -5047,7 +5062,7 @@
     </row>
     <row r="283" customHeight="1" spans="1:8">
       <c r="A283" s="12" t="str">
-        <f>IF(G283&lt;&gt;"",UPPER(LEFT(G283,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G283,G283),"0000"),"")</f>
+        <f>IF(G283&lt;&gt;"",UPPER(LEFT(G283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G283,G283),"0000"),"")</f>
         <v/>
       </c>
       <c r="B283" s="5"/>
@@ -5060,7 +5075,7 @@
     </row>
     <row r="284" customHeight="1" spans="1:8">
       <c r="A284" s="12" t="str">
-        <f>IF(G284&lt;&gt;"",UPPER(LEFT(G284,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G284,G284),"0000"),"")</f>
+        <f>IF(G284&lt;&gt;"",UPPER(LEFT(G284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G284,G284),"0000"),"")</f>
         <v/>
       </c>
       <c r="B284" s="5"/>
@@ -5073,7 +5088,7 @@
     </row>
     <row r="285" customHeight="1" spans="1:8">
       <c r="A285" s="12" t="str">
-        <f>IF(G285&lt;&gt;"",UPPER(LEFT(G285,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G285,G285),"0000"),"")</f>
+        <f>IF(G285&lt;&gt;"",UPPER(LEFT(G285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G285,G285),"0000"),"")</f>
         <v/>
       </c>
       <c r="B285" s="5"/>
@@ -5086,7 +5101,7 @@
     </row>
     <row r="286" customHeight="1" spans="1:8">
       <c r="A286" s="12" t="str">
-        <f>IF(G286&lt;&gt;"",UPPER(LEFT(G286,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G286,G286),"0000"),"")</f>
+        <f>IF(G286&lt;&gt;"",UPPER(LEFT(G286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G286,G286),"0000"),"")</f>
         <v/>
       </c>
       <c r="B286" s="5"/>
@@ -5099,7 +5114,7 @@
     </row>
     <row r="287" customHeight="1" spans="1:8">
       <c r="A287" s="12" t="str">
-        <f>IF(G287&lt;&gt;"",UPPER(LEFT(G287,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G287,G287),"0000"),"")</f>
+        <f>IF(G287&lt;&gt;"",UPPER(LEFT(G287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G287,G287),"0000"),"")</f>
         <v/>
       </c>
       <c r="B287" s="5"/>
@@ -5112,7 +5127,7 @@
     </row>
     <row r="288" customHeight="1" spans="1:8">
       <c r="A288" s="12" t="str">
-        <f>IF(G288&lt;&gt;"",UPPER(LEFT(G288,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G288,G288),"0000"),"")</f>
+        <f>IF(G288&lt;&gt;"",UPPER(LEFT(G288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G288,G288),"0000"),"")</f>
         <v/>
       </c>
       <c r="B288" s="5"/>
@@ -5125,7 +5140,7 @@
     </row>
     <row r="289" customHeight="1" spans="1:8">
       <c r="A289" s="12" t="str">
-        <f>IF(G289&lt;&gt;"",UPPER(LEFT(G289,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G289,G289),"0000"),"")</f>
+        <f>IF(G289&lt;&gt;"",UPPER(LEFT(G289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G289,G289),"0000"),"")</f>
         <v/>
       </c>
       <c r="B289" s="5"/>
@@ -5138,7 +5153,7 @@
     </row>
     <row r="290" customHeight="1" spans="1:8">
       <c r="A290" s="12" t="str">
-        <f>IF(G290&lt;&gt;"",UPPER(LEFT(G290,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G290,G290),"0000"),"")</f>
+        <f>IF(G290&lt;&gt;"",UPPER(LEFT(G290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G290,G290),"0000"),"")</f>
         <v/>
       </c>
       <c r="B290" s="5"/>
@@ -5151,7 +5166,7 @@
     </row>
     <row r="291" customHeight="1" spans="1:8">
       <c r="A291" s="12" t="str">
-        <f>IF(G291&lt;&gt;"",UPPER(LEFT(G291,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G291,G291),"0000"),"")</f>
+        <f>IF(G291&lt;&gt;"",UPPER(LEFT(G291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G291,G291),"0000"),"")</f>
         <v/>
       </c>
       <c r="B291" s="5"/>
@@ -5164,7 +5179,7 @@
     </row>
     <row r="292" customHeight="1" spans="1:8">
       <c r="A292" s="12" t="str">
-        <f>IF(G292&lt;&gt;"",UPPER(LEFT(G292,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G292,G292),"0000"),"")</f>
+        <f>IF(G292&lt;&gt;"",UPPER(LEFT(G292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G292,G292),"0000"),"")</f>
         <v/>
       </c>
       <c r="B292" s="5"/>
@@ -5177,7 +5192,7 @@
     </row>
     <row r="293" customHeight="1" spans="1:8">
       <c r="A293" s="12" t="str">
-        <f>IF(G293&lt;&gt;"",UPPER(LEFT(G293,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G293,G293),"0000"),"")</f>
+        <f>IF(G293&lt;&gt;"",UPPER(LEFT(G293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G293,G293),"0000"),"")</f>
         <v/>
       </c>
       <c r="B293" s="5"/>
@@ -5190,7 +5205,7 @@
     </row>
     <row r="294" customHeight="1" spans="1:8">
       <c r="A294" s="12" t="str">
-        <f>IF(G294&lt;&gt;"",UPPER(LEFT(G294,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G294,G294),"0000"),"")</f>
+        <f>IF(G294&lt;&gt;"",UPPER(LEFT(G294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G294,G294),"0000"),"")</f>
         <v/>
       </c>
       <c r="B294" s="5"/>
@@ -5203,7 +5218,7 @@
     </row>
     <row r="295" customHeight="1" spans="1:8">
       <c r="A295" s="12" t="str">
-        <f>IF(G295&lt;&gt;"",UPPER(LEFT(G295,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G295,G295),"0000"),"")</f>
+        <f>IF(G295&lt;&gt;"",UPPER(LEFT(G295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G295,G295),"0000"),"")</f>
         <v/>
       </c>
       <c r="B295" s="5"/>
@@ -5216,7 +5231,7 @@
     </row>
     <row r="296" customHeight="1" spans="1:8">
       <c r="A296" s="12" t="str">
-        <f>IF(G296&lt;&gt;"",UPPER(LEFT(G296,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G296,G296),"0000"),"")</f>
+        <f>IF(G296&lt;&gt;"",UPPER(LEFT(G296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G296,G296),"0000"),"")</f>
         <v/>
       </c>
       <c r="B296" s="5"/>
@@ -5229,7 +5244,7 @@
     </row>
     <row r="297" customHeight="1" spans="1:8">
       <c r="A297" s="12" t="str">
-        <f>IF(G297&lt;&gt;"",UPPER(LEFT(G297,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G297,G297),"0000"),"")</f>
+        <f>IF(G297&lt;&gt;"",UPPER(LEFT(G297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G297,G297),"0000"),"")</f>
         <v/>
       </c>
       <c r="B297" s="5"/>
@@ -5242,7 +5257,7 @@
     </row>
     <row r="298" customHeight="1" spans="1:8">
       <c r="A298" s="12" t="str">
-        <f>IF(G298&lt;&gt;"",UPPER(LEFT(G298,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G298,G298),"0000"),"")</f>
+        <f>IF(G298&lt;&gt;"",UPPER(LEFT(G298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G298,G298),"0000"),"")</f>
         <v/>
       </c>
       <c r="B298" s="5"/>
@@ -5255,7 +5270,7 @@
     </row>
     <row r="299" customHeight="1" spans="1:8">
       <c r="A299" s="12" t="str">
-        <f>IF(G299&lt;&gt;"",UPPER(LEFT(G299,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G299,G299),"0000"),"")</f>
+        <f>IF(G299&lt;&gt;"",UPPER(LEFT(G299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G299,G299),"0000"),"")</f>
         <v/>
       </c>
       <c r="B299" s="5"/>
@@ -5268,7 +5283,7 @@
     </row>
     <row r="300" customHeight="1" spans="1:8">
       <c r="A300" s="12" t="str">
-        <f>IF(G300&lt;&gt;"",UPPER(LEFT(G300,1))&amp;"-"&amp;TEXT('Import time'!$B$1,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G300,G300),"0000"),"")</f>
+        <f>IF(G300&lt;&gt;"",UPPER(LEFT(G300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G300,G300),"0000"),"")</f>
         <v/>
       </c>
       <c r="B300" s="5"/>
@@ -5309,8 +5324,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Import time(s)</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>youngCow</t>
+  </si>
+  <si>
+    <t>european</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holstein Friesian </t>
   </si>
   <si>
     <t>Cow Name</t>
@@ -121,13 +133,7 @@
     <t>seriousSickcow</t>
   </si>
   <si>
-    <t>youngCow</t>
-  </si>
-  <si>
     <t>culling</t>
-  </si>
-  <si>
-    <t>european</t>
   </si>
   <si>
     <t>indian</t>
@@ -151,13 +157,7 @@
     <t>crossbreed</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holstein Friesian </t>
   </si>
   <si>
     <t>Ayrshire</t>
@@ -1342,8 +1342,8 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1354,7 +1354,9 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="15"/>
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1370,7 +1372,7 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1407,14 +1409,26 @@
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="12" t="str">
         <f>IF(G2&lt;&gt;"",UPPER(LEFT(G2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G2,G2),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+        <v>H-0001-0001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45755</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45755</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
@@ -5324,8 +5338,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -5338,34 +5352,34 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -5374,17 +5388,35 @@
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="str">
         <f>Cow!A2</f>
-        <v/>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+        <v>H-0001-0001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1.9</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
@@ -16487,27 +16519,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -16531,32 +16563,32 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -16580,32 +16612,32 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -16629,42 +16661,42 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16688,12 +16720,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -16717,7 +16749,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Import time(s)</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Holstein Friesian </t>
+  </si>
+  <si>
+    <t>Ayrshire</t>
   </si>
   <si>
     <t>Cow Name</t>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>male</t>
-  </si>
-  <si>
-    <t>Ayrshire</t>
   </si>
   <si>
     <t>Guernsey</t>
@@ -1371,8 +1371,8 @@
   </sheetPr>
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1434,14 +1434,16 @@
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="12" t="str">
         <f>IF(G3&lt;&gt;"",UPPER(LEFT(G3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G3,G3),"0000"),"")</f>
-        <v/>
+        <v>A-0001-0001</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
@@ -5338,7 +5340,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -5352,34 +5354,34 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -5391,7 +5393,7 @@
         <v>H-0001-0001</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7">
         <v>1.5</v>
@@ -5422,7 +5424,7 @@
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="str">
         <f>Cow!A3</f>
-        <v/>
+        <v>A-0001-0001</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -16519,27 +16521,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -16563,22 +16565,22 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
@@ -16588,7 +16590,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -16612,22 +16614,22 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -16637,7 +16639,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -16666,37 +16668,37 @@
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -16725,7 +16727,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -16754,7 +16756,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Import time(s)</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>youngCow</t>
-  </si>
-  <si>
-    <t>european</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Ayrshire</t>
   </si>
   <si>
     <t>Cow Name</t>
@@ -133,7 +121,13 @@
     <t>seriousSickcow</t>
   </si>
   <si>
+    <t>youngCow</t>
+  </si>
+  <si>
     <t>culling</t>
+  </si>
+  <si>
+    <t>european</t>
   </si>
   <si>
     <t>indian</t>
@@ -157,10 +151,16 @@
     <t>crossbreed</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
     <t xml:space="preserve">Holstein Friesian </t>
+  </si>
+  <si>
+    <t>Ayrshire</t>
   </si>
   <si>
     <t>Guernsey</t>
@@ -176,12 +176,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -846,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -860,11 +861,23 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -919,7 +932,21 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1113,25 +1140,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
+      <tableStyleElement type="pageFieldValues" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1351,12 +1378,12 @@
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="17">
+      <c r="A2" s="23">
         <v>4</v>
       </c>
     </row>
@@ -1374,24 +1401,25 @@
   </sheetPr>
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="B2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6296296296296" style="12"/>
+    <col min="3" max="3" width="12.6296296296296" style="13"/>
     <col min="7" max="7" width="20.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1411,90 +1439,78 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="14" t="str">
+      <c r="A2" s="16" t="str">
         <f>IF(G2&lt;&gt;"",UPPER(LEFT(G2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G2,G2),"0000"),"")</f>
-        <v>A-0004-0001</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15">
-        <v>45755</v>
-      </c>
-      <c r="D2" s="15">
-        <v>45755</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="16" t="str">
         <f>IF(G3&lt;&gt;"",UPPER(LEFT(G3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G3,G3),"0000"),"")</f>
         <v/>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="14" t="str">
+      <c r="A4" s="16" t="str">
         <f>IF(G4&lt;&gt;"",UPPER(LEFT(G4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G4,G4),"0000"),"")</f>
         <v/>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="16" t="str">
         <f>IF(G5&lt;&gt;"",UPPER(LEFT(G5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G5,G5),"0000"),"")</f>
         <v/>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="14" t="str">
+      <c r="A6" s="16" t="str">
         <f>IF(G6&lt;&gt;"",UPPER(LEFT(G6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G6,G6),"0000"),"")</f>
         <v/>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="14" t="str">
+      <c r="A7" s="16" t="str">
         <f>IF(G7&lt;&gt;"",UPPER(LEFT(G7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G7,G7),"0000"),"")</f>
         <v/>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1503,13 +1519,13 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="14" t="str">
+      <c r="A8" s="16" t="str">
         <f>IF(G8&lt;&gt;"",UPPER(LEFT(G8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G8,G8),"0000"),"")</f>
         <v/>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1517,3802 +1533,3812 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="14" t="str">
+      <c r="A9" s="16" t="str">
         <f>IF(G9&lt;&gt;"",UPPER(LEFT(G9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G9,G9),"0000"),"")</f>
         <v/>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="14" t="str">
+      <c r="A10" s="16" t="str">
         <f>IF(G10&lt;&gt;"",UPPER(LEFT(G10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G10,G10),"0000"),"")</f>
         <v/>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="16" t="str">
         <f>IF(G11&lt;&gt;"",UPPER(LEFT(G11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G11,G11),"0000"),"")</f>
         <v/>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="14" t="str">
+      <c r="A12" s="16" t="str">
         <f>IF(G12&lt;&gt;"",UPPER(LEFT(G12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G12,G12),"0000"),"")</f>
         <v/>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="16" t="str">
         <f>IF(G13&lt;&gt;"",UPPER(LEFT(G13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G13,G13),"0000"),"")</f>
         <v/>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="14" t="str">
+      <c r="A14" s="16" t="str">
         <f>IF(G14&lt;&gt;"",UPPER(LEFT(G14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G14,G14),"0000"),"")</f>
         <v/>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="14" t="str">
+      <c r="A15" s="16" t="str">
         <f>IF(G15&lt;&gt;"",UPPER(LEFT(G15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G15,G15),"0000"),"")</f>
         <v/>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="14" t="str">
+      <c r="A16" s="16" t="str">
         <f>IF(G16&lt;&gt;"",UPPER(LEFT(G16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G16,G16),"0000"),"")</f>
         <v/>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="14" t="str">
+      <c r="A17" s="16" t="str">
         <f>IF(G17&lt;&gt;"",UPPER(LEFT(G17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G17,G17),"0000"),"")</f>
         <v/>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="14" t="str">
+      <c r="A18" s="16" t="str">
         <f>IF(G18&lt;&gt;"",UPPER(LEFT(G18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G18,G18),"0000"),"")</f>
         <v/>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="14" t="str">
+      <c r="A19" s="16" t="str">
         <f>IF(G19&lt;&gt;"",UPPER(LEFT(G19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G19,G19),"0000"),"")</f>
         <v/>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="14" t="str">
+      <c r="A20" s="16" t="str">
         <f>IF(G20&lt;&gt;"",UPPER(LEFT(G20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G20,G20),"0000"),"")</f>
         <v/>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="14" t="str">
+      <c r="A21" s="16" t="str">
         <f>IF(G21&lt;&gt;"",UPPER(LEFT(G21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G21,G21),"0000"),"")</f>
         <v/>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="14" t="str">
+      <c r="A22" s="16" t="str">
         <f>IF(G22&lt;&gt;"",UPPER(LEFT(G22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G22,G22),"0000"),"")</f>
         <v/>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="14" t="str">
+      <c r="A23" s="16" t="str">
         <f>IF(G23&lt;&gt;"",UPPER(LEFT(G23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G23,G23),"0000"),"")</f>
         <v/>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="14" t="str">
+      <c r="A24" s="16" t="str">
         <f>IF(G24&lt;&gt;"",UPPER(LEFT(G24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G24,G24),"0000"),"")</f>
         <v/>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="14" t="str">
+      <c r="A25" s="16" t="str">
         <f>IF(G25&lt;&gt;"",UPPER(LEFT(G25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G25,G25),"0000"),"")</f>
         <v/>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="14" t="str">
+      <c r="A26" s="16" t="str">
         <f>IF(G26&lt;&gt;"",UPPER(LEFT(G26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G26,G26),"0000"),"")</f>
         <v/>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="14" t="str">
+      <c r="A27" s="16" t="str">
         <f>IF(G27&lt;&gt;"",UPPER(LEFT(G27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G27,G27),"0000"),"")</f>
         <v/>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="14" t="str">
+      <c r="A28" s="16" t="str">
         <f>IF(G28&lt;&gt;"",UPPER(LEFT(G28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G28,G28),"0000"),"")</f>
         <v/>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="14" t="str">
+      <c r="A29" s="16" t="str">
         <f>IF(G29&lt;&gt;"",UPPER(LEFT(G29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G29,G29),"0000"),"")</f>
         <v/>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="14" t="str">
+      <c r="A30" s="16" t="str">
         <f>IF(G30&lt;&gt;"",UPPER(LEFT(G30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G30,G30),"0000"),"")</f>
         <v/>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="14" t="str">
+      <c r="A31" s="16" t="str">
         <f>IF(G31&lt;&gt;"",UPPER(LEFT(G31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G31,G31),"0000"),"")</f>
         <v/>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="14" t="str">
+      <c r="A32" s="16" t="str">
         <f>IF(G32&lt;&gt;"",UPPER(LEFT(G32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G32,G32),"0000"),"")</f>
         <v/>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="14" t="str">
+      <c r="A33" s="16" t="str">
         <f>IF(G33&lt;&gt;"",UPPER(LEFT(G33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G33,G33),"0000"),"")</f>
         <v/>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="14" t="str">
+      <c r="A34" s="16" t="str">
         <f>IF(G34&lt;&gt;"",UPPER(LEFT(G34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G34,G34),"0000"),"")</f>
         <v/>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="14" t="str">
+      <c r="A35" s="16" t="str">
         <f>IF(G35&lt;&gt;"",UPPER(LEFT(G35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G35,G35),"0000"),"")</f>
         <v/>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="14" t="str">
+      <c r="A36" s="16" t="str">
         <f>IF(G36&lt;&gt;"",UPPER(LEFT(G36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G36,G36),"0000"),"")</f>
         <v/>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="14" t="str">
+      <c r="A37" s="16" t="str">
         <f>IF(G37&lt;&gt;"",UPPER(LEFT(G37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G37,G37),"0000"),"")</f>
         <v/>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="14" t="str">
+      <c r="A38" s="16" t="str">
         <f>IF(G38&lt;&gt;"",UPPER(LEFT(G38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G38,G38),"0000"),"")</f>
         <v/>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="14" t="str">
+      <c r="A39" s="16" t="str">
         <f>IF(G39&lt;&gt;"",UPPER(LEFT(G39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G39,G39),"0000"),"")</f>
         <v/>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="14" t="str">
+      <c r="A40" s="16" t="str">
         <f>IF(G40&lt;&gt;"",UPPER(LEFT(G40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G40,G40),"0000"),"")</f>
         <v/>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="14" t="str">
+      <c r="A41" s="16" t="str">
         <f>IF(G41&lt;&gt;"",UPPER(LEFT(G41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G41,G41),"0000"),"")</f>
         <v/>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="14" t="str">
+      <c r="A42" s="16" t="str">
         <f>IF(G42&lt;&gt;"",UPPER(LEFT(G42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G42,G42),"0000"),"")</f>
         <v/>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="14" t="str">
+      <c r="A43" s="16" t="str">
         <f>IF(G43&lt;&gt;"",UPPER(LEFT(G43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G43,G43),"0000"),"")</f>
         <v/>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="14" t="str">
+      <c r="A44" s="16" t="str">
         <f>IF(G44&lt;&gt;"",UPPER(LEFT(G44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G44,G44),"0000"),"")</f>
         <v/>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="14" t="str">
+      <c r="A45" s="16" t="str">
         <f>IF(G45&lt;&gt;"",UPPER(LEFT(G45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G45,G45),"0000"),"")</f>
         <v/>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="14" t="str">
+      <c r="A46" s="16" t="str">
         <f>IF(G46&lt;&gt;"",UPPER(LEFT(G46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G46,G46),"0000"),"")</f>
         <v/>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="14" t="str">
+      <c r="A47" s="16" t="str">
         <f>IF(G47&lt;&gt;"",UPPER(LEFT(G47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G47,G47),"0000"),"")</f>
         <v/>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="14" t="str">
+      <c r="A48" s="16" t="str">
         <f>IF(G48&lt;&gt;"",UPPER(LEFT(G48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G48,G48),"0000"),"")</f>
         <v/>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="14" t="str">
+      <c r="A49" s="16" t="str">
         <f>IF(G49&lt;&gt;"",UPPER(LEFT(G49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G49,G49),"0000"),"")</f>
         <v/>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" customHeight="1" spans="1:8">
-      <c r="A50" s="14" t="str">
+      <c r="A50" s="16" t="str">
         <f>IF(G50&lt;&gt;"",UPPER(LEFT(G50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G50,G50),"0000"),"")</f>
         <v/>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="14" t="str">
+      <c r="A51" s="16" t="str">
         <f>IF(G51&lt;&gt;"",UPPER(LEFT(G51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G51,G51),"0000"),"")</f>
         <v/>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="14" t="str">
+      <c r="A52" s="16" t="str">
         <f>IF(G52&lt;&gt;"",UPPER(LEFT(G52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G52,G52),"0000"),"")</f>
         <v/>
       </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" customHeight="1" spans="1:8">
-      <c r="A53" s="14" t="str">
+      <c r="A53" s="16" t="str">
         <f>IF(G53&lt;&gt;"",UPPER(LEFT(G53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G53,G53),"0000"),"")</f>
         <v/>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" customHeight="1" spans="1:8">
-      <c r="A54" s="14" t="str">
+      <c r="A54" s="16" t="str">
         <f>IF(G54&lt;&gt;"",UPPER(LEFT(G54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G54,G54),"0000"),"")</f>
         <v/>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="14" t="str">
+      <c r="A55" s="16" t="str">
         <f>IF(G55&lt;&gt;"",UPPER(LEFT(G55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G55,G55),"0000"),"")</f>
         <v/>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="14" t="str">
+      <c r="A56" s="16" t="str">
         <f>IF(G56&lt;&gt;"",UPPER(LEFT(G56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G56,G56),"0000"),"")</f>
         <v/>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" customHeight="1" spans="1:8">
-      <c r="A57" s="14" t="str">
+      <c r="A57" s="16" t="str">
         <f>IF(G57&lt;&gt;"",UPPER(LEFT(G57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G57,G57),"0000"),"")</f>
         <v/>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" customHeight="1" spans="1:8">
-      <c r="A58" s="14" t="str">
+      <c r="A58" s="16" t="str">
         <f>IF(G58&lt;&gt;"",UPPER(LEFT(G58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G58,G58),"0000"),"")</f>
         <v/>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" customHeight="1" spans="1:8">
-      <c r="A59" s="14" t="str">
+      <c r="A59" s="16" t="str">
         <f>IF(G59&lt;&gt;"",UPPER(LEFT(G59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G59,G59),"0000"),"")</f>
         <v/>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" customHeight="1" spans="1:8">
-      <c r="A60" s="14" t="str">
+      <c r="A60" s="16" t="str">
         <f>IF(G60&lt;&gt;"",UPPER(LEFT(G60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G60,G60),"0000"),"")</f>
         <v/>
       </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" customHeight="1" spans="1:8">
-      <c r="A61" s="14" t="str">
+      <c r="A61" s="16" t="str">
         <f>IF(G61&lt;&gt;"",UPPER(LEFT(G61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G61,G61),"0000"),"")</f>
         <v/>
       </c>
       <c r="B61" s="5"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="5"/>
     </row>
     <row r="62" customHeight="1" spans="1:8">
-      <c r="A62" s="14" t="str">
+      <c r="A62" s="16" t="str">
         <f>IF(G62&lt;&gt;"",UPPER(LEFT(G62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G62,G62),"0000"),"")</f>
         <v/>
       </c>
       <c r="B62" s="5"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" customHeight="1" spans="1:8">
-      <c r="A63" s="14" t="str">
+      <c r="A63" s="16" t="str">
         <f>IF(G63&lt;&gt;"",UPPER(LEFT(G63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G63,G63),"0000"),"")</f>
         <v/>
       </c>
       <c r="B63" s="5"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
       <c r="H63" s="5"/>
     </row>
     <row r="64" customHeight="1" spans="1:8">
-      <c r="A64" s="14" t="str">
+      <c r="A64" s="16" t="str">
         <f>IF(G64&lt;&gt;"",UPPER(LEFT(G64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G64,G64),"0000"),"")</f>
         <v/>
       </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" customHeight="1" spans="1:8">
-      <c r="A65" s="14" t="str">
+      <c r="A65" s="16" t="str">
         <f>IF(G65&lt;&gt;"",UPPER(LEFT(G65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G65,G65),"0000"),"")</f>
         <v/>
       </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" customHeight="1" spans="1:8">
-      <c r="A66" s="14" t="str">
+      <c r="A66" s="16" t="str">
         <f>IF(G66&lt;&gt;"",UPPER(LEFT(G66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G66,G66),"0000"),"")</f>
         <v/>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" customHeight="1" spans="1:8">
-      <c r="A67" s="14" t="str">
+      <c r="A67" s="16" t="str">
         <f>IF(G67&lt;&gt;"",UPPER(LEFT(G67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G67,G67),"0000"),"")</f>
         <v/>
       </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" customHeight="1" spans="1:8">
-      <c r="A68" s="14" t="str">
+      <c r="A68" s="16" t="str">
         <f>IF(G68&lt;&gt;"",UPPER(LEFT(G68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G68,G68),"0000"),"")</f>
         <v/>
       </c>
       <c r="B68" s="5"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
-      <c r="A69" s="14" t="str">
+      <c r="A69" s="16" t="str">
         <f>IF(G69&lt;&gt;"",UPPER(LEFT(G69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G69,G69),"0000"),"")</f>
         <v/>
       </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" customHeight="1" spans="1:8">
-      <c r="A70" s="14" t="str">
+      <c r="A70" s="16" t="str">
         <f>IF(G70&lt;&gt;"",UPPER(LEFT(G70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G70,G70),"0000"),"")</f>
         <v/>
       </c>
       <c r="B70" s="5"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" customHeight="1" spans="1:8">
-      <c r="A71" s="14" t="str">
+      <c r="A71" s="16" t="str">
         <f>IF(G71&lt;&gt;"",UPPER(LEFT(G71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G71,G71),"0000"),"")</f>
         <v/>
       </c>
       <c r="B71" s="5"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" customHeight="1" spans="1:8">
-      <c r="A72" s="14" t="str">
+      <c r="A72" s="16" t="str">
         <f>IF(G72&lt;&gt;"",UPPER(LEFT(G72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G72,G72),"0000"),"")</f>
         <v/>
       </c>
       <c r="B72" s="5"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="5"/>
     </row>
     <row r="73" customHeight="1" spans="1:8">
-      <c r="A73" s="14" t="str">
+      <c r="A73" s="16" t="str">
         <f>IF(G73&lt;&gt;"",UPPER(LEFT(G73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G73,G73),"0000"),"")</f>
         <v/>
       </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" customHeight="1" spans="1:8">
-      <c r="A74" s="14" t="str">
+      <c r="A74" s="16" t="str">
         <f>IF(G74&lt;&gt;"",UPPER(LEFT(G74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G74,G74),"0000"),"")</f>
         <v/>
       </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" customHeight="1" spans="1:8">
-      <c r="A75" s="14" t="str">
+      <c r="A75" s="16" t="str">
         <f>IF(G75&lt;&gt;"",UPPER(LEFT(G75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G75,G75),"0000"),"")</f>
         <v/>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="5"/>
     </row>
     <row r="76" customHeight="1" spans="1:8">
-      <c r="A76" s="14" t="str">
+      <c r="A76" s="16" t="str">
         <f>IF(G76&lt;&gt;"",UPPER(LEFT(G76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G76,G76),"0000"),"")</f>
         <v/>
       </c>
       <c r="B76" s="5"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
       <c r="H76" s="5"/>
     </row>
     <row r="77" customHeight="1" spans="1:8">
-      <c r="A77" s="14" t="str">
+      <c r="A77" s="16" t="str">
         <f>IF(G77&lt;&gt;"",UPPER(LEFT(G77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G77,G77),"0000"),"")</f>
         <v/>
       </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" customHeight="1" spans="1:8">
-      <c r="A78" s="14" t="str">
+      <c r="A78" s="16" t="str">
         <f>IF(G78&lt;&gt;"",UPPER(LEFT(G78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G78,G78),"0000"),"")</f>
         <v/>
       </c>
       <c r="B78" s="5"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="5"/>
     </row>
     <row r="79" customHeight="1" spans="1:8">
-      <c r="A79" s="14" t="str">
+      <c r="A79" s="16" t="str">
         <f>IF(G79&lt;&gt;"",UPPER(LEFT(G79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G79,G79),"0000"),"")</f>
         <v/>
       </c>
       <c r="B79" s="5"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="5"/>
     </row>
     <row r="80" customHeight="1" spans="1:8">
-      <c r="A80" s="14" t="str">
+      <c r="A80" s="16" t="str">
         <f>IF(G80&lt;&gt;"",UPPER(LEFT(G80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G80,G80),"0000"),"")</f>
         <v/>
       </c>
       <c r="B80" s="5"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" customHeight="1" spans="1:8">
-      <c r="A81" s="14" t="str">
+      <c r="A81" s="16" t="str">
         <f>IF(G81&lt;&gt;"",UPPER(LEFT(G81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G81,G81),"0000"),"")</f>
         <v/>
       </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" customHeight="1" spans="1:8">
-      <c r="A82" s="14" t="str">
+      <c r="A82" s="16" t="str">
         <f>IF(G82&lt;&gt;"",UPPER(LEFT(G82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G82,G82),"0000"),"")</f>
         <v/>
       </c>
       <c r="B82" s="5"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" customHeight="1" spans="1:8">
-      <c r="A83" s="14" t="str">
+      <c r="A83" s="16" t="str">
         <f>IF(G83&lt;&gt;"",UPPER(LEFT(G83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G83,G83),"0000"),"")</f>
         <v/>
       </c>
       <c r="B83" s="5"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" customHeight="1" spans="1:8">
-      <c r="A84" s="14" t="str">
+      <c r="A84" s="16" t="str">
         <f>IF(G84&lt;&gt;"",UPPER(LEFT(G84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G84,G84),"0000"),"")</f>
         <v/>
       </c>
       <c r="B84" s="5"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="H84" s="5"/>
     </row>
     <row r="85" customHeight="1" spans="1:8">
-      <c r="A85" s="14" t="str">
+      <c r="A85" s="16" t="str">
         <f>IF(G85&lt;&gt;"",UPPER(LEFT(G85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G85,G85),"0000"),"")</f>
         <v/>
       </c>
       <c r="B85" s="5"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" customHeight="1" spans="1:8">
-      <c r="A86" s="14" t="str">
+      <c r="A86" s="16" t="str">
         <f>IF(G86&lt;&gt;"",UPPER(LEFT(G86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G86,G86),"0000"),"")</f>
         <v/>
       </c>
       <c r="B86" s="5"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="H86" s="5"/>
     </row>
     <row r="87" customHeight="1" spans="1:8">
-      <c r="A87" s="14" t="str">
+      <c r="A87" s="16" t="str">
         <f>IF(G87&lt;&gt;"",UPPER(LEFT(G87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G87,G87),"0000"),"")</f>
         <v/>
       </c>
       <c r="B87" s="5"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="H87" s="5"/>
     </row>
     <row r="88" customHeight="1" spans="1:8">
-      <c r="A88" s="14" t="str">
+      <c r="A88" s="16" t="str">
         <f>IF(G88&lt;&gt;"",UPPER(LEFT(G88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G88,G88),"0000"),"")</f>
         <v/>
       </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="5"/>
     </row>
     <row r="89" customHeight="1" spans="1:8">
-      <c r="A89" s="14" t="str">
+      <c r="A89" s="16" t="str">
         <f>IF(G89&lt;&gt;"",UPPER(LEFT(G89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G89,G89),"0000"),"")</f>
         <v/>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
       <c r="H89" s="5"/>
     </row>
     <row r="90" customHeight="1" spans="1:8">
-      <c r="A90" s="14" t="str">
+      <c r="A90" s="16" t="str">
         <f>IF(G90&lt;&gt;"",UPPER(LEFT(G90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G90,G90),"0000"),"")</f>
         <v/>
       </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="H90" s="5"/>
     </row>
     <row r="91" customHeight="1" spans="1:8">
-      <c r="A91" s="14" t="str">
+      <c r="A91" s="16" t="str">
         <f>IF(G91&lt;&gt;"",UPPER(LEFT(G91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G91,G91),"0000"),"")</f>
         <v/>
       </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="H91" s="5"/>
     </row>
     <row r="92" customHeight="1" spans="1:8">
-      <c r="A92" s="14" t="str">
+      <c r="A92" s="16" t="str">
         <f>IF(G92&lt;&gt;"",UPPER(LEFT(G92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G92,G92),"0000"),"")</f>
         <v/>
       </c>
       <c r="B92" s="5"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
       <c r="H92" s="5"/>
     </row>
     <row r="93" customHeight="1" spans="1:8">
-      <c r="A93" s="14" t="str">
+      <c r="A93" s="16" t="str">
         <f>IF(G93&lt;&gt;"",UPPER(LEFT(G93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G93,G93),"0000"),"")</f>
         <v/>
       </c>
       <c r="B93" s="5"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
       <c r="H93" s="5"/>
     </row>
     <row r="94" customHeight="1" spans="1:8">
-      <c r="A94" s="14" t="str">
+      <c r="A94" s="16" t="str">
         <f>IF(G94&lt;&gt;"",UPPER(LEFT(G94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G94,G94),"0000"),"")</f>
         <v/>
       </c>
       <c r="B94" s="5"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
       <c r="H94" s="5"/>
     </row>
     <row r="95" customHeight="1" spans="1:8">
-      <c r="A95" s="14" t="str">
+      <c r="A95" s="16" t="str">
         <f>IF(G95&lt;&gt;"",UPPER(LEFT(G95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G95,G95),"0000"),"")</f>
         <v/>
       </c>
       <c r="B95" s="5"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
       <c r="H95" s="5"/>
     </row>
     <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="14" t="str">
+      <c r="A96" s="16" t="str">
         <f>IF(G96&lt;&gt;"",UPPER(LEFT(G96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G96,G96),"0000"),"")</f>
         <v/>
       </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="21"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
       <c r="H96" s="5"/>
     </row>
     <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="14" t="str">
+      <c r="A97" s="16" t="str">
         <f>IF(G97&lt;&gt;"",UPPER(LEFT(G97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G97,G97),"0000"),"")</f>
         <v/>
       </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="21"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
       <c r="H97" s="5"/>
     </row>
     <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="14" t="str">
+      <c r="A98" s="16" t="str">
         <f>IF(G98&lt;&gt;"",UPPER(LEFT(G98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G98,G98),"0000"),"")</f>
         <v/>
       </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="21"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
       <c r="H98" s="5"/>
     </row>
     <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="14" t="str">
+      <c r="A99" s="16" t="str">
         <f>IF(G99&lt;&gt;"",UPPER(LEFT(G99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G99,G99),"0000"),"")</f>
         <v/>
       </c>
       <c r="B99" s="5"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="H99" s="5"/>
     </row>
     <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="14" t="str">
+      <c r="A100" s="16" t="str">
         <f>IF(G100&lt;&gt;"",UPPER(LEFT(G100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G100,G100),"0000"),"")</f>
         <v/>
       </c>
       <c r="B100" s="5"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="H100" s="5"/>
     </row>
     <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="14" t="str">
+      <c r="A101" s="16" t="str">
         <f>IF(G101&lt;&gt;"",UPPER(LEFT(G101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G101,G101),"0000"),"")</f>
         <v/>
       </c>
       <c r="B101" s="5"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="21"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
       <c r="H101" s="5"/>
     </row>
     <row r="102" customHeight="1" spans="1:8">
-      <c r="A102" s="14" t="str">
+      <c r="A102" s="16" t="str">
         <f>IF(G102&lt;&gt;"",UPPER(LEFT(G102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G102,G102),"0000"),"")</f>
         <v/>
       </c>
       <c r="B102" s="5"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="21"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="5"/>
     </row>
     <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="14" t="str">
+      <c r="A103" s="16" t="str">
         <f>IF(G103&lt;&gt;"",UPPER(LEFT(G103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G103,G103),"0000"),"")</f>
         <v/>
       </c>
       <c r="B103" s="5"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="21"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
       <c r="H103" s="5"/>
     </row>
     <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="14" t="str">
+      <c r="A104" s="16" t="str">
         <f>IF(G104&lt;&gt;"",UPPER(LEFT(G104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G104,G104),"0000"),"")</f>
         <v/>
       </c>
       <c r="B104" s="5"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="21"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
       <c r="H104" s="5"/>
     </row>
     <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="14" t="str">
+      <c r="A105" s="16" t="str">
         <f>IF(G105&lt;&gt;"",UPPER(LEFT(G105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G105,G105),"0000"),"")</f>
         <v/>
       </c>
       <c r="B105" s="5"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
       <c r="H105" s="5"/>
     </row>
     <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="14" t="str">
+      <c r="A106" s="16" t="str">
         <f>IF(G106&lt;&gt;"",UPPER(LEFT(G106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G106,G106),"0000"),"")</f>
         <v/>
       </c>
       <c r="B106" s="5"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="H106" s="5"/>
     </row>
     <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="14" t="str">
+      <c r="A107" s="16" t="str">
         <f>IF(G107&lt;&gt;"",UPPER(LEFT(G107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G107,G107),"0000"),"")</f>
         <v/>
       </c>
       <c r="B107" s="5"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
       <c r="H107" s="5"/>
     </row>
     <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="14" t="str">
+      <c r="A108" s="16" t="str">
         <f>IF(G108&lt;&gt;"",UPPER(LEFT(G108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G108,G108),"0000"),"")</f>
         <v/>
       </c>
       <c r="B108" s="5"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="21"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="H108" s="5"/>
     </row>
     <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="14" t="str">
+      <c r="A109" s="16" t="str">
         <f>IF(G109&lt;&gt;"",UPPER(LEFT(G109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G109,G109),"0000"),"")</f>
         <v/>
       </c>
       <c r="B109" s="5"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
       <c r="H109" s="5"/>
     </row>
     <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="14" t="str">
+      <c r="A110" s="16" t="str">
         <f>IF(G110&lt;&gt;"",UPPER(LEFT(G110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G110,G110),"0000"),"")</f>
         <v/>
       </c>
       <c r="B110" s="5"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="H110" s="5"/>
     </row>
     <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="14" t="str">
+      <c r="A111" s="16" t="str">
         <f>IF(G111&lt;&gt;"",UPPER(LEFT(G111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G111,G111),"0000"),"")</f>
         <v/>
       </c>
       <c r="B111" s="5"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="21"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="H111" s="5"/>
     </row>
     <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="14" t="str">
+      <c r="A112" s="16" t="str">
         <f>IF(G112&lt;&gt;"",UPPER(LEFT(G112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G112,G112),"0000"),"")</f>
         <v/>
       </c>
       <c r="B112" s="5"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="21"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
       <c r="H112" s="5"/>
     </row>
     <row r="113" customHeight="1" spans="1:8">
-      <c r="A113" s="14" t="str">
+      <c r="A113" s="16" t="str">
         <f>IF(G113&lt;&gt;"",UPPER(LEFT(G113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G113,G113),"0000"),"")</f>
         <v/>
       </c>
       <c r="B113" s="5"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
       <c r="H113" s="5"/>
     </row>
     <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="14" t="str">
+      <c r="A114" s="16" t="str">
         <f>IF(G114&lt;&gt;"",UPPER(LEFT(G114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G114,G114),"0000"),"")</f>
         <v/>
       </c>
       <c r="B114" s="5"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="21"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="H114" s="5"/>
     </row>
     <row r="115" customHeight="1" spans="1:8">
-      <c r="A115" s="14" t="str">
+      <c r="A115" s="16" t="str">
         <f>IF(G115&lt;&gt;"",UPPER(LEFT(G115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G115,G115),"0000"),"")</f>
         <v/>
       </c>
       <c r="B115" s="5"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="21"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
       <c r="H115" s="5"/>
     </row>
     <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="14" t="str">
+      <c r="A116" s="16" t="str">
         <f>IF(G116&lt;&gt;"",UPPER(LEFT(G116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G116,G116),"0000"),"")</f>
         <v/>
       </c>
       <c r="B116" s="5"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="21"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
       <c r="H116" s="5"/>
     </row>
     <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="14" t="str">
+      <c r="A117" s="16" t="str">
         <f>IF(G117&lt;&gt;"",UPPER(LEFT(G117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G117,G117),"0000"),"")</f>
         <v/>
       </c>
       <c r="B117" s="5"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="21"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
       <c r="H117" s="5"/>
     </row>
     <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="14" t="str">
+      <c r="A118" s="16" t="str">
         <f>IF(G118&lt;&gt;"",UPPER(LEFT(G118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G118,G118),"0000"),"")</f>
         <v/>
       </c>
       <c r="B118" s="5"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="21"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
       <c r="H118" s="5"/>
     </row>
     <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="14" t="str">
+      <c r="A119" s="16" t="str">
         <f>IF(G119&lt;&gt;"",UPPER(LEFT(G119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G119,G119),"0000"),"")</f>
         <v/>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="21"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
       <c r="H119" s="5"/>
     </row>
     <row r="120" customHeight="1" spans="1:8">
-      <c r="A120" s="14" t="str">
+      <c r="A120" s="16" t="str">
         <f>IF(G120&lt;&gt;"",UPPER(LEFT(G120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G120,G120),"0000"),"")</f>
         <v/>
       </c>
       <c r="B120" s="5"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="H120" s="5"/>
     </row>
     <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="14" t="str">
+      <c r="A121" s="16" t="str">
         <f>IF(G121&lt;&gt;"",UPPER(LEFT(G121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G121,G121),"0000"),"")</f>
         <v/>
       </c>
       <c r="B121" s="5"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="21"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
       <c r="H121" s="5"/>
     </row>
     <row r="122" customHeight="1" spans="1:8">
-      <c r="A122" s="14" t="str">
+      <c r="A122" s="16" t="str">
         <f>IF(G122&lt;&gt;"",UPPER(LEFT(G122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G122,G122),"0000"),"")</f>
         <v/>
       </c>
       <c r="B122" s="5"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="21"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
       <c r="H122" s="5"/>
     </row>
     <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="14" t="str">
+      <c r="A123" s="16" t="str">
         <f>IF(G123&lt;&gt;"",UPPER(LEFT(G123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G123,G123),"0000"),"")</f>
         <v/>
       </c>
       <c r="B123" s="5"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="21"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
       <c r="H123" s="5"/>
     </row>
     <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="14" t="str">
+      <c r="A124" s="16" t="str">
         <f>IF(G124&lt;&gt;"",UPPER(LEFT(G124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G124,G124),"0000"),"")</f>
         <v/>
       </c>
       <c r="B124" s="5"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="21"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
       <c r="H124" s="5"/>
     </row>
     <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="14" t="str">
+      <c r="A125" s="16" t="str">
         <f>IF(G125&lt;&gt;"",UPPER(LEFT(G125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G125,G125),"0000"),"")</f>
         <v/>
       </c>
       <c r="B125" s="5"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="21"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
       <c r="H125" s="5"/>
     </row>
     <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="14" t="str">
+      <c r="A126" s="16" t="str">
         <f>IF(G126&lt;&gt;"",UPPER(LEFT(G126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G126,G126),"0000"),"")</f>
         <v/>
       </c>
       <c r="B126" s="5"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="21"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
       <c r="H126" s="5"/>
     </row>
     <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="14" t="str">
+      <c r="A127" s="16" t="str">
         <f>IF(G127&lt;&gt;"",UPPER(LEFT(G127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G127,G127),"0000"),"")</f>
         <v/>
       </c>
       <c r="B127" s="5"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="21"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
       <c r="H127" s="5"/>
     </row>
     <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="14" t="str">
+      <c r="A128" s="16" t="str">
         <f>IF(G128&lt;&gt;"",UPPER(LEFT(G128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G128,G128),"0000"),"")</f>
         <v/>
       </c>
       <c r="B128" s="5"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="21"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
       <c r="H128" s="5"/>
     </row>
     <row r="129" customHeight="1" spans="1:8">
-      <c r="A129" s="14" t="str">
+      <c r="A129" s="16" t="str">
         <f>IF(G129&lt;&gt;"",UPPER(LEFT(G129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G129,G129),"0000"),"")</f>
         <v/>
       </c>
       <c r="B129" s="5"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="21"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
       <c r="H129" s="5"/>
     </row>
     <row r="130" customHeight="1" spans="1:8">
-      <c r="A130" s="14" t="str">
+      <c r="A130" s="16" t="str">
         <f>IF(G130&lt;&gt;"",UPPER(LEFT(G130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G130,G130),"0000"),"")</f>
         <v/>
       </c>
       <c r="B130" s="5"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="21"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
       <c r="H130" s="5"/>
     </row>
     <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="14" t="str">
+      <c r="A131" s="16" t="str">
         <f>IF(G131&lt;&gt;"",UPPER(LEFT(G131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G131,G131),"0000"),"")</f>
         <v/>
       </c>
       <c r="B131" s="5"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="21"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="H131" s="5"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="14" t="str">
+      <c r="A132" s="16" t="str">
         <f>IF(G132&lt;&gt;"",UPPER(LEFT(G132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G132,G132),"0000"),"")</f>
         <v/>
       </c>
       <c r="B132" s="5"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="21"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="5"/>
     </row>
     <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="14" t="str">
+      <c r="A133" s="16" t="str">
         <f>IF(G133&lt;&gt;"",UPPER(LEFT(G133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G133,G133),"0000"),"")</f>
         <v/>
       </c>
       <c r="B133" s="5"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="21"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="5"/>
     </row>
     <row r="134" customHeight="1" spans="1:8">
-      <c r="A134" s="14" t="str">
+      <c r="A134" s="16" t="str">
         <f>IF(G134&lt;&gt;"",UPPER(LEFT(G134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G134,G134),"0000"),"")</f>
         <v/>
       </c>
       <c r="B134" s="5"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="21"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="H134" s="5"/>
     </row>
     <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="14" t="str">
+      <c r="A135" s="16" t="str">
         <f>IF(G135&lt;&gt;"",UPPER(LEFT(G135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G135,G135),"0000"),"")</f>
         <v/>
       </c>
       <c r="B135" s="5"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="21"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="14" t="str">
+      <c r="A136" s="16" t="str">
         <f>IF(G136&lt;&gt;"",UPPER(LEFT(G136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G136,G136),"0000"),"")</f>
         <v/>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="21"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
       <c r="H136" s="5"/>
     </row>
     <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="14" t="str">
+      <c r="A137" s="16" t="str">
         <f>IF(G137&lt;&gt;"",UPPER(LEFT(G137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G137,G137),"0000"),"")</f>
         <v/>
       </c>
       <c r="B137" s="5"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="21"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
       <c r="H137" s="5"/>
     </row>
     <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="14" t="str">
+      <c r="A138" s="16" t="str">
         <f>IF(G138&lt;&gt;"",UPPER(LEFT(G138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G138,G138),"0000"),"")</f>
         <v/>
       </c>
       <c r="B138" s="5"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="21"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
       <c r="H138" s="5"/>
     </row>
     <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="14" t="str">
+      <c r="A139" s="16" t="str">
         <f>IF(G139&lt;&gt;"",UPPER(LEFT(G139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G139,G139),"0000"),"")</f>
         <v/>
       </c>
       <c r="B139" s="5"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="21"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
       <c r="H139" s="5"/>
     </row>
     <row r="140" customHeight="1" spans="1:8">
-      <c r="A140" s="14" t="str">
+      <c r="A140" s="16" t="str">
         <f>IF(G140&lt;&gt;"",UPPER(LEFT(G140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G140,G140),"0000"),"")</f>
         <v/>
       </c>
       <c r="B140" s="5"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="21"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="H140" s="5"/>
     </row>
     <row r="141" customHeight="1" spans="1:8">
-      <c r="A141" s="14" t="str">
+      <c r="A141" s="16" t="str">
         <f>IF(G141&lt;&gt;"",UPPER(LEFT(G141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G141,G141),"0000"),"")</f>
         <v/>
       </c>
       <c r="B141" s="5"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="21"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
       <c r="H141" s="5"/>
     </row>
     <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="14" t="str">
+      <c r="A142" s="16" t="str">
         <f>IF(G142&lt;&gt;"",UPPER(LEFT(G142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G142,G142),"0000"),"")</f>
         <v/>
       </c>
       <c r="B142" s="5"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="21"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="14" t="str">
+      <c r="A143" s="16" t="str">
         <f>IF(G143&lt;&gt;"",UPPER(LEFT(G143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G143,G143),"0000"),"")</f>
         <v/>
       </c>
       <c r="B143" s="5"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="21"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="5"/>
     </row>
     <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="14" t="str">
+      <c r="A144" s="16" t="str">
         <f>IF(G144&lt;&gt;"",UPPER(LEFT(G144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G144,G144),"0000"),"")</f>
         <v/>
       </c>
       <c r="B144" s="5"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="21"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="5"/>
     </row>
     <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="14" t="str">
+      <c r="A145" s="16" t="str">
         <f>IF(G145&lt;&gt;"",UPPER(LEFT(G145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G145,G145),"0000"),"")</f>
         <v/>
       </c>
       <c r="B145" s="5"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="21"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="5"/>
     </row>
     <row r="146" customHeight="1" spans="1:8">
-      <c r="A146" s="14" t="str">
+      <c r="A146" s="16" t="str">
         <f>IF(G146&lt;&gt;"",UPPER(LEFT(G146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G146,G146),"0000"),"")</f>
         <v/>
       </c>
       <c r="B146" s="5"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="21"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
       <c r="H146" s="5"/>
     </row>
     <row r="147" customHeight="1" spans="1:8">
-      <c r="A147" s="14" t="str">
+      <c r="A147" s="16" t="str">
         <f>IF(G147&lt;&gt;"",UPPER(LEFT(G147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G147,G147),"0000"),"")</f>
         <v/>
       </c>
       <c r="B147" s="5"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="21"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="14" t="str">
+      <c r="A148" s="16" t="str">
         <f>IF(G148&lt;&gt;"",UPPER(LEFT(G148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G148,G148),"0000"),"")</f>
         <v/>
       </c>
       <c r="B148" s="5"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="21"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="H148" s="5"/>
     </row>
     <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="14" t="str">
+      <c r="A149" s="16" t="str">
         <f>IF(G149&lt;&gt;"",UPPER(LEFT(G149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G149,G149),"0000"),"")</f>
         <v/>
       </c>
       <c r="B149" s="5"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="21"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
       <c r="H149" s="5"/>
     </row>
     <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="14" t="str">
+      <c r="A150" s="16" t="str">
         <f>IF(G150&lt;&gt;"",UPPER(LEFT(G150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G150,G150),"0000"),"")</f>
         <v/>
       </c>
       <c r="B150" s="5"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="21"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="5"/>
     </row>
     <row r="151" customHeight="1" spans="1:8">
-      <c r="A151" s="14" t="str">
+      <c r="A151" s="16" t="str">
         <f>IF(G151&lt;&gt;"",UPPER(LEFT(G151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G151,G151),"0000"),"")</f>
         <v/>
       </c>
       <c r="B151" s="5"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="21"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="H151" s="5"/>
     </row>
     <row r="152" customHeight="1" spans="1:8">
-      <c r="A152" s="14" t="str">
+      <c r="A152" s="16" t="str">
         <f>IF(G152&lt;&gt;"",UPPER(LEFT(G152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G152,G152),"0000"),"")</f>
         <v/>
       </c>
       <c r="B152" s="5"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="21"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
       <c r="H152" s="5"/>
     </row>
     <row r="153" customHeight="1" spans="1:8">
-      <c r="A153" s="14" t="str">
+      <c r="A153" s="16" t="str">
         <f>IF(G153&lt;&gt;"",UPPER(LEFT(G153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G153,G153),"0000"),"")</f>
         <v/>
       </c>
       <c r="B153" s="5"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="21"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
       <c r="H153" s="5"/>
     </row>
     <row r="154" customHeight="1" spans="1:8">
-      <c r="A154" s="14" t="str">
+      <c r="A154" s="16" t="str">
         <f>IF(G154&lt;&gt;"",UPPER(LEFT(G154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G154,G154),"0000"),"")</f>
         <v/>
       </c>
       <c r="B154" s="5"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="21"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
       <c r="H154" s="5"/>
     </row>
     <row r="155" customHeight="1" spans="1:8">
-      <c r="A155" s="14" t="str">
+      <c r="A155" s="16" t="str">
         <f>IF(G155&lt;&gt;"",UPPER(LEFT(G155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G155,G155),"0000"),"")</f>
         <v/>
       </c>
       <c r="B155" s="5"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="21"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
       <c r="H155" s="5"/>
     </row>
     <row r="156" customHeight="1" spans="1:8">
-      <c r="A156" s="14" t="str">
+      <c r="A156" s="16" t="str">
         <f>IF(G156&lt;&gt;"",UPPER(LEFT(G156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G156,G156),"0000"),"")</f>
         <v/>
       </c>
       <c r="B156" s="5"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="21"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
       <c r="H156" s="5"/>
     </row>
     <row r="157" customHeight="1" spans="1:8">
-      <c r="A157" s="14" t="str">
+      <c r="A157" s="16" t="str">
         <f>IF(G157&lt;&gt;"",UPPER(LEFT(G157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G157,G157),"0000"),"")</f>
         <v/>
       </c>
       <c r="B157" s="5"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="21"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
       <c r="H157" s="5"/>
     </row>
     <row r="158" customHeight="1" spans="1:8">
-      <c r="A158" s="14" t="str">
+      <c r="A158" s="16" t="str">
         <f>IF(G158&lt;&gt;"",UPPER(LEFT(G158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G158,G158),"0000"),"")</f>
         <v/>
       </c>
       <c r="B158" s="5"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="21"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
       <c r="H158" s="5"/>
     </row>
     <row r="159" customHeight="1" spans="1:8">
-      <c r="A159" s="14" t="str">
+      <c r="A159" s="16" t="str">
         <f>IF(G159&lt;&gt;"",UPPER(LEFT(G159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G159,G159),"0000"),"")</f>
         <v/>
       </c>
       <c r="B159" s="5"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="21"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
       <c r="H159" s="5"/>
     </row>
     <row r="160" customHeight="1" spans="1:8">
-      <c r="A160" s="14" t="str">
+      <c r="A160" s="16" t="str">
         <f>IF(G160&lt;&gt;"",UPPER(LEFT(G160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G160,G160),"0000"),"")</f>
         <v/>
       </c>
       <c r="B160" s="5"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="21"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
       <c r="H160" s="5"/>
     </row>
     <row r="161" customHeight="1" spans="1:8">
-      <c r="A161" s="14" t="str">
+      <c r="A161" s="16" t="str">
         <f>IF(G161&lt;&gt;"",UPPER(LEFT(G161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G161,G161),"0000"),"")</f>
         <v/>
       </c>
       <c r="B161" s="5"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="21"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
       <c r="H161" s="5"/>
     </row>
     <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="14" t="str">
+      <c r="A162" s="16" t="str">
         <f>IF(G162&lt;&gt;"",UPPER(LEFT(G162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G162,G162),"0000"),"")</f>
         <v/>
       </c>
       <c r="B162" s="5"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="21"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
       <c r="H162" s="5"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="14" t="str">
+      <c r="A163" s="16" t="str">
         <f>IF(G163&lt;&gt;"",UPPER(LEFT(G163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G163,G163),"0000"),"")</f>
         <v/>
       </c>
       <c r="B163" s="5"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="21"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
       <c r="H163" s="5"/>
     </row>
     <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="14" t="str">
+      <c r="A164" s="16" t="str">
         <f>IF(G164&lt;&gt;"",UPPER(LEFT(G164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G164,G164),"0000"),"")</f>
         <v/>
       </c>
       <c r="B164" s="5"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="21"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
       <c r="H164" s="5"/>
     </row>
     <row r="165" customHeight="1" spans="1:8">
-      <c r="A165" s="14" t="str">
+      <c r="A165" s="16" t="str">
         <f>IF(G165&lt;&gt;"",UPPER(LEFT(G165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G165,G165),"0000"),"")</f>
         <v/>
       </c>
       <c r="B165" s="5"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="21"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
       <c r="H165" s="5"/>
     </row>
     <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="14" t="str">
+      <c r="A166" s="16" t="str">
         <f>IF(G166&lt;&gt;"",UPPER(LEFT(G166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G166,G166),"0000"),"")</f>
         <v/>
       </c>
       <c r="B166" s="5"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="21"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="5"/>
     </row>
     <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="14" t="str">
+      <c r="A167" s="16" t="str">
         <f>IF(G167&lt;&gt;"",UPPER(LEFT(G167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G167,G167),"0000"),"")</f>
         <v/>
       </c>
       <c r="B167" s="5"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="21"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
       <c r="H167" s="5"/>
     </row>
     <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="14" t="str">
+      <c r="A168" s="16" t="str">
         <f>IF(G168&lt;&gt;"",UPPER(LEFT(G168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G168,G168),"0000"),"")</f>
         <v/>
       </c>
       <c r="B168" s="5"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="21"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
       <c r="H168" s="5"/>
     </row>
     <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="14" t="str">
+      <c r="A169" s="16" t="str">
         <f>IF(G169&lt;&gt;"",UPPER(LEFT(G169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G169,G169),"0000"),"")</f>
         <v/>
       </c>
       <c r="B169" s="5"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="21"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="6"/>
       <c r="H169" s="5"/>
     </row>
     <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="14" t="str">
+      <c r="A170" s="16" t="str">
         <f>IF(G170&lt;&gt;"",UPPER(LEFT(G170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G170,G170),"0000"),"")</f>
         <v/>
       </c>
       <c r="B170" s="5"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="21"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
       <c r="H170" s="5"/>
     </row>
     <row r="171" customHeight="1" spans="1:8">
-      <c r="A171" s="14" t="str">
+      <c r="A171" s="16" t="str">
         <f>IF(G171&lt;&gt;"",UPPER(LEFT(G171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G171,G171),"0000"),"")</f>
         <v/>
       </c>
       <c r="B171" s="5"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="21"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
       <c r="H171" s="5"/>
     </row>
     <row r="172" customHeight="1" spans="1:8">
-      <c r="A172" s="14" t="str">
+      <c r="A172" s="16" t="str">
         <f>IF(G172&lt;&gt;"",UPPER(LEFT(G172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G172,G172),"0000"),"")</f>
         <v/>
       </c>
       <c r="B172" s="5"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="21"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
       <c r="H172" s="5"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="14" t="str">
+      <c r="A173" s="16" t="str">
         <f>IF(G173&lt;&gt;"",UPPER(LEFT(G173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G173,G173),"0000"),"")</f>
         <v/>
       </c>
       <c r="B173" s="5"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="21"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
       <c r="H173" s="5"/>
     </row>
     <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="14" t="str">
+      <c r="A174" s="16" t="str">
         <f>IF(G174&lt;&gt;"",UPPER(LEFT(G174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G174,G174),"0000"),"")</f>
         <v/>
       </c>
       <c r="B174" s="5"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="21"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="H174" s="5"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="14" t="str">
+      <c r="A175" s="16" t="str">
         <f>IF(G175&lt;&gt;"",UPPER(LEFT(G175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G175,G175),"0000"),"")</f>
         <v/>
       </c>
       <c r="B175" s="5"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="21"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="H175" s="5"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="14" t="str">
+      <c r="A176" s="16" t="str">
         <f>IF(G176&lt;&gt;"",UPPER(LEFT(G176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G176,G176),"0000"),"")</f>
         <v/>
       </c>
       <c r="B176" s="5"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="21"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
       <c r="H176" s="5"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="14" t="str">
+      <c r="A177" s="16" t="str">
         <f>IF(G177&lt;&gt;"",UPPER(LEFT(G177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G177,G177),"0000"),"")</f>
         <v/>
       </c>
       <c r="B177" s="5"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="21"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
       <c r="H177" s="5"/>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="14" t="str">
+      <c r="A178" s="16" t="str">
         <f>IF(G178&lt;&gt;"",UPPER(LEFT(G178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G178,G178),"0000"),"")</f>
         <v/>
       </c>
       <c r="B178" s="5"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="21"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="H178" s="5"/>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="14" t="str">
+      <c r="A179" s="16" t="str">
         <f>IF(G179&lt;&gt;"",UPPER(LEFT(G179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G179,G179),"0000"),"")</f>
         <v/>
       </c>
       <c r="B179" s="5"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="21"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="H179" s="5"/>
     </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="14" t="str">
+      <c r="A180" s="16" t="str">
         <f>IF(G180&lt;&gt;"",UPPER(LEFT(G180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G180,G180),"0000"),"")</f>
         <v/>
       </c>
       <c r="B180" s="5"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="21"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="H180" s="5"/>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="14" t="str">
+      <c r="A181" s="16" t="str">
         <f>IF(G181&lt;&gt;"",UPPER(LEFT(G181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G181,G181),"0000"),"")</f>
         <v/>
       </c>
       <c r="B181" s="5"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="21"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
       <c r="H181" s="5"/>
     </row>
     <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="14" t="str">
+      <c r="A182" s="16" t="str">
         <f>IF(G182&lt;&gt;"",UPPER(LEFT(G182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G182,G182),"0000"),"")</f>
         <v/>
       </c>
       <c r="B182" s="5"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="21"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
       <c r="H182" s="5"/>
     </row>
     <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="14" t="str">
+      <c r="A183" s="16" t="str">
         <f>IF(G183&lt;&gt;"",UPPER(LEFT(G183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G183,G183),"0000"),"")</f>
         <v/>
       </c>
       <c r="B183" s="5"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="21"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
       <c r="H183" s="5"/>
     </row>
     <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="14" t="str">
+      <c r="A184" s="16" t="str">
         <f>IF(G184&lt;&gt;"",UPPER(LEFT(G184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G184,G184),"0000"),"")</f>
         <v/>
       </c>
       <c r="B184" s="5"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="21"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
       <c r="H184" s="5"/>
     </row>
     <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="14" t="str">
+      <c r="A185" s="16" t="str">
         <f>IF(G185&lt;&gt;"",UPPER(LEFT(G185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G185,G185),"0000"),"")</f>
         <v/>
       </c>
       <c r="B185" s="5"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="21"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
       <c r="H185" s="5"/>
     </row>
     <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="14" t="str">
+      <c r="A186" s="16" t="str">
         <f>IF(G186&lt;&gt;"",UPPER(LEFT(G186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G186,G186),"0000"),"")</f>
         <v/>
       </c>
       <c r="B186" s="5"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="21"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
       <c r="H186" s="5"/>
     </row>
     <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="14" t="str">
+      <c r="A187" s="16" t="str">
         <f>IF(G187&lt;&gt;"",UPPER(LEFT(G187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G187,G187),"0000"),"")</f>
         <v/>
       </c>
       <c r="B187" s="5"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="21"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
       <c r="H187" s="5"/>
     </row>
     <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="14" t="str">
+      <c r="A188" s="16" t="str">
         <f>IF(G188&lt;&gt;"",UPPER(LEFT(G188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G188,G188),"0000"),"")</f>
         <v/>
       </c>
       <c r="B188" s="5"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="21"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="14" t="str">
+      <c r="A189" s="16" t="str">
         <f>IF(G189&lt;&gt;"",UPPER(LEFT(G189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G189,G189),"0000"),"")</f>
         <v/>
       </c>
       <c r="B189" s="5"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="21"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
       <c r="H189" s="5"/>
     </row>
     <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="14" t="str">
+      <c r="A190" s="16" t="str">
         <f>IF(G190&lt;&gt;"",UPPER(LEFT(G190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G190,G190),"0000"),"")</f>
         <v/>
       </c>
       <c r="B190" s="5"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="21"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
       <c r="H190" s="5"/>
     </row>
     <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="14" t="str">
+      <c r="A191" s="16" t="str">
         <f>IF(G191&lt;&gt;"",UPPER(LEFT(G191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G191,G191),"0000"),"")</f>
         <v/>
       </c>
       <c r="B191" s="5"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="21"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
       <c r="H191" s="5"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="14" t="str">
+      <c r="A192" s="16" t="str">
         <f>IF(G192&lt;&gt;"",UPPER(LEFT(G192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G192,G192),"0000"),"")</f>
         <v/>
       </c>
       <c r="B192" s="5"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="21"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
       <c r="H192" s="5"/>
     </row>
     <row r="193" customHeight="1" spans="1:8">
-      <c r="A193" s="14" t="str">
+      <c r="A193" s="16" t="str">
         <f>IF(G193&lt;&gt;"",UPPER(LEFT(G193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G193,G193),"0000"),"")</f>
         <v/>
       </c>
       <c r="B193" s="5"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="21"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
       <c r="H193" s="5"/>
     </row>
     <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="14" t="str">
+      <c r="A194" s="16" t="str">
         <f>IF(G194&lt;&gt;"",UPPER(LEFT(G194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G194,G194),"0000"),"")</f>
         <v/>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="21"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
       <c r="H194" s="5"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="14" t="str">
+      <c r="A195" s="16" t="str">
         <f>IF(G195&lt;&gt;"",UPPER(LEFT(G195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G195,G195),"0000"),"")</f>
         <v/>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="21"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
       <c r="H195" s="5"/>
     </row>
     <row r="196" customHeight="1" spans="1:8">
-      <c r="A196" s="14" t="str">
+      <c r="A196" s="16" t="str">
         <f>IF(G196&lt;&gt;"",UPPER(LEFT(G196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G196,G196),"0000"),"")</f>
         <v/>
       </c>
       <c r="B196" s="5"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="21"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
       <c r="H196" s="5"/>
     </row>
     <row r="197" customHeight="1" spans="1:8">
-      <c r="A197" s="14" t="str">
+      <c r="A197" s="16" t="str">
         <f>IF(G197&lt;&gt;"",UPPER(LEFT(G197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G197,G197),"0000"),"")</f>
         <v/>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="21"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
       <c r="H197" s="5"/>
     </row>
     <row r="198" customHeight="1" spans="1:8">
-      <c r="A198" s="14" t="str">
+      <c r="A198" s="16" t="str">
         <f>IF(G198&lt;&gt;"",UPPER(LEFT(G198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G198,G198),"0000"),"")</f>
         <v/>
       </c>
       <c r="B198" s="5"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="15"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="21"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
       <c r="H198" s="5"/>
     </row>
     <row r="199" customHeight="1" spans="1:8">
-      <c r="A199" s="14" t="str">
+      <c r="A199" s="16" t="str">
         <f>IF(G199&lt;&gt;"",UPPER(LEFT(G199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G199,G199),"0000"),"")</f>
         <v/>
       </c>
       <c r="B199" s="5"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="21"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
       <c r="H199" s="5"/>
     </row>
     <row r="200" customHeight="1" spans="1:8">
-      <c r="A200" s="14" t="str">
+      <c r="A200" s="16" t="str">
         <f>IF(G200&lt;&gt;"",UPPER(LEFT(G200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G200,G200),"0000"),"")</f>
         <v/>
       </c>
       <c r="B200" s="5"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="21"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
       <c r="H200" s="5"/>
     </row>
     <row r="201" customHeight="1" spans="1:8">
-      <c r="A201" s="14" t="str">
+      <c r="A201" s="16" t="str">
         <f>IF(G201&lt;&gt;"",UPPER(LEFT(G201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G201,G201),"0000"),"")</f>
         <v/>
       </c>
       <c r="B201" s="5"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="15"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="21"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
       <c r="H201" s="5"/>
     </row>
     <row r="202" customHeight="1" spans="1:8">
-      <c r="A202" s="14" t="str">
+      <c r="A202" s="16" t="str">
         <f>IF(G202&lt;&gt;"",UPPER(LEFT(G202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G202,G202),"0000"),"")</f>
         <v/>
       </c>
       <c r="B202" s="5"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="15"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="21"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="6"/>
       <c r="H202" s="5"/>
     </row>
     <row r="203" customHeight="1" spans="1:8">
-      <c r="A203" s="14" t="str">
+      <c r="A203" s="16" t="str">
         <f>IF(G203&lt;&gt;"",UPPER(LEFT(G203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G203,G203),"0000"),"")</f>
         <v/>
       </c>
       <c r="B203" s="5"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="21"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
       <c r="H203" s="5"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
-      <c r="A204" s="14" t="str">
+      <c r="A204" s="16" t="str">
         <f>IF(G204&lt;&gt;"",UPPER(LEFT(G204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G204,G204),"0000"),"")</f>
         <v/>
       </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="15"/>
-      <c r="D204" s="15"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="21"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
       <c r="H204" s="5"/>
     </row>
     <row r="205" customHeight="1" spans="1:8">
-      <c r="A205" s="14" t="str">
+      <c r="A205" s="16" t="str">
         <f>IF(G205&lt;&gt;"",UPPER(LEFT(G205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G205,G205),"0000"),"")</f>
         <v/>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="21"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
       <c r="H205" s="5"/>
     </row>
     <row r="206" customHeight="1" spans="1:8">
-      <c r="A206" s="14" t="str">
+      <c r="A206" s="16" t="str">
         <f>IF(G206&lt;&gt;"",UPPER(LEFT(G206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G206,G206),"0000"),"")</f>
         <v/>
       </c>
       <c r="B206" s="5"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="21"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="6"/>
       <c r="H206" s="5"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
-      <c r="A207" s="14" t="str">
+      <c r="A207" s="16" t="str">
         <f>IF(G207&lt;&gt;"",UPPER(LEFT(G207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G207,G207),"0000"),"")</f>
         <v/>
       </c>
       <c r="B207" s="5"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="21"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
       <c r="H207" s="5"/>
     </row>
     <row r="208" customHeight="1" spans="1:8">
-      <c r="A208" s="14" t="str">
+      <c r="A208" s="16" t="str">
         <f>IF(G208&lt;&gt;"",UPPER(LEFT(G208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G208,G208),"0000"),"")</f>
         <v/>
       </c>
       <c r="B208" s="5"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="21"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="6"/>
       <c r="H208" s="5"/>
     </row>
     <row r="209" customHeight="1" spans="1:8">
-      <c r="A209" s="14" t="str">
+      <c r="A209" s="16" t="str">
         <f>IF(G209&lt;&gt;"",UPPER(LEFT(G209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G209,G209),"0000"),"")</f>
         <v/>
       </c>
       <c r="B209" s="5"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="15"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="21"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="6"/>
       <c r="H209" s="5"/>
     </row>
     <row r="210" customHeight="1" spans="1:8">
-      <c r="A210" s="14" t="str">
+      <c r="A210" s="16" t="str">
         <f>IF(G210&lt;&gt;"",UPPER(LEFT(G210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G210,G210),"0000"),"")</f>
         <v/>
       </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="15"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="21"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
       <c r="H210" s="5"/>
     </row>
     <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="14" t="str">
+      <c r="A211" s="16" t="str">
         <f>IF(G211&lt;&gt;"",UPPER(LEFT(G211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G211,G211),"0000"),"")</f>
         <v/>
       </c>
       <c r="B211" s="5"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="15"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="21"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
       <c r="H211" s="5"/>
     </row>
     <row r="212" customHeight="1" spans="1:8">
-      <c r="A212" s="14" t="str">
+      <c r="A212" s="16" t="str">
         <f>IF(G212&lt;&gt;"",UPPER(LEFT(G212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G212,G212),"0000"),"")</f>
         <v/>
       </c>
       <c r="B212" s="5"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="21"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="6"/>
       <c r="H212" s="5"/>
     </row>
     <row r="213" customHeight="1" spans="1:8">
-      <c r="A213" s="14" t="str">
+      <c r="A213" s="16" t="str">
         <f>IF(G213&lt;&gt;"",UPPER(LEFT(G213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G213,G213),"0000"),"")</f>
         <v/>
       </c>
       <c r="B213" s="5"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="21"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="6"/>
       <c r="H213" s="5"/>
     </row>
     <row r="214" customHeight="1" spans="1:8">
-      <c r="A214" s="14" t="str">
+      <c r="A214" s="16" t="str">
         <f>IF(G214&lt;&gt;"",UPPER(LEFT(G214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G214,G214),"0000"),"")</f>
         <v/>
       </c>
       <c r="B214" s="5"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="21"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
       <c r="H214" s="5"/>
     </row>
     <row r="215" customHeight="1" spans="1:8">
-      <c r="A215" s="14" t="str">
+      <c r="A215" s="16" t="str">
         <f>IF(G215&lt;&gt;"",UPPER(LEFT(G215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G215,G215),"0000"),"")</f>
         <v/>
       </c>
       <c r="B215" s="5"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="15"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="21"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
       <c r="H215" s="5"/>
     </row>
     <row r="216" customHeight="1" spans="1:8">
-      <c r="A216" s="14" t="str">
+      <c r="A216" s="16" t="str">
         <f>IF(G216&lt;&gt;"",UPPER(LEFT(G216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G216,G216),"0000"),"")</f>
         <v/>
       </c>
       <c r="B216" s="5"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="21"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
       <c r="H216" s="5"/>
     </row>
     <row r="217" customHeight="1" spans="1:8">
-      <c r="A217" s="14" t="str">
+      <c r="A217" s="16" t="str">
         <f>IF(G217&lt;&gt;"",UPPER(LEFT(G217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G217,G217),"0000"),"")</f>
         <v/>
       </c>
       <c r="B217" s="5"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="21"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
       <c r="H217" s="5"/>
     </row>
     <row r="218" customHeight="1" spans="1:8">
-      <c r="A218" s="14" t="str">
+      <c r="A218" s="16" t="str">
         <f>IF(G218&lt;&gt;"",UPPER(LEFT(G218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G218,G218),"0000"),"")</f>
         <v/>
       </c>
       <c r="B218" s="5"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="21"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="6"/>
       <c r="H218" s="5"/>
     </row>
     <row r="219" customHeight="1" spans="1:8">
-      <c r="A219" s="14" t="str">
+      <c r="A219" s="16" t="str">
         <f>IF(G219&lt;&gt;"",UPPER(LEFT(G219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G219,G219),"0000"),"")</f>
         <v/>
       </c>
       <c r="B219" s="5"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="21"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
       <c r="H219" s="5"/>
     </row>
     <row r="220" customHeight="1" spans="1:8">
-      <c r="A220" s="14" t="str">
+      <c r="A220" s="16" t="str">
         <f>IF(G220&lt;&gt;"",UPPER(LEFT(G220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G220,G220),"0000"),"")</f>
         <v/>
       </c>
       <c r="B220" s="5"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="21"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
       <c r="H220" s="5"/>
     </row>
     <row r="221" customHeight="1" spans="1:8">
-      <c r="A221" s="14" t="str">
+      <c r="A221" s="16" t="str">
         <f>IF(G221&lt;&gt;"",UPPER(LEFT(G221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G221,G221),"0000"),"")</f>
         <v/>
       </c>
       <c r="B221" s="5"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="21"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
       <c r="H221" s="5"/>
     </row>
     <row r="222" customHeight="1" spans="1:8">
-      <c r="A222" s="14" t="str">
+      <c r="A222" s="16" t="str">
         <f>IF(G222&lt;&gt;"",UPPER(LEFT(G222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G222,G222),"0000"),"")</f>
         <v/>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="21"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
       <c r="H222" s="5"/>
     </row>
     <row r="223" customHeight="1" spans="1:8">
-      <c r="A223" s="14" t="str">
+      <c r="A223" s="16" t="str">
         <f>IF(G223&lt;&gt;"",UPPER(LEFT(G223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G223,G223),"0000"),"")</f>
         <v/>
       </c>
       <c r="B223" s="5"/>
-      <c r="C223" s="15"/>
-      <c r="D223" s="15"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="21"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
       <c r="H223" s="5"/>
     </row>
     <row r="224" customHeight="1" spans="1:8">
-      <c r="A224" s="14" t="str">
+      <c r="A224" s="16" t="str">
         <f>IF(G224&lt;&gt;"",UPPER(LEFT(G224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G224,G224),"0000"),"")</f>
         <v/>
       </c>
       <c r="B224" s="5"/>
-      <c r="C224" s="15"/>
-      <c r="D224" s="15"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="21"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
       <c r="H224" s="5"/>
     </row>
     <row r="225" customHeight="1" spans="1:8">
-      <c r="A225" s="14" t="str">
+      <c r="A225" s="16" t="str">
         <f>IF(G225&lt;&gt;"",UPPER(LEFT(G225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G225,G225),"0000"),"")</f>
         <v/>
       </c>
       <c r="B225" s="5"/>
-      <c r="C225" s="15"/>
-      <c r="D225" s="15"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="21"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
       <c r="H225" s="5"/>
     </row>
     <row r="226" customHeight="1" spans="1:8">
-      <c r="A226" s="14" t="str">
+      <c r="A226" s="16" t="str">
         <f>IF(G226&lt;&gt;"",UPPER(LEFT(G226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G226,G226),"0000"),"")</f>
         <v/>
       </c>
       <c r="B226" s="5"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="21"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
       <c r="H226" s="5"/>
     </row>
     <row r="227" customHeight="1" spans="1:8">
-      <c r="A227" s="14" t="str">
+      <c r="A227" s="16" t="str">
         <f>IF(G227&lt;&gt;"",UPPER(LEFT(G227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G227,G227),"0000"),"")</f>
         <v/>
       </c>
       <c r="B227" s="5"/>
-      <c r="C227" s="15"/>
-      <c r="D227" s="15"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="21"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
       <c r="H227" s="5"/>
     </row>
     <row r="228" customHeight="1" spans="1:8">
-      <c r="A228" s="14" t="str">
+      <c r="A228" s="16" t="str">
         <f>IF(G228&lt;&gt;"",UPPER(LEFT(G228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G228,G228),"0000"),"")</f>
         <v/>
       </c>
       <c r="B228" s="5"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="15"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="21"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
       <c r="H228" s="5"/>
     </row>
     <row r="229" customHeight="1" spans="1:8">
-      <c r="A229" s="14" t="str">
+      <c r="A229" s="16" t="str">
         <f>IF(G229&lt;&gt;"",UPPER(LEFT(G229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G229,G229),"0000"),"")</f>
         <v/>
       </c>
       <c r="B229" s="5"/>
-      <c r="C229" s="15"/>
-      <c r="D229" s="15"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="21"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
       <c r="H229" s="5"/>
     </row>
     <row r="230" customHeight="1" spans="1:8">
-      <c r="A230" s="14" t="str">
+      <c r="A230" s="16" t="str">
         <f>IF(G230&lt;&gt;"",UPPER(LEFT(G230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G230,G230),"0000"),"")</f>
         <v/>
       </c>
       <c r="B230" s="5"/>
-      <c r="C230" s="15"/>
-      <c r="D230" s="15"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="21"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
       <c r="H230" s="5"/>
     </row>
     <row r="231" customHeight="1" spans="1:8">
-      <c r="A231" s="14" t="str">
+      <c r="A231" s="16" t="str">
         <f>IF(G231&lt;&gt;"",UPPER(LEFT(G231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G231,G231),"0000"),"")</f>
         <v/>
       </c>
       <c r="B231" s="5"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="21"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
       <c r="H231" s="5"/>
     </row>
     <row r="232" customHeight="1" spans="1:8">
-      <c r="A232" s="14" t="str">
+      <c r="A232" s="16" t="str">
         <f>IF(G232&lt;&gt;"",UPPER(LEFT(G232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G232,G232),"0000"),"")</f>
         <v/>
       </c>
       <c r="B232" s="5"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="15"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="21"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
       <c r="H232" s="5"/>
     </row>
     <row r="233" customHeight="1" spans="1:8">
-      <c r="A233" s="14" t="str">
+      <c r="A233" s="16" t="str">
         <f>IF(G233&lt;&gt;"",UPPER(LEFT(G233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G233,G233),"0000"),"")</f>
         <v/>
       </c>
       <c r="B233" s="5"/>
-      <c r="C233" s="15"/>
-      <c r="D233" s="15"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="21"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
       <c r="H233" s="5"/>
     </row>
     <row r="234" customHeight="1" spans="1:8">
-      <c r="A234" s="14" t="str">
+      <c r="A234" s="16" t="str">
         <f>IF(G234&lt;&gt;"",UPPER(LEFT(G234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G234,G234),"0000"),"")</f>
         <v/>
       </c>
       <c r="B234" s="5"/>
-      <c r="C234" s="15"/>
-      <c r="D234" s="15"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="21"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="6"/>
       <c r="H234" s="5"/>
     </row>
     <row r="235" customHeight="1" spans="1:8">
-      <c r="A235" s="14" t="str">
+      <c r="A235" s="16" t="str">
         <f>IF(G235&lt;&gt;"",UPPER(LEFT(G235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G235,G235),"0000"),"")</f>
         <v/>
       </c>
       <c r="B235" s="5"/>
-      <c r="C235" s="15"/>
-      <c r="D235" s="15"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="21"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
       <c r="H235" s="5"/>
     </row>
     <row r="236" customHeight="1" spans="1:8">
-      <c r="A236" s="14" t="str">
+      <c r="A236" s="16" t="str">
         <f>IF(G236&lt;&gt;"",UPPER(LEFT(G236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G236,G236),"0000"),"")</f>
         <v/>
       </c>
       <c r="B236" s="5"/>
-      <c r="C236" s="15"/>
-      <c r="D236" s="15"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="21"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="6"/>
       <c r="H236" s="5"/>
     </row>
     <row r="237" customHeight="1" spans="1:8">
-      <c r="A237" s="14" t="str">
+      <c r="A237" s="16" t="str">
         <f>IF(G237&lt;&gt;"",UPPER(LEFT(G237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G237,G237),"0000"),"")</f>
         <v/>
       </c>
       <c r="B237" s="5"/>
-      <c r="C237" s="15"/>
-      <c r="D237" s="15"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="21"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
       <c r="H237" s="5"/>
     </row>
     <row r="238" customHeight="1" spans="1:8">
-      <c r="A238" s="14" t="str">
+      <c r="A238" s="16" t="str">
         <f>IF(G238&lt;&gt;"",UPPER(LEFT(G238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G238,G238),"0000"),"")</f>
         <v/>
       </c>
       <c r="B238" s="5"/>
-      <c r="C238" s="15"/>
-      <c r="D238" s="15"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="21"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
       <c r="H238" s="5"/>
     </row>
     <row r="239" customHeight="1" spans="1:8">
-      <c r="A239" s="14" t="str">
+      <c r="A239" s="16" t="str">
         <f>IF(G239&lt;&gt;"",UPPER(LEFT(G239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G239,G239),"0000"),"")</f>
         <v/>
       </c>
       <c r="B239" s="5"/>
-      <c r="C239" s="15"/>
-      <c r="D239" s="15"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="21"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
       <c r="H239" s="5"/>
     </row>
     <row r="240" customHeight="1" spans="1:8">
-      <c r="A240" s="14" t="str">
+      <c r="A240" s="16" t="str">
         <f>IF(G240&lt;&gt;"",UPPER(LEFT(G240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G240,G240),"0000"),"")</f>
         <v/>
       </c>
       <c r="B240" s="5"/>
-      <c r="C240" s="15"/>
-      <c r="D240" s="15"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="21"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
       <c r="H240" s="5"/>
     </row>
     <row r="241" customHeight="1" spans="1:8">
-      <c r="A241" s="14" t="str">
+      <c r="A241" s="16" t="str">
         <f>IF(G241&lt;&gt;"",UPPER(LEFT(G241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G241,G241),"0000"),"")</f>
         <v/>
       </c>
       <c r="B241" s="5"/>
-      <c r="C241" s="15"/>
-      <c r="D241" s="15"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="21"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="6"/>
       <c r="H241" s="5"/>
     </row>
     <row r="242" customHeight="1" spans="1:8">
-      <c r="A242" s="14" t="str">
+      <c r="A242" s="16" t="str">
         <f>IF(G242&lt;&gt;"",UPPER(LEFT(G242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G242,G242),"0000"),"")</f>
         <v/>
       </c>
       <c r="B242" s="5"/>
-      <c r="C242" s="15"/>
-      <c r="D242" s="15"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="21"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="6"/>
       <c r="H242" s="5"/>
     </row>
     <row r="243" customHeight="1" spans="1:8">
-      <c r="A243" s="14" t="str">
+      <c r="A243" s="16" t="str">
         <f>IF(G243&lt;&gt;"",UPPER(LEFT(G243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G243,G243),"0000"),"")</f>
         <v/>
       </c>
       <c r="B243" s="5"/>
-      <c r="C243" s="15"/>
-      <c r="D243" s="15"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="21"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
       <c r="G243" s="6"/>
       <c r="H243" s="5"/>
     </row>
     <row r="244" customHeight="1" spans="1:8">
-      <c r="A244" s="14" t="str">
+      <c r="A244" s="16" t="str">
         <f>IF(G244&lt;&gt;"",UPPER(LEFT(G244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G244,G244),"0000"),"")</f>
         <v/>
       </c>
       <c r="B244" s="5"/>
-      <c r="C244" s="15"/>
-      <c r="D244" s="15"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="21"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
       <c r="G244" s="6"/>
       <c r="H244" s="5"/>
     </row>
     <row r="245" customHeight="1" spans="1:8">
-      <c r="A245" s="14" t="str">
+      <c r="A245" s="16" t="str">
         <f>IF(G245&lt;&gt;"",UPPER(LEFT(G245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G245,G245),"0000"),"")</f>
         <v/>
       </c>
       <c r="B245" s="5"/>
-      <c r="C245" s="15"/>
-      <c r="D245" s="15"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="21"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
       <c r="G245" s="6"/>
       <c r="H245" s="5"/>
     </row>
     <row r="246" customHeight="1" spans="1:8">
-      <c r="A246" s="14" t="str">
+      <c r="A246" s="16" t="str">
         <f>IF(G246&lt;&gt;"",UPPER(LEFT(G246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G246,G246),"0000"),"")</f>
         <v/>
       </c>
       <c r="B246" s="5"/>
-      <c r="C246" s="15"/>
-      <c r="D246" s="15"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="21"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
       <c r="G246" s="6"/>
       <c r="H246" s="5"/>
     </row>
     <row r="247" customHeight="1" spans="1:8">
-      <c r="A247" s="14" t="str">
+      <c r="A247" s="16" t="str">
         <f>IF(G247&lt;&gt;"",UPPER(LEFT(G247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G247,G247),"0000"),"")</f>
         <v/>
       </c>
       <c r="B247" s="5"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="15"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="21"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
       <c r="H247" s="5"/>
     </row>
     <row r="248" customHeight="1" spans="1:8">
-      <c r="A248" s="14" t="str">
+      <c r="A248" s="16" t="str">
         <f>IF(G248&lt;&gt;"",UPPER(LEFT(G248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G248,G248),"0000"),"")</f>
         <v/>
       </c>
       <c r="B248" s="5"/>
-      <c r="C248" s="15"/>
-      <c r="D248" s="15"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="21"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
       <c r="G248" s="6"/>
       <c r="H248" s="5"/>
     </row>
     <row r="249" customHeight="1" spans="1:8">
-      <c r="A249" s="14" t="str">
+      <c r="A249" s="16" t="str">
         <f>IF(G249&lt;&gt;"",UPPER(LEFT(G249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G249,G249),"0000"),"")</f>
         <v/>
       </c>
       <c r="B249" s="5"/>
-      <c r="C249" s="15"/>
-      <c r="D249" s="15"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="21"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
       <c r="G249" s="6"/>
       <c r="H249" s="5"/>
     </row>
     <row r="250" customHeight="1" spans="1:8">
-      <c r="A250" s="14" t="str">
+      <c r="A250" s="16" t="str">
         <f>IF(G250&lt;&gt;"",UPPER(LEFT(G250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G250,G250),"0000"),"")</f>
         <v/>
       </c>
       <c r="B250" s="5"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="21"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
       <c r="H250" s="5"/>
     </row>
     <row r="251" customHeight="1" spans="1:8">
-      <c r="A251" s="14" t="str">
+      <c r="A251" s="16" t="str">
         <f>IF(G251&lt;&gt;"",UPPER(LEFT(G251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G251,G251),"0000"),"")</f>
         <v/>
       </c>
       <c r="B251" s="5"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="15"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="21"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
       <c r="H251" s="5"/>
     </row>
     <row r="252" customHeight="1" spans="1:8">
-      <c r="A252" s="14" t="str">
+      <c r="A252" s="16" t="str">
         <f>IF(G252&lt;&gt;"",UPPER(LEFT(G252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G252,G252),"0000"),"")</f>
         <v/>
       </c>
       <c r="B252" s="5"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="15"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="21"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="6"/>
       <c r="H252" s="5"/>
     </row>
     <row r="253" customHeight="1" spans="1:8">
-      <c r="A253" s="14" t="str">
+      <c r="A253" s="16" t="str">
         <f>IF(G253&lt;&gt;"",UPPER(LEFT(G253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G253,G253),"0000"),"")</f>
         <v/>
       </c>
       <c r="B253" s="5"/>
-      <c r="C253" s="15"/>
-      <c r="D253" s="15"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="21"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
       <c r="G253" s="6"/>
       <c r="H253" s="5"/>
     </row>
     <row r="254" customHeight="1" spans="1:8">
-      <c r="A254" s="14" t="str">
+      <c r="A254" s="16" t="str">
         <f>IF(G254&lt;&gt;"",UPPER(LEFT(G254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G254,G254),"0000"),"")</f>
         <v/>
       </c>
       <c r="B254" s="5"/>
-      <c r="C254" s="15"/>
-      <c r="D254" s="15"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="21"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
       <c r="G254" s="6"/>
       <c r="H254" s="5"/>
     </row>
     <row r="255" customHeight="1" spans="1:8">
-      <c r="A255" s="14" t="str">
+      <c r="A255" s="16" t="str">
         <f>IF(G255&lt;&gt;"",UPPER(LEFT(G255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G255,G255),"0000"),"")</f>
         <v/>
       </c>
       <c r="B255" s="5"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="15"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="21"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
       <c r="G255" s="6"/>
       <c r="H255" s="5"/>
     </row>
     <row r="256" customHeight="1" spans="1:8">
-      <c r="A256" s="14" t="str">
+      <c r="A256" s="16" t="str">
         <f>IF(G256&lt;&gt;"",UPPER(LEFT(G256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G256,G256),"0000"),"")</f>
         <v/>
       </c>
       <c r="B256" s="5"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="15"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="21"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="6"/>
       <c r="H256" s="5"/>
     </row>
     <row r="257" customHeight="1" spans="1:8">
-      <c r="A257" s="14" t="str">
+      <c r="A257" s="16" t="str">
         <f>IF(G257&lt;&gt;"",UPPER(LEFT(G257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G257,G257),"0000"),"")</f>
         <v/>
       </c>
       <c r="B257" s="5"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="15"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="21"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="6"/>
       <c r="H257" s="5"/>
     </row>
     <row r="258" customHeight="1" spans="1:8">
-      <c r="A258" s="14" t="str">
+      <c r="A258" s="16" t="str">
         <f>IF(G258&lt;&gt;"",UPPER(LEFT(G258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G258,G258),"0000"),"")</f>
         <v/>
       </c>
       <c r="B258" s="5"/>
-      <c r="C258" s="15"/>
-      <c r="D258" s="15"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="21"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="6"/>
       <c r="H258" s="5"/>
     </row>
     <row r="259" customHeight="1" spans="1:8">
-      <c r="A259" s="14" t="str">
+      <c r="A259" s="16" t="str">
         <f>IF(G259&lt;&gt;"",UPPER(LEFT(G259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G259,G259),"0000"),"")</f>
         <v/>
       </c>
       <c r="B259" s="5"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="15"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="21"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="6"/>
       <c r="H259" s="5"/>
     </row>
     <row r="260" customHeight="1" spans="1:8">
-      <c r="A260" s="14" t="str">
+      <c r="A260" s="16" t="str">
         <f>IF(G260&lt;&gt;"",UPPER(LEFT(G260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G260,G260),"0000"),"")</f>
         <v/>
       </c>
       <c r="B260" s="5"/>
-      <c r="C260" s="15"/>
-      <c r="D260" s="15"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="21"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
       <c r="G260" s="6"/>
       <c r="H260" s="5"/>
     </row>
     <row r="261" customHeight="1" spans="1:8">
-      <c r="A261" s="14" t="str">
+      <c r="A261" s="16" t="str">
         <f>IF(G261&lt;&gt;"",UPPER(LEFT(G261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G261,G261),"0000"),"")</f>
         <v/>
       </c>
       <c r="B261" s="5"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="21"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
       <c r="G261" s="6"/>
       <c r="H261" s="5"/>
     </row>
     <row r="262" customHeight="1" spans="1:8">
-      <c r="A262" s="14" t="str">
+      <c r="A262" s="16" t="str">
         <f>IF(G262&lt;&gt;"",UPPER(LEFT(G262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G262,G262),"0000"),"")</f>
         <v/>
       </c>
       <c r="B262" s="5"/>
-      <c r="C262" s="15"/>
-      <c r="D262" s="15"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="21"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
       <c r="G262" s="6"/>
       <c r="H262" s="5"/>
     </row>
     <row r="263" customHeight="1" spans="1:8">
-      <c r="A263" s="14" t="str">
+      <c r="A263" s="16" t="str">
         <f>IF(G263&lt;&gt;"",UPPER(LEFT(G263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G263,G263),"0000"),"")</f>
         <v/>
       </c>
       <c r="B263" s="5"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="15"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="21"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="6"/>
       <c r="H263" s="5"/>
     </row>
     <row r="264" customHeight="1" spans="1:8">
-      <c r="A264" s="14" t="str">
+      <c r="A264" s="16" t="str">
         <f>IF(G264&lt;&gt;"",UPPER(LEFT(G264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G264,G264),"0000"),"")</f>
         <v/>
       </c>
       <c r="B264" s="5"/>
-      <c r="C264" s="15"/>
-      <c r="D264" s="15"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="21"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="6"/>
       <c r="H264" s="5"/>
     </row>
     <row r="265" customHeight="1" spans="1:8">
-      <c r="A265" s="14" t="str">
+      <c r="A265" s="16" t="str">
         <f>IF(G265&lt;&gt;"",UPPER(LEFT(G265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G265,G265),"0000"),"")</f>
         <v/>
       </c>
       <c r="B265" s="5"/>
-      <c r="C265" s="15"/>
-      <c r="D265" s="15"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="21"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="6"/>
       <c r="H265" s="5"/>
     </row>
     <row r="266" customHeight="1" spans="1:8">
-      <c r="A266" s="14" t="str">
+      <c r="A266" s="16" t="str">
         <f>IF(G266&lt;&gt;"",UPPER(LEFT(G266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G266,G266),"0000"),"")</f>
         <v/>
       </c>
       <c r="B266" s="5"/>
-      <c r="C266" s="15"/>
-      <c r="D266" s="15"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="21"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="6"/>
       <c r="H266" s="5"/>
     </row>
     <row r="267" customHeight="1" spans="1:8">
-      <c r="A267" s="14" t="str">
+      <c r="A267" s="16" t="str">
         <f>IF(G267&lt;&gt;"",UPPER(LEFT(G267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G267,G267),"0000"),"")</f>
         <v/>
       </c>
       <c r="B267" s="5"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="21"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="6"/>
       <c r="H267" s="5"/>
     </row>
     <row r="268" customHeight="1" spans="1:8">
-      <c r="A268" s="14" t="str">
+      <c r="A268" s="16" t="str">
         <f>IF(G268&lt;&gt;"",UPPER(LEFT(G268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G268,G268),"0000"),"")</f>
         <v/>
       </c>
       <c r="B268" s="5"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="15"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="21"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
       <c r="G268" s="6"/>
       <c r="H268" s="5"/>
     </row>
     <row r="269" customHeight="1" spans="1:8">
-      <c r="A269" s="14" t="str">
+      <c r="A269" s="16" t="str">
         <f>IF(G269&lt;&gt;"",UPPER(LEFT(G269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G269,G269),"0000"),"")</f>
         <v/>
       </c>
       <c r="B269" s="5"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="21"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="6"/>
       <c r="H269" s="5"/>
     </row>
     <row r="270" customHeight="1" spans="1:8">
-      <c r="A270" s="14" t="str">
+      <c r="A270" s="16" t="str">
         <f>IF(G270&lt;&gt;"",UPPER(LEFT(G270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G270,G270),"0000"),"")</f>
         <v/>
       </c>
       <c r="B270" s="5"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="15"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="21"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="6"/>
       <c r="H270" s="5"/>
     </row>
     <row r="271" customHeight="1" spans="1:8">
-      <c r="A271" s="14" t="str">
+      <c r="A271" s="16" t="str">
         <f>IF(G271&lt;&gt;"",UPPER(LEFT(G271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G271,G271),"0000"),"")</f>
         <v/>
       </c>
       <c r="B271" s="5"/>
-      <c r="C271" s="15"/>
-      <c r="D271" s="15"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="21"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="6"/>
       <c r="H271" s="5"/>
     </row>
     <row r="272" customHeight="1" spans="1:8">
-      <c r="A272" s="14" t="str">
+      <c r="A272" s="16" t="str">
         <f>IF(G272&lt;&gt;"",UPPER(LEFT(G272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G272,G272),"0000"),"")</f>
         <v/>
       </c>
       <c r="B272" s="5"/>
-      <c r="C272" s="15"/>
-      <c r="D272" s="15"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="21"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="6"/>
       <c r="H272" s="5"/>
     </row>
     <row r="273" customHeight="1" spans="1:8">
-      <c r="A273" s="14" t="str">
+      <c r="A273" s="16" t="str">
         <f>IF(G273&lt;&gt;"",UPPER(LEFT(G273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G273,G273),"0000"),"")</f>
         <v/>
       </c>
       <c r="B273" s="5"/>
-      <c r="C273" s="15"/>
-      <c r="D273" s="15"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="21"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="6"/>
       <c r="H273" s="5"/>
     </row>
     <row r="274" customHeight="1" spans="1:8">
-      <c r="A274" s="14" t="str">
+      <c r="A274" s="16" t="str">
         <f>IF(G274&lt;&gt;"",UPPER(LEFT(G274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G274,G274),"0000"),"")</f>
         <v/>
       </c>
       <c r="B274" s="5"/>
-      <c r="C274" s="15"/>
-      <c r="D274" s="15"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="21"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
       <c r="G274" s="6"/>
       <c r="H274" s="5"/>
     </row>
     <row r="275" customHeight="1" spans="1:8">
-      <c r="A275" s="14" t="str">
+      <c r="A275" s="16" t="str">
         <f>IF(G275&lt;&gt;"",UPPER(LEFT(G275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G275,G275),"0000"),"")</f>
         <v/>
       </c>
       <c r="B275" s="5"/>
-      <c r="C275" s="15"/>
-      <c r="D275" s="15"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="21"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
       <c r="G275" s="6"/>
       <c r="H275" s="5"/>
     </row>
     <row r="276" customHeight="1" spans="1:8">
-      <c r="A276" s="14" t="str">
+      <c r="A276" s="16" t="str">
         <f>IF(G276&lt;&gt;"",UPPER(LEFT(G276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G276,G276),"0000"),"")</f>
         <v/>
       </c>
       <c r="B276" s="5"/>
-      <c r="C276" s="15"/>
-      <c r="D276" s="15"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="21"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
       <c r="G276" s="6"/>
       <c r="H276" s="5"/>
     </row>
     <row r="277" customHeight="1" spans="1:8">
-      <c r="A277" s="14" t="str">
+      <c r="A277" s="16" t="str">
         <f>IF(G277&lt;&gt;"",UPPER(LEFT(G277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G277,G277),"0000"),"")</f>
         <v/>
       </c>
       <c r="B277" s="5"/>
-      <c r="C277" s="15"/>
-      <c r="D277" s="15"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="21"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="6"/>
       <c r="H277" s="5"/>
     </row>
     <row r="278" customHeight="1" spans="1:8">
-      <c r="A278" s="14" t="str">
+      <c r="A278" s="16" t="str">
         <f>IF(G278&lt;&gt;"",UPPER(LEFT(G278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G278,G278),"0000"),"")</f>
         <v/>
       </c>
       <c r="B278" s="5"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="15"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="21"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="6"/>
       <c r="H278" s="5"/>
     </row>
     <row r="279" customHeight="1" spans="1:8">
-      <c r="A279" s="14" t="str">
+      <c r="A279" s="16" t="str">
         <f>IF(G279&lt;&gt;"",UPPER(LEFT(G279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G279,G279),"0000"),"")</f>
         <v/>
       </c>
       <c r="B279" s="5"/>
-      <c r="C279" s="15"/>
-      <c r="D279" s="15"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="21"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="6"/>
       <c r="H279" s="5"/>
     </row>
     <row r="280" customHeight="1" spans="1:8">
-      <c r="A280" s="14" t="str">
+      <c r="A280" s="16" t="str">
         <f>IF(G280&lt;&gt;"",UPPER(LEFT(G280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G280,G280),"0000"),"")</f>
         <v/>
       </c>
       <c r="B280" s="5"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="15"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="21"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="6"/>
       <c r="H280" s="5"/>
     </row>
     <row r="281" customHeight="1" spans="1:8">
-      <c r="A281" s="14" t="str">
+      <c r="A281" s="16" t="str">
         <f>IF(G281&lt;&gt;"",UPPER(LEFT(G281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G281,G281),"0000"),"")</f>
         <v/>
       </c>
       <c r="B281" s="5"/>
-      <c r="C281" s="15"/>
-      <c r="D281" s="15"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="21"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
       <c r="G281" s="6"/>
       <c r="H281" s="5"/>
     </row>
     <row r="282" customHeight="1" spans="1:8">
-      <c r="A282" s="14" t="str">
+      <c r="A282" s="16" t="str">
         <f>IF(G282&lt;&gt;"",UPPER(LEFT(G282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G282,G282),"0000"),"")</f>
         <v/>
       </c>
       <c r="B282" s="5"/>
-      <c r="C282" s="15"/>
-      <c r="D282" s="15"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="21"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="6"/>
       <c r="H282" s="5"/>
     </row>
     <row r="283" customHeight="1" spans="1:8">
-      <c r="A283" s="14" t="str">
+      <c r="A283" s="16" t="str">
         <f>IF(G283&lt;&gt;"",UPPER(LEFT(G283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G283,G283),"0000"),"")</f>
         <v/>
       </c>
       <c r="B283" s="5"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="15"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="21"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
       <c r="G283" s="6"/>
       <c r="H283" s="5"/>
     </row>
     <row r="284" customHeight="1" spans="1:8">
-      <c r="A284" s="14" t="str">
+      <c r="A284" s="16" t="str">
         <f>IF(G284&lt;&gt;"",UPPER(LEFT(G284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G284,G284),"0000"),"")</f>
         <v/>
       </c>
       <c r="B284" s="5"/>
-      <c r="C284" s="15"/>
-      <c r="D284" s="15"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="21"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
       <c r="G284" s="6"/>
       <c r="H284" s="5"/>
     </row>
     <row r="285" customHeight="1" spans="1:8">
-      <c r="A285" s="14" t="str">
+      <c r="A285" s="16" t="str">
         <f>IF(G285&lt;&gt;"",UPPER(LEFT(G285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G285,G285),"0000"),"")</f>
         <v/>
       </c>
       <c r="B285" s="5"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="15"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="21"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="6"/>
       <c r="H285" s="5"/>
     </row>
     <row r="286" customHeight="1" spans="1:8">
-      <c r="A286" s="14" t="str">
+      <c r="A286" s="16" t="str">
         <f>IF(G286&lt;&gt;"",UPPER(LEFT(G286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G286,G286),"0000"),"")</f>
         <v/>
       </c>
       <c r="B286" s="5"/>
-      <c r="C286" s="15"/>
-      <c r="D286" s="15"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="21"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="6"/>
       <c r="H286" s="5"/>
     </row>
     <row r="287" customHeight="1" spans="1:8">
-      <c r="A287" s="14" t="str">
+      <c r="A287" s="16" t="str">
         <f>IF(G287&lt;&gt;"",UPPER(LEFT(G287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G287,G287),"0000"),"")</f>
         <v/>
       </c>
       <c r="B287" s="5"/>
-      <c r="C287" s="15"/>
-      <c r="D287" s="15"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="21"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="6"/>
       <c r="H287" s="5"/>
     </row>
     <row r="288" customHeight="1" spans="1:8">
-      <c r="A288" s="14" t="str">
+      <c r="A288" s="16" t="str">
         <f>IF(G288&lt;&gt;"",UPPER(LEFT(G288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G288,G288),"0000"),"")</f>
         <v/>
       </c>
       <c r="B288" s="5"/>
-      <c r="C288" s="15"/>
-      <c r="D288" s="15"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="21"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="6"/>
       <c r="H288" s="5"/>
     </row>
     <row r="289" customHeight="1" spans="1:8">
-      <c r="A289" s="14" t="str">
+      <c r="A289" s="16" t="str">
         <f>IF(G289&lt;&gt;"",UPPER(LEFT(G289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G289,G289),"0000"),"")</f>
         <v/>
       </c>
       <c r="B289" s="5"/>
-      <c r="C289" s="15"/>
-      <c r="D289" s="15"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="21"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="6"/>
       <c r="H289" s="5"/>
     </row>
     <row r="290" customHeight="1" spans="1:8">
-      <c r="A290" s="14" t="str">
+      <c r="A290" s="16" t="str">
         <f>IF(G290&lt;&gt;"",UPPER(LEFT(G290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G290,G290),"0000"),"")</f>
         <v/>
       </c>
       <c r="B290" s="5"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="15"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="21"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="6"/>
       <c r="H290" s="5"/>
     </row>
     <row r="291" customHeight="1" spans="1:8">
-      <c r="A291" s="14" t="str">
+      <c r="A291" s="16" t="str">
         <f>IF(G291&lt;&gt;"",UPPER(LEFT(G291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G291,G291),"0000"),"")</f>
         <v/>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="15"/>
-      <c r="D291" s="15"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="21"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="6"/>
       <c r="H291" s="5"/>
     </row>
     <row r="292" customHeight="1" spans="1:8">
-      <c r="A292" s="14" t="str">
+      <c r="A292" s="16" t="str">
         <f>IF(G292&lt;&gt;"",UPPER(LEFT(G292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G292,G292),"0000"),"")</f>
         <v/>
       </c>
       <c r="B292" s="5"/>
-      <c r="C292" s="15"/>
-      <c r="D292" s="15"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="21"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="6"/>
       <c r="H292" s="5"/>
     </row>
     <row r="293" customHeight="1" spans="1:8">
-      <c r="A293" s="14" t="str">
+      <c r="A293" s="16" t="str">
         <f>IF(G293&lt;&gt;"",UPPER(LEFT(G293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G293,G293),"0000"),"")</f>
         <v/>
       </c>
       <c r="B293" s="5"/>
-      <c r="C293" s="15"/>
-      <c r="D293" s="15"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="21"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="6"/>
       <c r="H293" s="5"/>
     </row>
     <row r="294" customHeight="1" spans="1:8">
-      <c r="A294" s="14" t="str">
+      <c r="A294" s="16" t="str">
         <f>IF(G294&lt;&gt;"",UPPER(LEFT(G294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G294,G294),"0000"),"")</f>
         <v/>
       </c>
       <c r="B294" s="5"/>
-      <c r="C294" s="15"/>
-      <c r="D294" s="15"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="21"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="6"/>
       <c r="H294" s="5"/>
     </row>
     <row r="295" customHeight="1" spans="1:8">
-      <c r="A295" s="14" t="str">
+      <c r="A295" s="16" t="str">
         <f>IF(G295&lt;&gt;"",UPPER(LEFT(G295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G295,G295),"0000"),"")</f>
         <v/>
       </c>
       <c r="B295" s="5"/>
-      <c r="C295" s="15"/>
-      <c r="D295" s="15"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="21"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="6"/>
       <c r="H295" s="5"/>
     </row>
     <row r="296" customHeight="1" spans="1:8">
-      <c r="A296" s="14" t="str">
+      <c r="A296" s="16" t="str">
         <f>IF(G296&lt;&gt;"",UPPER(LEFT(G296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G296,G296),"0000"),"")</f>
         <v/>
       </c>
       <c r="B296" s="5"/>
-      <c r="C296" s="15"/>
-      <c r="D296" s="15"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="21"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="6"/>
       <c r="H296" s="5"/>
     </row>
     <row r="297" customHeight="1" spans="1:8">
-      <c r="A297" s="14" t="str">
+      <c r="A297" s="16" t="str">
         <f>IF(G297&lt;&gt;"",UPPER(LEFT(G297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G297,G297),"0000"),"")</f>
         <v/>
       </c>
       <c r="B297" s="5"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="15"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="21"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="6"/>
       <c r="H297" s="5"/>
     </row>
     <row r="298" customHeight="1" spans="1:8">
-      <c r="A298" s="14" t="str">
+      <c r="A298" s="16" t="str">
         <f>IF(G298&lt;&gt;"",UPPER(LEFT(G298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G298,G298),"0000"),"")</f>
         <v/>
       </c>
       <c r="B298" s="5"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="21"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="6"/>
       <c r="H298" s="5"/>
     </row>
     <row r="299" customHeight="1" spans="1:8">
-      <c r="A299" s="14" t="str">
+      <c r="A299" s="16" t="str">
         <f>IF(G299&lt;&gt;"",UPPER(LEFT(G299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G299,G299),"0000"),"")</f>
         <v/>
       </c>
       <c r="B299" s="5"/>
-      <c r="C299" s="15"/>
-      <c r="D299" s="15"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="21"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="6"/>
       <c r="H299" s="5"/>
     </row>
     <row r="300" customHeight="1" spans="1:8">
-      <c r="A300" s="14" t="str">
+      <c r="A300" s="16" t="str">
         <f>IF(G300&lt;&gt;"",UPPER(LEFT(G300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G300,G300),"0000"),"")</f>
         <v/>
       </c>
       <c r="B300" s="5"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="15"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="21"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="6"/>
       <c r="H300" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:G300">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(COUNTA($B2:$G2)&gt;0,COUNTA($B2:$G2)&lt;COLUMNS($B2:$G2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D300">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(C2&lt;&gt;"",NOT(ISNUMBER(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B300">
       <formula1>'Cow Status'!$A$2:$A$7</formula1>
@@ -5342,8 +5368,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -5356,34 +5382,34 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -5392,35 +5418,17 @@
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="str">
         <f>'Cow Import'!A2</f>
-        <v>A-0004-0001</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6">
-        <v>38</v>
-      </c>
-      <c r="F2" s="6">
-        <v>65</v>
-      </c>
-      <c r="G2" s="6">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6">
-        <v>60</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1.85</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
@@ -16492,6 +16500,16 @@
       <c r="J1000" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:J300">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(COUNTA($B2:$J2)&gt;0,COUNTA($B2:$J2)&lt;COLUMNS($B2:$J2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C300 E2:J300">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(ISNUMBER(C2)=FALSE,C2&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B300">
       <formula1>HealthRecordStatus!$A$1:$A$5</formula1>
@@ -16523,27 +16541,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -16568,32 +16586,32 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -16618,32 +16636,32 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -16668,42 +16686,42 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16728,12 +16746,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16758,12 +16776,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -5336,9 +5336,15 @@
       <formula>AND(C2&lt;&gt;"",NOT(ISNUMBER(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B300">
       <formula1>'Cow Status'!$A$2:$A$7</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="C2:C300">
+      <formula1>EDATE(TODAY(),-10)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" sqref="D2:D300">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(D2))),AND(ISNUMBER(D2),LEFT(CELL("format",D2))="D"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E300">
       <formula1>'Cow Origin'!$A$1:$A$8</formula1>
@@ -5348,9 +5354,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G300">
       <formula1>'Cow Type'!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="C2:D300">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(C2))),AND(ISNUMBER(C2),LEFT(CELL("format",C2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16209,7 +16212,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B300">
       <formula1>HealthRecordStatus!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" sqref="C2:C1000 D2:I1000">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" sqref="C2:I1000">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -43,6 +43,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Cow Type</t>
+  </si>
+  <si>
     <t>Cow Status</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t>Gender</t>
-  </si>
-  <si>
-    <t>Cow Type</t>
   </si>
   <si>
     <t>Description</t>
@@ -1399,14 +1399,14 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6296296296296" style="12"/>
-    <col min="3" max="3" width="12.6296296296296" style="13"/>
-    <col min="7" max="7" width="20.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="20.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.6296296296296" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -1416,10 +1416,10 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1437,78 +1437,78 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="16" t="str">
-        <f>IF(G2&lt;&gt;"",UPPER(LEFT(G2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G2,G2),"0000"),"")</f>
+        <f>IF(B2&lt;&gt;"",UPPER(LEFT(B2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B2,B2),"0000"),"")</f>
         <v/>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="16" t="str">
-        <f>IF(G3&lt;&gt;"",UPPER(LEFT(G3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G3,G3),"0000"),"")</f>
+        <f>IF(B3&lt;&gt;"",UPPER(LEFT(B3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B3,B3),"0000"),"")</f>
         <v/>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="16" t="str">
-        <f>IF(G4&lt;&gt;"",UPPER(LEFT(G4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G4,G4),"0000"),"")</f>
+        <f>IF(B4&lt;&gt;"",UPPER(LEFT(B4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B4,B4),"0000"),"")</f>
         <v/>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="16" t="str">
-        <f>IF(G5&lt;&gt;"",UPPER(LEFT(G5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G5,G5),"0000"),"")</f>
+        <f>IF(B5&lt;&gt;"",UPPER(LEFT(B5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B5,B5),"0000"),"")</f>
         <v/>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="16" t="str">
-        <f>IF(G6&lt;&gt;"",UPPER(LEFT(G6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G6,G6),"0000"),"")</f>
+        <f>IF(B6&lt;&gt;"",UPPER(LEFT(B6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B6,B6),"0000"),"")</f>
         <v/>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="16" t="str">
-        <f>IF(G7&lt;&gt;"",UPPER(LEFT(G7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G7,G7),"0000"),"")</f>
+        <f>IF(B7&lt;&gt;"",UPPER(LEFT(B7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B7,B7),"0000"),"")</f>
         <v/>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="16" t="str">
-        <f>IF(G8&lt;&gt;"",UPPER(LEFT(G8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G8,G8),"0000"),"")</f>
+        <f>IF(B8&lt;&gt;"",UPPER(LEFT(B8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B8,B8),"0000"),"")</f>
         <v/>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
@@ -1531,3829 +1531,3829 @@
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="16" t="str">
-        <f>IF(G9&lt;&gt;"",UPPER(LEFT(G9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G9,G9),"0000"),"")</f>
+        <f>IF(B9&lt;&gt;"",UPPER(LEFT(B9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B9,B9),"0000"),"")</f>
         <v/>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="16" t="str">
-        <f>IF(G10&lt;&gt;"",UPPER(LEFT(G10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G10,G10),"0000"),"")</f>
+        <f>IF(B10&lt;&gt;"",UPPER(LEFT(B10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B10,B10),"0000"),"")</f>
         <v/>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="16" t="str">
-        <f>IF(G11&lt;&gt;"",UPPER(LEFT(G11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G11,G11),"0000"),"")</f>
+        <f>IF(B11&lt;&gt;"",UPPER(LEFT(B11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B11,B11),"0000"),"")</f>
         <v/>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="16" t="str">
-        <f>IF(G12&lt;&gt;"",UPPER(LEFT(G12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G12,G12),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="6"/>
+        <f>IF(B12&lt;&gt;"",UPPER(LEFT(B12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B12,B12),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="16" t="str">
-        <f>IF(G13&lt;&gt;"",UPPER(LEFT(G13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G13,G13),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="6"/>
+        <f>IF(B13&lt;&gt;"",UPPER(LEFT(B13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B13,B13),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="16" t="str">
-        <f>IF(G14&lt;&gt;"",UPPER(LEFT(G14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G14,G14),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="6"/>
+        <f>IF(B14&lt;&gt;"",UPPER(LEFT(B14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B14,B14),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="16" t="str">
-        <f>IF(G15&lt;&gt;"",UPPER(LEFT(G15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G15,G15),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="6"/>
+        <f>IF(B15&lt;&gt;"",UPPER(LEFT(B15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B15,B15),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="16" t="str">
-        <f>IF(G16&lt;&gt;"",UPPER(LEFT(G16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G16,G16),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="6"/>
+        <f>IF(B16&lt;&gt;"",UPPER(LEFT(B16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B16,B16),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="16" t="str">
-        <f>IF(G17&lt;&gt;"",UPPER(LEFT(G17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G17,G17),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="6"/>
+        <f>IF(B17&lt;&gt;"",UPPER(LEFT(B17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B17,B17),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="16" t="str">
-        <f>IF(G18&lt;&gt;"",UPPER(LEFT(G18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G18,G18),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="6"/>
+        <f>IF(B18&lt;&gt;"",UPPER(LEFT(B18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B18,B18),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="16" t="str">
-        <f>IF(G19&lt;&gt;"",UPPER(LEFT(G19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G19,G19),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="6"/>
+        <f>IF(B19&lt;&gt;"",UPPER(LEFT(B19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B19,B19),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="16" t="str">
-        <f>IF(G20&lt;&gt;"",UPPER(LEFT(G20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G20,G20),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="6"/>
+        <f>IF(B20&lt;&gt;"",UPPER(LEFT(B20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B20,B20),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="16" t="str">
-        <f>IF(G21&lt;&gt;"",UPPER(LEFT(G21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G21,G21),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="6"/>
+        <f>IF(B21&lt;&gt;"",UPPER(LEFT(B21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B21,B21),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="16" t="str">
-        <f>IF(G22&lt;&gt;"",UPPER(LEFT(G22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G22,G22),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="6"/>
+        <f>IF(B22&lt;&gt;"",UPPER(LEFT(B22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B22,B22),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="16" t="str">
-        <f>IF(G23&lt;&gt;"",UPPER(LEFT(G23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G23,G23),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="6"/>
+        <f>IF(B23&lt;&gt;"",UPPER(LEFT(B23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B23,B23),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="16" t="str">
-        <f>IF(G24&lt;&gt;"",UPPER(LEFT(G24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G24,G24),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="6"/>
+        <f>IF(B24&lt;&gt;"",UPPER(LEFT(B24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B24,B24),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="16" t="str">
-        <f>IF(G25&lt;&gt;"",UPPER(LEFT(G25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G25,G25),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="6"/>
+        <f>IF(B25&lt;&gt;"",UPPER(LEFT(B25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B25,B25),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="16" t="str">
-        <f>IF(G26&lt;&gt;"",UPPER(LEFT(G26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G26,G26),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="6"/>
+        <f>IF(B26&lt;&gt;"",UPPER(LEFT(B26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B26,B26),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="16" t="str">
-        <f>IF(G27&lt;&gt;"",UPPER(LEFT(G27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G27,G27),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="6"/>
+        <f>IF(B27&lt;&gt;"",UPPER(LEFT(B27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B27,B27),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="16" t="str">
-        <f>IF(G28&lt;&gt;"",UPPER(LEFT(G28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G28,G28),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="6"/>
+        <f>IF(B28&lt;&gt;"",UPPER(LEFT(B28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B28,B28),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="16" t="str">
-        <f>IF(G29&lt;&gt;"",UPPER(LEFT(G29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G29,G29),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="6"/>
+        <f>IF(B29&lt;&gt;"",UPPER(LEFT(B29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B29,B29),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="16" t="str">
-        <f>IF(G30&lt;&gt;"",UPPER(LEFT(G30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G30,G30),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="6"/>
+        <f>IF(B30&lt;&gt;"",UPPER(LEFT(B30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B30,B30),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="16" t="str">
-        <f>IF(G31&lt;&gt;"",UPPER(LEFT(G31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G31,G31),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="6"/>
+        <f>IF(B31&lt;&gt;"",UPPER(LEFT(B31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B31,B31),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="16" t="str">
-        <f>IF(G32&lt;&gt;"",UPPER(LEFT(G32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G32,G32),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="6"/>
+        <f>IF(B32&lt;&gt;"",UPPER(LEFT(B32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B32,B32),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="16" t="str">
-        <f>IF(G33&lt;&gt;"",UPPER(LEFT(G33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G33,G33),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="6"/>
+        <f>IF(B33&lt;&gt;"",UPPER(LEFT(B33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B33,B33),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="16" t="str">
-        <f>IF(G34&lt;&gt;"",UPPER(LEFT(G34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G34,G34),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="6"/>
+        <f>IF(B34&lt;&gt;"",UPPER(LEFT(B34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B34,B34),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="16" t="str">
-        <f>IF(G35&lt;&gt;"",UPPER(LEFT(G35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G35,G35),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="6"/>
+        <f>IF(B35&lt;&gt;"",UPPER(LEFT(B35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B35,B35),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="16" t="str">
-        <f>IF(G36&lt;&gt;"",UPPER(LEFT(G36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G36,G36),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="6"/>
+        <f>IF(B36&lt;&gt;"",UPPER(LEFT(B36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B36,B36),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="16" t="str">
-        <f>IF(G37&lt;&gt;"",UPPER(LEFT(G37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G37,G37),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="6"/>
+        <f>IF(B37&lt;&gt;"",UPPER(LEFT(B37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B37,B37),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="16" t="str">
-        <f>IF(G38&lt;&gt;"",UPPER(LEFT(G38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G38,G38),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="6"/>
+        <f>IF(B38&lt;&gt;"",UPPER(LEFT(B38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B38,B38),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="16" t="str">
-        <f>IF(G39&lt;&gt;"",UPPER(LEFT(G39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G39,G39),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="6"/>
+        <f>IF(B39&lt;&gt;"",UPPER(LEFT(B39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B39,B39),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="16" t="str">
-        <f>IF(G40&lt;&gt;"",UPPER(LEFT(G40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G40,G40),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="6"/>
+        <f>IF(B40&lt;&gt;"",UPPER(LEFT(B40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B40,B40),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="16" t="str">
-        <f>IF(G41&lt;&gt;"",UPPER(LEFT(G41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G41,G41),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="6"/>
+        <f>IF(B41&lt;&gt;"",UPPER(LEFT(B41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B41,B41),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="16" t="str">
-        <f>IF(G42&lt;&gt;"",UPPER(LEFT(G42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G42,G42),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="6"/>
+        <f>IF(B42&lt;&gt;"",UPPER(LEFT(B42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B42,B42),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="16" t="str">
-        <f>IF(G43&lt;&gt;"",UPPER(LEFT(G43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G43,G43),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="6"/>
+        <f>IF(B43&lt;&gt;"",UPPER(LEFT(B43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B43,B43),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="16" t="str">
-        <f>IF(G44&lt;&gt;"",UPPER(LEFT(G44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G44,G44),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="6"/>
+        <f>IF(B44&lt;&gt;"",UPPER(LEFT(B44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B44,B44),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="16" t="str">
-        <f>IF(G45&lt;&gt;"",UPPER(LEFT(G45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G45,G45),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="6"/>
+        <f>IF(B45&lt;&gt;"",UPPER(LEFT(B45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B45,B45),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="16" t="str">
-        <f>IF(G46&lt;&gt;"",UPPER(LEFT(G46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G46,G46),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="6"/>
+        <f>IF(B46&lt;&gt;"",UPPER(LEFT(B46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B46,B46),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="16" t="str">
-        <f>IF(G47&lt;&gt;"",UPPER(LEFT(G47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G47,G47),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="6"/>
+        <f>IF(B47&lt;&gt;"",UPPER(LEFT(B47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B47,B47),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="16" t="str">
-        <f>IF(G48&lt;&gt;"",UPPER(LEFT(G48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G48,G48),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="6"/>
+        <f>IF(B48&lt;&gt;"",UPPER(LEFT(B48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B48,B48),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="16" t="str">
-        <f>IF(G49&lt;&gt;"",UPPER(LEFT(G49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G49,G49),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="6"/>
+        <f>IF(B49&lt;&gt;"",UPPER(LEFT(B49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B49,B49),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="16" t="str">
-        <f>IF(G50&lt;&gt;"",UPPER(LEFT(G50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G50,G50),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="6"/>
+        <f>IF(B50&lt;&gt;"",UPPER(LEFT(B50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B50,B50),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="16" t="str">
-        <f>IF(G51&lt;&gt;"",UPPER(LEFT(G51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G51,G51),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="6"/>
+        <f>IF(B51&lt;&gt;"",UPPER(LEFT(B51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B51,B51),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="16" t="str">
-        <f>IF(G52&lt;&gt;"",UPPER(LEFT(G52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G52,G52),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="6"/>
+        <f>IF(B52&lt;&gt;"",UPPER(LEFT(B52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B52,B52),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="16" t="str">
-        <f>IF(G53&lt;&gt;"",UPPER(LEFT(G53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G53,G53),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="6"/>
+        <f>IF(B53&lt;&gt;"",UPPER(LEFT(B53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B53,B53),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="16" t="str">
-        <f>IF(G54&lt;&gt;"",UPPER(LEFT(G54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G54,G54),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="6"/>
+        <f>IF(B54&lt;&gt;"",UPPER(LEFT(B54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B54,B54),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="16" t="str">
-        <f>IF(G55&lt;&gt;"",UPPER(LEFT(G55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G55,G55),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="6"/>
+        <f>IF(B55&lt;&gt;"",UPPER(LEFT(B55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B55,B55),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="16" t="str">
-        <f>IF(G56&lt;&gt;"",UPPER(LEFT(G56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G56,G56),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="6"/>
+        <f>IF(B56&lt;&gt;"",UPPER(LEFT(B56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B56,B56),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="16" t="str">
-        <f>IF(G57&lt;&gt;"",UPPER(LEFT(G57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G57,G57),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="6"/>
+        <f>IF(B57&lt;&gt;"",UPPER(LEFT(B57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B57,B57),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="16" t="str">
-        <f>IF(G58&lt;&gt;"",UPPER(LEFT(G58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G58,G58),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="6"/>
+        <f>IF(B58&lt;&gt;"",UPPER(LEFT(B58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B58,B58),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="16" t="str">
-        <f>IF(G59&lt;&gt;"",UPPER(LEFT(G59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G59,G59),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="6"/>
+        <f>IF(B59&lt;&gt;"",UPPER(LEFT(B59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B59,B59),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="16" t="str">
-        <f>IF(G60&lt;&gt;"",UPPER(LEFT(G60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G60,G60),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="6"/>
+        <f>IF(B60&lt;&gt;"",UPPER(LEFT(B60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B60,B60),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="16" t="str">
-        <f>IF(G61&lt;&gt;"",UPPER(LEFT(G61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G61,G61),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="6"/>
+        <f>IF(B61&lt;&gt;"",UPPER(LEFT(B61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B61,B61),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="16" t="str">
-        <f>IF(G62&lt;&gt;"",UPPER(LEFT(G62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G62,G62),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="6"/>
+        <f>IF(B62&lt;&gt;"",UPPER(LEFT(B62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B62,B62),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="16" t="str">
-        <f>IF(G63&lt;&gt;"",UPPER(LEFT(G63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G63,G63),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="6"/>
+        <f>IF(B63&lt;&gt;"",UPPER(LEFT(B63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B63,B63),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="16" t="str">
-        <f>IF(G64&lt;&gt;"",UPPER(LEFT(G64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G64,G64),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="6"/>
+        <f>IF(B64&lt;&gt;"",UPPER(LEFT(B64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B64,B64),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="16" t="str">
-        <f>IF(G65&lt;&gt;"",UPPER(LEFT(G65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G65,G65),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="6"/>
+        <f>IF(B65&lt;&gt;"",UPPER(LEFT(B65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B65,B65),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="16" t="str">
-        <f>IF(G66&lt;&gt;"",UPPER(LEFT(G66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G66,G66),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="6"/>
+        <f>IF(B66&lt;&gt;"",UPPER(LEFT(B66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B66,B66),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="16" t="str">
-        <f>IF(G67&lt;&gt;"",UPPER(LEFT(G67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G67,G67),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="6"/>
+        <f>IF(B67&lt;&gt;"",UPPER(LEFT(B67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B67,B67),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="16" t="str">
-        <f>IF(G68&lt;&gt;"",UPPER(LEFT(G68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G68,G68),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="6"/>
+        <f>IF(B68&lt;&gt;"",UPPER(LEFT(B68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B68,B68),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="16" t="str">
-        <f>IF(G69&lt;&gt;"",UPPER(LEFT(G69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G69,G69),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="6"/>
+        <f>IF(B69&lt;&gt;"",UPPER(LEFT(B69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B69,B69),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="16" t="str">
-        <f>IF(G70&lt;&gt;"",UPPER(LEFT(G70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G70,G70),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="6"/>
+        <f>IF(B70&lt;&gt;"",UPPER(LEFT(B70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B70,B70),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="16" t="str">
-        <f>IF(G71&lt;&gt;"",UPPER(LEFT(G71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G71,G71),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="6"/>
+        <f>IF(B71&lt;&gt;"",UPPER(LEFT(B71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B71,B71),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="16" t="str">
-        <f>IF(G72&lt;&gt;"",UPPER(LEFT(G72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G72,G72),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="6"/>
+        <f>IF(B72&lt;&gt;"",UPPER(LEFT(B72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B72,B72),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="7"/>
+      <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="16" t="str">
-        <f>IF(G73&lt;&gt;"",UPPER(LEFT(G73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G73,G73),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="6"/>
+        <f>IF(B73&lt;&gt;"",UPPER(LEFT(B73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B73,B73),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="16" t="str">
-        <f>IF(G74&lt;&gt;"",UPPER(LEFT(G74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G74,G74),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="6"/>
+        <f>IF(B74&lt;&gt;"",UPPER(LEFT(B74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B74,B74),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="16" t="str">
-        <f>IF(G75&lt;&gt;"",UPPER(LEFT(G75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G75,G75),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="6"/>
+        <f>IF(B75&lt;&gt;"",UPPER(LEFT(B75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B75,B75),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="16" t="str">
-        <f>IF(G76&lt;&gt;"",UPPER(LEFT(G76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G76,G76),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="6"/>
+        <f>IF(B76&lt;&gt;"",UPPER(LEFT(B76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B76,B76),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="16" t="str">
-        <f>IF(G77&lt;&gt;"",UPPER(LEFT(G77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G77,G77),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="6"/>
+        <f>IF(B77&lt;&gt;"",UPPER(LEFT(B77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B77,B77),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" customHeight="1" spans="1:8">
       <c r="A78" s="16" t="str">
-        <f>IF(G78&lt;&gt;"",UPPER(LEFT(G78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G78,G78),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="6"/>
+        <f>IF(B78&lt;&gt;"",UPPER(LEFT(B78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B78,B78),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" customHeight="1" spans="1:8">
       <c r="A79" s="16" t="str">
-        <f>IF(G79&lt;&gt;"",UPPER(LEFT(G79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G79,G79),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="6"/>
+        <f>IF(B79&lt;&gt;"",UPPER(LEFT(B79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B79,B79),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" customHeight="1" spans="1:8">
       <c r="A80" s="16" t="str">
-        <f>IF(G80&lt;&gt;"",UPPER(LEFT(G80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G80,G80),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="6"/>
+        <f>IF(B80&lt;&gt;"",UPPER(LEFT(B80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B80,B80),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" customHeight="1" spans="1:8">
       <c r="A81" s="16" t="str">
-        <f>IF(G81&lt;&gt;"",UPPER(LEFT(G81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G81,G81),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="6"/>
+        <f>IF(B81&lt;&gt;"",UPPER(LEFT(B81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B81,B81),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
+      <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
     <row r="82" customHeight="1" spans="1:8">
       <c r="A82" s="16" t="str">
-        <f>IF(G82&lt;&gt;"",UPPER(LEFT(G82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G82,G82),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="6"/>
+        <f>IF(B82&lt;&gt;"",UPPER(LEFT(B82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B82,B82),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="7"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" customHeight="1" spans="1:8">
       <c r="A83" s="16" t="str">
-        <f>IF(G83&lt;&gt;"",UPPER(LEFT(G83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G83,G83),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="6"/>
+        <f>IF(B83&lt;&gt;"",UPPER(LEFT(B83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B83,B83),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" customHeight="1" spans="1:8">
       <c r="A84" s="16" t="str">
-        <f>IF(G84&lt;&gt;"",UPPER(LEFT(G84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G84,G84),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="6"/>
+        <f>IF(B84&lt;&gt;"",UPPER(LEFT(B84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B84,B84),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" customHeight="1" spans="1:8">
       <c r="A85" s="16" t="str">
-        <f>IF(G85&lt;&gt;"",UPPER(LEFT(G85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G85,G85),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="6"/>
+        <f>IF(B85&lt;&gt;"",UPPER(LEFT(B85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B85,B85),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" customHeight="1" spans="1:8">
       <c r="A86" s="16" t="str">
-        <f>IF(G86&lt;&gt;"",UPPER(LEFT(G86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G86,G86),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="6"/>
+        <f>IF(B86&lt;&gt;"",UPPER(LEFT(B86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B86,B86),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="7"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" customHeight="1" spans="1:8">
       <c r="A87" s="16" t="str">
-        <f>IF(G87&lt;&gt;"",UPPER(LEFT(G87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G87,G87),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="6"/>
+        <f>IF(B87&lt;&gt;"",UPPER(LEFT(B87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B87,B87),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="16" t="str">
-        <f>IF(G88&lt;&gt;"",UPPER(LEFT(G88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G88,G88),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="6"/>
+        <f>IF(B88&lt;&gt;"",UPPER(LEFT(B88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B88,B88),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="7"/>
+      <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" customHeight="1" spans="1:8">
       <c r="A89" s="16" t="str">
-        <f>IF(G89&lt;&gt;"",UPPER(LEFT(G89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G89,G89),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="6"/>
+        <f>IF(B89&lt;&gt;"",UPPER(LEFT(B89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B89,B89),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="7"/>
+      <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" customHeight="1" spans="1:8">
       <c r="A90" s="16" t="str">
-        <f>IF(G90&lt;&gt;"",UPPER(LEFT(G90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G90,G90),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="6"/>
+        <f>IF(B90&lt;&gt;"",UPPER(LEFT(B90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B90,B90),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="7"/>
+      <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" customHeight="1" spans="1:8">
       <c r="A91" s="16" t="str">
-        <f>IF(G91&lt;&gt;"",UPPER(LEFT(G91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G91,G91),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="6"/>
+        <f>IF(B91&lt;&gt;"",UPPER(LEFT(B91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B91,B91),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" customHeight="1" spans="1:8">
       <c r="A92" s="16" t="str">
-        <f>IF(G92&lt;&gt;"",UPPER(LEFT(G92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G92,G92),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="6"/>
+        <f>IF(B92&lt;&gt;"",UPPER(LEFT(B92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B92,B92),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="7"/>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="16" t="str">
-        <f>IF(G93&lt;&gt;"",UPPER(LEFT(G93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G93,G93),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="6"/>
+        <f>IF(B93&lt;&gt;"",UPPER(LEFT(B93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B93,B93),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="7"/>
+      <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="16" t="str">
-        <f>IF(G94&lt;&gt;"",UPPER(LEFT(G94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G94,G94),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="6"/>
+        <f>IF(B94&lt;&gt;"",UPPER(LEFT(B94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B94,B94),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="7"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" customHeight="1" spans="1:8">
       <c r="A95" s="16" t="str">
-        <f>IF(G95&lt;&gt;"",UPPER(LEFT(G95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G95,G95),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="6"/>
+        <f>IF(B95&lt;&gt;"",UPPER(LEFT(B95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B95,B95),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="7"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" customHeight="1" spans="1:8">
       <c r="A96" s="16" t="str">
-        <f>IF(G96&lt;&gt;"",UPPER(LEFT(G96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G96,G96),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="6"/>
+        <f>IF(B96&lt;&gt;"",UPPER(LEFT(B96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B96,B96),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="7"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" customHeight="1" spans="1:8">
       <c r="A97" s="16" t="str">
-        <f>IF(G97&lt;&gt;"",UPPER(LEFT(G97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G97,G97),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="6"/>
+        <f>IF(B97&lt;&gt;"",UPPER(LEFT(B97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B97,B97),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="21"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="7"/>
+      <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" customHeight="1" spans="1:8">
       <c r="A98" s="16" t="str">
-        <f>IF(G98&lt;&gt;"",UPPER(LEFT(G98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G98,G98),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="6"/>
+        <f>IF(B98&lt;&gt;"",UPPER(LEFT(B98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B98,B98),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="21"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="7"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" customHeight="1" spans="1:8">
       <c r="A99" s="16" t="str">
-        <f>IF(G99&lt;&gt;"",UPPER(LEFT(G99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G99,G99),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="6"/>
+        <f>IF(B99&lt;&gt;"",UPPER(LEFT(B99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B99,B99),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="7"/>
+      <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" customHeight="1" spans="1:8">
       <c r="A100" s="16" t="str">
-        <f>IF(G100&lt;&gt;"",UPPER(LEFT(G100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G100,G100),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="6"/>
+        <f>IF(B100&lt;&gt;"",UPPER(LEFT(B100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B100,B100),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="7"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" customHeight="1" spans="1:8">
       <c r="A101" s="16" t="str">
-        <f>IF(G101&lt;&gt;"",UPPER(LEFT(G101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G101,G101),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="6"/>
+        <f>IF(B101&lt;&gt;"",UPPER(LEFT(B101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B101,B101),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="7"/>
+      <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" customHeight="1" spans="1:8">
       <c r="A102" s="16" t="str">
-        <f>IF(G102&lt;&gt;"",UPPER(LEFT(G102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G102,G102),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="6"/>
+        <f>IF(B102&lt;&gt;"",UPPER(LEFT(B102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B102,B102),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="7"/>
+      <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" customHeight="1" spans="1:8">
       <c r="A103" s="16" t="str">
-        <f>IF(G103&lt;&gt;"",UPPER(LEFT(G103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G103,G103),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="6"/>
+        <f>IF(B103&lt;&gt;"",UPPER(LEFT(B103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B103,B103),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="7"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" customHeight="1" spans="1:8">
       <c r="A104" s="16" t="str">
-        <f>IF(G104&lt;&gt;"",UPPER(LEFT(G104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G104,G104),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="6"/>
+        <f>IF(B104&lt;&gt;"",UPPER(LEFT(B104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B104,B104),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="7"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" customHeight="1" spans="1:8">
       <c r="A105" s="16" t="str">
-        <f>IF(G105&lt;&gt;"",UPPER(LEFT(G105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G105,G105),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="6"/>
+        <f>IF(B105&lt;&gt;"",UPPER(LEFT(B105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B105,B105),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="7"/>
+      <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" customHeight="1" spans="1:8">
       <c r="A106" s="16" t="str">
-        <f>IF(G106&lt;&gt;"",UPPER(LEFT(G106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G106,G106),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="6"/>
+        <f>IF(B106&lt;&gt;"",UPPER(LEFT(B106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B106,B106),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="7"/>
+      <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
     <row r="107" customHeight="1" spans="1:8">
       <c r="A107" s="16" t="str">
-        <f>IF(G107&lt;&gt;"",UPPER(LEFT(G107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G107,G107),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="6"/>
+        <f>IF(B107&lt;&gt;"",UPPER(LEFT(B107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B107,B107),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="7"/>
+      <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" customHeight="1" spans="1:8">
       <c r="A108" s="16" t="str">
-        <f>IF(G108&lt;&gt;"",UPPER(LEFT(G108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G108,G108),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="6"/>
+        <f>IF(B108&lt;&gt;"",UPPER(LEFT(B108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B108,B108),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="7"/>
+      <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" customHeight="1" spans="1:8">
       <c r="A109" s="16" t="str">
-        <f>IF(G109&lt;&gt;"",UPPER(LEFT(G109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G109,G109),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="6"/>
+        <f>IF(B109&lt;&gt;"",UPPER(LEFT(B109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B109,B109),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="7"/>
+      <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" customHeight="1" spans="1:8">
       <c r="A110" s="16" t="str">
-        <f>IF(G110&lt;&gt;"",UPPER(LEFT(G110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G110,G110),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="6"/>
+        <f>IF(B110&lt;&gt;"",UPPER(LEFT(B110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B110,B110),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="7"/>
+      <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
     <row r="111" customHeight="1" spans="1:8">
       <c r="A111" s="16" t="str">
-        <f>IF(G111&lt;&gt;"",UPPER(LEFT(G111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G111,G111),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="6"/>
+        <f>IF(B111&lt;&gt;"",UPPER(LEFT(B111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B111,B111),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="7"/>
+      <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
     <row r="112" customHeight="1" spans="1:8">
       <c r="A112" s="16" t="str">
-        <f>IF(G112&lt;&gt;"",UPPER(LEFT(G112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G112,G112),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="6"/>
+        <f>IF(B112&lt;&gt;"",UPPER(LEFT(B112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B112,B112),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="21"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="7"/>
+      <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
     <row r="113" customHeight="1" spans="1:8">
       <c r="A113" s="16" t="str">
-        <f>IF(G113&lt;&gt;"",UPPER(LEFT(G113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G113,G113),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="6"/>
+        <f>IF(B113&lt;&gt;"",UPPER(LEFT(B113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B113,B113),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="21"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="7"/>
+      <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
     <row r="114" customHeight="1" spans="1:8">
       <c r="A114" s="16" t="str">
-        <f>IF(G114&lt;&gt;"",UPPER(LEFT(G114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G114,G114),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="6"/>
+        <f>IF(B114&lt;&gt;"",UPPER(LEFT(B114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B114,B114),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="21"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="7"/>
+      <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
     <row r="115" customHeight="1" spans="1:8">
       <c r="A115" s="16" t="str">
-        <f>IF(G115&lt;&gt;"",UPPER(LEFT(G115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G115,G115),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="6"/>
+        <f>IF(B115&lt;&gt;"",UPPER(LEFT(B115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B115,B115),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="21"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="7"/>
+      <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
     <row r="116" customHeight="1" spans="1:8">
       <c r="A116" s="16" t="str">
-        <f>IF(G116&lt;&gt;"",UPPER(LEFT(G116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G116,G116),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="6"/>
+        <f>IF(B116&lt;&gt;"",UPPER(LEFT(B116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B116,B116),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="21"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="7"/>
+      <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
     <row r="117" customHeight="1" spans="1:8">
       <c r="A117" s="16" t="str">
-        <f>IF(G117&lt;&gt;"",UPPER(LEFT(G117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G117,G117),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="6"/>
+        <f>IF(B117&lt;&gt;"",UPPER(LEFT(B117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B117,B117),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="21"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="7"/>
+      <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
     <row r="118" customHeight="1" spans="1:8">
       <c r="A118" s="16" t="str">
-        <f>IF(G118&lt;&gt;"",UPPER(LEFT(G118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G118,G118),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="6"/>
+        <f>IF(B118&lt;&gt;"",UPPER(LEFT(B118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B118,B118),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="21"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="7"/>
+      <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
     <row r="119" customHeight="1" spans="1:8">
       <c r="A119" s="16" t="str">
-        <f>IF(G119&lt;&gt;"",UPPER(LEFT(G119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G119,G119),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="6"/>
+        <f>IF(B119&lt;&gt;"",UPPER(LEFT(B119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B119,B119),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="7"/>
+      <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
     <row r="120" customHeight="1" spans="1:8">
       <c r="A120" s="16" t="str">
-        <f>IF(G120&lt;&gt;"",UPPER(LEFT(G120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G120,G120),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="6"/>
+        <f>IF(B120&lt;&gt;"",UPPER(LEFT(B120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B120,B120),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="7"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
     <row r="121" customHeight="1" spans="1:8">
       <c r="A121" s="16" t="str">
-        <f>IF(G121&lt;&gt;"",UPPER(LEFT(G121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G121,G121),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="6"/>
+        <f>IF(B121&lt;&gt;"",UPPER(LEFT(B121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B121,B121),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="21"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="7"/>
+      <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
     <row r="122" customHeight="1" spans="1:8">
       <c r="A122" s="16" t="str">
-        <f>IF(G122&lt;&gt;"",UPPER(LEFT(G122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G122,G122),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="6"/>
+        <f>IF(B122&lt;&gt;"",UPPER(LEFT(B122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B122,B122),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="21"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="7"/>
+      <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
     <row r="123" customHeight="1" spans="1:8">
       <c r="A123" s="16" t="str">
-        <f>IF(G123&lt;&gt;"",UPPER(LEFT(G123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G123,G123),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="6"/>
+        <f>IF(B123&lt;&gt;"",UPPER(LEFT(B123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B123,B123),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="21"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="7"/>
+      <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
     <row r="124" customHeight="1" spans="1:8">
       <c r="A124" s="16" t="str">
-        <f>IF(G124&lt;&gt;"",UPPER(LEFT(G124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G124,G124),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="6"/>
+        <f>IF(B124&lt;&gt;"",UPPER(LEFT(B124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B124,B124),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="21"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="7"/>
+      <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
     <row r="125" customHeight="1" spans="1:8">
       <c r="A125" s="16" t="str">
-        <f>IF(G125&lt;&gt;"",UPPER(LEFT(G125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G125,G125),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B125" s="6"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="6"/>
+        <f>IF(B125&lt;&gt;"",UPPER(LEFT(B125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B125,B125),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="21"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="7"/>
+      <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
     <row r="126" customHeight="1" spans="1:8">
       <c r="A126" s="16" t="str">
-        <f>IF(G126&lt;&gt;"",UPPER(LEFT(G126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G126,G126),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="6"/>
+        <f>IF(B126&lt;&gt;"",UPPER(LEFT(B126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B126,B126),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="21"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="7"/>
+      <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
     <row r="127" customHeight="1" spans="1:8">
       <c r="A127" s="16" t="str">
-        <f>IF(G127&lt;&gt;"",UPPER(LEFT(G127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G127,G127),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="6"/>
+        <f>IF(B127&lt;&gt;"",UPPER(LEFT(B127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B127,B127),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="21"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="7"/>
+      <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
     <row r="128" customHeight="1" spans="1:8">
       <c r="A128" s="16" t="str">
-        <f>IF(G128&lt;&gt;"",UPPER(LEFT(G128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G128,G128),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="6"/>
+        <f>IF(B128&lt;&gt;"",UPPER(LEFT(B128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B128,B128),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="21"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="7"/>
+      <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
     <row r="129" customHeight="1" spans="1:8">
       <c r="A129" s="16" t="str">
-        <f>IF(G129&lt;&gt;"",UPPER(LEFT(G129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G129,G129),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B129" s="6"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="6"/>
+        <f>IF(B129&lt;&gt;"",UPPER(LEFT(B129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B129,B129),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="21"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="7"/>
+      <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
     <row r="130" customHeight="1" spans="1:8">
       <c r="A130" s="16" t="str">
-        <f>IF(G130&lt;&gt;"",UPPER(LEFT(G130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G130,G130),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="6"/>
+        <f>IF(B130&lt;&gt;"",UPPER(LEFT(B130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B130,B130),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="21"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="7"/>
+      <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
     <row r="131" customHeight="1" spans="1:8">
       <c r="A131" s="16" t="str">
-        <f>IF(G131&lt;&gt;"",UPPER(LEFT(G131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G131,G131),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="6"/>
+        <f>IF(B131&lt;&gt;"",UPPER(LEFT(B131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B131,B131),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="21"/>
       <c r="F131" s="6"/>
-      <c r="G131" s="7"/>
+      <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
       <c r="A132" s="16" t="str">
-        <f>IF(G132&lt;&gt;"",UPPER(LEFT(G132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G132,G132),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="6"/>
+        <f>IF(B132&lt;&gt;"",UPPER(LEFT(B132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B132,B132),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="21"/>
       <c r="F132" s="6"/>
-      <c r="G132" s="7"/>
+      <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
     <row r="133" customHeight="1" spans="1:8">
       <c r="A133" s="16" t="str">
-        <f>IF(G133&lt;&gt;"",UPPER(LEFT(G133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G133,G133),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="6"/>
+        <f>IF(B133&lt;&gt;"",UPPER(LEFT(B133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B133,B133),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="21"/>
       <c r="F133" s="6"/>
-      <c r="G133" s="7"/>
+      <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
     <row r="134" customHeight="1" spans="1:8">
       <c r="A134" s="16" t="str">
-        <f>IF(G134&lt;&gt;"",UPPER(LEFT(G134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G134,G134),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="6"/>
+        <f>IF(B134&lt;&gt;"",UPPER(LEFT(B134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B134,B134),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B134" s="7"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="21"/>
       <c r="F134" s="6"/>
-      <c r="G134" s="7"/>
+      <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" customHeight="1" spans="1:8">
       <c r="A135" s="16" t="str">
-        <f>IF(G135&lt;&gt;"",UPPER(LEFT(G135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G135,G135),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="6"/>
+        <f>IF(B135&lt;&gt;"",UPPER(LEFT(B135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B135,B135),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="21"/>
       <c r="F135" s="6"/>
-      <c r="G135" s="7"/>
+      <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
     <row r="136" customHeight="1" spans="1:8">
       <c r="A136" s="16" t="str">
-        <f>IF(G136&lt;&gt;"",UPPER(LEFT(G136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G136,G136),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="6"/>
+        <f>IF(B136&lt;&gt;"",UPPER(LEFT(B136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B136,B136),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="21"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="7"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
     <row r="137" customHeight="1" spans="1:8">
       <c r="A137" s="16" t="str">
-        <f>IF(G137&lt;&gt;"",UPPER(LEFT(G137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G137,G137),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="6"/>
+        <f>IF(B137&lt;&gt;"",UPPER(LEFT(B137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B137,B137),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="21"/>
       <c r="F137" s="6"/>
-      <c r="G137" s="7"/>
+      <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
     <row r="138" customHeight="1" spans="1:8">
       <c r="A138" s="16" t="str">
-        <f>IF(G138&lt;&gt;"",UPPER(LEFT(G138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G138,G138),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="6"/>
+        <f>IF(B138&lt;&gt;"",UPPER(LEFT(B138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B138,B138),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B138" s="7"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="21"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="7"/>
+      <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
     <row r="139" customHeight="1" spans="1:8">
       <c r="A139" s="16" t="str">
-        <f>IF(G139&lt;&gt;"",UPPER(LEFT(G139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G139,G139),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="6"/>
+        <f>IF(B139&lt;&gt;"",UPPER(LEFT(B139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B139,B139),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="21"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="7"/>
+      <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
     <row r="140" customHeight="1" spans="1:8">
       <c r="A140" s="16" t="str">
-        <f>IF(G140&lt;&gt;"",UPPER(LEFT(G140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G140,G140),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="6"/>
+        <f>IF(B140&lt;&gt;"",UPPER(LEFT(B140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B140,B140),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="21"/>
       <c r="F140" s="6"/>
-      <c r="G140" s="7"/>
+      <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
     <row r="141" customHeight="1" spans="1:8">
       <c r="A141" s="16" t="str">
-        <f>IF(G141&lt;&gt;"",UPPER(LEFT(G141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G141,G141),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="6"/>
+        <f>IF(B141&lt;&gt;"",UPPER(LEFT(B141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B141,B141),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="21"/>
       <c r="F141" s="6"/>
-      <c r="G141" s="7"/>
+      <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
     <row r="142" customHeight="1" spans="1:8">
       <c r="A142" s="16" t="str">
-        <f>IF(G142&lt;&gt;"",UPPER(LEFT(G142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G142,G142),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="6"/>
+        <f>IF(B142&lt;&gt;"",UPPER(LEFT(B142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B142,B142),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="21"/>
       <c r="F142" s="6"/>
-      <c r="G142" s="7"/>
+      <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
     <row r="143" customHeight="1" spans="1:8">
       <c r="A143" s="16" t="str">
-        <f>IF(G143&lt;&gt;"",UPPER(LEFT(G143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G143,G143),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="6"/>
+        <f>IF(B143&lt;&gt;"",UPPER(LEFT(B143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B143,B143),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="7"/>
+      <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
     <row r="144" customHeight="1" spans="1:8">
       <c r="A144" s="16" t="str">
-        <f>IF(G144&lt;&gt;"",UPPER(LEFT(G144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G144,G144),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="6"/>
+        <f>IF(B144&lt;&gt;"",UPPER(LEFT(B144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B144,B144),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="21"/>
       <c r="F144" s="6"/>
-      <c r="G144" s="7"/>
+      <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
     <row r="145" customHeight="1" spans="1:8">
       <c r="A145" s="16" t="str">
-        <f>IF(G145&lt;&gt;"",UPPER(LEFT(G145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G145,G145),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="6"/>
+        <f>IF(B145&lt;&gt;"",UPPER(LEFT(B145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B145,B145),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="21"/>
       <c r="F145" s="6"/>
-      <c r="G145" s="7"/>
+      <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
     <row r="146" customHeight="1" spans="1:8">
       <c r="A146" s="16" t="str">
-        <f>IF(G146&lt;&gt;"",UPPER(LEFT(G146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G146,G146),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="6"/>
+        <f>IF(B146&lt;&gt;"",UPPER(LEFT(B146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B146,B146),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="21"/>
       <c r="F146" s="6"/>
-      <c r="G146" s="7"/>
+      <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
     <row r="147" customHeight="1" spans="1:8">
       <c r="A147" s="16" t="str">
-        <f>IF(G147&lt;&gt;"",UPPER(LEFT(G147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G147,G147),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="6"/>
+        <f>IF(B147&lt;&gt;"",UPPER(LEFT(B147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B147,B147),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="21"/>
       <c r="F147" s="6"/>
-      <c r="G147" s="7"/>
+      <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
     <row r="148" customHeight="1" spans="1:8">
       <c r="A148" s="16" t="str">
-        <f>IF(G148&lt;&gt;"",UPPER(LEFT(G148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G148,G148),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="6"/>
+        <f>IF(B148&lt;&gt;"",UPPER(LEFT(B148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B148,B148),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B148" s="7"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="21"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="7"/>
+      <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
     <row r="149" customHeight="1" spans="1:8">
       <c r="A149" s="16" t="str">
-        <f>IF(G149&lt;&gt;"",UPPER(LEFT(G149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G149,G149),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="6"/>
+        <f>IF(B149&lt;&gt;"",UPPER(LEFT(B149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B149,B149),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B149" s="7"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="21"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="7"/>
+      <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
     <row r="150" customHeight="1" spans="1:8">
       <c r="A150" s="16" t="str">
-        <f>IF(G150&lt;&gt;"",UPPER(LEFT(G150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G150,G150),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="6"/>
+        <f>IF(B150&lt;&gt;"",UPPER(LEFT(B150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B150,B150),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B150" s="7"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="21"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="7"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
     <row r="151" customHeight="1" spans="1:8">
       <c r="A151" s="16" t="str">
-        <f>IF(G151&lt;&gt;"",UPPER(LEFT(G151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G151,G151),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="6"/>
+        <f>IF(B151&lt;&gt;"",UPPER(LEFT(B151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B151,B151),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="21"/>
       <c r="F151" s="6"/>
-      <c r="G151" s="7"/>
+      <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
     <row r="152" customHeight="1" spans="1:8">
       <c r="A152" s="16" t="str">
-        <f>IF(G152&lt;&gt;"",UPPER(LEFT(G152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G152,G152),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="6"/>
+        <f>IF(B152&lt;&gt;"",UPPER(LEFT(B152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B152,B152),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B152" s="7"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="21"/>
       <c r="F152" s="6"/>
-      <c r="G152" s="7"/>
+      <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
     <row r="153" customHeight="1" spans="1:8">
       <c r="A153" s="16" t="str">
-        <f>IF(G153&lt;&gt;"",UPPER(LEFT(G153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G153,G153),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="6"/>
+        <f>IF(B153&lt;&gt;"",UPPER(LEFT(B153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B153,B153),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="21"/>
       <c r="F153" s="6"/>
-      <c r="G153" s="7"/>
+      <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
     <row r="154" customHeight="1" spans="1:8">
       <c r="A154" s="16" t="str">
-        <f>IF(G154&lt;&gt;"",UPPER(LEFT(G154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G154,G154),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B154" s="6"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="6"/>
+        <f>IF(B154&lt;&gt;"",UPPER(LEFT(B154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B154,B154),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B154" s="7"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="21"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="7"/>
+      <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
     <row r="155" customHeight="1" spans="1:8">
       <c r="A155" s="16" t="str">
-        <f>IF(G155&lt;&gt;"",UPPER(LEFT(G155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G155,G155),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="6"/>
+        <f>IF(B155&lt;&gt;"",UPPER(LEFT(B155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B155,B155),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="21"/>
       <c r="F155" s="6"/>
-      <c r="G155" s="7"/>
+      <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
     <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="16" t="str">
-        <f>IF(G156&lt;&gt;"",UPPER(LEFT(G156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G156,G156),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B156" s="6"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="6"/>
+        <f>IF(B156&lt;&gt;"",UPPER(LEFT(B156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B156,B156),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B156" s="7"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="21"/>
       <c r="F156" s="6"/>
-      <c r="G156" s="7"/>
+      <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
     <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="16" t="str">
-        <f>IF(G157&lt;&gt;"",UPPER(LEFT(G157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G157,G157),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="6"/>
+        <f>IF(B157&lt;&gt;"",UPPER(LEFT(B157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B157,B157),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="21"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="7"/>
+      <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
     <row r="158" customHeight="1" spans="1:8">
       <c r="A158" s="16" t="str">
-        <f>IF(G158&lt;&gt;"",UPPER(LEFT(G158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G158,G158),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="6"/>
+        <f>IF(B158&lt;&gt;"",UPPER(LEFT(B158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B158,B158),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B158" s="7"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="21"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="7"/>
+      <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
     <row r="159" customHeight="1" spans="1:8">
       <c r="A159" s="16" t="str">
-        <f>IF(G159&lt;&gt;"",UPPER(LEFT(G159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G159,G159),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="6"/>
+        <f>IF(B159&lt;&gt;"",UPPER(LEFT(B159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B159,B159),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="21"/>
       <c r="F159" s="6"/>
-      <c r="G159" s="7"/>
+      <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
     <row r="160" customHeight="1" spans="1:8">
       <c r="A160" s="16" t="str">
-        <f>IF(G160&lt;&gt;"",UPPER(LEFT(G160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G160,G160),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="6"/>
+        <f>IF(B160&lt;&gt;"",UPPER(LEFT(B160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B160,B160),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="21"/>
       <c r="F160" s="6"/>
-      <c r="G160" s="7"/>
+      <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
     <row r="161" customHeight="1" spans="1:8">
       <c r="A161" s="16" t="str">
-        <f>IF(G161&lt;&gt;"",UPPER(LEFT(G161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G161,G161),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="6"/>
+        <f>IF(B161&lt;&gt;"",UPPER(LEFT(B161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B161,B161),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B161" s="7"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="21"/>
       <c r="F161" s="6"/>
-      <c r="G161" s="7"/>
+      <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
     <row r="162" customHeight="1" spans="1:8">
       <c r="A162" s="16" t="str">
-        <f>IF(G162&lt;&gt;"",UPPER(LEFT(G162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G162,G162),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="6"/>
+        <f>IF(B162&lt;&gt;"",UPPER(LEFT(B162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B162,B162),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="21"/>
       <c r="F162" s="6"/>
-      <c r="G162" s="7"/>
+      <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
       <c r="A163" s="16" t="str">
-        <f>IF(G163&lt;&gt;"",UPPER(LEFT(G163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G163,G163),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="6"/>
+        <f>IF(B163&lt;&gt;"",UPPER(LEFT(B163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B163,B163),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="21"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="7"/>
+      <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
     <row r="164" customHeight="1" spans="1:8">
       <c r="A164" s="16" t="str">
-        <f>IF(G164&lt;&gt;"",UPPER(LEFT(G164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G164,G164),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="6"/>
+        <f>IF(B164&lt;&gt;"",UPPER(LEFT(B164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B164,B164),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="21"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="7"/>
+      <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
     <row r="165" customHeight="1" spans="1:8">
       <c r="A165" s="16" t="str">
-        <f>IF(G165&lt;&gt;"",UPPER(LEFT(G165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G165,G165),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="6"/>
+        <f>IF(B165&lt;&gt;"",UPPER(LEFT(B165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B165,B165),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="21"/>
       <c r="F165" s="6"/>
-      <c r="G165" s="7"/>
+      <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
     <row r="166" customHeight="1" spans="1:8">
       <c r="A166" s="16" t="str">
-        <f>IF(G166&lt;&gt;"",UPPER(LEFT(G166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G166,G166),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="21"/>
-      <c r="E166" s="6"/>
+        <f>IF(B166&lt;&gt;"",UPPER(LEFT(B166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B166,B166),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="21"/>
       <c r="F166" s="6"/>
-      <c r="G166" s="7"/>
+      <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" customHeight="1" spans="1:8">
       <c r="A167" s="16" t="str">
-        <f>IF(G167&lt;&gt;"",UPPER(LEFT(G167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G167,G167),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="6"/>
+        <f>IF(B167&lt;&gt;"",UPPER(LEFT(B167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B167,B167),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="21"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="7"/>
+      <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
     <row r="168" customHeight="1" spans="1:8">
       <c r="A168" s="16" t="str">
-        <f>IF(G168&lt;&gt;"",UPPER(LEFT(G168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G168,G168),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="6"/>
+        <f>IF(B168&lt;&gt;"",UPPER(LEFT(B168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B168,B168),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B168" s="7"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="21"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="7"/>
+      <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
     <row r="169" customHeight="1" spans="1:8">
       <c r="A169" s="16" t="str">
-        <f>IF(G169&lt;&gt;"",UPPER(LEFT(G169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G169,G169),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="6"/>
+        <f>IF(B169&lt;&gt;"",UPPER(LEFT(B169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B169,B169),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B169" s="7"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="21"/>
       <c r="F169" s="6"/>
-      <c r="G169" s="7"/>
+      <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
     <row r="170" customHeight="1" spans="1:8">
       <c r="A170" s="16" t="str">
-        <f>IF(G170&lt;&gt;"",UPPER(LEFT(G170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G170,G170),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="6"/>
+        <f>IF(B170&lt;&gt;"",UPPER(LEFT(B170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B170,B170),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B170" s="7"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="21"/>
       <c r="F170" s="6"/>
-      <c r="G170" s="7"/>
+      <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
     <row r="171" customHeight="1" spans="1:8">
       <c r="A171" s="16" t="str">
-        <f>IF(G171&lt;&gt;"",UPPER(LEFT(G171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G171,G171),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="6"/>
+        <f>IF(B171&lt;&gt;"",UPPER(LEFT(B171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B171,B171),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="21"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="7"/>
+      <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
     <row r="172" customHeight="1" spans="1:8">
       <c r="A172" s="16" t="str">
-        <f>IF(G172&lt;&gt;"",UPPER(LEFT(G172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G172,G172),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="6"/>
+        <f>IF(B172&lt;&gt;"",UPPER(LEFT(B172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B172,B172),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="21"/>
       <c r="F172" s="6"/>
-      <c r="G172" s="7"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
       <c r="A173" s="16" t="str">
-        <f>IF(G173&lt;&gt;"",UPPER(LEFT(G173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G173,G173),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="6"/>
+        <f>IF(B173&lt;&gt;"",UPPER(LEFT(B173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B173,B173),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="21"/>
       <c r="F173" s="6"/>
-      <c r="G173" s="7"/>
+      <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
     <row r="174" customHeight="1" spans="1:8">
       <c r="A174" s="16" t="str">
-        <f>IF(G174&lt;&gt;"",UPPER(LEFT(G174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G174,G174),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="20"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="6"/>
+        <f>IF(B174&lt;&gt;"",UPPER(LEFT(B174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B174,B174),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="21"/>
       <c r="F174" s="6"/>
-      <c r="G174" s="7"/>
+      <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
       <c r="A175" s="16" t="str">
-        <f>IF(G175&lt;&gt;"",UPPER(LEFT(G175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G175,G175),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="21"/>
-      <c r="E175" s="6"/>
+        <f>IF(B175&lt;&gt;"",UPPER(LEFT(B175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B175,B175),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="21"/>
       <c r="F175" s="6"/>
-      <c r="G175" s="7"/>
+      <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
       <c r="A176" s="16" t="str">
-        <f>IF(G176&lt;&gt;"",UPPER(LEFT(G176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G176,G176),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="6"/>
+        <f>IF(B176&lt;&gt;"",UPPER(LEFT(B176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B176,B176),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="21"/>
       <c r="F176" s="6"/>
-      <c r="G176" s="7"/>
+      <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
       <c r="A177" s="16" t="str">
-        <f>IF(G177&lt;&gt;"",UPPER(LEFT(G177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G177,G177),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="21"/>
-      <c r="E177" s="6"/>
+        <f>IF(B177&lt;&gt;"",UPPER(LEFT(B177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B177,B177),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="21"/>
       <c r="F177" s="6"/>
-      <c r="G177" s="7"/>
+      <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
     <row r="178" customHeight="1" spans="1:8">
       <c r="A178" s="16" t="str">
-        <f>IF(G178&lt;&gt;"",UPPER(LEFT(G178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G178,G178),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B178" s="6"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="21"/>
-      <c r="E178" s="6"/>
+        <f>IF(B178&lt;&gt;"",UPPER(LEFT(B178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B178,B178),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B178" s="7"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="21"/>
       <c r="F178" s="6"/>
-      <c r="G178" s="7"/>
+      <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
     <row r="179" customHeight="1" spans="1:8">
       <c r="A179" s="16" t="str">
-        <f>IF(G179&lt;&gt;"",UPPER(LEFT(G179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G179,G179),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B179" s="6"/>
-      <c r="C179" s="20"/>
-      <c r="D179" s="21"/>
-      <c r="E179" s="6"/>
+        <f>IF(B179&lt;&gt;"",UPPER(LEFT(B179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B179,B179),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="21"/>
       <c r="F179" s="6"/>
-      <c r="G179" s="7"/>
+      <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
     <row r="180" customHeight="1" spans="1:8">
       <c r="A180" s="16" t="str">
-        <f>IF(G180&lt;&gt;"",UPPER(LEFT(G180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G180,G180),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B180" s="6"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="6"/>
+        <f>IF(B180&lt;&gt;"",UPPER(LEFT(B180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B180,B180),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="21"/>
       <c r="F180" s="6"/>
-      <c r="G180" s="7"/>
+      <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
     <row r="181" customHeight="1" spans="1:8">
       <c r="A181" s="16" t="str">
-        <f>IF(G181&lt;&gt;"",UPPER(LEFT(G181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G181,G181),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B181" s="6"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="6"/>
+        <f>IF(B181&lt;&gt;"",UPPER(LEFT(B181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B181,B181),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="21"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="7"/>
+      <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
     <row r="182" customHeight="1" spans="1:8">
       <c r="A182" s="16" t="str">
-        <f>IF(G182&lt;&gt;"",UPPER(LEFT(G182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G182,G182),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B182" s="6"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="6"/>
+        <f>IF(B182&lt;&gt;"",UPPER(LEFT(B182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B182,B182),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="21"/>
       <c r="F182" s="6"/>
-      <c r="G182" s="7"/>
+      <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
     <row r="183" customHeight="1" spans="1:8">
       <c r="A183" s="16" t="str">
-        <f>IF(G183&lt;&gt;"",UPPER(LEFT(G183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G183,G183),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B183" s="6"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="6"/>
+        <f>IF(B183&lt;&gt;"",UPPER(LEFT(B183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B183,B183),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="21"/>
       <c r="F183" s="6"/>
-      <c r="G183" s="7"/>
+      <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
     <row r="184" customHeight="1" spans="1:8">
       <c r="A184" s="16" t="str">
-        <f>IF(G184&lt;&gt;"",UPPER(LEFT(G184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G184,G184),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="6"/>
+        <f>IF(B184&lt;&gt;"",UPPER(LEFT(B184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B184,B184),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B184" s="7"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="21"/>
       <c r="F184" s="6"/>
-      <c r="G184" s="7"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
     <row r="185" customHeight="1" spans="1:8">
       <c r="A185" s="16" t="str">
-        <f>IF(G185&lt;&gt;"",UPPER(LEFT(G185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G185,G185),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="21"/>
-      <c r="E185" s="6"/>
+        <f>IF(B185&lt;&gt;"",UPPER(LEFT(B185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B185,B185),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="21"/>
       <c r="F185" s="6"/>
-      <c r="G185" s="7"/>
+      <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
     <row r="186" customHeight="1" spans="1:8">
       <c r="A186" s="16" t="str">
-        <f>IF(G186&lt;&gt;"",UPPER(LEFT(G186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G186,G186),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="21"/>
-      <c r="E186" s="6"/>
+        <f>IF(B186&lt;&gt;"",UPPER(LEFT(B186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B186,B186),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B186" s="7"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="21"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="7"/>
+      <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
     <row r="187" customHeight="1" spans="1:8">
       <c r="A187" s="16" t="str">
-        <f>IF(G187&lt;&gt;"",UPPER(LEFT(G187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G187,G187),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="6"/>
+        <f>IF(B187&lt;&gt;"",UPPER(LEFT(B187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B187,B187),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B187" s="7"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="21"/>
       <c r="F187" s="6"/>
-      <c r="G187" s="7"/>
+      <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
     <row r="188" customHeight="1" spans="1:8">
       <c r="A188" s="16" t="str">
-        <f>IF(G188&lt;&gt;"",UPPER(LEFT(G188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G188,G188),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B188" s="6"/>
-      <c r="C188" s="20"/>
-      <c r="D188" s="21"/>
-      <c r="E188" s="6"/>
+        <f>IF(B188&lt;&gt;"",UPPER(LEFT(B188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B188,B188),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B188" s="7"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="21"/>
       <c r="F188" s="6"/>
-      <c r="G188" s="7"/>
+      <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
     <row r="189" customHeight="1" spans="1:8">
       <c r="A189" s="16" t="str">
-        <f>IF(G189&lt;&gt;"",UPPER(LEFT(G189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G189,G189),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B189" s="6"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="6"/>
+        <f>IF(B189&lt;&gt;"",UPPER(LEFT(B189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B189,B189),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B189" s="7"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="21"/>
       <c r="F189" s="6"/>
-      <c r="G189" s="7"/>
+      <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
     <row r="190" customHeight="1" spans="1:8">
       <c r="A190" s="16" t="str">
-        <f>IF(G190&lt;&gt;"",UPPER(LEFT(G190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G190,G190),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B190" s="6"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="6"/>
+        <f>IF(B190&lt;&gt;"",UPPER(LEFT(B190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B190,B190),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B190" s="7"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="21"/>
       <c r="F190" s="6"/>
-      <c r="G190" s="7"/>
+      <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
     <row r="191" customHeight="1" spans="1:8">
       <c r="A191" s="16" t="str">
-        <f>IF(G191&lt;&gt;"",UPPER(LEFT(G191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G191,G191),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B191" s="6"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="6"/>
+        <f>IF(B191&lt;&gt;"",UPPER(LEFT(B191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B191,B191),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="21"/>
       <c r="F191" s="6"/>
-      <c r="G191" s="7"/>
+      <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
       <c r="A192" s="16" t="str">
-        <f>IF(G192&lt;&gt;"",UPPER(LEFT(G192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G192,G192),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B192" s="6"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="6"/>
+        <f>IF(B192&lt;&gt;"",UPPER(LEFT(B192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B192,B192),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B192" s="7"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="21"/>
       <c r="F192" s="6"/>
-      <c r="G192" s="7"/>
+      <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
     <row r="193" customHeight="1" spans="1:8">
       <c r="A193" s="16" t="str">
-        <f>IF(G193&lt;&gt;"",UPPER(LEFT(G193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G193,G193),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B193" s="6"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="6"/>
+        <f>IF(B193&lt;&gt;"",UPPER(LEFT(B193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B193,B193),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="21"/>
       <c r="F193" s="6"/>
-      <c r="G193" s="7"/>
+      <c r="G193" s="6"/>
       <c r="H193" s="6"/>
     </row>
     <row r="194" customHeight="1" spans="1:8">
       <c r="A194" s="16" t="str">
-        <f>IF(G194&lt;&gt;"",UPPER(LEFT(G194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G194,G194),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="6"/>
+        <f>IF(B194&lt;&gt;"",UPPER(LEFT(B194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B194,B194),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="21"/>
       <c r="F194" s="6"/>
-      <c r="G194" s="7"/>
+      <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
       <c r="A195" s="16" t="str">
-        <f>IF(G195&lt;&gt;"",UPPER(LEFT(G195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G195,G195),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="21"/>
-      <c r="E195" s="6"/>
+        <f>IF(B195&lt;&gt;"",UPPER(LEFT(B195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B195,B195),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="21"/>
       <c r="F195" s="6"/>
-      <c r="G195" s="7"/>
+      <c r="G195" s="6"/>
       <c r="H195" s="6"/>
     </row>
     <row r="196" customHeight="1" spans="1:8">
       <c r="A196" s="16" t="str">
-        <f>IF(G196&lt;&gt;"",UPPER(LEFT(G196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G196,G196),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="20"/>
-      <c r="D196" s="21"/>
-      <c r="E196" s="6"/>
+        <f>IF(B196&lt;&gt;"",UPPER(LEFT(B196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B196,B196),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="21"/>
       <c r="F196" s="6"/>
-      <c r="G196" s="7"/>
+      <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
     <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="16" t="str">
-        <f>IF(G197&lt;&gt;"",UPPER(LEFT(G197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G197,G197),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B197" s="6"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="6"/>
+        <f>IF(B197&lt;&gt;"",UPPER(LEFT(B197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B197,B197),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B197" s="7"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="21"/>
       <c r="F197" s="6"/>
-      <c r="G197" s="7"/>
+      <c r="G197" s="6"/>
       <c r="H197" s="6"/>
     </row>
     <row r="198" customHeight="1" spans="1:8">
       <c r="A198" s="16" t="str">
-        <f>IF(G198&lt;&gt;"",UPPER(LEFT(G198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G198,G198),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="6"/>
+        <f>IF(B198&lt;&gt;"",UPPER(LEFT(B198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B198,B198),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B198" s="7"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="21"/>
       <c r="F198" s="6"/>
-      <c r="G198" s="7"/>
+      <c r="G198" s="6"/>
       <c r="H198" s="6"/>
     </row>
     <row r="199" customHeight="1" spans="1:8">
       <c r="A199" s="16" t="str">
-        <f>IF(G199&lt;&gt;"",UPPER(LEFT(G199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G199,G199),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B199" s="6"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="6"/>
+        <f>IF(B199&lt;&gt;"",UPPER(LEFT(B199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B199,B199),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B199" s="7"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="21"/>
       <c r="F199" s="6"/>
-      <c r="G199" s="7"/>
+      <c r="G199" s="6"/>
       <c r="H199" s="6"/>
     </row>
     <row r="200" customHeight="1" spans="1:8">
       <c r="A200" s="16" t="str">
-        <f>IF(G200&lt;&gt;"",UPPER(LEFT(G200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G200,G200),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B200" s="6"/>
-      <c r="C200" s="20"/>
-      <c r="D200" s="21"/>
-      <c r="E200" s="6"/>
+        <f>IF(B200&lt;&gt;"",UPPER(LEFT(B200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B200,B200),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B200" s="7"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="21"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="7"/>
+      <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
     <row r="201" customHeight="1" spans="1:8">
       <c r="A201" s="16" t="str">
-        <f>IF(G201&lt;&gt;"",UPPER(LEFT(G201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G201,G201),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="6"/>
+        <f>IF(B201&lt;&gt;"",UPPER(LEFT(B201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B201,B201),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B201" s="7"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="21"/>
       <c r="F201" s="6"/>
-      <c r="G201" s="7"/>
+      <c r="G201" s="6"/>
       <c r="H201" s="6"/>
     </row>
     <row r="202" customHeight="1" spans="1:8">
       <c r="A202" s="16" t="str">
-        <f>IF(G202&lt;&gt;"",UPPER(LEFT(G202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G202,G202),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B202" s="6"/>
-      <c r="C202" s="20"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="6"/>
+        <f>IF(B202&lt;&gt;"",UPPER(LEFT(B202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B202,B202),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B202" s="7"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="21"/>
       <c r="F202" s="6"/>
-      <c r="G202" s="7"/>
+      <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
     <row r="203" customHeight="1" spans="1:8">
       <c r="A203" s="16" t="str">
-        <f>IF(G203&lt;&gt;"",UPPER(LEFT(G203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G203,G203),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B203" s="6"/>
-      <c r="C203" s="20"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="6"/>
+        <f>IF(B203&lt;&gt;"",UPPER(LEFT(B203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B203,B203),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B203" s="7"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="21"/>
       <c r="F203" s="6"/>
-      <c r="G203" s="7"/>
+      <c r="G203" s="6"/>
       <c r="H203" s="6"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
       <c r="A204" s="16" t="str">
-        <f>IF(G204&lt;&gt;"",UPPER(LEFT(G204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G204,G204),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B204" s="6"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="21"/>
-      <c r="E204" s="6"/>
+        <f>IF(B204&lt;&gt;"",UPPER(LEFT(B204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B204,B204),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B204" s="7"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="21"/>
       <c r="F204" s="6"/>
-      <c r="G204" s="7"/>
+      <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
     <row r="205" customHeight="1" spans="1:8">
       <c r="A205" s="16" t="str">
-        <f>IF(G205&lt;&gt;"",UPPER(LEFT(G205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G205,G205),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="6"/>
+        <f>IF(B205&lt;&gt;"",UPPER(LEFT(B205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B205,B205),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B205" s="7"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="21"/>
       <c r="F205" s="6"/>
-      <c r="G205" s="7"/>
+      <c r="G205" s="6"/>
       <c r="H205" s="6"/>
     </row>
     <row r="206" customHeight="1" spans="1:8">
       <c r="A206" s="16" t="str">
-        <f>IF(G206&lt;&gt;"",UPPER(LEFT(G206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G206,G206),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B206" s="6"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="6"/>
+        <f>IF(B206&lt;&gt;"",UPPER(LEFT(B206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B206,B206),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B206" s="7"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="21"/>
       <c r="F206" s="6"/>
-      <c r="G206" s="7"/>
+      <c r="G206" s="6"/>
       <c r="H206" s="6"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
       <c r="A207" s="16" t="str">
-        <f>IF(G207&lt;&gt;"",UPPER(LEFT(G207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G207,G207),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="6"/>
+        <f>IF(B207&lt;&gt;"",UPPER(LEFT(B207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B207,B207),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B207" s="7"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="21"/>
       <c r="F207" s="6"/>
-      <c r="G207" s="7"/>
+      <c r="G207" s="6"/>
       <c r="H207" s="6"/>
     </row>
     <row r="208" customHeight="1" spans="1:8">
       <c r="A208" s="16" t="str">
-        <f>IF(G208&lt;&gt;"",UPPER(LEFT(G208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G208,G208),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B208" s="6"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="21"/>
-      <c r="E208" s="6"/>
+        <f>IF(B208&lt;&gt;"",UPPER(LEFT(B208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B208,B208),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B208" s="7"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="21"/>
       <c r="F208" s="6"/>
-      <c r="G208" s="7"/>
+      <c r="G208" s="6"/>
       <c r="H208" s="6"/>
     </row>
     <row r="209" customHeight="1" spans="1:8">
       <c r="A209" s="16" t="str">
-        <f>IF(G209&lt;&gt;"",UPPER(LEFT(G209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G209,G209),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B209" s="6"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="6"/>
+        <f>IF(B209&lt;&gt;"",UPPER(LEFT(B209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B209,B209),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B209" s="7"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="21"/>
       <c r="F209" s="6"/>
-      <c r="G209" s="7"/>
+      <c r="G209" s="6"/>
       <c r="H209" s="6"/>
     </row>
     <row r="210" customHeight="1" spans="1:8">
       <c r="A210" s="16" t="str">
-        <f>IF(G210&lt;&gt;"",UPPER(LEFT(G210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G210,G210),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="21"/>
-      <c r="E210" s="6"/>
+        <f>IF(B210&lt;&gt;"",UPPER(LEFT(B210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B210,B210),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B210" s="7"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="21"/>
       <c r="F210" s="6"/>
-      <c r="G210" s="7"/>
+      <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
     <row r="211" customHeight="1" spans="1:8">
       <c r="A211" s="16" t="str">
-        <f>IF(G211&lt;&gt;"",UPPER(LEFT(G211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G211,G211),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B211" s="6"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="6"/>
+        <f>IF(B211&lt;&gt;"",UPPER(LEFT(B211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B211,B211),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B211" s="7"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="21"/>
       <c r="F211" s="6"/>
-      <c r="G211" s="7"/>
+      <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
     <row r="212" customHeight="1" spans="1:8">
       <c r="A212" s="16" t="str">
-        <f>IF(G212&lt;&gt;"",UPPER(LEFT(G212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G212,G212),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="21"/>
-      <c r="E212" s="6"/>
+        <f>IF(B212&lt;&gt;"",UPPER(LEFT(B212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B212,B212),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B212" s="7"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="21"/>
       <c r="F212" s="6"/>
-      <c r="G212" s="7"/>
+      <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
     <row r="213" customHeight="1" spans="1:8">
       <c r="A213" s="16" t="str">
-        <f>IF(G213&lt;&gt;"",UPPER(LEFT(G213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G213,G213),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B213" s="6"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="21"/>
-      <c r="E213" s="6"/>
+        <f>IF(B213&lt;&gt;"",UPPER(LEFT(B213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B213,B213),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B213" s="7"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="21"/>
       <c r="F213" s="6"/>
-      <c r="G213" s="7"/>
+      <c r="G213" s="6"/>
       <c r="H213" s="6"/>
     </row>
     <row r="214" customHeight="1" spans="1:8">
       <c r="A214" s="16" t="str">
-        <f>IF(G214&lt;&gt;"",UPPER(LEFT(G214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G214,G214),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B214" s="6"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="21"/>
-      <c r="E214" s="6"/>
+        <f>IF(B214&lt;&gt;"",UPPER(LEFT(B214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B214,B214),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B214" s="7"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="21"/>
       <c r="F214" s="6"/>
-      <c r="G214" s="7"/>
+      <c r="G214" s="6"/>
       <c r="H214" s="6"/>
     </row>
     <row r="215" customHeight="1" spans="1:8">
       <c r="A215" s="16" t="str">
-        <f>IF(G215&lt;&gt;"",UPPER(LEFT(G215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G215,G215),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="20"/>
-      <c r="D215" s="21"/>
-      <c r="E215" s="6"/>
+        <f>IF(B215&lt;&gt;"",UPPER(LEFT(B215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B215,B215),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B215" s="7"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="21"/>
       <c r="F215" s="6"/>
-      <c r="G215" s="7"/>
+      <c r="G215" s="6"/>
       <c r="H215" s="6"/>
     </row>
     <row r="216" customHeight="1" spans="1:8">
       <c r="A216" s="16" t="str">
-        <f>IF(G216&lt;&gt;"",UPPER(LEFT(G216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G216,G216),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B216" s="6"/>
-      <c r="C216" s="20"/>
-      <c r="D216" s="21"/>
-      <c r="E216" s="6"/>
+        <f>IF(B216&lt;&gt;"",UPPER(LEFT(B216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B216,B216),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B216" s="7"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="21"/>
       <c r="F216" s="6"/>
-      <c r="G216" s="7"/>
+      <c r="G216" s="6"/>
       <c r="H216" s="6"/>
     </row>
     <row r="217" customHeight="1" spans="1:8">
       <c r="A217" s="16" t="str">
-        <f>IF(G217&lt;&gt;"",UPPER(LEFT(G217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G217,G217),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B217" s="6"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="21"/>
-      <c r="E217" s="6"/>
+        <f>IF(B217&lt;&gt;"",UPPER(LEFT(B217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B217,B217),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B217" s="7"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="21"/>
       <c r="F217" s="6"/>
-      <c r="G217" s="7"/>
+      <c r="G217" s="6"/>
       <c r="H217" s="6"/>
     </row>
     <row r="218" customHeight="1" spans="1:8">
       <c r="A218" s="16" t="str">
-        <f>IF(G218&lt;&gt;"",UPPER(LEFT(G218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G218,G218),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B218" s="6"/>
-      <c r="C218" s="20"/>
-      <c r="D218" s="21"/>
-      <c r="E218" s="6"/>
+        <f>IF(B218&lt;&gt;"",UPPER(LEFT(B218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B218,B218),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B218" s="7"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="21"/>
       <c r="F218" s="6"/>
-      <c r="G218" s="7"/>
+      <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
     <row r="219" customHeight="1" spans="1:8">
       <c r="A219" s="16" t="str">
-        <f>IF(G219&lt;&gt;"",UPPER(LEFT(G219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G219,G219),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B219" s="6"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="6"/>
+        <f>IF(B219&lt;&gt;"",UPPER(LEFT(B219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B219,B219),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B219" s="7"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="21"/>
       <c r="F219" s="6"/>
-      <c r="G219" s="7"/>
+      <c r="G219" s="6"/>
       <c r="H219" s="6"/>
     </row>
     <row r="220" customHeight="1" spans="1:8">
       <c r="A220" s="16" t="str">
-        <f>IF(G220&lt;&gt;"",UPPER(LEFT(G220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G220,G220),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B220" s="6"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="6"/>
+        <f>IF(B220&lt;&gt;"",UPPER(LEFT(B220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B220,B220),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B220" s="7"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="21"/>
       <c r="F220" s="6"/>
-      <c r="G220" s="7"/>
+      <c r="G220" s="6"/>
       <c r="H220" s="6"/>
     </row>
     <row r="221" customHeight="1" spans="1:8">
       <c r="A221" s="16" t="str">
-        <f>IF(G221&lt;&gt;"",UPPER(LEFT(G221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G221,G221),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B221" s="6"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="6"/>
+        <f>IF(B221&lt;&gt;"",UPPER(LEFT(B221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B221,B221),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B221" s="7"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="21"/>
       <c r="F221" s="6"/>
-      <c r="G221" s="7"/>
+      <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
     <row r="222" customHeight="1" spans="1:8">
       <c r="A222" s="16" t="str">
-        <f>IF(G222&lt;&gt;"",UPPER(LEFT(G222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G222,G222),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B222" s="6"/>
-      <c r="C222" s="20"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="6"/>
+        <f>IF(B222&lt;&gt;"",UPPER(LEFT(B222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B222,B222),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B222" s="7"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="21"/>
       <c r="F222" s="6"/>
-      <c r="G222" s="7"/>
+      <c r="G222" s="6"/>
       <c r="H222" s="6"/>
     </row>
     <row r="223" customHeight="1" spans="1:8">
       <c r="A223" s="16" t="str">
-        <f>IF(G223&lt;&gt;"",UPPER(LEFT(G223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G223,G223),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B223" s="6"/>
-      <c r="C223" s="20"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="6"/>
+        <f>IF(B223&lt;&gt;"",UPPER(LEFT(B223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B223,B223),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B223" s="7"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="21"/>
       <c r="F223" s="6"/>
-      <c r="G223" s="7"/>
+      <c r="G223" s="6"/>
       <c r="H223" s="6"/>
     </row>
     <row r="224" customHeight="1" spans="1:8">
       <c r="A224" s="16" t="str">
-        <f>IF(G224&lt;&gt;"",UPPER(LEFT(G224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G224,G224),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B224" s="6"/>
-      <c r="C224" s="20"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="6"/>
+        <f>IF(B224&lt;&gt;"",UPPER(LEFT(B224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B224,B224),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B224" s="7"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="21"/>
       <c r="F224" s="6"/>
-      <c r="G224" s="7"/>
+      <c r="G224" s="6"/>
       <c r="H224" s="6"/>
     </row>
     <row r="225" customHeight="1" spans="1:8">
       <c r="A225" s="16" t="str">
-        <f>IF(G225&lt;&gt;"",UPPER(LEFT(G225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G225,G225),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B225" s="6"/>
-      <c r="C225" s="20"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="6"/>
+        <f>IF(B225&lt;&gt;"",UPPER(LEFT(B225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B225,B225),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B225" s="7"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="21"/>
       <c r="F225" s="6"/>
-      <c r="G225" s="7"/>
+      <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
     <row r="226" customHeight="1" spans="1:8">
       <c r="A226" s="16" t="str">
-        <f>IF(G226&lt;&gt;"",UPPER(LEFT(G226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G226,G226),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B226" s="6"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="6"/>
+        <f>IF(B226&lt;&gt;"",UPPER(LEFT(B226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B226,B226),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B226" s="7"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="21"/>
       <c r="F226" s="6"/>
-      <c r="G226" s="7"/>
+      <c r="G226" s="6"/>
       <c r="H226" s="6"/>
     </row>
     <row r="227" customHeight="1" spans="1:8">
       <c r="A227" s="16" t="str">
-        <f>IF(G227&lt;&gt;"",UPPER(LEFT(G227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G227,G227),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B227" s="6"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="6"/>
+        <f>IF(B227&lt;&gt;"",UPPER(LEFT(B227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B227,B227),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B227" s="7"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="21"/>
       <c r="F227" s="6"/>
-      <c r="G227" s="7"/>
+      <c r="G227" s="6"/>
       <c r="H227" s="6"/>
     </row>
     <row r="228" customHeight="1" spans="1:8">
       <c r="A228" s="16" t="str">
-        <f>IF(G228&lt;&gt;"",UPPER(LEFT(G228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G228,G228),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B228" s="6"/>
-      <c r="C228" s="20"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="6"/>
+        <f>IF(B228&lt;&gt;"",UPPER(LEFT(B228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B228,B228),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B228" s="7"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="21"/>
       <c r="F228" s="6"/>
-      <c r="G228" s="7"/>
+      <c r="G228" s="6"/>
       <c r="H228" s="6"/>
     </row>
     <row r="229" customHeight="1" spans="1:8">
       <c r="A229" s="16" t="str">
-        <f>IF(G229&lt;&gt;"",UPPER(LEFT(G229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G229,G229),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B229" s="6"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="6"/>
+        <f>IF(B229&lt;&gt;"",UPPER(LEFT(B229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B229,B229),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B229" s="7"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="21"/>
       <c r="F229" s="6"/>
-      <c r="G229" s="7"/>
+      <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
     <row r="230" customHeight="1" spans="1:8">
       <c r="A230" s="16" t="str">
-        <f>IF(G230&lt;&gt;"",UPPER(LEFT(G230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G230,G230),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B230" s="6"/>
-      <c r="C230" s="20"/>
-      <c r="D230" s="21"/>
-      <c r="E230" s="6"/>
+        <f>IF(B230&lt;&gt;"",UPPER(LEFT(B230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B230,B230),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B230" s="7"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="21"/>
       <c r="F230" s="6"/>
-      <c r="G230" s="7"/>
+      <c r="G230" s="6"/>
       <c r="H230" s="6"/>
     </row>
     <row r="231" customHeight="1" spans="1:8">
       <c r="A231" s="16" t="str">
-        <f>IF(G231&lt;&gt;"",UPPER(LEFT(G231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G231,G231),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B231" s="6"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="21"/>
-      <c r="E231" s="6"/>
+        <f>IF(B231&lt;&gt;"",UPPER(LEFT(B231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B231,B231),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B231" s="7"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="21"/>
       <c r="F231" s="6"/>
-      <c r="G231" s="7"/>
+      <c r="G231" s="6"/>
       <c r="H231" s="6"/>
     </row>
     <row r="232" customHeight="1" spans="1:8">
       <c r="A232" s="16" t="str">
-        <f>IF(G232&lt;&gt;"",UPPER(LEFT(G232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G232,G232),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B232" s="6"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="21"/>
-      <c r="E232" s="6"/>
+        <f>IF(B232&lt;&gt;"",UPPER(LEFT(B232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B232,B232),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B232" s="7"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="21"/>
       <c r="F232" s="6"/>
-      <c r="G232" s="7"/>
+      <c r="G232" s="6"/>
       <c r="H232" s="6"/>
     </row>
     <row r="233" customHeight="1" spans="1:8">
       <c r="A233" s="16" t="str">
-        <f>IF(G233&lt;&gt;"",UPPER(LEFT(G233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G233,G233),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="20"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="6"/>
+        <f>IF(B233&lt;&gt;"",UPPER(LEFT(B233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B233,B233),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B233" s="7"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="21"/>
       <c r="F233" s="6"/>
-      <c r="G233" s="7"/>
+      <c r="G233" s="6"/>
       <c r="H233" s="6"/>
     </row>
     <row r="234" customHeight="1" spans="1:8">
       <c r="A234" s="16" t="str">
-        <f>IF(G234&lt;&gt;"",UPPER(LEFT(G234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G234,G234),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B234" s="6"/>
-      <c r="C234" s="20"/>
-      <c r="D234" s="21"/>
-      <c r="E234" s="6"/>
+        <f>IF(B234&lt;&gt;"",UPPER(LEFT(B234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B234,B234),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B234" s="7"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="21"/>
       <c r="F234" s="6"/>
-      <c r="G234" s="7"/>
+      <c r="G234" s="6"/>
       <c r="H234" s="6"/>
     </row>
     <row r="235" customHeight="1" spans="1:8">
       <c r="A235" s="16" t="str">
-        <f>IF(G235&lt;&gt;"",UPPER(LEFT(G235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G235,G235),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B235" s="6"/>
-      <c r="C235" s="20"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="6"/>
+        <f>IF(B235&lt;&gt;"",UPPER(LEFT(B235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B235,B235),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B235" s="7"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="21"/>
       <c r="F235" s="6"/>
-      <c r="G235" s="7"/>
+      <c r="G235" s="6"/>
       <c r="H235" s="6"/>
     </row>
     <row r="236" customHeight="1" spans="1:8">
       <c r="A236" s="16" t="str">
-        <f>IF(G236&lt;&gt;"",UPPER(LEFT(G236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G236,G236),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B236" s="6"/>
-      <c r="C236" s="20"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="6"/>
+        <f>IF(B236&lt;&gt;"",UPPER(LEFT(B236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B236,B236),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B236" s="7"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="21"/>
       <c r="F236" s="6"/>
-      <c r="G236" s="7"/>
+      <c r="G236" s="6"/>
       <c r="H236" s="6"/>
     </row>
     <row r="237" customHeight="1" spans="1:8">
       <c r="A237" s="16" t="str">
-        <f>IF(G237&lt;&gt;"",UPPER(LEFT(G237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G237,G237),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B237" s="6"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="6"/>
+        <f>IF(B237&lt;&gt;"",UPPER(LEFT(B237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B237,B237),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B237" s="7"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="21"/>
       <c r="F237" s="6"/>
-      <c r="G237" s="7"/>
+      <c r="G237" s="6"/>
       <c r="H237" s="6"/>
     </row>
     <row r="238" customHeight="1" spans="1:8">
       <c r="A238" s="16" t="str">
-        <f>IF(G238&lt;&gt;"",UPPER(LEFT(G238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G238,G238),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="6"/>
+        <f>IF(B238&lt;&gt;"",UPPER(LEFT(B238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B238,B238),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="21"/>
       <c r="F238" s="6"/>
-      <c r="G238" s="7"/>
+      <c r="G238" s="6"/>
       <c r="H238" s="6"/>
     </row>
     <row r="239" customHeight="1" spans="1:8">
       <c r="A239" s="16" t="str">
-        <f>IF(G239&lt;&gt;"",UPPER(LEFT(G239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G239,G239),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B239" s="6"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="6"/>
+        <f>IF(B239&lt;&gt;"",UPPER(LEFT(B239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B239,B239),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B239" s="7"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="21"/>
       <c r="F239" s="6"/>
-      <c r="G239" s="7"/>
+      <c r="G239" s="6"/>
       <c r="H239" s="6"/>
     </row>
     <row r="240" customHeight="1" spans="1:8">
       <c r="A240" s="16" t="str">
-        <f>IF(G240&lt;&gt;"",UPPER(LEFT(G240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G240,G240),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B240" s="6"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="21"/>
-      <c r="E240" s="6"/>
+        <f>IF(B240&lt;&gt;"",UPPER(LEFT(B240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B240,B240),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B240" s="7"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="21"/>
       <c r="F240" s="6"/>
-      <c r="G240" s="7"/>
+      <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
     <row r="241" customHeight="1" spans="1:8">
       <c r="A241" s="16" t="str">
-        <f>IF(G241&lt;&gt;"",UPPER(LEFT(G241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G241,G241),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B241" s="6"/>
-      <c r="C241" s="20"/>
-      <c r="D241" s="21"/>
-      <c r="E241" s="6"/>
+        <f>IF(B241&lt;&gt;"",UPPER(LEFT(B241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B241,B241),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B241" s="7"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="21"/>
       <c r="F241" s="6"/>
-      <c r="G241" s="7"/>
+      <c r="G241" s="6"/>
       <c r="H241" s="6"/>
     </row>
     <row r="242" customHeight="1" spans="1:8">
       <c r="A242" s="16" t="str">
-        <f>IF(G242&lt;&gt;"",UPPER(LEFT(G242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G242,G242),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B242" s="6"/>
-      <c r="C242" s="20"/>
-      <c r="D242" s="21"/>
-      <c r="E242" s="6"/>
+        <f>IF(B242&lt;&gt;"",UPPER(LEFT(B242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B242,B242),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B242" s="7"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="21"/>
       <c r="F242" s="6"/>
-      <c r="G242" s="7"/>
+      <c r="G242" s="6"/>
       <c r="H242" s="6"/>
     </row>
     <row r="243" customHeight="1" spans="1:8">
       <c r="A243" s="16" t="str">
-        <f>IF(G243&lt;&gt;"",UPPER(LEFT(G243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G243,G243),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B243" s="6"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="6"/>
+        <f>IF(B243&lt;&gt;"",UPPER(LEFT(B243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B243,B243),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B243" s="7"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="21"/>
       <c r="F243" s="6"/>
-      <c r="G243" s="7"/>
+      <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
     <row r="244" customHeight="1" spans="1:8">
       <c r="A244" s="16" t="str">
-        <f>IF(G244&lt;&gt;"",UPPER(LEFT(G244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G244,G244),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B244" s="6"/>
-      <c r="C244" s="20"/>
-      <c r="D244" s="21"/>
-      <c r="E244" s="6"/>
+        <f>IF(B244&lt;&gt;"",UPPER(LEFT(B244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B244,B244),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B244" s="7"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="21"/>
       <c r="F244" s="6"/>
-      <c r="G244" s="7"/>
+      <c r="G244" s="6"/>
       <c r="H244" s="6"/>
     </row>
     <row r="245" customHeight="1" spans="1:8">
       <c r="A245" s="16" t="str">
-        <f>IF(G245&lt;&gt;"",UPPER(LEFT(G245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G245,G245),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B245" s="6"/>
-      <c r="C245" s="20"/>
-      <c r="D245" s="21"/>
-      <c r="E245" s="6"/>
+        <f>IF(B245&lt;&gt;"",UPPER(LEFT(B245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B245,B245),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B245" s="7"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="21"/>
       <c r="F245" s="6"/>
-      <c r="G245" s="7"/>
+      <c r="G245" s="6"/>
       <c r="H245" s="6"/>
     </row>
     <row r="246" customHeight="1" spans="1:8">
       <c r="A246" s="16" t="str">
-        <f>IF(G246&lt;&gt;"",UPPER(LEFT(G246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G246,G246),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B246" s="6"/>
-      <c r="C246" s="20"/>
-      <c r="D246" s="21"/>
-      <c r="E246" s="6"/>
+        <f>IF(B246&lt;&gt;"",UPPER(LEFT(B246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B246,B246),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B246" s="7"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="21"/>
       <c r="F246" s="6"/>
-      <c r="G246" s="7"/>
+      <c r="G246" s="6"/>
       <c r="H246" s="6"/>
     </row>
     <row r="247" customHeight="1" spans="1:8">
       <c r="A247" s="16" t="str">
-        <f>IF(G247&lt;&gt;"",UPPER(LEFT(G247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G247,G247),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B247" s="6"/>
-      <c r="C247" s="20"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="6"/>
+        <f>IF(B247&lt;&gt;"",UPPER(LEFT(B247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B247,B247),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B247" s="7"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="21"/>
       <c r="F247" s="6"/>
-      <c r="G247" s="7"/>
+      <c r="G247" s="6"/>
       <c r="H247" s="6"/>
     </row>
     <row r="248" customHeight="1" spans="1:8">
       <c r="A248" s="16" t="str">
-        <f>IF(G248&lt;&gt;"",UPPER(LEFT(G248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G248,G248),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B248" s="6"/>
-      <c r="C248" s="20"/>
-      <c r="D248" s="21"/>
-      <c r="E248" s="6"/>
+        <f>IF(B248&lt;&gt;"",UPPER(LEFT(B248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B248,B248),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B248" s="7"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="21"/>
       <c r="F248" s="6"/>
-      <c r="G248" s="7"/>
+      <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
     <row r="249" customHeight="1" spans="1:8">
       <c r="A249" s="16" t="str">
-        <f>IF(G249&lt;&gt;"",UPPER(LEFT(G249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G249,G249),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B249" s="6"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="6"/>
+        <f>IF(B249&lt;&gt;"",UPPER(LEFT(B249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B249,B249),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B249" s="7"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="21"/>
       <c r="F249" s="6"/>
-      <c r="G249" s="7"/>
+      <c r="G249" s="6"/>
       <c r="H249" s="6"/>
     </row>
     <row r="250" customHeight="1" spans="1:8">
       <c r="A250" s="16" t="str">
-        <f>IF(G250&lt;&gt;"",UPPER(LEFT(G250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G250,G250),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B250" s="6"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="6"/>
+        <f>IF(B250&lt;&gt;"",UPPER(LEFT(B250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B250,B250),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B250" s="7"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="21"/>
       <c r="F250" s="6"/>
-      <c r="G250" s="7"/>
+      <c r="G250" s="6"/>
       <c r="H250" s="6"/>
     </row>
     <row r="251" customHeight="1" spans="1:8">
       <c r="A251" s="16" t="str">
-        <f>IF(G251&lt;&gt;"",UPPER(LEFT(G251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G251,G251),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B251" s="6"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="6"/>
+        <f>IF(B251&lt;&gt;"",UPPER(LEFT(B251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B251,B251),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B251" s="7"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="21"/>
       <c r="F251" s="6"/>
-      <c r="G251" s="7"/>
+      <c r="G251" s="6"/>
       <c r="H251" s="6"/>
     </row>
     <row r="252" customHeight="1" spans="1:8">
       <c r="A252" s="16" t="str">
-        <f>IF(G252&lt;&gt;"",UPPER(LEFT(G252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G252,G252),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B252" s="6"/>
-      <c r="C252" s="20"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="6"/>
+        <f>IF(B252&lt;&gt;"",UPPER(LEFT(B252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B252,B252),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B252" s="7"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="21"/>
       <c r="F252" s="6"/>
-      <c r="G252" s="7"/>
+      <c r="G252" s="6"/>
       <c r="H252" s="6"/>
     </row>
     <row r="253" customHeight="1" spans="1:8">
       <c r="A253" s="16" t="str">
-        <f>IF(G253&lt;&gt;"",UPPER(LEFT(G253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G253,G253),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B253" s="6"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="6"/>
+        <f>IF(B253&lt;&gt;"",UPPER(LEFT(B253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B253,B253),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B253" s="7"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="21"/>
       <c r="F253" s="6"/>
-      <c r="G253" s="7"/>
+      <c r="G253" s="6"/>
       <c r="H253" s="6"/>
     </row>
     <row r="254" customHeight="1" spans="1:8">
       <c r="A254" s="16" t="str">
-        <f>IF(G254&lt;&gt;"",UPPER(LEFT(G254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G254,G254),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B254" s="6"/>
-      <c r="C254" s="20"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="6"/>
+        <f>IF(B254&lt;&gt;"",UPPER(LEFT(B254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B254,B254),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B254" s="7"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="21"/>
       <c r="F254" s="6"/>
-      <c r="G254" s="7"/>
+      <c r="G254" s="6"/>
       <c r="H254" s="6"/>
     </row>
     <row r="255" customHeight="1" spans="1:8">
       <c r="A255" s="16" t="str">
-        <f>IF(G255&lt;&gt;"",UPPER(LEFT(G255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G255,G255),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B255" s="6"/>
-      <c r="C255" s="20"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="6"/>
+        <f>IF(B255&lt;&gt;"",UPPER(LEFT(B255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B255,B255),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B255" s="7"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="21"/>
       <c r="F255" s="6"/>
-      <c r="G255" s="7"/>
+      <c r="G255" s="6"/>
       <c r="H255" s="6"/>
     </row>
     <row r="256" customHeight="1" spans="1:8">
       <c r="A256" s="16" t="str">
-        <f>IF(G256&lt;&gt;"",UPPER(LEFT(G256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G256,G256),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B256" s="6"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="6"/>
+        <f>IF(B256&lt;&gt;"",UPPER(LEFT(B256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B256,B256),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B256" s="7"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="21"/>
       <c r="F256" s="6"/>
-      <c r="G256" s="7"/>
+      <c r="G256" s="6"/>
       <c r="H256" s="6"/>
     </row>
     <row r="257" customHeight="1" spans="1:8">
       <c r="A257" s="16" t="str">
-        <f>IF(G257&lt;&gt;"",UPPER(LEFT(G257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G257,G257),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B257" s="6"/>
-      <c r="C257" s="20"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="6"/>
+        <f>IF(B257&lt;&gt;"",UPPER(LEFT(B257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B257,B257),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B257" s="7"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="21"/>
       <c r="F257" s="6"/>
-      <c r="G257" s="7"/>
+      <c r="G257" s="6"/>
       <c r="H257" s="6"/>
     </row>
     <row r="258" customHeight="1" spans="1:8">
       <c r="A258" s="16" t="str">
-        <f>IF(G258&lt;&gt;"",UPPER(LEFT(G258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G258,G258),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B258" s="6"/>
-      <c r="C258" s="20"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="6"/>
+        <f>IF(B258&lt;&gt;"",UPPER(LEFT(B258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B258,B258),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B258" s="7"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="21"/>
       <c r="F258" s="6"/>
-      <c r="G258" s="7"/>
+      <c r="G258" s="6"/>
       <c r="H258" s="6"/>
     </row>
     <row r="259" customHeight="1" spans="1:8">
       <c r="A259" s="16" t="str">
-        <f>IF(G259&lt;&gt;"",UPPER(LEFT(G259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G259,G259),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B259" s="6"/>
-      <c r="C259" s="20"/>
-      <c r="D259" s="21"/>
-      <c r="E259" s="6"/>
+        <f>IF(B259&lt;&gt;"",UPPER(LEFT(B259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B259,B259),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B259" s="7"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="21"/>
       <c r="F259" s="6"/>
-      <c r="G259" s="7"/>
+      <c r="G259" s="6"/>
       <c r="H259" s="6"/>
     </row>
     <row r="260" customHeight="1" spans="1:8">
       <c r="A260" s="16" t="str">
-        <f>IF(G260&lt;&gt;"",UPPER(LEFT(G260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G260,G260),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B260" s="6"/>
-      <c r="C260" s="20"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="6"/>
+        <f>IF(B260&lt;&gt;"",UPPER(LEFT(B260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B260,B260),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B260" s="7"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="21"/>
       <c r="F260" s="6"/>
-      <c r="G260" s="7"/>
+      <c r="G260" s="6"/>
       <c r="H260" s="6"/>
     </row>
     <row r="261" customHeight="1" spans="1:8">
       <c r="A261" s="16" t="str">
-        <f>IF(G261&lt;&gt;"",UPPER(LEFT(G261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G261,G261),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B261" s="6"/>
-      <c r="C261" s="20"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="6"/>
+        <f>IF(B261&lt;&gt;"",UPPER(LEFT(B261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B261,B261),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B261" s="7"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="21"/>
       <c r="F261" s="6"/>
-      <c r="G261" s="7"/>
+      <c r="G261" s="6"/>
       <c r="H261" s="6"/>
     </row>
     <row r="262" customHeight="1" spans="1:8">
       <c r="A262" s="16" t="str">
-        <f>IF(G262&lt;&gt;"",UPPER(LEFT(G262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G262,G262),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B262" s="6"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="6"/>
+        <f>IF(B262&lt;&gt;"",UPPER(LEFT(B262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B262,B262),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B262" s="7"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="21"/>
       <c r="F262" s="6"/>
-      <c r="G262" s="7"/>
+      <c r="G262" s="6"/>
       <c r="H262" s="6"/>
     </row>
     <row r="263" customHeight="1" spans="1:8">
       <c r="A263" s="16" t="str">
-        <f>IF(G263&lt;&gt;"",UPPER(LEFT(G263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G263,G263),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B263" s="6"/>
-      <c r="C263" s="20"/>
-      <c r="D263" s="21"/>
-      <c r="E263" s="6"/>
+        <f>IF(B263&lt;&gt;"",UPPER(LEFT(B263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B263,B263),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B263" s="7"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="21"/>
       <c r="F263" s="6"/>
-      <c r="G263" s="7"/>
+      <c r="G263" s="6"/>
       <c r="H263" s="6"/>
     </row>
     <row r="264" customHeight="1" spans="1:8">
       <c r="A264" s="16" t="str">
-        <f>IF(G264&lt;&gt;"",UPPER(LEFT(G264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G264,G264),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="20"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="6"/>
+        <f>IF(B264&lt;&gt;"",UPPER(LEFT(B264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B264,B264),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B264" s="7"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="21"/>
       <c r="F264" s="6"/>
-      <c r="G264" s="7"/>
+      <c r="G264" s="6"/>
       <c r="H264" s="6"/>
     </row>
     <row r="265" customHeight="1" spans="1:8">
       <c r="A265" s="16" t="str">
-        <f>IF(G265&lt;&gt;"",UPPER(LEFT(G265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G265,G265),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B265" s="6"/>
-      <c r="C265" s="20"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="6"/>
+        <f>IF(B265&lt;&gt;"",UPPER(LEFT(B265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B265,B265),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B265" s="7"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="21"/>
       <c r="F265" s="6"/>
-      <c r="G265" s="7"/>
+      <c r="G265" s="6"/>
       <c r="H265" s="6"/>
     </row>
     <row r="266" customHeight="1" spans="1:8">
       <c r="A266" s="16" t="str">
-        <f>IF(G266&lt;&gt;"",UPPER(LEFT(G266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G266,G266),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B266" s="6"/>
-      <c r="C266" s="20"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="6"/>
+        <f>IF(B266&lt;&gt;"",UPPER(LEFT(B266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B266,B266),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B266" s="7"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="21"/>
       <c r="F266" s="6"/>
-      <c r="G266" s="7"/>
+      <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
     <row r="267" customHeight="1" spans="1:8">
       <c r="A267" s="16" t="str">
-        <f>IF(G267&lt;&gt;"",UPPER(LEFT(G267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G267,G267),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B267" s="6"/>
-      <c r="C267" s="20"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="6"/>
+        <f>IF(B267&lt;&gt;"",UPPER(LEFT(B267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B267,B267),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B267" s="7"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="21"/>
       <c r="F267" s="6"/>
-      <c r="G267" s="7"/>
+      <c r="G267" s="6"/>
       <c r="H267" s="6"/>
     </row>
     <row r="268" customHeight="1" spans="1:8">
       <c r="A268" s="16" t="str">
-        <f>IF(G268&lt;&gt;"",UPPER(LEFT(G268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G268,G268),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B268" s="6"/>
-      <c r="C268" s="20"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="6"/>
+        <f>IF(B268&lt;&gt;"",UPPER(LEFT(B268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B268,B268),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B268" s="7"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="21"/>
       <c r="F268" s="6"/>
-      <c r="G268" s="7"/>
+      <c r="G268" s="6"/>
       <c r="H268" s="6"/>
     </row>
     <row r="269" customHeight="1" spans="1:8">
       <c r="A269" s="16" t="str">
-        <f>IF(G269&lt;&gt;"",UPPER(LEFT(G269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G269,G269),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B269" s="6"/>
-      <c r="C269" s="20"/>
-      <c r="D269" s="21"/>
-      <c r="E269" s="6"/>
+        <f>IF(B269&lt;&gt;"",UPPER(LEFT(B269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B269,B269),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B269" s="7"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="21"/>
       <c r="F269" s="6"/>
-      <c r="G269" s="7"/>
+      <c r="G269" s="6"/>
       <c r="H269" s="6"/>
     </row>
     <row r="270" customHeight="1" spans="1:8">
       <c r="A270" s="16" t="str">
-        <f>IF(G270&lt;&gt;"",UPPER(LEFT(G270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G270,G270),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B270" s="6"/>
-      <c r="C270" s="20"/>
-      <c r="D270" s="21"/>
-      <c r="E270" s="6"/>
+        <f>IF(B270&lt;&gt;"",UPPER(LEFT(B270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B270,B270),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B270" s="7"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="21"/>
       <c r="F270" s="6"/>
-      <c r="G270" s="7"/>
+      <c r="G270" s="6"/>
       <c r="H270" s="6"/>
     </row>
     <row r="271" customHeight="1" spans="1:8">
       <c r="A271" s="16" t="str">
-        <f>IF(G271&lt;&gt;"",UPPER(LEFT(G271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G271,G271),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B271" s="6"/>
-      <c r="C271" s="20"/>
-      <c r="D271" s="21"/>
-      <c r="E271" s="6"/>
+        <f>IF(B271&lt;&gt;"",UPPER(LEFT(B271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B271,B271),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B271" s="7"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="21"/>
       <c r="F271" s="6"/>
-      <c r="G271" s="7"/>
+      <c r="G271" s="6"/>
       <c r="H271" s="6"/>
     </row>
     <row r="272" customHeight="1" spans="1:8">
       <c r="A272" s="16" t="str">
-        <f>IF(G272&lt;&gt;"",UPPER(LEFT(G272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G272,G272),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B272" s="6"/>
-      <c r="C272" s="20"/>
-      <c r="D272" s="21"/>
-      <c r="E272" s="6"/>
+        <f>IF(B272&lt;&gt;"",UPPER(LEFT(B272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B272,B272),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B272" s="7"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="21"/>
       <c r="F272" s="6"/>
-      <c r="G272" s="7"/>
+      <c r="G272" s="6"/>
       <c r="H272" s="6"/>
     </row>
     <row r="273" customHeight="1" spans="1:8">
       <c r="A273" s="16" t="str">
-        <f>IF(G273&lt;&gt;"",UPPER(LEFT(G273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G273,G273),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B273" s="6"/>
-      <c r="C273" s="20"/>
-      <c r="D273" s="21"/>
-      <c r="E273" s="6"/>
+        <f>IF(B273&lt;&gt;"",UPPER(LEFT(B273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B273,B273),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B273" s="7"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="21"/>
       <c r="F273" s="6"/>
-      <c r="G273" s="7"/>
+      <c r="G273" s="6"/>
       <c r="H273" s="6"/>
     </row>
     <row r="274" customHeight="1" spans="1:8">
       <c r="A274" s="16" t="str">
-        <f>IF(G274&lt;&gt;"",UPPER(LEFT(G274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G274,G274),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B274" s="6"/>
-      <c r="C274" s="20"/>
-      <c r="D274" s="21"/>
-      <c r="E274" s="6"/>
+        <f>IF(B274&lt;&gt;"",UPPER(LEFT(B274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B274,B274),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B274" s="7"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="21"/>
       <c r="F274" s="6"/>
-      <c r="G274" s="7"/>
+      <c r="G274" s="6"/>
       <c r="H274" s="6"/>
     </row>
     <row r="275" customHeight="1" spans="1:8">
       <c r="A275" s="16" t="str">
-        <f>IF(G275&lt;&gt;"",UPPER(LEFT(G275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G275,G275),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B275" s="6"/>
-      <c r="C275" s="20"/>
-      <c r="D275" s="21"/>
-      <c r="E275" s="6"/>
+        <f>IF(B275&lt;&gt;"",UPPER(LEFT(B275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B275,B275),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B275" s="7"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="21"/>
       <c r="F275" s="6"/>
-      <c r="G275" s="7"/>
+      <c r="G275" s="6"/>
       <c r="H275" s="6"/>
     </row>
     <row r="276" customHeight="1" spans="1:8">
       <c r="A276" s="16" t="str">
-        <f>IF(G276&lt;&gt;"",UPPER(LEFT(G276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G276,G276),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B276" s="6"/>
-      <c r="C276" s="20"/>
-      <c r="D276" s="21"/>
-      <c r="E276" s="6"/>
+        <f>IF(B276&lt;&gt;"",UPPER(LEFT(B276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B276,B276),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B276" s="7"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="21"/>
       <c r="F276" s="6"/>
-      <c r="G276" s="7"/>
+      <c r="G276" s="6"/>
       <c r="H276" s="6"/>
     </row>
     <row r="277" customHeight="1" spans="1:8">
       <c r="A277" s="16" t="str">
-        <f>IF(G277&lt;&gt;"",UPPER(LEFT(G277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G277,G277),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B277" s="6"/>
-      <c r="C277" s="20"/>
-      <c r="D277" s="21"/>
-      <c r="E277" s="6"/>
+        <f>IF(B277&lt;&gt;"",UPPER(LEFT(B277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B277,B277),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B277" s="7"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="21"/>
       <c r="F277" s="6"/>
-      <c r="G277" s="7"/>
+      <c r="G277" s="6"/>
       <c r="H277" s="6"/>
     </row>
     <row r="278" customHeight="1" spans="1:8">
       <c r="A278" s="16" t="str">
-        <f>IF(G278&lt;&gt;"",UPPER(LEFT(G278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G278,G278),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B278" s="6"/>
-      <c r="C278" s="20"/>
-      <c r="D278" s="21"/>
-      <c r="E278" s="6"/>
+        <f>IF(B278&lt;&gt;"",UPPER(LEFT(B278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B278,B278),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B278" s="7"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="21"/>
       <c r="F278" s="6"/>
-      <c r="G278" s="7"/>
+      <c r="G278" s="6"/>
       <c r="H278" s="6"/>
     </row>
     <row r="279" customHeight="1" spans="1:8">
       <c r="A279" s="16" t="str">
-        <f>IF(G279&lt;&gt;"",UPPER(LEFT(G279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G279,G279),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B279" s="6"/>
-      <c r="C279" s="20"/>
-      <c r="D279" s="21"/>
-      <c r="E279" s="6"/>
+        <f>IF(B279&lt;&gt;"",UPPER(LEFT(B279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B279,B279),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B279" s="7"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="21"/>
       <c r="F279" s="6"/>
-      <c r="G279" s="7"/>
+      <c r="G279" s="6"/>
       <c r="H279" s="6"/>
     </row>
     <row r="280" customHeight="1" spans="1:8">
       <c r="A280" s="16" t="str">
-        <f>IF(G280&lt;&gt;"",UPPER(LEFT(G280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G280,G280),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B280" s="6"/>
-      <c r="C280" s="20"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="6"/>
+        <f>IF(B280&lt;&gt;"",UPPER(LEFT(B280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B280,B280),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B280" s="7"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="21"/>
       <c r="F280" s="6"/>
-      <c r="G280" s="7"/>
+      <c r="G280" s="6"/>
       <c r="H280" s="6"/>
     </row>
     <row r="281" customHeight="1" spans="1:8">
       <c r="A281" s="16" t="str">
-        <f>IF(G281&lt;&gt;"",UPPER(LEFT(G281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G281,G281),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B281" s="6"/>
-      <c r="C281" s="20"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="6"/>
+        <f>IF(B281&lt;&gt;"",UPPER(LEFT(B281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B281,B281),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B281" s="7"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="21"/>
       <c r="F281" s="6"/>
-      <c r="G281" s="7"/>
+      <c r="G281" s="6"/>
       <c r="H281" s="6"/>
     </row>
     <row r="282" customHeight="1" spans="1:8">
       <c r="A282" s="16" t="str">
-        <f>IF(G282&lt;&gt;"",UPPER(LEFT(G282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G282,G282),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B282" s="6"/>
-      <c r="C282" s="20"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="6"/>
+        <f>IF(B282&lt;&gt;"",UPPER(LEFT(B282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B282,B282),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B282" s="7"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="21"/>
       <c r="F282" s="6"/>
-      <c r="G282" s="7"/>
+      <c r="G282" s="6"/>
       <c r="H282" s="6"/>
     </row>
     <row r="283" customHeight="1" spans="1:8">
       <c r="A283" s="16" t="str">
-        <f>IF(G283&lt;&gt;"",UPPER(LEFT(G283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G283,G283),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B283" s="6"/>
-      <c r="C283" s="20"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="6"/>
+        <f>IF(B283&lt;&gt;"",UPPER(LEFT(B283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B283,B283),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B283" s="7"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="21"/>
       <c r="F283" s="6"/>
-      <c r="G283" s="7"/>
+      <c r="G283" s="6"/>
       <c r="H283" s="6"/>
     </row>
     <row r="284" customHeight="1" spans="1:8">
       <c r="A284" s="16" t="str">
-        <f>IF(G284&lt;&gt;"",UPPER(LEFT(G284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G284,G284),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B284" s="6"/>
-      <c r="C284" s="20"/>
-      <c r="D284" s="21"/>
-      <c r="E284" s="6"/>
+        <f>IF(B284&lt;&gt;"",UPPER(LEFT(B284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B284,B284),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B284" s="7"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="21"/>
       <c r="F284" s="6"/>
-      <c r="G284" s="7"/>
+      <c r="G284" s="6"/>
       <c r="H284" s="6"/>
     </row>
     <row r="285" customHeight="1" spans="1:8">
       <c r="A285" s="16" t="str">
-        <f>IF(G285&lt;&gt;"",UPPER(LEFT(G285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G285,G285),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B285" s="6"/>
-      <c r="C285" s="20"/>
-      <c r="D285" s="21"/>
-      <c r="E285" s="6"/>
+        <f>IF(B285&lt;&gt;"",UPPER(LEFT(B285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B285,B285),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B285" s="7"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="21"/>
       <c r="F285" s="6"/>
-      <c r="G285" s="7"/>
+      <c r="G285" s="6"/>
       <c r="H285" s="6"/>
     </row>
     <row r="286" customHeight="1" spans="1:8">
       <c r="A286" s="16" t="str">
-        <f>IF(G286&lt;&gt;"",UPPER(LEFT(G286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G286,G286),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B286" s="6"/>
-      <c r="C286" s="20"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="6"/>
+        <f>IF(B286&lt;&gt;"",UPPER(LEFT(B286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B286,B286),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B286" s="7"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="21"/>
       <c r="F286" s="6"/>
-      <c r="G286" s="7"/>
+      <c r="G286" s="6"/>
       <c r="H286" s="6"/>
     </row>
     <row r="287" customHeight="1" spans="1:8">
       <c r="A287" s="16" t="str">
-        <f>IF(G287&lt;&gt;"",UPPER(LEFT(G287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G287,G287),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B287" s="6"/>
-      <c r="C287" s="20"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="6"/>
+        <f>IF(B287&lt;&gt;"",UPPER(LEFT(B287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B287,B287),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B287" s="7"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="21"/>
       <c r="F287" s="6"/>
-      <c r="G287" s="7"/>
+      <c r="G287" s="6"/>
       <c r="H287" s="6"/>
     </row>
     <row r="288" customHeight="1" spans="1:8">
       <c r="A288" s="16" t="str">
-        <f>IF(G288&lt;&gt;"",UPPER(LEFT(G288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G288,G288),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B288" s="6"/>
-      <c r="C288" s="20"/>
-      <c r="D288" s="21"/>
-      <c r="E288" s="6"/>
+        <f>IF(B288&lt;&gt;"",UPPER(LEFT(B288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B288,B288),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B288" s="7"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="21"/>
       <c r="F288" s="6"/>
-      <c r="G288" s="7"/>
+      <c r="G288" s="6"/>
       <c r="H288" s="6"/>
     </row>
     <row r="289" customHeight="1" spans="1:8">
       <c r="A289" s="16" t="str">
-        <f>IF(G289&lt;&gt;"",UPPER(LEFT(G289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G289,G289),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B289" s="6"/>
-      <c r="C289" s="20"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="6"/>
+        <f>IF(B289&lt;&gt;"",UPPER(LEFT(B289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B289,B289),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B289" s="7"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="21"/>
       <c r="F289" s="6"/>
-      <c r="G289" s="7"/>
+      <c r="G289" s="6"/>
       <c r="H289" s="6"/>
     </row>
     <row r="290" customHeight="1" spans="1:8">
       <c r="A290" s="16" t="str">
-        <f>IF(G290&lt;&gt;"",UPPER(LEFT(G290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G290,G290),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="20"/>
-      <c r="D290" s="21"/>
-      <c r="E290" s="6"/>
+        <f>IF(B290&lt;&gt;"",UPPER(LEFT(B290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B290,B290),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B290" s="7"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="21"/>
       <c r="F290" s="6"/>
-      <c r="G290" s="7"/>
+      <c r="G290" s="6"/>
       <c r="H290" s="6"/>
     </row>
     <row r="291" customHeight="1" spans="1:8">
       <c r="A291" s="16" t="str">
-        <f>IF(G291&lt;&gt;"",UPPER(LEFT(G291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G291,G291),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B291" s="6"/>
-      <c r="C291" s="20"/>
-      <c r="D291" s="21"/>
-      <c r="E291" s="6"/>
+        <f>IF(B291&lt;&gt;"",UPPER(LEFT(B291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B291,B291),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B291" s="7"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="21"/>
       <c r="F291" s="6"/>
-      <c r="G291" s="7"/>
+      <c r="G291" s="6"/>
       <c r="H291" s="6"/>
     </row>
     <row r="292" customHeight="1" spans="1:8">
       <c r="A292" s="16" t="str">
-        <f>IF(G292&lt;&gt;"",UPPER(LEFT(G292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G292,G292),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B292" s="6"/>
-      <c r="C292" s="20"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="6"/>
+        <f>IF(B292&lt;&gt;"",UPPER(LEFT(B292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B292,B292),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B292" s="7"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="21"/>
       <c r="F292" s="6"/>
-      <c r="G292" s="7"/>
+      <c r="G292" s="6"/>
       <c r="H292" s="6"/>
     </row>
     <row r="293" customHeight="1" spans="1:8">
       <c r="A293" s="16" t="str">
-        <f>IF(G293&lt;&gt;"",UPPER(LEFT(G293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G293,G293),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B293" s="6"/>
-      <c r="C293" s="20"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="6"/>
+        <f>IF(B293&lt;&gt;"",UPPER(LEFT(B293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B293,B293),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B293" s="7"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="21"/>
       <c r="F293" s="6"/>
-      <c r="G293" s="7"/>
+      <c r="G293" s="6"/>
       <c r="H293" s="6"/>
     </row>
     <row r="294" customHeight="1" spans="1:8">
       <c r="A294" s="16" t="str">
-        <f>IF(G294&lt;&gt;"",UPPER(LEFT(G294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G294,G294),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B294" s="6"/>
-      <c r="C294" s="20"/>
-      <c r="D294" s="21"/>
-      <c r="E294" s="6"/>
+        <f>IF(B294&lt;&gt;"",UPPER(LEFT(B294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B294,B294),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B294" s="7"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="21"/>
       <c r="F294" s="6"/>
-      <c r="G294" s="7"/>
+      <c r="G294" s="6"/>
       <c r="H294" s="6"/>
     </row>
     <row r="295" customHeight="1" spans="1:8">
       <c r="A295" s="16" t="str">
-        <f>IF(G295&lt;&gt;"",UPPER(LEFT(G295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G295,G295),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B295" s="6"/>
-      <c r="C295" s="20"/>
-      <c r="D295" s="21"/>
-      <c r="E295" s="6"/>
+        <f>IF(B295&lt;&gt;"",UPPER(LEFT(B295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B295,B295),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B295" s="7"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="21"/>
       <c r="F295" s="6"/>
-      <c r="G295" s="7"/>
+      <c r="G295" s="6"/>
       <c r="H295" s="6"/>
     </row>
     <row r="296" customHeight="1" spans="1:8">
       <c r="A296" s="16" t="str">
-        <f>IF(G296&lt;&gt;"",UPPER(LEFT(G296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G296,G296),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B296" s="6"/>
-      <c r="C296" s="20"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="6"/>
+        <f>IF(B296&lt;&gt;"",UPPER(LEFT(B296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B296,B296),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B296" s="7"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="21"/>
       <c r="F296" s="6"/>
-      <c r="G296" s="7"/>
+      <c r="G296" s="6"/>
       <c r="H296" s="6"/>
     </row>
     <row r="297" customHeight="1" spans="1:8">
       <c r="A297" s="16" t="str">
-        <f>IF(G297&lt;&gt;"",UPPER(LEFT(G297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G297,G297),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B297" s="6"/>
-      <c r="C297" s="20"/>
-      <c r="D297" s="21"/>
-      <c r="E297" s="6"/>
+        <f>IF(B297&lt;&gt;"",UPPER(LEFT(B297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B297,B297),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B297" s="7"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="21"/>
       <c r="F297" s="6"/>
-      <c r="G297" s="7"/>
+      <c r="G297" s="6"/>
       <c r="H297" s="6"/>
     </row>
     <row r="298" customHeight="1" spans="1:8">
       <c r="A298" s="16" t="str">
-        <f>IF(G298&lt;&gt;"",UPPER(LEFT(G298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G298,G298),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B298" s="6"/>
-      <c r="C298" s="20"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="6"/>
+        <f>IF(B298&lt;&gt;"",UPPER(LEFT(B298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B298,B298),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B298" s="7"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="20"/>
+      <c r="E298" s="21"/>
       <c r="F298" s="6"/>
-      <c r="G298" s="7"/>
+      <c r="G298" s="6"/>
       <c r="H298" s="6"/>
     </row>
     <row r="299" customHeight="1" spans="1:8">
       <c r="A299" s="16" t="str">
-        <f>IF(G299&lt;&gt;"",UPPER(LEFT(G299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G299,G299),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B299" s="6"/>
-      <c r="C299" s="20"/>
-      <c r="D299" s="21"/>
-      <c r="E299" s="6"/>
+        <f>IF(B299&lt;&gt;"",UPPER(LEFT(B299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B299,B299),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B299" s="7"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="20"/>
+      <c r="E299" s="21"/>
       <c r="F299" s="6"/>
-      <c r="G299" s="7"/>
+      <c r="G299" s="6"/>
       <c r="H299" s="6"/>
     </row>
     <row r="300" customHeight="1" spans="1:8">
       <c r="A300" s="16" t="str">
-        <f>IF(G300&lt;&gt;"",UPPER(LEFT(G300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($G$2:G300,G300),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B300" s="6"/>
-      <c r="C300" s="20"/>
-      <c r="D300" s="21"/>
-      <c r="E300" s="6"/>
+        <f>IF(B300&lt;&gt;"",UPPER(LEFT(B300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B300,B300),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B300" s="7"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="20"/>
+      <c r="E300" s="21"/>
       <c r="F300" s="6"/>
-      <c r="G300" s="7"/>
+      <c r="G300" s="6"/>
       <c r="H300" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G300">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(COUNTA($B2:$G2)&gt;0,COUNTA($B2:$G2)&lt;COLUMNS($B2:$G2))</formula>
+      <formula>AND(COUNTA($C2:$G2)&gt;0,COUNTA($C2:$G2)&lt;COLUMNS($C2:$G2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D300">
+  <conditionalFormatting sqref="D2:E300">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(C2&lt;&gt;"",NOT(ISNUMBER(C2)))</formula>
+      <formula>AND(D2&lt;&gt;"",NOT(ISNUMBER(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B300">
+      <formula1>'Cow Type'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C300">
       <formula1>'Cow Status'!$A$2:$A$7</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="C2:C300">
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="D2:D300">
       <formula1>EDATE(TODAY(),-10)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="D2:D300">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(D2))),AND(ISNUMBER(D2),LEFT(CELL("format",D2))="D"))</formula1>
+    <dataValidation type="custom" allowBlank="1" sqref="E2:E300">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(E2))),AND(ISNUMBER(E2),LEFT(CELL("format",E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E300">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F300">
       <formula1>'Cow Origin'!$A$1:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F300">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G300">
       <formula1>'Cow Gender'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G300">
-      <formula1>'Cow Type'!$A$1:$A$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -46,10 +46,10 @@
     <t>Cow Type</t>
   </si>
   <si>
-    <t>Cow Status</t>
+    <t>Date of Birth</t>
   </si>
   <si>
-    <t>Date of Birth</t>
+    <t>Cow Status</t>
   </si>
   <si>
     <t>Date of Enter</t>
@@ -929,7 +929,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -941,6 +941,20 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="5" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1137,25 +1151,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="lastColumn" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
-      <tableStyleElement type="pageFieldValues" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1399,14 +1413,14 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6296296296296" style="12"/>
     <col min="2" max="2" width="20.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="12.6296296296296" style="13"/>
+    <col min="3" max="3" width="12.6296296296296" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -1416,10 +1430,10 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1441,8 +1455,8 @@
         <v/>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="19"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -1454,8 +1468,8 @@
         <v/>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="21"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1467,8 +1481,8 @@
         <v/>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="21"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1480,8 +1494,8 @@
         <v/>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="21"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1493,8 +1507,8 @@
         <v/>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="21"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1506,8 +1520,8 @@
         <v/>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="21"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1521,8 +1535,8 @@
         <v/>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="21"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1535,8 +1549,8 @@
         <v/>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="21"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1548,8 +1562,8 @@
         <v/>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="21"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1561,8 +1575,8 @@
         <v/>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="21"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1574,8 +1588,8 @@
         <v/>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="21"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1587,8 +1601,8 @@
         <v/>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="21"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1600,8 +1614,8 @@
         <v/>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="21"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1613,8 +1627,8 @@
         <v/>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="21"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1626,8 +1640,8 @@
         <v/>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="21"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1639,8 +1653,8 @@
         <v/>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="21"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1652,8 +1666,8 @@
         <v/>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="21"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1665,8 +1679,8 @@
         <v/>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="21"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1678,8 +1692,8 @@
         <v/>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1691,8 +1705,8 @@
         <v/>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="21"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1704,8 +1718,8 @@
         <v/>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="21"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1717,8 +1731,8 @@
         <v/>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="21"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1730,8 +1744,8 @@
         <v/>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="21"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1743,8 +1757,8 @@
         <v/>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="21"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1756,8 +1770,8 @@
         <v/>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="21"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1769,8 +1783,8 @@
         <v/>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="21"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1782,8 +1796,8 @@
         <v/>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="21"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1795,8 +1809,8 @@
         <v/>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="21"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1808,8 +1822,8 @@
         <v/>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="21"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1821,8 +1835,8 @@
         <v/>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="21"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1834,8 +1848,8 @@
         <v/>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="21"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -1847,8 +1861,8 @@
         <v/>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="21"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -1860,8 +1874,8 @@
         <v/>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="21"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -1873,8 +1887,8 @@
         <v/>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="21"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -1886,8 +1900,8 @@
         <v/>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="21"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -1899,8 +1913,8 @@
         <v/>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="21"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -1912,8 +1926,8 @@
         <v/>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="21"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -1925,8 +1939,8 @@
         <v/>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="21"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -1938,8 +1952,8 @@
         <v/>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -1951,8 +1965,8 @@
         <v/>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -1964,8 +1978,8 @@
         <v/>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -1977,8 +1991,8 @@
         <v/>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="21"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -1990,8 +2004,8 @@
         <v/>
       </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="21"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2003,8 +2017,8 @@
         <v/>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="21"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2016,8 +2030,8 @@
         <v/>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="21"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2029,8 +2043,8 @@
         <v/>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="21"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -2042,8 +2056,8 @@
         <v/>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="21"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2055,8 +2069,8 @@
         <v/>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2068,8 +2082,8 @@
         <v/>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2081,8 +2095,8 @@
         <v/>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2094,8 +2108,8 @@
         <v/>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="21"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2107,8 +2121,8 @@
         <v/>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="21"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2120,8 +2134,8 @@
         <v/>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="21"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2133,8 +2147,8 @@
         <v/>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2146,8 +2160,8 @@
         <v/>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -2159,8 +2173,8 @@
         <v/>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="21"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -2172,8 +2186,8 @@
         <v/>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="21"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2185,8 +2199,8 @@
         <v/>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="21"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2198,8 +2212,8 @@
         <v/>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2211,8 +2225,8 @@
         <v/>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -2224,8 +2238,8 @@
         <v/>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="21"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -2237,8 +2251,8 @@
         <v/>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="21"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -2250,8 +2264,8 @@
         <v/>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="21"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2263,8 +2277,8 @@
         <v/>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="21"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -2276,8 +2290,8 @@
         <v/>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="21"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -2289,8 +2303,8 @@
         <v/>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="21"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -2302,8 +2316,8 @@
         <v/>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="21"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -2315,8 +2329,8 @@
         <v/>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="21"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2328,8 +2342,8 @@
         <v/>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -2341,8 +2355,8 @@
         <v/>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="21"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -2354,8 +2368,8 @@
         <v/>
       </c>
       <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -2367,8 +2381,8 @@
         <v/>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="21"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -2380,8 +2394,8 @@
         <v/>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="21"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -2393,8 +2407,8 @@
         <v/>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="21"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -2406,8 +2420,8 @@
         <v/>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="21"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -2419,8 +2433,8 @@
         <v/>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="21"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -2432,8 +2446,8 @@
         <v/>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="21"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -2445,8 +2459,8 @@
         <v/>
       </c>
       <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="21"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -2458,8 +2472,8 @@
         <v/>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="21"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -2471,8 +2485,8 @@
         <v/>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="21"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -2484,8 +2498,8 @@
         <v/>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="21"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -2497,8 +2511,8 @@
         <v/>
       </c>
       <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="21"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -2510,8 +2524,8 @@
         <v/>
       </c>
       <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="21"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -2523,8 +2537,8 @@
         <v/>
       </c>
       <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="21"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -2536,8 +2550,8 @@
         <v/>
       </c>
       <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="21"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -2549,8 +2563,8 @@
         <v/>
       </c>
       <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="21"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -2562,8 +2576,8 @@
         <v/>
       </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="21"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -2575,8 +2589,8 @@
         <v/>
       </c>
       <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="21"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -2588,8 +2602,8 @@
         <v/>
       </c>
       <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="21"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -2601,8 +2615,8 @@
         <v/>
       </c>
       <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="6"/>
       <c r="E91" s="21"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -2614,8 +2628,8 @@
         <v/>
       </c>
       <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="6"/>
       <c r="E92" s="21"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -2627,8 +2641,8 @@
         <v/>
       </c>
       <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="21"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -2640,8 +2654,8 @@
         <v/>
       </c>
       <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="21"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -2653,8 +2667,8 @@
         <v/>
       </c>
       <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="21"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -2666,8 +2680,8 @@
         <v/>
       </c>
       <c r="B96" s="7"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="21"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -2679,8 +2693,8 @@
         <v/>
       </c>
       <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="21"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -2692,8 +2706,8 @@
         <v/>
       </c>
       <c r="B98" s="7"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="21"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -2705,8 +2719,8 @@
         <v/>
       </c>
       <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="21"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -2718,8 +2732,8 @@
         <v/>
       </c>
       <c r="B100" s="7"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="21"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -2731,8 +2745,8 @@
         <v/>
       </c>
       <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="21"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -2744,8 +2758,8 @@
         <v/>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="21"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -2757,8 +2771,8 @@
         <v/>
       </c>
       <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="21"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -2770,8 +2784,8 @@
         <v/>
       </c>
       <c r="B104" s="7"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="21"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -2783,8 +2797,8 @@
         <v/>
       </c>
       <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="21"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -2796,8 +2810,8 @@
         <v/>
       </c>
       <c r="B106" s="7"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="21"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -2809,8 +2823,8 @@
         <v/>
       </c>
       <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="21"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -2822,8 +2836,8 @@
         <v/>
       </c>
       <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="21"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -2835,8 +2849,8 @@
         <v/>
       </c>
       <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="21"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -2848,8 +2862,8 @@
         <v/>
       </c>
       <c r="B110" s="7"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="21"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -2861,8 +2875,8 @@
         <v/>
       </c>
       <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="21"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -2874,8 +2888,8 @@
         <v/>
       </c>
       <c r="B112" s="7"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="21"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -2887,8 +2901,8 @@
         <v/>
       </c>
       <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="21"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -2900,8 +2914,8 @@
         <v/>
       </c>
       <c r="B114" s="7"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="21"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -2913,8 +2927,8 @@
         <v/>
       </c>
       <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="21"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -2926,8 +2940,8 @@
         <v/>
       </c>
       <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="21"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -2939,8 +2953,8 @@
         <v/>
       </c>
       <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="21"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -2952,8 +2966,8 @@
         <v/>
       </c>
       <c r="B118" s="7"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="21"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -2965,8 +2979,8 @@
         <v/>
       </c>
       <c r="B119" s="7"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="21"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -2978,8 +2992,8 @@
         <v/>
       </c>
       <c r="B120" s="7"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="6"/>
       <c r="E120" s="21"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -2991,8 +3005,8 @@
         <v/>
       </c>
       <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="21"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -3004,8 +3018,8 @@
         <v/>
       </c>
       <c r="B122" s="7"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="6"/>
       <c r="E122" s="21"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -3017,8 +3031,8 @@
         <v/>
       </c>
       <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="21"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -3030,8 +3044,8 @@
         <v/>
       </c>
       <c r="B124" s="7"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="21"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -3043,8 +3057,8 @@
         <v/>
       </c>
       <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="21"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -3056,8 +3070,8 @@
         <v/>
       </c>
       <c r="B126" s="7"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="21"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -3069,8 +3083,8 @@
         <v/>
       </c>
       <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="21"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -3082,8 +3096,8 @@
         <v/>
       </c>
       <c r="B128" s="7"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="21"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -3095,8 +3109,8 @@
         <v/>
       </c>
       <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="21"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -3108,8 +3122,8 @@
         <v/>
       </c>
       <c r="B130" s="7"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="21"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -3121,8 +3135,8 @@
         <v/>
       </c>
       <c r="B131" s="7"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="21"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -3134,8 +3148,8 @@
         <v/>
       </c>
       <c r="B132" s="7"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="21"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -3147,8 +3161,8 @@
         <v/>
       </c>
       <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="21"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -3160,8 +3174,8 @@
         <v/>
       </c>
       <c r="B134" s="7"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="21"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -3173,8 +3187,8 @@
         <v/>
       </c>
       <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="21"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -3186,8 +3200,8 @@
         <v/>
       </c>
       <c r="B136" s="7"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="21"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -3199,8 +3213,8 @@
         <v/>
       </c>
       <c r="B137" s="7"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="21"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -3212,8 +3226,8 @@
         <v/>
       </c>
       <c r="B138" s="7"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="21"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -3225,8 +3239,8 @@
         <v/>
       </c>
       <c r="B139" s="7"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="6"/>
       <c r="E139" s="21"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -3238,8 +3252,8 @@
         <v/>
       </c>
       <c r="B140" s="7"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="21"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -3251,8 +3265,8 @@
         <v/>
       </c>
       <c r="B141" s="7"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="21"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -3264,8 +3278,8 @@
         <v/>
       </c>
       <c r="B142" s="7"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="21"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -3277,8 +3291,8 @@
         <v/>
       </c>
       <c r="B143" s="7"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="21"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -3290,8 +3304,8 @@
         <v/>
       </c>
       <c r="B144" s="7"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="21"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -3303,8 +3317,8 @@
         <v/>
       </c>
       <c r="B145" s="7"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="21"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -3316,8 +3330,8 @@
         <v/>
       </c>
       <c r="B146" s="7"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="21"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -3329,8 +3343,8 @@
         <v/>
       </c>
       <c r="B147" s="7"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="21"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -3342,8 +3356,8 @@
         <v/>
       </c>
       <c r="B148" s="7"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="21"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -3355,8 +3369,8 @@
         <v/>
       </c>
       <c r="B149" s="7"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="21"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -3368,8 +3382,8 @@
         <v/>
       </c>
       <c r="B150" s="7"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="21"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -3381,8 +3395,8 @@
         <v/>
       </c>
       <c r="B151" s="7"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="21"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -3394,8 +3408,8 @@
         <v/>
       </c>
       <c r="B152" s="7"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="21"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -3407,8 +3421,8 @@
         <v/>
       </c>
       <c r="B153" s="7"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="21"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -3420,8 +3434,8 @@
         <v/>
       </c>
       <c r="B154" s="7"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="21"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -3433,8 +3447,8 @@
         <v/>
       </c>
       <c r="B155" s="7"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="6"/>
       <c r="E155" s="21"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -3446,8 +3460,8 @@
         <v/>
       </c>
       <c r="B156" s="7"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="6"/>
       <c r="E156" s="21"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -3459,8 +3473,8 @@
         <v/>
       </c>
       <c r="B157" s="7"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="6"/>
       <c r="E157" s="21"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
@@ -3472,8 +3486,8 @@
         <v/>
       </c>
       <c r="B158" s="7"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="6"/>
       <c r="E158" s="21"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -3485,8 +3499,8 @@
         <v/>
       </c>
       <c r="B159" s="7"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="6"/>
       <c r="E159" s="21"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
@@ -3498,8 +3512,8 @@
         <v/>
       </c>
       <c r="B160" s="7"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="21"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -3511,8 +3525,8 @@
         <v/>
       </c>
       <c r="B161" s="7"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="6"/>
       <c r="E161" s="21"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -3524,8 +3538,8 @@
         <v/>
       </c>
       <c r="B162" s="7"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="6"/>
       <c r="E162" s="21"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
@@ -3537,8 +3551,8 @@
         <v/>
       </c>
       <c r="B163" s="7"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="21"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -3550,8 +3564,8 @@
         <v/>
       </c>
       <c r="B164" s="7"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="21"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -3563,8 +3577,8 @@
         <v/>
       </c>
       <c r="B165" s="7"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="21"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -3576,8 +3590,8 @@
         <v/>
       </c>
       <c r="B166" s="7"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="6"/>
       <c r="E166" s="21"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -3589,8 +3603,8 @@
         <v/>
       </c>
       <c r="B167" s="7"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="6"/>
       <c r="E167" s="21"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -3602,8 +3616,8 @@
         <v/>
       </c>
       <c r="B168" s="7"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="6"/>
       <c r="E168" s="21"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -3615,8 +3629,8 @@
         <v/>
       </c>
       <c r="B169" s="7"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="6"/>
       <c r="E169" s="21"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
@@ -3628,8 +3642,8 @@
         <v/>
       </c>
       <c r="B170" s="7"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="21"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -3641,8 +3655,8 @@
         <v/>
       </c>
       <c r="B171" s="7"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="6"/>
       <c r="E171" s="21"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -3654,8 +3668,8 @@
         <v/>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="6"/>
       <c r="E172" s="21"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
@@ -3667,8 +3681,8 @@
         <v/>
       </c>
       <c r="B173" s="7"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="6"/>
       <c r="E173" s="21"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
@@ -3680,8 +3694,8 @@
         <v/>
       </c>
       <c r="B174" s="7"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="6"/>
       <c r="E174" s="21"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
@@ -3693,8 +3707,8 @@
         <v/>
       </c>
       <c r="B175" s="7"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="6"/>
       <c r="E175" s="21"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -3706,8 +3720,8 @@
         <v/>
       </c>
       <c r="B176" s="7"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="6"/>
       <c r="E176" s="21"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -3719,8 +3733,8 @@
         <v/>
       </c>
       <c r="B177" s="7"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="6"/>
       <c r="E177" s="21"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -3732,8 +3746,8 @@
         <v/>
       </c>
       <c r="B178" s="7"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="6"/>
       <c r="E178" s="21"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -3745,8 +3759,8 @@
         <v/>
       </c>
       <c r="B179" s="7"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="21"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -3758,8 +3772,8 @@
         <v/>
       </c>
       <c r="B180" s="7"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="6"/>
       <c r="E180" s="21"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -3771,8 +3785,8 @@
         <v/>
       </c>
       <c r="B181" s="7"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="6"/>
       <c r="E181" s="21"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -3784,8 +3798,8 @@
         <v/>
       </c>
       <c r="B182" s="7"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="6"/>
       <c r="E182" s="21"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
@@ -3797,8 +3811,8 @@
         <v/>
       </c>
       <c r="B183" s="7"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="21"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
@@ -3810,8 +3824,8 @@
         <v/>
       </c>
       <c r="B184" s="7"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="21"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -3823,8 +3837,8 @@
         <v/>
       </c>
       <c r="B185" s="7"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="21"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
@@ -3836,8 +3850,8 @@
         <v/>
       </c>
       <c r="B186" s="7"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="6"/>
       <c r="E186" s="21"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
@@ -3849,8 +3863,8 @@
         <v/>
       </c>
       <c r="B187" s="7"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="6"/>
       <c r="E187" s="21"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
@@ -3862,8 +3876,8 @@
         <v/>
       </c>
       <c r="B188" s="7"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="6"/>
       <c r="E188" s="21"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -3875,8 +3889,8 @@
         <v/>
       </c>
       <c r="B189" s="7"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="6"/>
       <c r="E189" s="21"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -3888,8 +3902,8 @@
         <v/>
       </c>
       <c r="B190" s="7"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="6"/>
       <c r="E190" s="21"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -3901,8 +3915,8 @@
         <v/>
       </c>
       <c r="B191" s="7"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="21"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -3914,8 +3928,8 @@
         <v/>
       </c>
       <c r="B192" s="7"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="6"/>
       <c r="E192" s="21"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -3927,8 +3941,8 @@
         <v/>
       </c>
       <c r="B193" s="7"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="6"/>
       <c r="E193" s="21"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -3940,8 +3954,8 @@
         <v/>
       </c>
       <c r="B194" s="7"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="6"/>
       <c r="E194" s="21"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -3953,8 +3967,8 @@
         <v/>
       </c>
       <c r="B195" s="7"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="6"/>
       <c r="E195" s="21"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -3966,8 +3980,8 @@
         <v/>
       </c>
       <c r="B196" s="7"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="6"/>
       <c r="E196" s="21"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -3979,8 +3993,8 @@
         <v/>
       </c>
       <c r="B197" s="7"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="6"/>
       <c r="E197" s="21"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -3992,8 +4006,8 @@
         <v/>
       </c>
       <c r="B198" s="7"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="6"/>
       <c r="E198" s="21"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -4005,8 +4019,8 @@
         <v/>
       </c>
       <c r="B199" s="7"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="6"/>
       <c r="E199" s="21"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -4018,8 +4032,8 @@
         <v/>
       </c>
       <c r="B200" s="7"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="6"/>
       <c r="E200" s="21"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -4031,8 +4045,8 @@
         <v/>
       </c>
       <c r="B201" s="7"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="6"/>
       <c r="E201" s="21"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -4044,8 +4058,8 @@
         <v/>
       </c>
       <c r="B202" s="7"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="6"/>
       <c r="E202" s="21"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -4057,8 +4071,8 @@
         <v/>
       </c>
       <c r="B203" s="7"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="6"/>
       <c r="E203" s="21"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -4070,8 +4084,8 @@
         <v/>
       </c>
       <c r="B204" s="7"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="6"/>
       <c r="E204" s="21"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -4083,8 +4097,8 @@
         <v/>
       </c>
       <c r="B205" s="7"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="6"/>
       <c r="E205" s="21"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -4096,8 +4110,8 @@
         <v/>
       </c>
       <c r="B206" s="7"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="6"/>
       <c r="E206" s="21"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -4109,8 +4123,8 @@
         <v/>
       </c>
       <c r="B207" s="7"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="6"/>
       <c r="E207" s="21"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
@@ -4122,8 +4136,8 @@
         <v/>
       </c>
       <c r="B208" s="7"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="6"/>
       <c r="E208" s="21"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -4135,8 +4149,8 @@
         <v/>
       </c>
       <c r="B209" s="7"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="6"/>
       <c r="E209" s="21"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
@@ -4148,8 +4162,8 @@
         <v/>
       </c>
       <c r="B210" s="7"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="6"/>
       <c r="E210" s="21"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
@@ -4161,8 +4175,8 @@
         <v/>
       </c>
       <c r="B211" s="7"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="6"/>
       <c r="E211" s="21"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -4174,8 +4188,8 @@
         <v/>
       </c>
       <c r="B212" s="7"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="6"/>
       <c r="E212" s="21"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -4187,8 +4201,8 @@
         <v/>
       </c>
       <c r="B213" s="7"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="6"/>
       <c r="E213" s="21"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
@@ -4200,8 +4214,8 @@
         <v/>
       </c>
       <c r="B214" s="7"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="6"/>
       <c r="E214" s="21"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -4213,8 +4227,8 @@
         <v/>
       </c>
       <c r="B215" s="7"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="6"/>
       <c r="E215" s="21"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -4226,8 +4240,8 @@
         <v/>
       </c>
       <c r="B216" s="7"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="6"/>
       <c r="E216" s="21"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -4239,8 +4253,8 @@
         <v/>
       </c>
       <c r="B217" s="7"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="6"/>
       <c r="E217" s="21"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -4252,8 +4266,8 @@
         <v/>
       </c>
       <c r="B218" s="7"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="6"/>
       <c r="E218" s="21"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -4265,8 +4279,8 @@
         <v/>
       </c>
       <c r="B219" s="7"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="6"/>
       <c r="E219" s="21"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -4278,8 +4292,8 @@
         <v/>
       </c>
       <c r="B220" s="7"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="6"/>
       <c r="E220" s="21"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -4291,8 +4305,8 @@
         <v/>
       </c>
       <c r="B221" s="7"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="6"/>
       <c r="E221" s="21"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -4304,8 +4318,8 @@
         <v/>
       </c>
       <c r="B222" s="7"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="6"/>
       <c r="E222" s="21"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
@@ -4317,8 +4331,8 @@
         <v/>
       </c>
       <c r="B223" s="7"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="6"/>
       <c r="E223" s="21"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -4330,8 +4344,8 @@
         <v/>
       </c>
       <c r="B224" s="7"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="6"/>
       <c r="E224" s="21"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -4343,8 +4357,8 @@
         <v/>
       </c>
       <c r="B225" s="7"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="6"/>
       <c r="E225" s="21"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -4356,8 +4370,8 @@
         <v/>
       </c>
       <c r="B226" s="7"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="6"/>
       <c r="E226" s="21"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -4369,8 +4383,8 @@
         <v/>
       </c>
       <c r="B227" s="7"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="6"/>
       <c r="E227" s="21"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -4382,8 +4396,8 @@
         <v/>
       </c>
       <c r="B228" s="7"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="6"/>
       <c r="E228" s="21"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
@@ -4395,8 +4409,8 @@
         <v/>
       </c>
       <c r="B229" s="7"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="6"/>
       <c r="E229" s="21"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
@@ -4408,8 +4422,8 @@
         <v/>
       </c>
       <c r="B230" s="7"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="6"/>
       <c r="E230" s="21"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
@@ -4421,8 +4435,8 @@
         <v/>
       </c>
       <c r="B231" s="7"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="6"/>
       <c r="E231" s="21"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
@@ -4434,8 +4448,8 @@
         <v/>
       </c>
       <c r="B232" s="7"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="6"/>
       <c r="E232" s="21"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
@@ -4447,8 +4461,8 @@
         <v/>
       </c>
       <c r="B233" s="7"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="6"/>
       <c r="E233" s="21"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -4460,8 +4474,8 @@
         <v/>
       </c>
       <c r="B234" s="7"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="6"/>
       <c r="E234" s="21"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
@@ -4473,8 +4487,8 @@
         <v/>
       </c>
       <c r="B235" s="7"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="6"/>
       <c r="E235" s="21"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
@@ -4486,8 +4500,8 @@
         <v/>
       </c>
       <c r="B236" s="7"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="6"/>
       <c r="E236" s="21"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -4499,8 +4513,8 @@
         <v/>
       </c>
       <c r="B237" s="7"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="6"/>
       <c r="E237" s="21"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
@@ -4512,8 +4526,8 @@
         <v/>
       </c>
       <c r="B238" s="7"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="6"/>
       <c r="E238" s="21"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
@@ -4525,8 +4539,8 @@
         <v/>
       </c>
       <c r="B239" s="7"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="6"/>
       <c r="E239" s="21"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
@@ -4538,8 +4552,8 @@
         <v/>
       </c>
       <c r="B240" s="7"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="6"/>
       <c r="E240" s="21"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
@@ -4551,8 +4565,8 @@
         <v/>
       </c>
       <c r="B241" s="7"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="6"/>
       <c r="E241" s="21"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
@@ -4564,8 +4578,8 @@
         <v/>
       </c>
       <c r="B242" s="7"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="6"/>
       <c r="E242" s="21"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -4577,8 +4591,8 @@
         <v/>
       </c>
       <c r="B243" s="7"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="6"/>
       <c r="E243" s="21"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
@@ -4590,8 +4604,8 @@
         <v/>
       </c>
       <c r="B244" s="7"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="6"/>
       <c r="E244" s="21"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
@@ -4603,8 +4617,8 @@
         <v/>
       </c>
       <c r="B245" s="7"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="6"/>
       <c r="E245" s="21"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -4616,8 +4630,8 @@
         <v/>
       </c>
       <c r="B246" s="7"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="6"/>
       <c r="E246" s="21"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -4629,8 +4643,8 @@
         <v/>
       </c>
       <c r="B247" s="7"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="6"/>
       <c r="E247" s="21"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
@@ -4642,8 +4656,8 @@
         <v/>
       </c>
       <c r="B248" s="7"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="6"/>
       <c r="E248" s="21"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
@@ -4655,8 +4669,8 @@
         <v/>
       </c>
       <c r="B249" s="7"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="6"/>
       <c r="E249" s="21"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
@@ -4668,8 +4682,8 @@
         <v/>
       </c>
       <c r="B250" s="7"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="6"/>
       <c r="E250" s="21"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
@@ -4681,8 +4695,8 @@
         <v/>
       </c>
       <c r="B251" s="7"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="6"/>
       <c r="E251" s="21"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
@@ -4694,8 +4708,8 @@
         <v/>
       </c>
       <c r="B252" s="7"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="6"/>
       <c r="E252" s="21"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
@@ -4707,8 +4721,8 @@
         <v/>
       </c>
       <c r="B253" s="7"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="6"/>
       <c r="E253" s="21"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
@@ -4720,8 +4734,8 @@
         <v/>
       </c>
       <c r="B254" s="7"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="6"/>
       <c r="E254" s="21"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
@@ -4733,8 +4747,8 @@
         <v/>
       </c>
       <c r="B255" s="7"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="6"/>
       <c r="E255" s="21"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
@@ -4746,8 +4760,8 @@
         <v/>
       </c>
       <c r="B256" s="7"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="6"/>
       <c r="E256" s="21"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
@@ -4759,8 +4773,8 @@
         <v/>
       </c>
       <c r="B257" s="7"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="6"/>
       <c r="E257" s="21"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
@@ -4772,8 +4786,8 @@
         <v/>
       </c>
       <c r="B258" s="7"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="6"/>
       <c r="E258" s="21"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
@@ -4785,8 +4799,8 @@
         <v/>
       </c>
       <c r="B259" s="7"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="6"/>
       <c r="E259" s="21"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
@@ -4798,8 +4812,8 @@
         <v/>
       </c>
       <c r="B260" s="7"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="6"/>
       <c r="E260" s="21"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
@@ -4811,8 +4825,8 @@
         <v/>
       </c>
       <c r="B261" s="7"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="6"/>
       <c r="E261" s="21"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
@@ -4824,8 +4838,8 @@
         <v/>
       </c>
       <c r="B262" s="7"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="6"/>
       <c r="E262" s="21"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
@@ -4837,8 +4851,8 @@
         <v/>
       </c>
       <c r="B263" s="7"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="6"/>
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
@@ -4850,8 +4864,8 @@
         <v/>
       </c>
       <c r="B264" s="7"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="6"/>
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
@@ -4863,8 +4877,8 @@
         <v/>
       </c>
       <c r="B265" s="7"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="6"/>
       <c r="E265" s="21"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
@@ -4876,8 +4890,8 @@
         <v/>
       </c>
       <c r="B266" s="7"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="6"/>
       <c r="E266" s="21"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
@@ -4889,8 +4903,8 @@
         <v/>
       </c>
       <c r="B267" s="7"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="6"/>
       <c r="E267" s="21"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
@@ -4902,8 +4916,8 @@
         <v/>
       </c>
       <c r="B268" s="7"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="6"/>
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
@@ -4915,8 +4929,8 @@
         <v/>
       </c>
       <c r="B269" s="7"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="6"/>
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
@@ -4928,8 +4942,8 @@
         <v/>
       </c>
       <c r="B270" s="7"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="6"/>
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
@@ -4941,8 +4955,8 @@
         <v/>
       </c>
       <c r="B271" s="7"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="6"/>
       <c r="E271" s="21"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
@@ -4954,8 +4968,8 @@
         <v/>
       </c>
       <c r="B272" s="7"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="6"/>
       <c r="E272" s="21"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -4967,8 +4981,8 @@
         <v/>
       </c>
       <c r="B273" s="7"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="6"/>
       <c r="E273" s="21"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
@@ -4980,8 +4994,8 @@
         <v/>
       </c>
       <c r="B274" s="7"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="6"/>
       <c r="E274" s="21"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
@@ -4993,8 +5007,8 @@
         <v/>
       </c>
       <c r="B275" s="7"/>
-      <c r="C275" s="6"/>
-      <c r="D275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="6"/>
       <c r="E275" s="21"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
@@ -5006,8 +5020,8 @@
         <v/>
       </c>
       <c r="B276" s="7"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="6"/>
       <c r="E276" s="21"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
@@ -5019,8 +5033,8 @@
         <v/>
       </c>
       <c r="B277" s="7"/>
-      <c r="C277" s="6"/>
-      <c r="D277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="6"/>
       <c r="E277" s="21"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
@@ -5032,8 +5046,8 @@
         <v/>
       </c>
       <c r="B278" s="7"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="6"/>
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
@@ -5045,8 +5059,8 @@
         <v/>
       </c>
       <c r="B279" s="7"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="6"/>
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
@@ -5058,8 +5072,8 @@
         <v/>
       </c>
       <c r="B280" s="7"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="6"/>
       <c r="E280" s="21"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -5071,8 +5085,8 @@
         <v/>
       </c>
       <c r="B281" s="7"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="6"/>
       <c r="E281" s="21"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
@@ -5084,8 +5098,8 @@
         <v/>
       </c>
       <c r="B282" s="7"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="6"/>
       <c r="E282" s="21"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -5097,8 +5111,8 @@
         <v/>
       </c>
       <c r="B283" s="7"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="6"/>
       <c r="E283" s="21"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
@@ -5110,8 +5124,8 @@
         <v/>
       </c>
       <c r="B284" s="7"/>
-      <c r="C284" s="6"/>
-      <c r="D284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="6"/>
       <c r="E284" s="21"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
@@ -5123,8 +5137,8 @@
         <v/>
       </c>
       <c r="B285" s="7"/>
-      <c r="C285" s="6"/>
-      <c r="D285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="6"/>
       <c r="E285" s="21"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -5136,8 +5150,8 @@
         <v/>
       </c>
       <c r="B286" s="7"/>
-      <c r="C286" s="6"/>
-      <c r="D286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="6"/>
       <c r="E286" s="21"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
@@ -5149,8 +5163,8 @@
         <v/>
       </c>
       <c r="B287" s="7"/>
-      <c r="C287" s="6"/>
-      <c r="D287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="6"/>
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
@@ -5162,8 +5176,8 @@
         <v/>
       </c>
       <c r="B288" s="7"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="6"/>
       <c r="E288" s="21"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -5175,8 +5189,8 @@
         <v/>
       </c>
       <c r="B289" s="7"/>
-      <c r="C289" s="6"/>
-      <c r="D289" s="20"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="6"/>
       <c r="E289" s="21"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
@@ -5188,8 +5202,8 @@
         <v/>
       </c>
       <c r="B290" s="7"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="6"/>
       <c r="E290" s="21"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
@@ -5201,8 +5215,8 @@
         <v/>
       </c>
       <c r="B291" s="7"/>
-      <c r="C291" s="6"/>
-      <c r="D291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="6"/>
       <c r="E291" s="21"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
@@ -5214,8 +5228,8 @@
         <v/>
       </c>
       <c r="B292" s="7"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="6"/>
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
@@ -5227,8 +5241,8 @@
         <v/>
       </c>
       <c r="B293" s="7"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="6"/>
       <c r="E293" s="21"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
@@ -5240,8 +5254,8 @@
         <v/>
       </c>
       <c r="B294" s="7"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="20"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="6"/>
       <c r="E294" s="21"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -5253,8 +5267,8 @@
         <v/>
       </c>
       <c r="B295" s="7"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="6"/>
       <c r="E295" s="21"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
@@ -5266,8 +5280,8 @@
         <v/>
       </c>
       <c r="B296" s="7"/>
-      <c r="C296" s="6"/>
-      <c r="D296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="6"/>
       <c r="E296" s="21"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
@@ -5279,8 +5293,8 @@
         <v/>
       </c>
       <c r="B297" s="7"/>
-      <c r="C297" s="6"/>
-      <c r="D297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="6"/>
       <c r="E297" s="21"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
@@ -5292,8 +5306,8 @@
         <v/>
       </c>
       <c r="B298" s="7"/>
-      <c r="C298" s="6"/>
-      <c r="D298" s="20"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="6"/>
       <c r="E298" s="21"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -5305,8 +5319,8 @@
         <v/>
       </c>
       <c r="B299" s="7"/>
-      <c r="C299" s="6"/>
-      <c r="D299" s="20"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="6"/>
       <c r="E299" s="21"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
@@ -5318,8 +5332,8 @@
         <v/>
       </c>
       <c r="B300" s="7"/>
-      <c r="C300" s="6"/>
-      <c r="D300" s="20"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="6"/>
       <c r="E300" s="21"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
@@ -5327,24 +5341,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G300">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(COUNTA($C2:$G2)&gt;0,COUNTA($C2:$G2)&lt;COLUMNS($C2:$G2))</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(COUNTA($B2:$G2)&gt;0,COUNTA($B2:$G2)&lt;COLUMNS($B2:$G2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR(AND(NOT(ISBLANK($B2)),ISBLANK($C2)),AND(ISBLANK($B2),NOT(ISBLANK($C2))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR(AND(NOT(ISBLANK($D2)),ISBLANK($B2),ISBLANK($C2)),AND(NOT(ISBLANK($E2)),ISBLANK($B2),ISBLANK($C2)),AND(NOT(ISBLANK($F2)),ISBLANK($B2),ISBLANK($C2)),AND(NOT(ISBLANK($G2)),ISBLANK($B2),ISBLANK($C2)),AND(NOT(ISBLANK($H2)),ISBLANK($B2),ISBLANK($C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E300">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(D2&lt;&gt;"",NOT(ISNUMBER(D2)))</formula>
+  <conditionalFormatting sqref="C2:C300 E2:E300">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(C2&lt;&gt;"",NOT(ISNUMBER(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B300">
       <formula1>'Cow Type'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C300">
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="C2:C300">
+      <formula1>EDATE(TODAY(),-10)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D300">
       <formula1>'Cow Status'!$A$2:$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="D2:D300">
-      <formula1>EDATE(TODAY(),-10)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="E2:E300">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))),AND(ISNUMBER(E2),LEFT(CELL("format",E2))="D"))</formula1>
@@ -16199,12 +16219,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I300">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(COUNTA($B2:$I2)&gt;0,COUNTA($B2:$I2)&lt;COLUMNS($B2:$I2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I300">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(ISNUMBER(C2)=FALSE,C2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7470B7E1-6B04-234F-955F-75D8E36519A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0529AFB-4D5B-5443-9B9F-9EE43F20CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -781,8 +781,8 @@
   </sheetPr>
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F289" sqref="F289"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5656,7 +5656,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1D738-E1C6-C949-AB3A-529F4C66565F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6C0C0-1164-0543-9A2C-853BFD11A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -874,9 +874,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="27">
-        <v>45776</v>
-      </c>
+      <c r="E2" s="27"/>
       <c r="F2" s="25"/>
       <c r="G2" s="18" t="str">
         <f t="shared" ref="G2:G66" si="0">IF(B2&lt;&gt;"", "female", "")</f>
@@ -5656,6 +5654,7 @@
       <c r="H300" s="17"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="G0q+rxmQVmTfN7aY3OByoUiU9aJc03vpV1/Es8wELU3df5Mpm5fQpllTHC0oAbFDYOYQQ5iGvBeDiR5/Nbsong==" saltValue="F2aBdfwk7Scnx7+4JsGWmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:H300">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&gt;0, COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&lt;6)</formula>
@@ -5666,11 +5665,12 @@
       <formula1>EDATE(TODAY(),-10)</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="G2:G300" xr:uid="{09FBEF7D-851F-3E41-A7FE-AD553C7185E9}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Ngày nhập không hợp lệ " error="Ngày nhập tính từ ngày hôm nay trở về sau" sqref="E4:E300 E3" xr:uid="{6B83C7C2-8B14-9A47-B9FD-B77868DF88C9}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Ngày nhập không hợp lệ " error="Ngày nhập tính từ ngày hôm nay trở về sau" sqref="E2:E300" xr:uid="{6B83C7C2-8B14-9A47-B9FD-B77868DF88C9}">
       <formula1>TODAY()</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6C0C0-1164-0543-9A2C-853BFD11A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88600C-B172-FD4F-9BEF-2499D9E0E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Import time(s)</t>
   </si>
@@ -347,14 +347,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -565,25 +558,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="8"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="7"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="6"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="5"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="4"/>
-      <tableStyleElement type="pageFieldValues" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="5"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldValues" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -829,8 +822,8 @@
   </sheetPr>
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5656,7 +5649,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="G0q+rxmQVmTfN7aY3OByoUiU9aJc03vpV1/Es8wELU3df5Mpm5fQpllTHC0oAbFDYOYQQ5iGvBeDiR5/Nbsong==" saltValue="F2aBdfwk7Scnx7+4JsGWmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:H300">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&gt;0, COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&lt;6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5705,8 +5698,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="M276" sqref="M276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5762,7 +5755,9 @@
       <c r="G2" s="13"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="str">
@@ -16535,19 +16530,14 @@
       <c r="I1000" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RnGguxe7wKQA6wXw013qp+uZk9hyGanA4tqPbvF56yffyeDnXqDh4v+HuyIm5ExNGKxNdir8wIKLAMKTcq/Ipg==" saltValue="G6gdYTvHtFFGm6xhZtCsDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="npQKxtrVcvfBCIF1QfUx8NH+gqz4y9mqwYTM92aScUPXCpK/QkYZSL7/lkiSiMTuBddYp31HTBkeZEzmoW/pdw==" saltValue="UDyer14YIXQcuCLDw8qjJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I300">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(COUNTA($B2:$I2)&gt;0,COUNTA($B2:$I2)&lt;COLUMNS($B2:$I2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I300">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(ISNUMBER(C2)=FALSE,C2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" sqref="C2:I1000" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" sqref="C2:H1000 I301:I1000 I2:I300" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88600C-B172-FD4F-9BEF-2499D9E0E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB190005-82EB-394F-AA52-974D31347334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Import time(s)</t>
   </si>
@@ -822,7 +822,7 @@
   </sheetPr>
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5698,8 +5698,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="M276" sqref="M276"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5755,9 +5755,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="str">

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9513BF-5A10-DA4D-A3F6-68AF3ED61E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BD6C48-1B73-DB40-A8A0-68A58B35AEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="lIlxBXX1CbpRZCSCnC96nvm+P3RrPstgPhz1dcT5R19hf6UGIy/8lMs6pN9Ze6KEEDW1Nk/8TMZlpHvbtWKTHQ==" workbookSaltValue="No3GJBWLeJbFaIq5cPuZUA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -811,7 +811,7 @@
   </sheetPr>
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5693,7 +5693,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -16524,14 +16524,14 @@
       <c r="I1000" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2kvk/q14PXmiEUbJFHADtwi99RLRtdJOL5DduoIXeriAqVJwdCIHC1HDZaOwk1cQtDDBogY3nYR1BhmfQScv/g==" saltValue="pwrMa+GK8JVU5bl3iuaErw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+f6dOzums3e9r45lSxC1XP4+r861fJd/Z7xvBFW1Va0qscjh67HpzVHs9AgjCkXF2PfI+Uz0xGwhNq7R2g/NSw==" saltValue="rGX6aLw4yKCerbJLsUSnVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:J300">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(COUNTA($B2:$I2)&gt;0,COUNTA($B2:$I2)&lt;COLUMNS($B2:$J2))</formula>
+      <formula>AND($A2&lt;&gt;"", COUNTA($B2:$J2)&lt;COLUMNS($B2:$J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" sqref="C2:F1000 H2:I1000 G3:G1000 G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" sqref="C2:I1000" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BD6C48-1B73-DB40-A8A0-68A58B35AEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F69FA2-B2CA-CC45-ABCD-41F7553A55B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="lIlxBXX1CbpRZCSCnC96nvm+P3RrPstgPhz1dcT5R19hf6UGIy/8lMs6pN9Ze6KEEDW1Nk/8TMZlpHvbtWKTHQ==" workbookSaltValue="No3GJBWLeJbFaIq5cPuZUA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -310,6 +310,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -811,7 +815,7 @@
   </sheetPr>
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -860,7 +864,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="24" t="str">
-        <f t="shared" ref="G2:G65" si="0">IF(B2&lt;&gt;"", "female", "")</f>
+        <f>IF(B2&lt;&gt;"", "female", "")</f>
         <v/>
       </c>
       <c r="H2" s="25"/>
@@ -876,7 +880,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G65" si="0">IF(B3&lt;&gt;"", "female", "")</f>
         <v/>
       </c>
       <c r="H3" s="25"/>
@@ -5635,7 +5639,7 @@
       <c r="H300" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FdonOxu+zIHkN1c+ukQA7G8sOHbuTkTX1feb1hFuQV3JqxjhB0GzD+sPeoAg2yJIJPQ8p6WwTzlZ977PGvuBKQ==" saltValue="ON+qLKy4DNxVGn03dt/UhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9jdSQzLZJCWLtOeiGiuOVHuQBiHN0X83e5YPCagh9w3B49hDi7DNjEc9VKoGNoNMxc78nRWlJwnsezsGHpg2Bg==" saltValue="fGwceFAEx2Xc3OStnAAi6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:C300 F2:H300">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&gt;0, COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&lt;6)</formula>
@@ -5691,9 +5695,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5706,7 +5710,7 @@
     <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5738,12 +5742,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="str">
         <f>'Cow Import'!A2</f>
         <v/>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="26" t="str">
+        <f>IF(A2&lt;&gt;"", "good", "")</f>
+        <v/>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -5752,13 +5759,17 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="str">
         <f>'Cow Import'!A3</f>
         <v/>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="26" t="str">
+        <f t="shared" ref="B3:B66" si="0">IF(A3&lt;&gt;"", "good", "")</f>
+        <v/>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -5767,13 +5778,17 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="str">
         <f>'Cow Import'!A4</f>
         <v/>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5782,13 +5797,17 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="str">
         <f>'Cow Import'!A5</f>
         <v/>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -5797,13 +5816,17 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="str">
         <f>'Cow Import'!A6</f>
         <v/>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5812,13 +5835,17 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="str">
         <f>'Cow Import'!A7</f>
         <v/>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -5827,13 +5854,17 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="str">
         <f>'Cow Import'!A8</f>
         <v/>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -5842,13 +5873,17 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="str">
         <f>'Cow Import'!A9</f>
         <v/>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -5857,13 +5892,17 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="str">
         <f>'Cow Import'!A10</f>
         <v/>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5872,13 +5911,17 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="str">
         <f>'Cow Import'!A11</f>
         <v/>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -5887,13 +5930,17 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="str">
         <f>'Cow Import'!A12</f>
         <v/>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -5902,13 +5949,17 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="str">
         <f>'Cow Import'!A13</f>
         <v/>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -5917,13 +5968,17 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="str">
         <f>'Cow Import'!A14</f>
         <v/>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -5932,13 +5987,17 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="str">
         <f>'Cow Import'!A15</f>
         <v/>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -5947,13 +6006,17 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="str">
         <f>'Cow Import'!A16</f>
         <v/>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -5962,13 +6025,17 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="str">
         <f>'Cow Import'!A17</f>
         <v/>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -5977,13 +6044,17 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="str">
         <f>'Cow Import'!A18</f>
         <v/>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -5992,13 +6063,17 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="str">
         <f>'Cow Import'!A19</f>
         <v/>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -6007,13 +6082,17 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="str">
         <f>'Cow Import'!A20</f>
         <v/>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -6022,13 +6101,17 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="str">
         <f>'Cow Import'!A21</f>
         <v/>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -6037,13 +6120,17 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="str">
         <f>'Cow Import'!A22</f>
         <v/>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -6052,13 +6139,17 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="str">
         <f>'Cow Import'!A23</f>
         <v/>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -6067,13 +6158,17 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="str">
         <f>'Cow Import'!A24</f>
         <v/>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -6082,13 +6177,17 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="str">
         <f>'Cow Import'!A25</f>
         <v/>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -6097,13 +6196,17 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="str">
         <f>'Cow Import'!A26</f>
         <v/>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -6112,13 +6215,17 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="str">
         <f>'Cow Import'!A27</f>
         <v/>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -6127,13 +6234,17 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="str">
         <f>'Cow Import'!A28</f>
         <v/>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -6142,13 +6253,17 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="str">
         <f>'Cow Import'!A29</f>
         <v/>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -6157,13 +6272,17 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="str">
         <f>'Cow Import'!A30</f>
         <v/>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -6172,13 +6291,17 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="str">
         <f>'Cow Import'!A31</f>
         <v/>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -6187,13 +6310,17 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="str">
         <f>'Cow Import'!A32</f>
         <v/>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -6202,13 +6329,17 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="str">
         <f>'Cow Import'!A33</f>
         <v/>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -6217,13 +6348,17 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="27"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="str">
         <f>'Cow Import'!A34</f>
         <v/>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -6232,13 +6367,17 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="str">
         <f>'Cow Import'!A35</f>
         <v/>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -6247,13 +6386,17 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="str">
         <f>'Cow Import'!A36</f>
         <v/>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -6262,13 +6405,17 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="str">
         <f>'Cow Import'!A37</f>
         <v/>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -6277,13 +6424,17 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="str">
         <f>'Cow Import'!A38</f>
         <v/>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -6292,13 +6443,17 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K38" s="27"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="str">
         <f>'Cow Import'!A39</f>
         <v/>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -6307,13 +6462,17 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K39" s="27"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="str">
         <f>'Cow Import'!A40</f>
         <v/>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -6322,13 +6481,17 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K40" s="27"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="str">
         <f>'Cow Import'!A41</f>
         <v/>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -6337,13 +6500,17 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K41" s="27"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="str">
         <f>'Cow Import'!A42</f>
         <v/>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -6352,13 +6519,17 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K42" s="27"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="str">
         <f>'Cow Import'!A43</f>
         <v/>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -6367,13 +6538,17 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="27"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="str">
         <f>'Cow Import'!A44</f>
         <v/>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -6382,13 +6557,17 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K44" s="27"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="str">
         <f>'Cow Import'!A45</f>
         <v/>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -6397,13 +6576,17 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K45" s="27"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="str">
         <f>'Cow Import'!A46</f>
         <v/>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -6412,13 +6595,17 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K46" s="27"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="str">
         <f>'Cow Import'!A47</f>
         <v/>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -6427,13 +6614,17 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="str">
         <f>'Cow Import'!A48</f>
         <v/>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -6442,13 +6633,17 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="str">
         <f>'Cow Import'!A49</f>
         <v/>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -6457,13 +6652,17 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="str">
         <f>'Cow Import'!A50</f>
         <v/>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -6472,13 +6671,17 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K50" s="27"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="str">
         <f>'Cow Import'!A51</f>
         <v/>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -6487,13 +6690,17 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K51" s="27"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="str">
         <f>'Cow Import'!A52</f>
         <v/>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -6502,13 +6709,17 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K52" s="27"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="str">
         <f>'Cow Import'!A53</f>
         <v/>
       </c>
-      <c r="B53" s="13"/>
+      <c r="B53" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -6517,13 +6728,17 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K53" s="27"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="str">
         <f>'Cow Import'!A54</f>
         <v/>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -6532,13 +6747,17 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="13"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K54" s="27"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="str">
         <f>'Cow Import'!A55</f>
         <v/>
       </c>
-      <c r="B55" s="13"/>
+      <c r="B55" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -6547,13 +6766,17 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="str">
         <f>'Cow Import'!A56</f>
         <v/>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -6562,13 +6785,17 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="str">
         <f>'Cow Import'!A57</f>
         <v/>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -6577,13 +6804,17 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="13"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="str">
         <f>'Cow Import'!A58</f>
         <v/>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -6592,13 +6823,17 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K58" s="27"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="str">
         <f>'Cow Import'!A59</f>
         <v/>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -6607,13 +6842,17 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="str">
         <f>'Cow Import'!A60</f>
         <v/>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -6622,13 +6861,17 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K60" s="27"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="str">
         <f>'Cow Import'!A61</f>
         <v/>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -6637,13 +6880,17 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="13"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K61" s="27"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="str">
         <f>'Cow Import'!A62</f>
         <v/>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -6652,13 +6899,17 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K62" s="27"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="str">
         <f>'Cow Import'!A63</f>
         <v/>
       </c>
-      <c r="B63" s="13"/>
+      <c r="B63" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -6667,13 +6918,17 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K63" s="27"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="str">
         <f>'Cow Import'!A64</f>
         <v/>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -6682,13 +6937,17 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K64" s="27"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="str">
         <f>'Cow Import'!A65</f>
         <v/>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -6697,13 +6956,17 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K65" s="27"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="str">
         <f>'Cow Import'!A66</f>
         <v/>
       </c>
-      <c r="B66" s="13"/>
+      <c r="B66" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -6712,13 +6975,17 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K66" s="27"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="str">
         <f>'Cow Import'!A67</f>
         <v/>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="26" t="str">
+        <f t="shared" ref="B67:B130" si="1">IF(A67&lt;&gt;"", "good", "")</f>
+        <v/>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -6727,13 +6994,17 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K67" s="27"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="str">
         <f>'Cow Import'!A68</f>
         <v/>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -6742,13 +7013,17 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K68" s="27"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="str">
         <f>'Cow Import'!A69</f>
         <v/>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -6757,13 +7032,17 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K69" s="27"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="str">
         <f>'Cow Import'!A70</f>
         <v/>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -6772,13 +7051,17 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K70" s="27"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="str">
         <f>'Cow Import'!A71</f>
         <v/>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -6787,13 +7070,17 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K71" s="27"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="str">
         <f>'Cow Import'!A72</f>
         <v/>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -6802,13 +7089,17 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K72" s="27"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="str">
         <f>'Cow Import'!A73</f>
         <v/>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -6817,13 +7108,17 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K73" s="27"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="str">
         <f>'Cow Import'!A74</f>
         <v/>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
@@ -6832,13 +7127,17 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K74" s="27"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="str">
         <f>'Cow Import'!A75</f>
         <v/>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -6847,13 +7146,17 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K75" s="27"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="str">
         <f>'Cow Import'!A76</f>
         <v/>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -6862,13 +7165,17 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K76" s="27"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="str">
         <f>'Cow Import'!A77</f>
         <v/>
       </c>
-      <c r="B77" s="13"/>
+      <c r="B77" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -6877,13 +7184,17 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K77" s="27"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="str">
         <f>'Cow Import'!A78</f>
         <v/>
       </c>
-      <c r="B78" s="13"/>
+      <c r="B78" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -6892,13 +7203,17 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
       <c r="J78" s="13"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K78" s="27"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="str">
         <f>'Cow Import'!A79</f>
         <v/>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -6907,13 +7222,17 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K79" s="27"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="str">
         <f>'Cow Import'!A80</f>
         <v/>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -6922,13 +7241,17 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="27"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="str">
         <f>'Cow Import'!A81</f>
         <v/>
       </c>
-      <c r="B81" s="13"/>
+      <c r="B81" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -6937,13 +7260,17 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K81" s="27"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="str">
         <f>'Cow Import'!A82</f>
         <v/>
       </c>
-      <c r="B82" s="13"/>
+      <c r="B82" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -6952,13 +7279,17 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K82" s="27"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="str">
         <f>'Cow Import'!A83</f>
         <v/>
       </c>
-      <c r="B83" s="13"/>
+      <c r="B83" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -6967,13 +7298,17 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="13"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K83" s="27"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="str">
         <f>'Cow Import'!A84</f>
         <v/>
       </c>
-      <c r="B84" s="13"/>
+      <c r="B84" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -6982,13 +7317,17 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="13"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K84" s="27"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="str">
         <f>'Cow Import'!A85</f>
         <v/>
       </c>
-      <c r="B85" s="13"/>
+      <c r="B85" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
@@ -6997,13 +7336,17 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="13"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K85" s="27"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="str">
         <f>'Cow Import'!A86</f>
         <v/>
       </c>
-      <c r="B86" s="13"/>
+      <c r="B86" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -7012,13 +7355,17 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="13"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K86" s="27"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="str">
         <f>'Cow Import'!A87</f>
         <v/>
       </c>
-      <c r="B87" s="13"/>
+      <c r="B87" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -7027,13 +7374,17 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
       <c r="J87" s="13"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K87" s="27"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="str">
         <f>'Cow Import'!A88</f>
         <v/>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -7042,13 +7393,17 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="13"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K88" s="27"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="str">
         <f>'Cow Import'!A89</f>
         <v/>
       </c>
-      <c r="B89" s="13"/>
+      <c r="B89" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -7057,13 +7412,17 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="13"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K89" s="27"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="str">
         <f>'Cow Import'!A90</f>
         <v/>
       </c>
-      <c r="B90" s="13"/>
+      <c r="B90" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -7072,13 +7431,17 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="13"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K90" s="27"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="str">
         <f>'Cow Import'!A91</f>
         <v/>
       </c>
-      <c r="B91" s="13"/>
+      <c r="B91" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -7087,13 +7450,17 @@
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="13"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K91" s="27"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="str">
         <f>'Cow Import'!A92</f>
         <v/>
       </c>
-      <c r="B92" s="13"/>
+      <c r="B92" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
@@ -7102,13 +7469,17 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="13"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K92" s="27"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="str">
         <f>'Cow Import'!A93</f>
         <v/>
       </c>
-      <c r="B93" s="13"/>
+      <c r="B93" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -7117,13 +7488,17 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="13"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K93" s="27"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="str">
         <f>'Cow Import'!A94</f>
         <v/>
       </c>
-      <c r="B94" s="13"/>
+      <c r="B94" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -7132,13 +7507,17 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="13"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K94" s="27"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="str">
         <f>'Cow Import'!A95</f>
         <v/>
       </c>
-      <c r="B95" s="13"/>
+      <c r="B95" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -7147,13 +7526,17 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="13"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K95" s="27"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="str">
         <f>'Cow Import'!A96</f>
         <v/>
       </c>
-      <c r="B96" s="13"/>
+      <c r="B96" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -7162,13 +7545,17 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="13"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K96" s="27"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="str">
         <f>'Cow Import'!A97</f>
         <v/>
       </c>
-      <c r="B97" s="13"/>
+      <c r="B97" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -7177,13 +7564,17 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="13"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K97" s="27"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="str">
         <f>'Cow Import'!A98</f>
         <v/>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -7192,13 +7583,17 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="13"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K98" s="27"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="str">
         <f>'Cow Import'!A99</f>
         <v/>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -7207,13 +7602,17 @@
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="13"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K99" s="27"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="str">
         <f>'Cow Import'!A100</f>
         <v/>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -7222,13 +7621,17 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="13"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K100" s="27"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="str">
         <f>'Cow Import'!A101</f>
         <v/>
       </c>
-      <c r="B101" s="13"/>
+      <c r="B101" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -7237,13 +7640,17 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="13"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K101" s="27"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="str">
         <f>'Cow Import'!A102</f>
         <v/>
       </c>
-      <c r="B102" s="13"/>
+      <c r="B102" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -7252,13 +7659,17 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="13"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K102" s="27"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="str">
         <f>'Cow Import'!A103</f>
         <v/>
       </c>
-      <c r="B103" s="13"/>
+      <c r="B103" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -7267,13 +7678,17 @@
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="13"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K103" s="27"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="str">
         <f>'Cow Import'!A104</f>
         <v/>
       </c>
-      <c r="B104" s="13"/>
+      <c r="B104" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
@@ -7282,13 +7697,17 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="13"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K104" s="27"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="str">
         <f>'Cow Import'!A105</f>
         <v/>
       </c>
-      <c r="B105" s="13"/>
+      <c r="B105" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -7297,13 +7716,17 @@
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
       <c r="J105" s="13"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K105" s="27"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="str">
         <f>'Cow Import'!A106</f>
         <v/>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -7312,13 +7735,17 @@
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="13"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K106" s="27"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="str">
         <f>'Cow Import'!A107</f>
         <v/>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -7327,13 +7754,17 @@
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="13"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K107" s="27"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="str">
         <f>'Cow Import'!A108</f>
         <v/>
       </c>
-      <c r="B108" s="13"/>
+      <c r="B108" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -7342,13 +7773,17 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="13"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K108" s="27"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="str">
         <f>'Cow Import'!A109</f>
         <v/>
       </c>
-      <c r="B109" s="13"/>
+      <c r="B109" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -7357,13 +7792,17 @@
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="13"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K109" s="27"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="str">
         <f>'Cow Import'!A110</f>
         <v/>
       </c>
-      <c r="B110" s="13"/>
+      <c r="B110" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -7372,13 +7811,17 @@
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="13"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K110" s="27"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="str">
         <f>'Cow Import'!A111</f>
         <v/>
       </c>
-      <c r="B111" s="13"/>
+      <c r="B111" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -7387,13 +7830,17 @@
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="13"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K111" s="27"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="str">
         <f>'Cow Import'!A112</f>
         <v/>
       </c>
-      <c r="B112" s="13"/>
+      <c r="B112" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -7402,13 +7849,17 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="13"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K112" s="27"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="str">
         <f>'Cow Import'!A113</f>
         <v/>
       </c>
-      <c r="B113" s="13"/>
+      <c r="B113" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
@@ -7417,13 +7868,17 @@
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="13"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K113" s="27"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="str">
         <f>'Cow Import'!A114</f>
         <v/>
       </c>
-      <c r="B114" s="13"/>
+      <c r="B114" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
@@ -7432,13 +7887,17 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="13"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K114" s="27"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="str">
         <f>'Cow Import'!A115</f>
         <v/>
       </c>
-      <c r="B115" s="13"/>
+      <c r="B115" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -7447,13 +7906,17 @@
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="13"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="str">
         <f>'Cow Import'!A116</f>
         <v/>
       </c>
-      <c r="B116" s="13"/>
+      <c r="B116" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
@@ -7462,13 +7925,17 @@
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="13"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K116" s="27"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="16" t="str">
         <f>'Cow Import'!A117</f>
         <v/>
       </c>
-      <c r="B117" s="13"/>
+      <c r="B117" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
@@ -7477,13 +7944,17 @@
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="13"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K117" s="27"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="16" t="str">
         <f>'Cow Import'!A118</f>
         <v/>
       </c>
-      <c r="B118" s="13"/>
+      <c r="B118" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
@@ -7492,13 +7963,17 @@
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="13"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="16" t="str">
         <f>'Cow Import'!A119</f>
         <v/>
       </c>
-      <c r="B119" s="13"/>
+      <c r="B119" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
@@ -7507,13 +7982,17 @@
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="13"/>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="16" t="str">
         <f>'Cow Import'!A120</f>
         <v/>
       </c>
-      <c r="B120" s="13"/>
+      <c r="B120" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
@@ -7522,13 +8001,17 @@
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="13"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="16" t="str">
         <f>'Cow Import'!A121</f>
         <v/>
       </c>
-      <c r="B121" s="13"/>
+      <c r="B121" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
@@ -7537,13 +8020,17 @@
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="13"/>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="16" t="str">
         <f>'Cow Import'!A122</f>
         <v/>
       </c>
-      <c r="B122" s="13"/>
+      <c r="B122" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
@@ -7552,13 +8039,17 @@
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="13"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="16" t="str">
         <f>'Cow Import'!A123</f>
         <v/>
       </c>
-      <c r="B123" s="13"/>
+      <c r="B123" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
@@ -7567,13 +8058,17 @@
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="13"/>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K123" s="27"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="str">
         <f>'Cow Import'!A124</f>
         <v/>
       </c>
-      <c r="B124" s="13"/>
+      <c r="B124" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
@@ -7582,13 +8077,17 @@
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="13"/>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K124" s="27"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="str">
         <f>'Cow Import'!A125</f>
         <v/>
       </c>
-      <c r="B125" s="13"/>
+      <c r="B125" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
@@ -7597,13 +8096,17 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="13"/>
-    </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K125" s="27"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="16" t="str">
         <f>'Cow Import'!A126</f>
         <v/>
       </c>
-      <c r="B126" s="13"/>
+      <c r="B126" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
@@ -7612,13 +8115,17 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="13"/>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K126" s="27"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="str">
         <f>'Cow Import'!A127</f>
         <v/>
       </c>
-      <c r="B127" s="13"/>
+      <c r="B127" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
@@ -7627,13 +8134,17 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="13"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K127" s="27"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="16" t="str">
         <f>'Cow Import'!A128</f>
         <v/>
       </c>
-      <c r="B128" s="13"/>
+      <c r="B128" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -7642,13 +8153,17 @@
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="13"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K128" s="27"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="16" t="str">
         <f>'Cow Import'!A129</f>
         <v/>
       </c>
-      <c r="B129" s="13"/>
+      <c r="B129" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
@@ -7657,13 +8172,17 @@
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K129" s="27"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="16" t="str">
         <f>'Cow Import'!A130</f>
         <v/>
       </c>
-      <c r="B130" s="13"/>
+      <c r="B130" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
@@ -7672,13 +8191,17 @@
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K130" s="27"/>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="16" t="str">
         <f>'Cow Import'!A131</f>
         <v/>
       </c>
-      <c r="B131" s="13"/>
+      <c r="B131" s="26" t="str">
+        <f t="shared" ref="B131:B194" si="2">IF(A131&lt;&gt;"", "good", "")</f>
+        <v/>
+      </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -7687,13 +8210,17 @@
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
       <c r="J131" s="13"/>
-    </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K131" s="27"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="16" t="str">
         <f>'Cow Import'!A132</f>
         <v/>
       </c>
-      <c r="B132" s="13"/>
+      <c r="B132" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
@@ -7702,13 +8229,17 @@
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="J132" s="13"/>
-    </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K132" s="27"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="16" t="str">
         <f>'Cow Import'!A133</f>
         <v/>
       </c>
-      <c r="B133" s="13"/>
+      <c r="B133" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
@@ -7717,13 +8248,17 @@
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
       <c r="J133" s="13"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K133" s="27"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="16" t="str">
         <f>'Cow Import'!A134</f>
         <v/>
       </c>
-      <c r="B134" s="13"/>
+      <c r="B134" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
@@ -7732,13 +8267,17 @@
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
       <c r="J134" s="13"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K134" s="27"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="str">
         <f>'Cow Import'!A135</f>
         <v/>
       </c>
-      <c r="B135" s="13"/>
+      <c r="B135" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
@@ -7747,13 +8286,17 @@
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="13"/>
-    </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K135" s="27"/>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="str">
         <f>'Cow Import'!A136</f>
         <v/>
       </c>
-      <c r="B136" s="13"/>
+      <c r="B136" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
@@ -7762,13 +8305,17 @@
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="13"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K136" s="27"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="16" t="str">
         <f>'Cow Import'!A137</f>
         <v/>
       </c>
-      <c r="B137" s="13"/>
+      <c r="B137" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
@@ -7777,13 +8324,17 @@
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="13"/>
-    </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K137" s="27"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="16" t="str">
         <f>'Cow Import'!A138</f>
         <v/>
       </c>
-      <c r="B138" s="13"/>
+      <c r="B138" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
@@ -7792,13 +8343,17 @@
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
       <c r="J138" s="13"/>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K138" s="27"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="16" t="str">
         <f>'Cow Import'!A139</f>
         <v/>
       </c>
-      <c r="B139" s="13"/>
+      <c r="B139" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
@@ -7807,13 +8362,17 @@
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
       <c r="J139" s="13"/>
-    </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K139" s="27"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="16" t="str">
         <f>'Cow Import'!A140</f>
         <v/>
       </c>
-      <c r="B140" s="13"/>
+      <c r="B140" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
@@ -7822,13 +8381,17 @@
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
       <c r="J140" s="13"/>
-    </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K140" s="27"/>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="16" t="str">
         <f>'Cow Import'!A141</f>
         <v/>
       </c>
-      <c r="B141" s="13"/>
+      <c r="B141" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
@@ -7837,13 +8400,17 @@
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
       <c r="J141" s="13"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K141" s="27"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="16" t="str">
         <f>'Cow Import'!A142</f>
         <v/>
       </c>
-      <c r="B142" s="13"/>
+      <c r="B142" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
@@ -7852,13 +8419,17 @@
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
       <c r="J142" s="13"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K142" s="27"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="16" t="str">
         <f>'Cow Import'!A143</f>
         <v/>
       </c>
-      <c r="B143" s="13"/>
+      <c r="B143" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
@@ -7867,13 +8438,17 @@
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="13"/>
-    </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K143" s="27"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="16" t="str">
         <f>'Cow Import'!A144</f>
         <v/>
       </c>
-      <c r="B144" s="13"/>
+      <c r="B144" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
@@ -7882,13 +8457,17 @@
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
       <c r="J144" s="13"/>
-    </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K144" s="27"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="16" t="str">
         <f>'Cow Import'!A145</f>
         <v/>
       </c>
-      <c r="B145" s="13"/>
+      <c r="B145" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -7897,13 +8476,17 @@
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
       <c r="J145" s="13"/>
-    </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K145" s="27"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="16" t="str">
         <f>'Cow Import'!A146</f>
         <v/>
       </c>
-      <c r="B146" s="13"/>
+      <c r="B146" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
@@ -7912,13 +8495,17 @@
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
       <c r="J146" s="13"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K146" s="27"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="16" t="str">
         <f>'Cow Import'!A147</f>
         <v/>
       </c>
-      <c r="B147" s="13"/>
+      <c r="B147" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
@@ -7927,13 +8514,17 @@
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
       <c r="J147" s="13"/>
-    </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K147" s="27"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="16" t="str">
         <f>'Cow Import'!A148</f>
         <v/>
       </c>
-      <c r="B148" s="13"/>
+      <c r="B148" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
@@ -7942,13 +8533,17 @@
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
       <c r="J148" s="13"/>
-    </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K148" s="27"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="16" t="str">
         <f>'Cow Import'!A149</f>
         <v/>
       </c>
-      <c r="B149" s="13"/>
+      <c r="B149" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
@@ -7957,13 +8552,17 @@
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
       <c r="J149" s="13"/>
-    </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K149" s="27"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="16" t="str">
         <f>'Cow Import'!A150</f>
         <v/>
       </c>
-      <c r="B150" s="13"/>
+      <c r="B150" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
@@ -7972,13 +8571,17 @@
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
       <c r="J150" s="13"/>
-    </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K150" s="27"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="16" t="str">
         <f>'Cow Import'!A151</f>
         <v/>
       </c>
-      <c r="B151" s="13"/>
+      <c r="B151" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
@@ -7987,13 +8590,17 @@
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
       <c r="J151" s="13"/>
-    </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K151" s="27"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="16" t="str">
         <f>'Cow Import'!A152</f>
         <v/>
       </c>
-      <c r="B152" s="13"/>
+      <c r="B152" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
@@ -8002,13 +8609,17 @@
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
       <c r="J152" s="13"/>
-    </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K152" s="27"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="16" t="str">
         <f>'Cow Import'!A153</f>
         <v/>
       </c>
-      <c r="B153" s="13"/>
+      <c r="B153" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
@@ -8017,13 +8628,17 @@
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
       <c r="J153" s="13"/>
-    </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K153" s="27"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="16" t="str">
         <f>'Cow Import'!A154</f>
         <v/>
       </c>
-      <c r="B154" s="13"/>
+      <c r="B154" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
@@ -8032,13 +8647,17 @@
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
       <c r="J154" s="13"/>
-    </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K154" s="27"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="16" t="str">
         <f>'Cow Import'!A155</f>
         <v/>
       </c>
-      <c r="B155" s="13"/>
+      <c r="B155" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
@@ -8047,13 +8666,17 @@
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
       <c r="J155" s="13"/>
-    </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K155" s="27"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="16" t="str">
         <f>'Cow Import'!A156</f>
         <v/>
       </c>
-      <c r="B156" s="13"/>
+      <c r="B156" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
@@ -8062,13 +8685,17 @@
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
       <c r="J156" s="13"/>
-    </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K156" s="27"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="str">
         <f>'Cow Import'!A157</f>
         <v/>
       </c>
-      <c r="B157" s="13"/>
+      <c r="B157" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
@@ -8077,13 +8704,17 @@
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
       <c r="J157" s="13"/>
-    </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K157" s="27"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="16" t="str">
         <f>'Cow Import'!A158</f>
         <v/>
       </c>
-      <c r="B158" s="13"/>
+      <c r="B158" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
@@ -8092,13 +8723,17 @@
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
       <c r="J158" s="13"/>
-    </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K158" s="27"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="16" t="str">
         <f>'Cow Import'!A159</f>
         <v/>
       </c>
-      <c r="B159" s="13"/>
+      <c r="B159" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
@@ -8107,13 +8742,17 @@
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
       <c r="J159" s="13"/>
-    </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K159" s="27"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="16" t="str">
         <f>'Cow Import'!A160</f>
         <v/>
       </c>
-      <c r="B160" s="13"/>
+      <c r="B160" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
@@ -8122,13 +8761,17 @@
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
       <c r="J160" s="13"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K160" s="27"/>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="16" t="str">
         <f>'Cow Import'!A161</f>
         <v/>
       </c>
-      <c r="B161" s="13"/>
+      <c r="B161" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
@@ -8137,13 +8780,17 @@
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="13"/>
-    </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K161" s="27"/>
+    </row>
+    <row r="162" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="16" t="str">
         <f>'Cow Import'!A162</f>
         <v/>
       </c>
-      <c r="B162" s="13"/>
+      <c r="B162" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
@@ -8152,13 +8799,17 @@
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
       <c r="J162" s="13"/>
-    </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K162" s="27"/>
+    </row>
+    <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="16" t="str">
         <f>'Cow Import'!A163</f>
         <v/>
       </c>
-      <c r="B163" s="13"/>
+      <c r="B163" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
@@ -8167,13 +8818,17 @@
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
       <c r="J163" s="13"/>
-    </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K163" s="27"/>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="16" t="str">
         <f>'Cow Import'!A164</f>
         <v/>
       </c>
-      <c r="B164" s="13"/>
+      <c r="B164" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
@@ -8182,13 +8837,17 @@
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
       <c r="J164" s="13"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K164" s="27"/>
+    </row>
+    <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="16" t="str">
         <f>'Cow Import'!A165</f>
         <v/>
       </c>
-      <c r="B165" s="13"/>
+      <c r="B165" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
@@ -8197,13 +8856,17 @@
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
       <c r="J165" s="13"/>
-    </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K165" s="27"/>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="16" t="str">
         <f>'Cow Import'!A166</f>
         <v/>
       </c>
-      <c r="B166" s="13"/>
+      <c r="B166" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
@@ -8212,13 +8875,17 @@
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
       <c r="J166" s="13"/>
-    </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K166" s="27"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="16" t="str">
         <f>'Cow Import'!A167</f>
         <v/>
       </c>
-      <c r="B167" s="13"/>
+      <c r="B167" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
@@ -8227,13 +8894,17 @@
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
       <c r="J167" s="13"/>
-    </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K167" s="27"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="16" t="str">
         <f>'Cow Import'!A168</f>
         <v/>
       </c>
-      <c r="B168" s="13"/>
+      <c r="B168" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
@@ -8242,13 +8913,17 @@
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
       <c r="J168" s="13"/>
-    </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K168" s="27"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="16" t="str">
         <f>'Cow Import'!A169</f>
         <v/>
       </c>
-      <c r="B169" s="13"/>
+      <c r="B169" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
@@ -8257,13 +8932,17 @@
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
       <c r="J169" s="13"/>
-    </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K169" s="27"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="16" t="str">
         <f>'Cow Import'!A170</f>
         <v/>
       </c>
-      <c r="B170" s="13"/>
+      <c r="B170" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
@@ -8272,13 +8951,17 @@
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
       <c r="J170" s="13"/>
-    </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K170" s="27"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="16" t="str">
         <f>'Cow Import'!A171</f>
         <v/>
       </c>
-      <c r="B171" s="13"/>
+      <c r="B171" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
@@ -8287,13 +8970,17 @@
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
       <c r="J171" s="13"/>
-    </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K171" s="27"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="16" t="str">
         <f>'Cow Import'!A172</f>
         <v/>
       </c>
-      <c r="B172" s="13"/>
+      <c r="B172" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
@@ -8302,13 +8989,17 @@
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
       <c r="J172" s="13"/>
-    </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K172" s="27"/>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="16" t="str">
         <f>'Cow Import'!A173</f>
         <v/>
       </c>
-      <c r="B173" s="13"/>
+      <c r="B173" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
@@ -8317,13 +9008,17 @@
       <c r="H173" s="15"/>
       <c r="I173" s="15"/>
       <c r="J173" s="13"/>
-    </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K173" s="27"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="16" t="str">
         <f>'Cow Import'!A174</f>
         <v/>
       </c>
-      <c r="B174" s="13"/>
+      <c r="B174" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
@@ -8332,13 +9027,17 @@
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
       <c r="J174" s="13"/>
-    </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K174" s="27"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="16" t="str">
         <f>'Cow Import'!A175</f>
         <v/>
       </c>
-      <c r="B175" s="13"/>
+      <c r="B175" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
@@ -8347,13 +9046,17 @@
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
       <c r="J175" s="13"/>
-    </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K175" s="27"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="16" t="str">
         <f>'Cow Import'!A176</f>
         <v/>
       </c>
-      <c r="B176" s="13"/>
+      <c r="B176" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
@@ -8362,13 +9065,17 @@
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
       <c r="J176" s="13"/>
-    </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K176" s="27"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="16" t="str">
         <f>'Cow Import'!A177</f>
         <v/>
       </c>
-      <c r="B177" s="13"/>
+      <c r="B177" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
@@ -8377,13 +9084,17 @@
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
       <c r="J177" s="13"/>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K177" s="27"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="16" t="str">
         <f>'Cow Import'!A178</f>
         <v/>
       </c>
-      <c r="B178" s="13"/>
+      <c r="B178" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
@@ -8392,13 +9103,17 @@
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
       <c r="J178" s="13"/>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K178" s="27"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="16" t="str">
         <f>'Cow Import'!A179</f>
         <v/>
       </c>
-      <c r="B179" s="13"/>
+      <c r="B179" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
@@ -8407,13 +9122,17 @@
       <c r="H179" s="15"/>
       <c r="I179" s="15"/>
       <c r="J179" s="13"/>
-    </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K179" s="27"/>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="16" t="str">
         <f>'Cow Import'!A180</f>
         <v/>
       </c>
-      <c r="B180" s="13"/>
+      <c r="B180" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
@@ -8422,13 +9141,17 @@
       <c r="H180" s="15"/>
       <c r="I180" s="15"/>
       <c r="J180" s="13"/>
-    </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K180" s="27"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="16" t="str">
         <f>'Cow Import'!A181</f>
         <v/>
       </c>
-      <c r="B181" s="13"/>
+      <c r="B181" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
@@ -8437,13 +9160,17 @@
       <c r="H181" s="15"/>
       <c r="I181" s="15"/>
       <c r="J181" s="13"/>
-    </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K181" s="27"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="16" t="str">
         <f>'Cow Import'!A182</f>
         <v/>
       </c>
-      <c r="B182" s="13"/>
+      <c r="B182" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
@@ -8452,13 +9179,17 @@
       <c r="H182" s="15"/>
       <c r="I182" s="15"/>
       <c r="J182" s="13"/>
-    </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K182" s="27"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="16" t="str">
         <f>'Cow Import'!A183</f>
         <v/>
       </c>
-      <c r="B183" s="13"/>
+      <c r="B183" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
@@ -8467,13 +9198,17 @@
       <c r="H183" s="15"/>
       <c r="I183" s="15"/>
       <c r="J183" s="13"/>
-    </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K183" s="27"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="16" t="str">
         <f>'Cow Import'!A184</f>
         <v/>
       </c>
-      <c r="B184" s="13"/>
+      <c r="B184" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
@@ -8482,13 +9217,17 @@
       <c r="H184" s="15"/>
       <c r="I184" s="15"/>
       <c r="J184" s="13"/>
-    </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K184" s="27"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="16" t="str">
         <f>'Cow Import'!A185</f>
         <v/>
       </c>
-      <c r="B185" s="13"/>
+      <c r="B185" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
@@ -8497,13 +9236,17 @@
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
       <c r="J185" s="13"/>
-    </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K185" s="27"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="16" t="str">
         <f>'Cow Import'!A186</f>
         <v/>
       </c>
-      <c r="B186" s="13"/>
+      <c r="B186" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
@@ -8512,13 +9255,17 @@
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
       <c r="J186" s="13"/>
-    </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K186" s="27"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="16" t="str">
         <f>'Cow Import'!A187</f>
         <v/>
       </c>
-      <c r="B187" s="13"/>
+      <c r="B187" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
@@ -8527,13 +9274,17 @@
       <c r="H187" s="15"/>
       <c r="I187" s="15"/>
       <c r="J187" s="13"/>
-    </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K187" s="27"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="16" t="str">
         <f>'Cow Import'!A188</f>
         <v/>
       </c>
-      <c r="B188" s="13"/>
+      <c r="B188" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
@@ -8542,13 +9293,17 @@
       <c r="H188" s="15"/>
       <c r="I188" s="15"/>
       <c r="J188" s="13"/>
-    </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K188" s="27"/>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="16" t="str">
         <f>'Cow Import'!A189</f>
         <v/>
       </c>
-      <c r="B189" s="13"/>
+      <c r="B189" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
@@ -8557,13 +9312,17 @@
       <c r="H189" s="15"/>
       <c r="I189" s="15"/>
       <c r="J189" s="13"/>
-    </row>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K189" s="27"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="16" t="str">
         <f>'Cow Import'!A190</f>
         <v/>
       </c>
-      <c r="B190" s="13"/>
+      <c r="B190" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
@@ -8572,13 +9331,17 @@
       <c r="H190" s="15"/>
       <c r="I190" s="15"/>
       <c r="J190" s="13"/>
-    </row>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K190" s="27"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="16" t="str">
         <f>'Cow Import'!A191</f>
         <v/>
       </c>
-      <c r="B191" s="13"/>
+      <c r="B191" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
@@ -8587,13 +9350,17 @@
       <c r="H191" s="15"/>
       <c r="I191" s="15"/>
       <c r="J191" s="13"/>
-    </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K191" s="27"/>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="16" t="str">
         <f>'Cow Import'!A192</f>
         <v/>
       </c>
-      <c r="B192" s="13"/>
+      <c r="B192" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
@@ -8602,13 +9369,17 @@
       <c r="H192" s="15"/>
       <c r="I192" s="15"/>
       <c r="J192" s="13"/>
-    </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K192" s="27"/>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="16" t="str">
         <f>'Cow Import'!A193</f>
         <v/>
       </c>
-      <c r="B193" s="13"/>
+      <c r="B193" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
@@ -8617,13 +9388,17 @@
       <c r="H193" s="15"/>
       <c r="I193" s="15"/>
       <c r="J193" s="13"/>
-    </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K193" s="27"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="16" t="str">
         <f>'Cow Import'!A194</f>
         <v/>
       </c>
-      <c r="B194" s="13"/>
+      <c r="B194" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
@@ -8632,13 +9407,17 @@
       <c r="H194" s="15"/>
       <c r="I194" s="15"/>
       <c r="J194" s="13"/>
-    </row>
-    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K194" s="27"/>
+    </row>
+    <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="16" t="str">
         <f>'Cow Import'!A195</f>
         <v/>
       </c>
-      <c r="B195" s="13"/>
+      <c r="B195" s="26" t="str">
+        <f t="shared" ref="B195:B258" si="3">IF(A195&lt;&gt;"", "good", "")</f>
+        <v/>
+      </c>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
@@ -8647,13 +9426,17 @@
       <c r="H195" s="15"/>
       <c r="I195" s="15"/>
       <c r="J195" s="13"/>
-    </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K195" s="27"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="16" t="str">
         <f>'Cow Import'!A196</f>
         <v/>
       </c>
-      <c r="B196" s="13"/>
+      <c r="B196" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
@@ -8662,13 +9445,17 @@
       <c r="H196" s="15"/>
       <c r="I196" s="15"/>
       <c r="J196" s="13"/>
-    </row>
-    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K196" s="27"/>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="16" t="str">
         <f>'Cow Import'!A197</f>
         <v/>
       </c>
-      <c r="B197" s="13"/>
+      <c r="B197" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
@@ -8677,13 +9464,17 @@
       <c r="H197" s="15"/>
       <c r="I197" s="15"/>
       <c r="J197" s="13"/>
-    </row>
-    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K197" s="27"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="16" t="str">
         <f>'Cow Import'!A198</f>
         <v/>
       </c>
-      <c r="B198" s="13"/>
+      <c r="B198" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
@@ -8692,13 +9483,17 @@
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
       <c r="J198" s="13"/>
-    </row>
-    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K198" s="27"/>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="16" t="str">
         <f>'Cow Import'!A199</f>
         <v/>
       </c>
-      <c r="B199" s="13"/>
+      <c r="B199" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
@@ -8707,13 +9502,17 @@
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
       <c r="J199" s="13"/>
-    </row>
-    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K199" s="27"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="16" t="str">
         <f>'Cow Import'!A200</f>
         <v/>
       </c>
-      <c r="B200" s="13"/>
+      <c r="B200" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
@@ -8722,13 +9521,17 @@
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
       <c r="J200" s="13"/>
-    </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K200" s="27"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="16" t="str">
         <f>'Cow Import'!A201</f>
         <v/>
       </c>
-      <c r="B201" s="13"/>
+      <c r="B201" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
@@ -8737,13 +9540,17 @@
       <c r="H201" s="15"/>
       <c r="I201" s="15"/>
       <c r="J201" s="13"/>
-    </row>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K201" s="27"/>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="16" t="str">
         <f>'Cow Import'!A202</f>
         <v/>
       </c>
-      <c r="B202" s="13"/>
+      <c r="B202" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
       <c r="E202" s="13"/>
@@ -8752,13 +9559,17 @@
       <c r="H202" s="15"/>
       <c r="I202" s="15"/>
       <c r="J202" s="13"/>
-    </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K202" s="27"/>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="16" t="str">
         <f>'Cow Import'!A203</f>
         <v/>
       </c>
-      <c r="B203" s="13"/>
+      <c r="B203" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13"/>
@@ -8767,13 +9578,17 @@
       <c r="H203" s="15"/>
       <c r="I203" s="15"/>
       <c r="J203" s="13"/>
-    </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K203" s="27"/>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="16" t="str">
         <f>'Cow Import'!A204</f>
         <v/>
       </c>
-      <c r="B204" s="13"/>
+      <c r="B204" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="13"/>
@@ -8782,13 +9597,17 @@
       <c r="H204" s="15"/>
       <c r="I204" s="15"/>
       <c r="J204" s="13"/>
-    </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K204" s="27"/>
+    </row>
+    <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="16" t="str">
         <f>'Cow Import'!A205</f>
         <v/>
       </c>
-      <c r="B205" s="13"/>
+      <c r="B205" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
@@ -8797,13 +9616,17 @@
       <c r="H205" s="15"/>
       <c r="I205" s="15"/>
       <c r="J205" s="13"/>
-    </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K205" s="27"/>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="16" t="str">
         <f>'Cow Import'!A206</f>
         <v/>
       </c>
-      <c r="B206" s="13"/>
+      <c r="B206" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="E206" s="13"/>
@@ -8812,13 +9635,17 @@
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
       <c r="J206" s="13"/>
-    </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K206" s="27"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="16" t="str">
         <f>'Cow Import'!A207</f>
         <v/>
       </c>
-      <c r="B207" s="13"/>
+      <c r="B207" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
@@ -8827,13 +9654,17 @@
       <c r="H207" s="15"/>
       <c r="I207" s="15"/>
       <c r="J207" s="13"/>
-    </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K207" s="27"/>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="16" t="str">
         <f>'Cow Import'!A208</f>
         <v/>
       </c>
-      <c r="B208" s="13"/>
+      <c r="B208" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="E208" s="13"/>
@@ -8842,13 +9673,17 @@
       <c r="H208" s="15"/>
       <c r="I208" s="15"/>
       <c r="J208" s="13"/>
-    </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K208" s="27"/>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="16" t="str">
         <f>'Cow Import'!A209</f>
         <v/>
       </c>
-      <c r="B209" s="13"/>
+      <c r="B209" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
@@ -8857,13 +9692,17 @@
       <c r="H209" s="15"/>
       <c r="I209" s="15"/>
       <c r="J209" s="13"/>
-    </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K209" s="27"/>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="16" t="str">
         <f>'Cow Import'!A210</f>
         <v/>
       </c>
-      <c r="B210" s="13"/>
+      <c r="B210" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="E210" s="13"/>
@@ -8872,13 +9711,17 @@
       <c r="H210" s="15"/>
       <c r="I210" s="15"/>
       <c r="J210" s="13"/>
-    </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K210" s="27"/>
+    </row>
+    <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="16" t="str">
         <f>'Cow Import'!A211</f>
         <v/>
       </c>
-      <c r="B211" s="13"/>
+      <c r="B211" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
       <c r="E211" s="13"/>
@@ -8887,13 +9730,17 @@
       <c r="H211" s="15"/>
       <c r="I211" s="15"/>
       <c r="J211" s="13"/>
-    </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K211" s="27"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="16" t="str">
         <f>'Cow Import'!A212</f>
         <v/>
       </c>
-      <c r="B212" s="13"/>
+      <c r="B212" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
@@ -8902,13 +9749,17 @@
       <c r="H212" s="15"/>
       <c r="I212" s="15"/>
       <c r="J212" s="13"/>
-    </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K212" s="27"/>
+    </row>
+    <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="16" t="str">
         <f>'Cow Import'!A213</f>
         <v/>
       </c>
-      <c r="B213" s="13"/>
+      <c r="B213" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
@@ -8917,13 +9768,17 @@
       <c r="H213" s="15"/>
       <c r="I213" s="15"/>
       <c r="J213" s="13"/>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K213" s="27"/>
+    </row>
+    <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="16" t="str">
         <f>'Cow Import'!A214</f>
         <v/>
       </c>
-      <c r="B214" s="13"/>
+      <c r="B214" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
@@ -8932,13 +9787,17 @@
       <c r="H214" s="15"/>
       <c r="I214" s="15"/>
       <c r="J214" s="13"/>
-    </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K214" s="27"/>
+    </row>
+    <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="16" t="str">
         <f>'Cow Import'!A215</f>
         <v/>
       </c>
-      <c r="B215" s="13"/>
+      <c r="B215" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
@@ -8947,13 +9806,17 @@
       <c r="H215" s="15"/>
       <c r="I215" s="15"/>
       <c r="J215" s="13"/>
-    </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K215" s="27"/>
+    </row>
+    <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="16" t="str">
         <f>'Cow Import'!A216</f>
         <v/>
       </c>
-      <c r="B216" s="13"/>
+      <c r="B216" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
@@ -8962,13 +9825,17 @@
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
       <c r="J216" s="13"/>
-    </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K216" s="27"/>
+    </row>
+    <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="16" t="str">
         <f>'Cow Import'!A217</f>
         <v/>
       </c>
-      <c r="B217" s="13"/>
+      <c r="B217" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
@@ -8977,13 +9844,17 @@
       <c r="H217" s="15"/>
       <c r="I217" s="15"/>
       <c r="J217" s="13"/>
-    </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K217" s="27"/>
+    </row>
+    <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="16" t="str">
         <f>'Cow Import'!A218</f>
         <v/>
       </c>
-      <c r="B218" s="13"/>
+      <c r="B218" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
@@ -8992,13 +9863,17 @@
       <c r="H218" s="15"/>
       <c r="I218" s="15"/>
       <c r="J218" s="13"/>
-    </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K218" s="27"/>
+    </row>
+    <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="16" t="str">
         <f>'Cow Import'!A219</f>
         <v/>
       </c>
-      <c r="B219" s="13"/>
+      <c r="B219" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
@@ -9007,13 +9882,17 @@
       <c r="H219" s="15"/>
       <c r="I219" s="15"/>
       <c r="J219" s="13"/>
-    </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K219" s="27"/>
+    </row>
+    <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="16" t="str">
         <f>'Cow Import'!A220</f>
         <v/>
       </c>
-      <c r="B220" s="13"/>
+      <c r="B220" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
@@ -9022,13 +9901,17 @@
       <c r="H220" s="15"/>
       <c r="I220" s="15"/>
       <c r="J220" s="13"/>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K220" s="27"/>
+    </row>
+    <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="16" t="str">
         <f>'Cow Import'!A221</f>
         <v/>
       </c>
-      <c r="B221" s="13"/>
+      <c r="B221" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
@@ -9037,13 +9920,17 @@
       <c r="H221" s="15"/>
       <c r="I221" s="15"/>
       <c r="J221" s="13"/>
-    </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K221" s="27"/>
+    </row>
+    <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="16" t="str">
         <f>'Cow Import'!A222</f>
         <v/>
       </c>
-      <c r="B222" s="13"/>
+      <c r="B222" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
@@ -9052,13 +9939,17 @@
       <c r="H222" s="15"/>
       <c r="I222" s="15"/>
       <c r="J222" s="13"/>
-    </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K222" s="27"/>
+    </row>
+    <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="16" t="str">
         <f>'Cow Import'!A223</f>
         <v/>
       </c>
-      <c r="B223" s="13"/>
+      <c r="B223" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
@@ -9067,13 +9958,17 @@
       <c r="H223" s="15"/>
       <c r="I223" s="15"/>
       <c r="J223" s="13"/>
-    </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K223" s="27"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="16" t="str">
         <f>'Cow Import'!A224</f>
         <v/>
       </c>
-      <c r="B224" s="13"/>
+      <c r="B224" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
@@ -9082,13 +9977,17 @@
       <c r="H224" s="15"/>
       <c r="I224" s="15"/>
       <c r="J224" s="13"/>
-    </row>
-    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K224" s="27"/>
+    </row>
+    <row r="225" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="16" t="str">
         <f>'Cow Import'!A225</f>
         <v/>
       </c>
-      <c r="B225" s="13"/>
+      <c r="B225" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
@@ -9097,13 +9996,17 @@
       <c r="H225" s="15"/>
       <c r="I225" s="15"/>
       <c r="J225" s="13"/>
-    </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K225" s="27"/>
+    </row>
+    <row r="226" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="16" t="str">
         <f>'Cow Import'!A226</f>
         <v/>
       </c>
-      <c r="B226" s="13"/>
+      <c r="B226" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
@@ -9112,13 +10015,17 @@
       <c r="H226" s="15"/>
       <c r="I226" s="15"/>
       <c r="J226" s="13"/>
-    </row>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K226" s="27"/>
+    </row>
+    <row r="227" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="16" t="str">
         <f>'Cow Import'!A227</f>
         <v/>
       </c>
-      <c r="B227" s="13"/>
+      <c r="B227" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
@@ -9127,13 +10034,17 @@
       <c r="H227" s="15"/>
       <c r="I227" s="15"/>
       <c r="J227" s="13"/>
-    </row>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K227" s="27"/>
+    </row>
+    <row r="228" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="16" t="str">
         <f>'Cow Import'!A228</f>
         <v/>
       </c>
-      <c r="B228" s="13"/>
+      <c r="B228" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
@@ -9142,13 +10053,17 @@
       <c r="H228" s="15"/>
       <c r="I228" s="15"/>
       <c r="J228" s="13"/>
-    </row>
-    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K228" s="27"/>
+    </row>
+    <row r="229" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="16" t="str">
         <f>'Cow Import'!A229</f>
         <v/>
       </c>
-      <c r="B229" s="13"/>
+      <c r="B229" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
@@ -9157,13 +10072,17 @@
       <c r="H229" s="15"/>
       <c r="I229" s="15"/>
       <c r="J229" s="13"/>
-    </row>
-    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K229" s="27"/>
+    </row>
+    <row r="230" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="16" t="str">
         <f>'Cow Import'!A230</f>
         <v/>
       </c>
-      <c r="B230" s="13"/>
+      <c r="B230" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
@@ -9172,13 +10091,17 @@
       <c r="H230" s="15"/>
       <c r="I230" s="15"/>
       <c r="J230" s="13"/>
-    </row>
-    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K230" s="27"/>
+    </row>
+    <row r="231" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="16" t="str">
         <f>'Cow Import'!A231</f>
         <v/>
       </c>
-      <c r="B231" s="13"/>
+      <c r="B231" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
@@ -9187,13 +10110,17 @@
       <c r="H231" s="15"/>
       <c r="I231" s="15"/>
       <c r="J231" s="13"/>
-    </row>
-    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K231" s="27"/>
+    </row>
+    <row r="232" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="16" t="str">
         <f>'Cow Import'!A232</f>
         <v/>
       </c>
-      <c r="B232" s="13"/>
+      <c r="B232" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
@@ -9202,13 +10129,17 @@
       <c r="H232" s="15"/>
       <c r="I232" s="15"/>
       <c r="J232" s="13"/>
-    </row>
-    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K232" s="27"/>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="16" t="str">
         <f>'Cow Import'!A233</f>
         <v/>
       </c>
-      <c r="B233" s="13"/>
+      <c r="B233" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
@@ -9217,13 +10148,17 @@
       <c r="H233" s="15"/>
       <c r="I233" s="15"/>
       <c r="J233" s="13"/>
-    </row>
-    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K233" s="27"/>
+    </row>
+    <row r="234" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="16" t="str">
         <f>'Cow Import'!A234</f>
         <v/>
       </c>
-      <c r="B234" s="13"/>
+      <c r="B234" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
@@ -9232,13 +10167,17 @@
       <c r="H234" s="15"/>
       <c r="I234" s="15"/>
       <c r="J234" s="13"/>
-    </row>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K234" s="27"/>
+    </row>
+    <row r="235" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="16" t="str">
         <f>'Cow Import'!A235</f>
         <v/>
       </c>
-      <c r="B235" s="13"/>
+      <c r="B235" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
@@ -9247,13 +10186,17 @@
       <c r="H235" s="15"/>
       <c r="I235" s="15"/>
       <c r="J235" s="13"/>
-    </row>
-    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K235" s="27"/>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="16" t="str">
         <f>'Cow Import'!A236</f>
         <v/>
       </c>
-      <c r="B236" s="13"/>
+      <c r="B236" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
@@ -9262,13 +10205,17 @@
       <c r="H236" s="15"/>
       <c r="I236" s="15"/>
       <c r="J236" s="13"/>
-    </row>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K236" s="27"/>
+    </row>
+    <row r="237" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="16" t="str">
         <f>'Cow Import'!A237</f>
         <v/>
       </c>
-      <c r="B237" s="13"/>
+      <c r="B237" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
@@ -9277,13 +10224,17 @@
       <c r="H237" s="15"/>
       <c r="I237" s="15"/>
       <c r="J237" s="13"/>
-    </row>
-    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K237" s="27"/>
+    </row>
+    <row r="238" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="16" t="str">
         <f>'Cow Import'!A238</f>
         <v/>
       </c>
-      <c r="B238" s="13"/>
+      <c r="B238" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
@@ -9292,13 +10243,17 @@
       <c r="H238" s="15"/>
       <c r="I238" s="15"/>
       <c r="J238" s="13"/>
-    </row>
-    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K238" s="27"/>
+    </row>
+    <row r="239" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="16" t="str">
         <f>'Cow Import'!A239</f>
         <v/>
       </c>
-      <c r="B239" s="13"/>
+      <c r="B239" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
@@ -9307,13 +10262,17 @@
       <c r="H239" s="15"/>
       <c r="I239" s="15"/>
       <c r="J239" s="13"/>
-    </row>
-    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K239" s="27"/>
+    </row>
+    <row r="240" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="16" t="str">
         <f>'Cow Import'!A240</f>
         <v/>
       </c>
-      <c r="B240" s="13"/>
+      <c r="B240" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
@@ -9322,13 +10281,17 @@
       <c r="H240" s="15"/>
       <c r="I240" s="15"/>
       <c r="J240" s="13"/>
-    </row>
-    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K240" s="27"/>
+    </row>
+    <row r="241" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="16" t="str">
         <f>'Cow Import'!A241</f>
         <v/>
       </c>
-      <c r="B241" s="13"/>
+      <c r="B241" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
@@ -9337,13 +10300,17 @@
       <c r="H241" s="15"/>
       <c r="I241" s="15"/>
       <c r="J241" s="13"/>
-    </row>
-    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K241" s="27"/>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="16" t="str">
         <f>'Cow Import'!A242</f>
         <v/>
       </c>
-      <c r="B242" s="13"/>
+      <c r="B242" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
@@ -9352,13 +10319,17 @@
       <c r="H242" s="15"/>
       <c r="I242" s="15"/>
       <c r="J242" s="13"/>
-    </row>
-    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K242" s="27"/>
+    </row>
+    <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="16" t="str">
         <f>'Cow Import'!A243</f>
         <v/>
       </c>
-      <c r="B243" s="13"/>
+      <c r="B243" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
@@ -9367,13 +10338,17 @@
       <c r="H243" s="15"/>
       <c r="I243" s="15"/>
       <c r="J243" s="13"/>
-    </row>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K243" s="27"/>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="16" t="str">
         <f>'Cow Import'!A244</f>
         <v/>
       </c>
-      <c r="B244" s="13"/>
+      <c r="B244" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="E244" s="13"/>
@@ -9382,13 +10357,17 @@
       <c r="H244" s="15"/>
       <c r="I244" s="15"/>
       <c r="J244" s="13"/>
-    </row>
-    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K244" s="27"/>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="16" t="str">
         <f>'Cow Import'!A245</f>
         <v/>
       </c>
-      <c r="B245" s="13"/>
+      <c r="B245" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
@@ -9397,13 +10376,17 @@
       <c r="H245" s="15"/>
       <c r="I245" s="15"/>
       <c r="J245" s="13"/>
-    </row>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K245" s="27"/>
+    </row>
+    <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="16" t="str">
         <f>'Cow Import'!A246</f>
         <v/>
       </c>
-      <c r="B246" s="13"/>
+      <c r="B246" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
       <c r="E246" s="13"/>
@@ -9412,13 +10395,17 @@
       <c r="H246" s="15"/>
       <c r="I246" s="15"/>
       <c r="J246" s="13"/>
-    </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K246" s="27"/>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="16" t="str">
         <f>'Cow Import'!A247</f>
         <v/>
       </c>
-      <c r="B247" s="13"/>
+      <c r="B247" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
@@ -9427,13 +10414,17 @@
       <c r="H247" s="15"/>
       <c r="I247" s="15"/>
       <c r="J247" s="13"/>
-    </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K247" s="27"/>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="16" t="str">
         <f>'Cow Import'!A248</f>
         <v/>
       </c>
-      <c r="B248" s="13"/>
+      <c r="B248" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
@@ -9442,13 +10433,17 @@
       <c r="H248" s="15"/>
       <c r="I248" s="15"/>
       <c r="J248" s="13"/>
-    </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K248" s="27"/>
+    </row>
+    <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="16" t="str">
         <f>'Cow Import'!A249</f>
         <v/>
       </c>
-      <c r="B249" s="13"/>
+      <c r="B249" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="13"/>
@@ -9457,13 +10452,17 @@
       <c r="H249" s="15"/>
       <c r="I249" s="15"/>
       <c r="J249" s="13"/>
-    </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K249" s="27"/>
+    </row>
+    <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="16" t="str">
         <f>'Cow Import'!A250</f>
         <v/>
       </c>
-      <c r="B250" s="13"/>
+      <c r="B250" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="E250" s="13"/>
@@ -9472,13 +10471,17 @@
       <c r="H250" s="15"/>
       <c r="I250" s="15"/>
       <c r="J250" s="13"/>
-    </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K250" s="27"/>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="16" t="str">
         <f>'Cow Import'!A251</f>
         <v/>
       </c>
-      <c r="B251" s="13"/>
+      <c r="B251" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="13"/>
@@ -9487,13 +10490,17 @@
       <c r="H251" s="15"/>
       <c r="I251" s="15"/>
       <c r="J251" s="13"/>
-    </row>
-    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K251" s="27"/>
+    </row>
+    <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="16" t="str">
         <f>'Cow Import'!A252</f>
         <v/>
       </c>
-      <c r="B252" s="13"/>
+      <c r="B252" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
       <c r="E252" s="13"/>
@@ -9502,13 +10509,17 @@
       <c r="H252" s="15"/>
       <c r="I252" s="15"/>
       <c r="J252" s="13"/>
-    </row>
-    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K252" s="27"/>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="16" t="str">
         <f>'Cow Import'!A253</f>
         <v/>
       </c>
-      <c r="B253" s="13"/>
+      <c r="B253" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
@@ -9517,13 +10528,17 @@
       <c r="H253" s="15"/>
       <c r="I253" s="15"/>
       <c r="J253" s="13"/>
-    </row>
-    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K253" s="27"/>
+    </row>
+    <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="16" t="str">
         <f>'Cow Import'!A254</f>
         <v/>
       </c>
-      <c r="B254" s="13"/>
+      <c r="B254" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
@@ -9532,13 +10547,17 @@
       <c r="H254" s="15"/>
       <c r="I254" s="15"/>
       <c r="J254" s="13"/>
-    </row>
-    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K254" s="27"/>
+    </row>
+    <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="16" t="str">
         <f>'Cow Import'!A255</f>
         <v/>
       </c>
-      <c r="B255" s="13"/>
+      <c r="B255" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
@@ -9547,13 +10566,17 @@
       <c r="H255" s="15"/>
       <c r="I255" s="15"/>
       <c r="J255" s="13"/>
-    </row>
-    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K255" s="27"/>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="16" t="str">
         <f>'Cow Import'!A256</f>
         <v/>
       </c>
-      <c r="B256" s="13"/>
+      <c r="B256" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
@@ -9562,13 +10585,17 @@
       <c r="H256" s="15"/>
       <c r="I256" s="15"/>
       <c r="J256" s="13"/>
-    </row>
-    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K256" s="27"/>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="16" t="str">
         <f>'Cow Import'!A257</f>
         <v/>
       </c>
-      <c r="B257" s="13"/>
+      <c r="B257" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
@@ -9577,13 +10604,17 @@
       <c r="H257" s="15"/>
       <c r="I257" s="15"/>
       <c r="J257" s="13"/>
-    </row>
-    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K257" s="27"/>
+    </row>
+    <row r="258" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="16" t="str">
         <f>'Cow Import'!A258</f>
         <v/>
       </c>
-      <c r="B258" s="13"/>
+      <c r="B258" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
@@ -9592,13 +10623,17 @@
       <c r="H258" s="15"/>
       <c r="I258" s="15"/>
       <c r="J258" s="13"/>
-    </row>
-    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K258" s="27"/>
+    </row>
+    <row r="259" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="16" t="str">
         <f>'Cow Import'!A259</f>
         <v/>
       </c>
-      <c r="B259" s="13"/>
+      <c r="B259" s="26" t="str">
+        <f t="shared" ref="B259:B300" si="4">IF(A259&lt;&gt;"", "good", "")</f>
+        <v/>
+      </c>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
@@ -9607,13 +10642,17 @@
       <c r="H259" s="15"/>
       <c r="I259" s="15"/>
       <c r="J259" s="13"/>
-    </row>
-    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K259" s="27"/>
+    </row>
+    <row r="260" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="16" t="str">
         <f>'Cow Import'!A260</f>
         <v/>
       </c>
-      <c r="B260" s="13"/>
+      <c r="B260" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
@@ -9622,13 +10661,17 @@
       <c r="H260" s="15"/>
       <c r="I260" s="15"/>
       <c r="J260" s="13"/>
-    </row>
-    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K260" s="27"/>
+    </row>
+    <row r="261" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="16" t="str">
         <f>'Cow Import'!A261</f>
         <v/>
       </c>
-      <c r="B261" s="13"/>
+      <c r="B261" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
@@ -9637,13 +10680,17 @@
       <c r="H261" s="15"/>
       <c r="I261" s="15"/>
       <c r="J261" s="13"/>
-    </row>
-    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K261" s="27"/>
+    </row>
+    <row r="262" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="16" t="str">
         <f>'Cow Import'!A262</f>
         <v/>
       </c>
-      <c r="B262" s="13"/>
+      <c r="B262" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
       <c r="E262" s="13"/>
@@ -9652,13 +10699,17 @@
       <c r="H262" s="15"/>
       <c r="I262" s="15"/>
       <c r="J262" s="13"/>
-    </row>
-    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K262" s="27"/>
+    </row>
+    <row r="263" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="16" t="str">
         <f>'Cow Import'!A263</f>
         <v/>
       </c>
-      <c r="B263" s="13"/>
+      <c r="B263" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
@@ -9667,13 +10718,17 @@
       <c r="H263" s="15"/>
       <c r="I263" s="15"/>
       <c r="J263" s="13"/>
-    </row>
-    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K263" s="27"/>
+    </row>
+    <row r="264" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="16" t="str">
         <f>'Cow Import'!A264</f>
         <v/>
       </c>
-      <c r="B264" s="13"/>
+      <c r="B264" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
@@ -9682,13 +10737,17 @@
       <c r="H264" s="15"/>
       <c r="I264" s="15"/>
       <c r="J264" s="13"/>
-    </row>
-    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K264" s="27"/>
+    </row>
+    <row r="265" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="16" t="str">
         <f>'Cow Import'!A265</f>
         <v/>
       </c>
-      <c r="B265" s="13"/>
+      <c r="B265" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
@@ -9697,13 +10756,17 @@
       <c r="H265" s="15"/>
       <c r="I265" s="15"/>
       <c r="J265" s="13"/>
-    </row>
-    <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K265" s="27"/>
+    </row>
+    <row r="266" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="16" t="str">
         <f>'Cow Import'!A266</f>
         <v/>
       </c>
-      <c r="B266" s="13"/>
+      <c r="B266" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
@@ -9712,13 +10775,17 @@
       <c r="H266" s="15"/>
       <c r="I266" s="15"/>
       <c r="J266" s="13"/>
-    </row>
-    <row r="267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K266" s="27"/>
+    </row>
+    <row r="267" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="16" t="str">
         <f>'Cow Import'!A267</f>
         <v/>
       </c>
-      <c r="B267" s="13"/>
+      <c r="B267" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
@@ -9727,13 +10794,17 @@
       <c r="H267" s="15"/>
       <c r="I267" s="15"/>
       <c r="J267" s="13"/>
-    </row>
-    <row r="268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K267" s="27"/>
+    </row>
+    <row r="268" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="16" t="str">
         <f>'Cow Import'!A268</f>
         <v/>
       </c>
-      <c r="B268" s="13"/>
+      <c r="B268" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
       <c r="E268" s="13"/>
@@ -9742,13 +10813,17 @@
       <c r="H268" s="15"/>
       <c r="I268" s="15"/>
       <c r="J268" s="13"/>
-    </row>
-    <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K268" s="27"/>
+    </row>
+    <row r="269" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="16" t="str">
         <f>'Cow Import'!A269</f>
         <v/>
       </c>
-      <c r="B269" s="13"/>
+      <c r="B269" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
@@ -9757,13 +10832,17 @@
       <c r="H269" s="15"/>
       <c r="I269" s="15"/>
       <c r="J269" s="13"/>
-    </row>
-    <row r="270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K269" s="27"/>
+    </row>
+    <row r="270" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="16" t="str">
         <f>'Cow Import'!A270</f>
         <v/>
       </c>
-      <c r="B270" s="13"/>
+      <c r="B270" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
@@ -9772,13 +10851,17 @@
       <c r="H270" s="15"/>
       <c r="I270" s="15"/>
       <c r="J270" s="13"/>
-    </row>
-    <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K270" s="27"/>
+    </row>
+    <row r="271" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="16" t="str">
         <f>'Cow Import'!A271</f>
         <v/>
       </c>
-      <c r="B271" s="13"/>
+      <c r="B271" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
@@ -9787,13 +10870,17 @@
       <c r="H271" s="15"/>
       <c r="I271" s="15"/>
       <c r="J271" s="13"/>
-    </row>
-    <row r="272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K271" s="27"/>
+    </row>
+    <row r="272" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="16" t="str">
         <f>'Cow Import'!A272</f>
         <v/>
       </c>
-      <c r="B272" s="13"/>
+      <c r="B272" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
@@ -9802,13 +10889,17 @@
       <c r="H272" s="15"/>
       <c r="I272" s="15"/>
       <c r="J272" s="13"/>
-    </row>
-    <row r="273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K272" s="27"/>
+    </row>
+    <row r="273" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="16" t="str">
         <f>'Cow Import'!A273</f>
         <v/>
       </c>
-      <c r="B273" s="13"/>
+      <c r="B273" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
@@ -9817,13 +10908,17 @@
       <c r="H273" s="15"/>
       <c r="I273" s="15"/>
       <c r="J273" s="13"/>
-    </row>
-    <row r="274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K273" s="27"/>
+    </row>
+    <row r="274" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="16" t="str">
         <f>'Cow Import'!A274</f>
         <v/>
       </c>
-      <c r="B274" s="13"/>
+      <c r="B274" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
       <c r="E274" s="13"/>
@@ -9832,13 +10927,17 @@
       <c r="H274" s="15"/>
       <c r="I274" s="15"/>
       <c r="J274" s="13"/>
-    </row>
-    <row r="275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K274" s="27"/>
+    </row>
+    <row r="275" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="16" t="str">
         <f>'Cow Import'!A275</f>
         <v/>
       </c>
-      <c r="B275" s="13"/>
+      <c r="B275" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="E275" s="13"/>
@@ -9847,13 +10946,17 @@
       <c r="H275" s="15"/>
       <c r="I275" s="15"/>
       <c r="J275" s="13"/>
-    </row>
-    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K275" s="27"/>
+    </row>
+    <row r="276" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="16" t="str">
         <f>'Cow Import'!A276</f>
         <v/>
       </c>
-      <c r="B276" s="13"/>
+      <c r="B276" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
       <c r="E276" s="13"/>
@@ -9862,13 +10965,17 @@
       <c r="H276" s="15"/>
       <c r="I276" s="15"/>
       <c r="J276" s="13"/>
-    </row>
-    <row r="277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K276" s="27"/>
+    </row>
+    <row r="277" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="16" t="str">
         <f>'Cow Import'!A277</f>
         <v/>
       </c>
-      <c r="B277" s="13"/>
+      <c r="B277" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
       <c r="E277" s="13"/>
@@ -9877,13 +10984,17 @@
       <c r="H277" s="15"/>
       <c r="I277" s="15"/>
       <c r="J277" s="13"/>
-    </row>
-    <row r="278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K277" s="27"/>
+    </row>
+    <row r="278" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="16" t="str">
         <f>'Cow Import'!A278</f>
         <v/>
       </c>
-      <c r="B278" s="13"/>
+      <c r="B278" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
@@ -9892,13 +11003,17 @@
       <c r="H278" s="15"/>
       <c r="I278" s="15"/>
       <c r="J278" s="13"/>
-    </row>
-    <row r="279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K278" s="27"/>
+    </row>
+    <row r="279" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="16" t="str">
         <f>'Cow Import'!A279</f>
         <v/>
       </c>
-      <c r="B279" s="13"/>
+      <c r="B279" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
@@ -9907,13 +11022,17 @@
       <c r="H279" s="15"/>
       <c r="I279" s="15"/>
       <c r="J279" s="13"/>
-    </row>
-    <row r="280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K279" s="27"/>
+    </row>
+    <row r="280" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="16" t="str">
         <f>'Cow Import'!A280</f>
         <v/>
       </c>
-      <c r="B280" s="13"/>
+      <c r="B280" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
@@ -9922,13 +11041,17 @@
       <c r="H280" s="15"/>
       <c r="I280" s="15"/>
       <c r="J280" s="13"/>
-    </row>
-    <row r="281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K280" s="27"/>
+    </row>
+    <row r="281" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="16" t="str">
         <f>'Cow Import'!A281</f>
         <v/>
       </c>
-      <c r="B281" s="13"/>
+      <c r="B281" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
@@ -9937,13 +11060,17 @@
       <c r="H281" s="15"/>
       <c r="I281" s="15"/>
       <c r="J281" s="13"/>
-    </row>
-    <row r="282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K281" s="27"/>
+    </row>
+    <row r="282" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="16" t="str">
         <f>'Cow Import'!A282</f>
         <v/>
       </c>
-      <c r="B282" s="13"/>
+      <c r="B282" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
@@ -9952,13 +11079,17 @@
       <c r="H282" s="15"/>
       <c r="I282" s="15"/>
       <c r="J282" s="13"/>
-    </row>
-    <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K282" s="27"/>
+    </row>
+    <row r="283" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="16" t="str">
         <f>'Cow Import'!A283</f>
         <v/>
       </c>
-      <c r="B283" s="13"/>
+      <c r="B283" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
@@ -9967,13 +11098,17 @@
       <c r="H283" s="15"/>
       <c r="I283" s="15"/>
       <c r="J283" s="13"/>
-    </row>
-    <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K283" s="27"/>
+    </row>
+    <row r="284" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="16" t="str">
         <f>'Cow Import'!A284</f>
         <v/>
       </c>
-      <c r="B284" s="13"/>
+      <c r="B284" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
@@ -9982,13 +11117,17 @@
       <c r="H284" s="15"/>
       <c r="I284" s="15"/>
       <c r="J284" s="13"/>
-    </row>
-    <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K284" s="27"/>
+    </row>
+    <row r="285" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="16" t="str">
         <f>'Cow Import'!A285</f>
         <v/>
       </c>
-      <c r="B285" s="13"/>
+      <c r="B285" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
@@ -9997,13 +11136,17 @@
       <c r="H285" s="15"/>
       <c r="I285" s="15"/>
       <c r="J285" s="13"/>
-    </row>
-    <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K285" s="27"/>
+    </row>
+    <row r="286" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="16" t="str">
         <f>'Cow Import'!A286</f>
         <v/>
       </c>
-      <c r="B286" s="13"/>
+      <c r="B286" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="E286" s="13"/>
@@ -10012,13 +11155,17 @@
       <c r="H286" s="15"/>
       <c r="I286" s="15"/>
       <c r="J286" s="13"/>
-    </row>
-    <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K286" s="27"/>
+    </row>
+    <row r="287" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="16" t="str">
         <f>'Cow Import'!A287</f>
         <v/>
       </c>
-      <c r="B287" s="13"/>
+      <c r="B287" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="13"/>
@@ -10027,13 +11174,17 @@
       <c r="H287" s="15"/>
       <c r="I287" s="15"/>
       <c r="J287" s="13"/>
-    </row>
-    <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K287" s="27"/>
+    </row>
+    <row r="288" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="16" t="str">
         <f>'Cow Import'!A288</f>
         <v/>
       </c>
-      <c r="B288" s="13"/>
+      <c r="B288" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="E288" s="13"/>
@@ -10042,13 +11193,17 @@
       <c r="H288" s="15"/>
       <c r="I288" s="15"/>
       <c r="J288" s="13"/>
-    </row>
-    <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K288" s="27"/>
+    </row>
+    <row r="289" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="16" t="str">
         <f>'Cow Import'!A289</f>
         <v/>
       </c>
-      <c r="B289" s="13"/>
+      <c r="B289" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13"/>
@@ -10057,13 +11212,17 @@
       <c r="H289" s="15"/>
       <c r="I289" s="15"/>
       <c r="J289" s="13"/>
-    </row>
-    <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K289" s="27"/>
+    </row>
+    <row r="290" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="16" t="str">
         <f>'Cow Import'!A290</f>
         <v/>
       </c>
-      <c r="B290" s="13"/>
+      <c r="B290" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
@@ -10072,13 +11231,17 @@
       <c r="H290" s="15"/>
       <c r="I290" s="15"/>
       <c r="J290" s="13"/>
-    </row>
-    <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K290" s="27"/>
+    </row>
+    <row r="291" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="16" t="str">
         <f>'Cow Import'!A291</f>
         <v/>
       </c>
-      <c r="B291" s="13"/>
+      <c r="B291" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13"/>
@@ -10087,13 +11250,17 @@
       <c r="H291" s="15"/>
       <c r="I291" s="15"/>
       <c r="J291" s="13"/>
-    </row>
-    <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K291" s="27"/>
+    </row>
+    <row r="292" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="16" t="str">
         <f>'Cow Import'!A292</f>
         <v/>
       </c>
-      <c r="B292" s="13"/>
+      <c r="B292" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
       <c r="E292" s="13"/>
@@ -10102,13 +11269,17 @@
       <c r="H292" s="15"/>
       <c r="I292" s="15"/>
       <c r="J292" s="13"/>
-    </row>
-    <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K292" s="27"/>
+    </row>
+    <row r="293" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="16" t="str">
         <f>'Cow Import'!A293</f>
         <v/>
       </c>
-      <c r="B293" s="13"/>
+      <c r="B293" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
       <c r="E293" s="13"/>
@@ -10117,13 +11288,17 @@
       <c r="H293" s="15"/>
       <c r="I293" s="15"/>
       <c r="J293" s="13"/>
-    </row>
-    <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K293" s="27"/>
+    </row>
+    <row r="294" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="16" t="str">
         <f>'Cow Import'!A294</f>
         <v/>
       </c>
-      <c r="B294" s="13"/>
+      <c r="B294" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
@@ -10132,13 +11307,17 @@
       <c r="H294" s="15"/>
       <c r="I294" s="15"/>
       <c r="J294" s="13"/>
-    </row>
-    <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K294" s="27"/>
+    </row>
+    <row r="295" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="16" t="str">
         <f>'Cow Import'!A295</f>
         <v/>
       </c>
-      <c r="B295" s="13"/>
+      <c r="B295" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
       <c r="E295" s="13"/>
@@ -10147,13 +11326,17 @@
       <c r="H295" s="15"/>
       <c r="I295" s="15"/>
       <c r="J295" s="13"/>
-    </row>
-    <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K295" s="27"/>
+    </row>
+    <row r="296" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="16" t="str">
         <f>'Cow Import'!A296</f>
         <v/>
       </c>
-      <c r="B296" s="13"/>
+      <c r="B296" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
       <c r="E296" s="13"/>
@@ -10162,13 +11345,17 @@
       <c r="H296" s="15"/>
       <c r="I296" s="15"/>
       <c r="J296" s="13"/>
-    </row>
-    <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K296" s="27"/>
+    </row>
+    <row r="297" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="16" t="str">
         <f>'Cow Import'!A297</f>
         <v/>
       </c>
-      <c r="B297" s="13"/>
+      <c r="B297" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
       <c r="E297" s="13"/>
@@ -10177,13 +11364,17 @@
       <c r="H297" s="15"/>
       <c r="I297" s="15"/>
       <c r="J297" s="13"/>
-    </row>
-    <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K297" s="27"/>
+    </row>
+    <row r="298" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="16" t="str">
         <f>'Cow Import'!A298</f>
         <v/>
       </c>
-      <c r="B298" s="13"/>
+      <c r="B298" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
       <c r="E298" s="13"/>
@@ -10192,13 +11383,17 @@
       <c r="H298" s="15"/>
       <c r="I298" s="15"/>
       <c r="J298" s="13"/>
-    </row>
-    <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K298" s="27"/>
+    </row>
+    <row r="299" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="16" t="str">
         <f>'Cow Import'!A299</f>
         <v/>
       </c>
-      <c r="B299" s="13"/>
+      <c r="B299" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
       <c r="E299" s="13"/>
@@ -10207,13 +11402,17 @@
       <c r="H299" s="15"/>
       <c r="I299" s="15"/>
       <c r="J299" s="13"/>
-    </row>
-    <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K299" s="27"/>
+    </row>
+    <row r="300" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="16" t="str">
         <f>'Cow Import'!A300</f>
         <v/>
       </c>
-      <c r="B300" s="13"/>
+      <c r="B300" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
       <c r="E300" s="13"/>
@@ -10222,8 +11421,9 @@
       <c r="H300" s="15"/>
       <c r="I300" s="15"/>
       <c r="J300" s="13"/>
-    </row>
-    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K300" s="27"/>
+    </row>
+    <row r="301" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -10232,7 +11432,7 @@
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -10241,7 +11441,7 @@
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -10250,7 +11450,7 @@
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -16524,7 +17724,7 @@
       <c r="I1000" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+f6dOzums3e9r45lSxC1XP4+r861fJd/Z7xvBFW1Va0qscjh67HpzVHs9AgjCkXF2PfI+Uz0xGwhNq7R2g/NSw==" saltValue="rGX6aLw4yKCerbJLsUSnVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fb0hhNXAmdsdG+r4YuSgggCg/FEWyFhleKnQJ8azlxY8nvAcDuENz4ovss4PTOSQGBSFUI/lBRfxmiK46BUaLg==" saltValue="0vw604Rkp2/DnDG+ZZCEkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:J300">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND($A2&lt;&gt;"", COUNTA($B2:$J2)&lt;COLUMNS($B2:$J2))</formula>
@@ -16536,18 +17736,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>HealthRecordStatus!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B300</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F69FA2-B2CA-CC45-ABCD-41F7553A55B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F9941B-63A7-5640-9362-9879295179F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="lIlxBXX1CbpRZCSCnC96nvm+P3RrPstgPhz1dcT5R19hf6UGIy/8lMs6pN9Ze6KEEDW1Nk/8TMZlpHvbtWKTHQ==" workbookSaltValue="No3GJBWLeJbFaIq5cPuZUA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -320,11 +320,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -333,7 +340,77 @@
         <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
@@ -349,12 +426,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -551,25 +625,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="totalRow" dxfId="26"/>
+      <tableStyleElement type="firstColumn" dxfId="25"/>
+      <tableStyleElement type="lastColumn" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="9"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="6"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="5"/>
-      <tableStyleElement type="pageFieldValues" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
+      <tableStyleElement type="pageFieldValues" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -815,15 +889,15 @@
   </sheetPr>
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="8"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="9"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="9"/>
     <col min="8" max="8" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -831,23 +905,23 @@
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>8</v>
@@ -855,4815 +929,4805 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="str">
-        <f>IF(B2&lt;&gt;"",UPPER(LEFT(B2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B2,B2),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="22"/>
+        <f>IF(C2&lt;&gt;"",UPPER(LEFT(C2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C2,C2),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B2" s="24" t="str">
+        <f t="shared" ref="B2:B66" si="0">IF(C2&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="24" t="str">
-        <f>IF(B2&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
+      <c r="G2" s="22"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="str">
-        <f>IF(B3&lt;&gt;"",UPPER(LEFT(B3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B3,B3),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="22"/>
+        <f>IF(C3&lt;&gt;"",UPPER(LEFT(C3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C3,C3),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B3" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="24" t="str">
-        <f t="shared" ref="G3:G65" si="0">IF(B3&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
+      <c r="G3" s="22"/>
       <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="str">
-        <f>IF(B4&lt;&gt;"",UPPER(LEFT(B4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B4,B4),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="22"/>
+        <f>IF(C4&lt;&gt;"",UPPER(LEFT(C4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C4,C4),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B4" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G4" s="22"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="str">
-        <f>IF(B5&lt;&gt;"",UPPER(LEFT(B5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B5,B5),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="22"/>
+        <f>IF(C5&lt;&gt;"",UPPER(LEFT(C5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C5,C5),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B5" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G5" s="22"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="str">
-        <f>IF(B6&lt;&gt;"",UPPER(LEFT(B6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B6,B6),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22"/>
+        <f>IF(C6&lt;&gt;"",UPPER(LEFT(C6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C6,C6),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="str">
-        <f>IF(B7&lt;&gt;"",UPPER(LEFT(B7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B7,B7),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="22"/>
+        <f>IF(C7&lt;&gt;"",UPPER(LEFT(C7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C7,C7),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="25"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="str">
-        <f>IF(B8&lt;&gt;"",UPPER(LEFT(B8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B8,B8),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="22"/>
+        <f>IF(C8&lt;&gt;"",UPPER(LEFT(C8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C8,C8),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="str">
-        <f>IF(B9&lt;&gt;"",UPPER(LEFT(B9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B9,B9),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="22"/>
+        <f>IF(C9&lt;&gt;"",UPPER(LEFT(C9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C9,C9),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G9" s="22"/>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="str">
-        <f>IF(B10&lt;&gt;"",UPPER(LEFT(B10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B10,B10),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="22"/>
+        <f>IF(C10&lt;&gt;"",UPPER(LEFT(C10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C10,C10),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="str">
-        <f>IF(B11&lt;&gt;"",UPPER(LEFT(B11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B11,B11),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22"/>
+        <f>IF(C11&lt;&gt;"",UPPER(LEFT(C11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C11,C11),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G11" s="22"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="str">
-        <f>IF(B12&lt;&gt;"",UPPER(LEFT(B12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B12,B12),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24" t="str">
+        <f>IF(C12&lt;&gt;"",UPPER(LEFT(C12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C12,C12),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="str">
-        <f>IF(B13&lt;&gt;"",UPPER(LEFT(B13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B13,B13),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24" t="str">
+        <f>IF(C13&lt;&gt;"",UPPER(LEFT(C13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C13,C13),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="str">
-        <f>IF(B14&lt;&gt;"",UPPER(LEFT(B14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B14,B14),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24" t="str">
+        <f>IF(C14&lt;&gt;"",UPPER(LEFT(C14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C14,C14),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="str">
-        <f>IF(B15&lt;&gt;"",UPPER(LEFT(B15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B15,B15),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24" t="str">
+        <f>IF(C15&lt;&gt;"",UPPER(LEFT(C15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C15,C15),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="str">
-        <f>IF(B16&lt;&gt;"",UPPER(LEFT(B16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B16,B16),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24" t="str">
+        <f>IF(C16&lt;&gt;"",UPPER(LEFT(C16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C16,C16),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="str">
-        <f>IF(B17&lt;&gt;"",UPPER(LEFT(B17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B17,B17),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24" t="str">
+        <f>IF(C17&lt;&gt;"",UPPER(LEFT(C17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C17,C17),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="str">
-        <f>IF(B18&lt;&gt;"",UPPER(LEFT(B18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B18,B18),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24" t="str">
+        <f>IF(C18&lt;&gt;"",UPPER(LEFT(C18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C18,C18),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="str">
-        <f>IF(B19&lt;&gt;"",UPPER(LEFT(B19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B19,B19),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24" t="str">
+        <f>IF(C19&lt;&gt;"",UPPER(LEFT(C19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C19,C19),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="str">
-        <f>IF(B20&lt;&gt;"",UPPER(LEFT(B20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B20,B20),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24" t="str">
+        <f>IF(C20&lt;&gt;"",UPPER(LEFT(C20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C20,C20),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="str">
-        <f>IF(B21&lt;&gt;"",UPPER(LEFT(B21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B21,B21),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24" t="str">
+        <f>IF(C21&lt;&gt;"",UPPER(LEFT(C21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C21,C21),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="str">
-        <f>IF(B22&lt;&gt;"",UPPER(LEFT(B22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B22,B22),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24" t="str">
+        <f>IF(C22&lt;&gt;"",UPPER(LEFT(C22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C22,C22),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="str">
-        <f>IF(B23&lt;&gt;"",UPPER(LEFT(B23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B23,B23),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24" t="str">
+        <f>IF(C23&lt;&gt;"",UPPER(LEFT(C23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C23,C23),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="str">
-        <f>IF(B24&lt;&gt;"",UPPER(LEFT(B24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B24,B24),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24" t="str">
+        <f>IF(C24&lt;&gt;"",UPPER(LEFT(C24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C24,C24),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="str">
-        <f>IF(B25&lt;&gt;"",UPPER(LEFT(B25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B25,B25),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24" t="str">
+        <f>IF(C25&lt;&gt;"",UPPER(LEFT(C25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C25,C25),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="str">
-        <f>IF(B26&lt;&gt;"",UPPER(LEFT(B26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B26,B26),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24" t="str">
+        <f>IF(C26&lt;&gt;"",UPPER(LEFT(C26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C26,C26),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="str">
-        <f>IF(B27&lt;&gt;"",UPPER(LEFT(B27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B27,B27),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24" t="str">
+        <f>IF(C27&lt;&gt;"",UPPER(LEFT(C27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C27,C27),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="str">
-        <f>IF(B28&lt;&gt;"",UPPER(LEFT(B28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B28,B28),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24" t="str">
+        <f>IF(C28&lt;&gt;"",UPPER(LEFT(C28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C28,C28),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="str">
-        <f>IF(B29&lt;&gt;"",UPPER(LEFT(B29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B29,B29),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24" t="str">
+        <f>IF(C29&lt;&gt;"",UPPER(LEFT(C29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C29,C29),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="str">
-        <f>IF(B30&lt;&gt;"",UPPER(LEFT(B30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B30,B30),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24" t="str">
+        <f>IF(C30&lt;&gt;"",UPPER(LEFT(C30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C30,C30),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="str">
-        <f>IF(B31&lt;&gt;"",UPPER(LEFT(B31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B31,B31),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24" t="str">
+        <f>IF(C31&lt;&gt;"",UPPER(LEFT(C31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C31,C31),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="str">
-        <f>IF(B32&lt;&gt;"",UPPER(LEFT(B32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B32,B32),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24" t="str">
+        <f>IF(C32&lt;&gt;"",UPPER(LEFT(C32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C32,C32),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="str">
-        <f>IF(B33&lt;&gt;"",UPPER(LEFT(B33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B33,B33),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="24" t="str">
+        <f>IF(C33&lt;&gt;"",UPPER(LEFT(C33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C33,C33),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="str">
-        <f>IF(B34&lt;&gt;"",UPPER(LEFT(B34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B34,B34),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="24" t="str">
+        <f>IF(C34&lt;&gt;"",UPPER(LEFT(C34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C34,C34),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="str">
-        <f>IF(B35&lt;&gt;"",UPPER(LEFT(B35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B35,B35),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24" t="str">
+        <f>IF(C35&lt;&gt;"",UPPER(LEFT(C35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C35,C35),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="str">
-        <f>IF(B36&lt;&gt;"",UPPER(LEFT(B36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B36,B36),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="24" t="str">
+        <f>IF(C36&lt;&gt;"",UPPER(LEFT(C36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C36,C36),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21" t="str">
-        <f>IF(B37&lt;&gt;"",UPPER(LEFT(B37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B37,B37),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="24" t="str">
+        <f>IF(C37&lt;&gt;"",UPPER(LEFT(C37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C37,C37),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="str">
-        <f>IF(B38&lt;&gt;"",UPPER(LEFT(B38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B38,B38),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="24" t="str">
+        <f>IF(C38&lt;&gt;"",UPPER(LEFT(C38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C38,C38),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="str">
-        <f>IF(B39&lt;&gt;"",UPPER(LEFT(B39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B39,B39),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="24" t="str">
+        <f>IF(C39&lt;&gt;"",UPPER(LEFT(C39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C39,C39),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21" t="str">
-        <f>IF(B40&lt;&gt;"",UPPER(LEFT(B40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B40,B40),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="24" t="str">
+        <f>IF(C40&lt;&gt;"",UPPER(LEFT(C40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C40,C40),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21" t="str">
-        <f>IF(B41&lt;&gt;"",UPPER(LEFT(B41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B41,B41),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="24" t="str">
+        <f>IF(C41&lt;&gt;"",UPPER(LEFT(C41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C41,C41),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21" t="str">
-        <f>IF(B42&lt;&gt;"",UPPER(LEFT(B42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B42,B42),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="24" t="str">
+        <f>IF(C42&lt;&gt;"",UPPER(LEFT(C42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C42,C42),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21" t="str">
-        <f>IF(B43&lt;&gt;"",UPPER(LEFT(B43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B43,B43),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="24" t="str">
+        <f>IF(C43&lt;&gt;"",UPPER(LEFT(C43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C43,C43),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21" t="str">
-        <f>IF(B44&lt;&gt;"",UPPER(LEFT(B44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B44,B44),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="24" t="str">
+        <f>IF(C44&lt;&gt;"",UPPER(LEFT(C44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C44,C44),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21" t="str">
-        <f>IF(B45&lt;&gt;"",UPPER(LEFT(B45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B45,B45),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="24" t="str">
+        <f>IF(C45&lt;&gt;"",UPPER(LEFT(C45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C45,C45),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="str">
-        <f>IF(B46&lt;&gt;"",UPPER(LEFT(B46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B46,B46),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="24" t="str">
+        <f>IF(C46&lt;&gt;"",UPPER(LEFT(C46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C46,C46),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21" t="str">
-        <f>IF(B47&lt;&gt;"",UPPER(LEFT(B47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B47,B47),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="24" t="str">
+        <f>IF(C47&lt;&gt;"",UPPER(LEFT(C47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C47,C47),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21" t="str">
-        <f>IF(B48&lt;&gt;"",UPPER(LEFT(B48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B48,B48),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="24" t="str">
+        <f>IF(C48&lt;&gt;"",UPPER(LEFT(C48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C48,C48),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="str">
-        <f>IF(B49&lt;&gt;"",UPPER(LEFT(B49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B49,B49),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="24" t="str">
+        <f>IF(C49&lt;&gt;"",UPPER(LEFT(C49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C49,C49),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21" t="str">
-        <f>IF(B50&lt;&gt;"",UPPER(LEFT(B50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B50,B50),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="24" t="str">
+        <f>IF(C50&lt;&gt;"",UPPER(LEFT(C50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C50,C50),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="str">
-        <f>IF(B51&lt;&gt;"",UPPER(LEFT(B51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B51,B51),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="24" t="str">
+        <f>IF(C51&lt;&gt;"",UPPER(LEFT(C51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C51,C51),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21" t="str">
-        <f>IF(B52&lt;&gt;"",UPPER(LEFT(B52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B52,B52),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="24" t="str">
+        <f>IF(C52&lt;&gt;"",UPPER(LEFT(C52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C52,C52),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="21" t="str">
-        <f>IF(B53&lt;&gt;"",UPPER(LEFT(B53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B53,B53),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="24" t="str">
+        <f>IF(C53&lt;&gt;"",UPPER(LEFT(C53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C53,C53),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="str">
-        <f>IF(B54&lt;&gt;"",UPPER(LEFT(B54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B54,B54),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="24" t="str">
+        <f>IF(C54&lt;&gt;"",UPPER(LEFT(C54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C54,C54),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21" t="str">
-        <f>IF(B55&lt;&gt;"",UPPER(LEFT(B55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B55,B55),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="24" t="str">
+        <f>IF(C55&lt;&gt;"",UPPER(LEFT(C55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C55,C55),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="21" t="str">
-        <f>IF(B56&lt;&gt;"",UPPER(LEFT(B56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B56,B56),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="24" t="str">
+        <f>IF(C56&lt;&gt;"",UPPER(LEFT(C56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C56,C56),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21" t="str">
-        <f>IF(B57&lt;&gt;"",UPPER(LEFT(B57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B57,B57),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="24" t="str">
+        <f>IF(C57&lt;&gt;"",UPPER(LEFT(C57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C57,C57),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="str">
-        <f>IF(B58&lt;&gt;"",UPPER(LEFT(B58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B58,B58),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="24" t="str">
+        <f>IF(C58&lt;&gt;"",UPPER(LEFT(C58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C58,C58),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="21" t="str">
-        <f>IF(B59&lt;&gt;"",UPPER(LEFT(B59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B59,B59),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="24" t="str">
+        <f>IF(C59&lt;&gt;"",UPPER(LEFT(C59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C59,C59),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="25"/>
       <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="21" t="str">
-        <f>IF(B60&lt;&gt;"",UPPER(LEFT(B60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B60,B60),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="24" t="str">
+        <f>IF(C60&lt;&gt;"",UPPER(LEFT(C60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C60,C60),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="str">
-        <f>IF(B61&lt;&gt;"",UPPER(LEFT(B61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B61,B61),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="24" t="str">
+        <f>IF(C61&lt;&gt;"",UPPER(LEFT(C61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C61,C61),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B61" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="21" t="str">
-        <f>IF(B62&lt;&gt;"",UPPER(LEFT(B62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B62,B62),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="24" t="str">
+        <f>IF(C62&lt;&gt;"",UPPER(LEFT(C62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C62,C62),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B62" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="21" t="str">
-        <f>IF(B63&lt;&gt;"",UPPER(LEFT(B63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B63,B63),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="24" t="str">
+        <f>IF(C63&lt;&gt;"",UPPER(LEFT(C63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C63,C63),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="21" t="str">
-        <f>IF(B64&lt;&gt;"",UPPER(LEFT(B64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B64,B64),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="24" t="str">
+        <f>IF(C64&lt;&gt;"",UPPER(LEFT(C64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C64,C64),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B64" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="25"/>
       <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="21" t="str">
-        <f>IF(B65&lt;&gt;"",UPPER(LEFT(B65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B65,B65),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="24" t="str">
+        <f>IF(C65&lt;&gt;"",UPPER(LEFT(C65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C65,C65),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B65" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="21" t="str">
-        <f>IF(B66&lt;&gt;"",UPPER(LEFT(B66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B66,B66),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="24" t="str">
-        <f t="shared" ref="G66:G129" si="1">IF(B66&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
+        <f>IF(C66&lt;&gt;"",UPPER(LEFT(C66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C66,C66),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B66" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="str">
-        <f>IF(B67&lt;&gt;"",UPPER(LEFT(B67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B67,B67),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f>IF(C67&lt;&gt;"",UPPER(LEFT(C67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C67,C67),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="24" t="str">
+        <f t="shared" ref="B67:B130" si="1">IF(C67&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="21" t="str">
-        <f>IF(B68&lt;&gt;"",UPPER(LEFT(B68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B68,B68),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="24" t="str">
+        <f>IF(C68&lt;&gt;"",UPPER(LEFT(C68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C68,C68),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B68" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="25"/>
       <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="21" t="str">
-        <f>IF(B69&lt;&gt;"",UPPER(LEFT(B69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B69,B69),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="24" t="str">
+        <f>IF(C69&lt;&gt;"",UPPER(LEFT(C69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C69,C69),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B69" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="str">
-        <f>IF(B70&lt;&gt;"",UPPER(LEFT(B70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B70,B70),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="24" t="str">
+        <f>IF(C70&lt;&gt;"",UPPER(LEFT(C70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C70,C70),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B70" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="21" t="str">
-        <f>IF(B71&lt;&gt;"",UPPER(LEFT(B71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B71,B71),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="24" t="str">
+        <f>IF(C71&lt;&gt;"",UPPER(LEFT(C71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C71,C71),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B71" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="str">
-        <f>IF(B72&lt;&gt;"",UPPER(LEFT(B72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B72,B72),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="24" t="str">
+        <f>IF(C72&lt;&gt;"",UPPER(LEFT(C72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C72,C72),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B72" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="21" t="str">
-        <f>IF(B73&lt;&gt;"",UPPER(LEFT(B73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B73,B73),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="24" t="str">
+        <f>IF(C73&lt;&gt;"",UPPER(LEFT(C73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C73,C73),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B73" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="21" t="str">
-        <f>IF(B74&lt;&gt;"",UPPER(LEFT(B74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B74,B74),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="24" t="str">
+        <f>IF(C74&lt;&gt;"",UPPER(LEFT(C74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C74,C74),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B74" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="21" t="str">
-        <f>IF(B75&lt;&gt;"",UPPER(LEFT(B75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B75,B75),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="24" t="str">
+        <f>IF(C75&lt;&gt;"",UPPER(LEFT(C75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C75,C75),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B75" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="21" t="str">
-        <f>IF(B76&lt;&gt;"",UPPER(LEFT(B76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B76,B76),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="24" t="str">
+        <f>IF(C76&lt;&gt;"",UPPER(LEFT(C76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C76,C76),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B76" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="21" t="str">
-        <f>IF(B77&lt;&gt;"",UPPER(LEFT(B77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B77,B77),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="24" t="str">
+        <f>IF(C77&lt;&gt;"",UPPER(LEFT(C77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C77,C77),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B77" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="25"/>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="21" t="str">
-        <f>IF(B78&lt;&gt;"",UPPER(LEFT(B78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B78,B78),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="24" t="str">
+        <f>IF(C78&lt;&gt;"",UPPER(LEFT(C78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C78,C78),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B78" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="21" t="str">
-        <f>IF(B79&lt;&gt;"",UPPER(LEFT(B79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B79,B79),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="24" t="str">
+        <f>IF(C79&lt;&gt;"",UPPER(LEFT(C79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C79,C79),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B79" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="21" t="str">
-        <f>IF(B80&lt;&gt;"",UPPER(LEFT(B80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B80,B80),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="24" t="str">
+        <f>IF(C80&lt;&gt;"",UPPER(LEFT(C80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C80,C80),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B80" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="25"/>
       <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="21" t="str">
-        <f>IF(B81&lt;&gt;"",UPPER(LEFT(B81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B81,B81),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="24" t="str">
+        <f>IF(C81&lt;&gt;"",UPPER(LEFT(C81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C81,C81),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B81" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="25"/>
       <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="21" t="str">
-        <f>IF(B82&lt;&gt;"",UPPER(LEFT(B82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B82,B82),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="24" t="str">
+        <f>IF(C82&lt;&gt;"",UPPER(LEFT(C82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C82,C82),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B82" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="25"/>
       <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="21" t="str">
-        <f>IF(B83&lt;&gt;"",UPPER(LEFT(B83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B83,B83),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="24" t="str">
+        <f>IF(C83&lt;&gt;"",UPPER(LEFT(C83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C83,C83),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B83" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="25"/>
       <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="21" t="str">
-        <f>IF(B84&lt;&gt;"",UPPER(LEFT(B84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B84,B84),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="24" t="str">
+        <f>IF(C84&lt;&gt;"",UPPER(LEFT(C84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C84,C84),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="25"/>
       <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="21" t="str">
-        <f>IF(B85&lt;&gt;"",UPPER(LEFT(B85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B85,B85),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="24" t="str">
+        <f>IF(C85&lt;&gt;"",UPPER(LEFT(C85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C85,C85),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B85" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="21" t="str">
-        <f>IF(B86&lt;&gt;"",UPPER(LEFT(B86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B86,B86),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="24" t="str">
+        <f>IF(C86&lt;&gt;"",UPPER(LEFT(C86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C86,C86),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B86" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="21" t="str">
-        <f>IF(B87&lt;&gt;"",UPPER(LEFT(B87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B87,B87),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="24" t="str">
+        <f>IF(C87&lt;&gt;"",UPPER(LEFT(C87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C87,C87),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B87" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C87" s="22"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="25"/>
       <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="21" t="str">
-        <f>IF(B88&lt;&gt;"",UPPER(LEFT(B88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B88,B88),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="24" t="str">
+        <f>IF(C88&lt;&gt;"",UPPER(LEFT(C88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C88,C88),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B88" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="25"/>
       <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="21" t="str">
-        <f>IF(B89&lt;&gt;"",UPPER(LEFT(B89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B89,B89),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="24" t="str">
+        <f>IF(C89&lt;&gt;"",UPPER(LEFT(C89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C89,C89),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B89" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="25"/>
       <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="21" t="str">
-        <f>IF(B90&lt;&gt;"",UPPER(LEFT(B90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B90,B90),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="24" t="str">
+        <f>IF(C90&lt;&gt;"",UPPER(LEFT(C90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C90,C90),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="25"/>
       <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="21" t="str">
-        <f>IF(B91&lt;&gt;"",UPPER(LEFT(B91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B91,B91),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="24" t="str">
+        <f>IF(C91&lt;&gt;"",UPPER(LEFT(C91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C91,C91),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="25"/>
       <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="21" t="str">
-        <f>IF(B92&lt;&gt;"",UPPER(LEFT(B92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B92,B92),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="24" t="str">
+        <f>IF(C92&lt;&gt;"",UPPER(LEFT(C92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C92,C92),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C92" s="22"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="25"/>
       <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="21" t="str">
-        <f>IF(B93&lt;&gt;"",UPPER(LEFT(B93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B93,B93),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="24" t="str">
+        <f>IF(C93&lt;&gt;"",UPPER(LEFT(C93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C93,C93),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="21" t="str">
-        <f>IF(B94&lt;&gt;"",UPPER(LEFT(B94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B94,B94),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="24" t="str">
+        <f>IF(C94&lt;&gt;"",UPPER(LEFT(C94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C94,C94),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="25"/>
       <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="21" t="str">
-        <f>IF(B95&lt;&gt;"",UPPER(LEFT(B95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B95,B95),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="24" t="str">
+        <f>IF(C95&lt;&gt;"",UPPER(LEFT(C95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C95,C95),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C95" s="22"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="25"/>
       <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="21" t="str">
-        <f>IF(B96&lt;&gt;"",UPPER(LEFT(B96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B96,B96),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="24" t="str">
+        <f>IF(C96&lt;&gt;"",UPPER(LEFT(C96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C96,C96),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="25"/>
       <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="21" t="str">
-        <f>IF(B97&lt;&gt;"",UPPER(LEFT(B97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B97,B97),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="24" t="str">
+        <f>IF(C97&lt;&gt;"",UPPER(LEFT(C97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C97,C97),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C97" s="22"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="25"/>
       <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="21" t="str">
-        <f>IF(B98&lt;&gt;"",UPPER(LEFT(B98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B98,B98),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="24" t="str">
+        <f>IF(C98&lt;&gt;"",UPPER(LEFT(C98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C98,C98),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="25"/>
       <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="21" t="str">
-        <f>IF(B99&lt;&gt;"",UPPER(LEFT(B99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B99,B99),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="24" t="str">
+        <f>IF(C99&lt;&gt;"",UPPER(LEFT(C99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C99,C99),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="25"/>
       <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="21" t="str">
-        <f>IF(B100&lt;&gt;"",UPPER(LEFT(B100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B100,B100),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="24" t="str">
+        <f>IF(C100&lt;&gt;"",UPPER(LEFT(C100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C100,C100),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="25"/>
       <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="21" t="str">
-        <f>IF(B101&lt;&gt;"",UPPER(LEFT(B101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B101,B101),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="24" t="str">
+        <f>IF(C101&lt;&gt;"",UPPER(LEFT(C101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C101,C101),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B101" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C101" s="22"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="25"/>
       <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="21" t="str">
-        <f>IF(B102&lt;&gt;"",UPPER(LEFT(B102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B102,B102),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="24" t="str">
+        <f>IF(C102&lt;&gt;"",UPPER(LEFT(C102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C102,C102),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B102" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C102" s="22"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="25"/>
       <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="21" t="str">
-        <f>IF(B103&lt;&gt;"",UPPER(LEFT(B103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B103,B103),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="24" t="str">
+        <f>IF(C103&lt;&gt;"",UPPER(LEFT(C103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C103,C103),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B103" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C103" s="22"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="25"/>
       <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="21" t="str">
-        <f>IF(B104&lt;&gt;"",UPPER(LEFT(B104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B104,B104),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="24" t="str">
+        <f>IF(C104&lt;&gt;"",UPPER(LEFT(C104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C104,C104),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B104" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C104" s="22"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="25"/>
       <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="21" t="str">
-        <f>IF(B105&lt;&gt;"",UPPER(LEFT(B105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B105,B105),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="24" t="str">
+        <f>IF(C105&lt;&gt;"",UPPER(LEFT(C105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C105,C105),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B105" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C105" s="22"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="25"/>
       <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="21" t="str">
-        <f>IF(B106&lt;&gt;"",UPPER(LEFT(B106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B106,B106),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="24" t="str">
+        <f>IF(C106&lt;&gt;"",UPPER(LEFT(C106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C106,C106),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B106" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="25"/>
       <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="21" t="str">
-        <f>IF(B107&lt;&gt;"",UPPER(LEFT(B107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B107,B107),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B107" s="22"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="24" t="str">
+        <f>IF(C107&lt;&gt;"",UPPER(LEFT(C107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C107,C107),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B107" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C107" s="22"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="25"/>
       <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="21" t="str">
-        <f>IF(B108&lt;&gt;"",UPPER(LEFT(B108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B108,B108),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B108" s="22"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="24" t="str">
+        <f>IF(C108&lt;&gt;"",UPPER(LEFT(C108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C108,C108),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B108" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C108" s="22"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="25"/>
       <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="21" t="str">
-        <f>IF(B109&lt;&gt;"",UPPER(LEFT(B109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B109,B109),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="24" t="str">
+        <f>IF(C109&lt;&gt;"",UPPER(LEFT(C109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C109,C109),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B109" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C109" s="22"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="25"/>
       <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="21" t="str">
-        <f>IF(B110&lt;&gt;"",UPPER(LEFT(B110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B110,B110),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="24" t="str">
+        <f>IF(C110&lt;&gt;"",UPPER(LEFT(C110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C110,C110),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B110" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C110" s="22"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="25"/>
       <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="21" t="str">
-        <f>IF(B111&lt;&gt;"",UPPER(LEFT(B111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B111,B111),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="24" t="str">
+        <f>IF(C111&lt;&gt;"",UPPER(LEFT(C111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C111,C111),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B111" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="25"/>
       <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="21" t="str">
-        <f>IF(B112&lt;&gt;"",UPPER(LEFT(B112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B112,B112),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B112" s="22"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="24" t="str">
+        <f>IF(C112&lt;&gt;"",UPPER(LEFT(C112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C112,C112),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B112" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="21" t="str">
-        <f>IF(B113&lt;&gt;"",UPPER(LEFT(B113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B113,B113),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="24" t="str">
+        <f>IF(C113&lt;&gt;"",UPPER(LEFT(C113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C113,C113),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B113" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="25"/>
       <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="21" t="str">
-        <f>IF(B114&lt;&gt;"",UPPER(LEFT(B114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B114,B114),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="24" t="str">
+        <f>IF(C114&lt;&gt;"",UPPER(LEFT(C114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C114,C114),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B114" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="25"/>
       <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="21" t="str">
-        <f>IF(B115&lt;&gt;"",UPPER(LEFT(B115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B115,B115),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="24" t="str">
+        <f>IF(C115&lt;&gt;"",UPPER(LEFT(C115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C115,C115),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B115" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C115" s="22"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="25"/>
       <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="21" t="str">
-        <f>IF(B116&lt;&gt;"",UPPER(LEFT(B116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B116,B116),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B116" s="22"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="24" t="str">
+        <f>IF(C116&lt;&gt;"",UPPER(LEFT(C116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C116,C116),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B116" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C116" s="22"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="25"/>
       <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="21" t="str">
-        <f>IF(B117&lt;&gt;"",UPPER(LEFT(B117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B117,B117),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="24" t="str">
+        <f>IF(C117&lt;&gt;"",UPPER(LEFT(C117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C117,C117),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B117" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C117" s="22"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="25"/>
       <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="21" t="str">
-        <f>IF(B118&lt;&gt;"",UPPER(LEFT(B118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B118,B118),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B118" s="22"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="24" t="str">
+        <f>IF(C118&lt;&gt;"",UPPER(LEFT(C118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C118,C118),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B118" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C118" s="22"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="25"/>
       <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="21" t="str">
-        <f>IF(B119&lt;&gt;"",UPPER(LEFT(B119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B119,B119),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B119" s="22"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="24" t="str">
+        <f>IF(C119&lt;&gt;"",UPPER(LEFT(C119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C119,C119),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B119" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C119" s="22"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="25"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="21" t="str">
-        <f>IF(B120&lt;&gt;"",UPPER(LEFT(B120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B120,B120),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B120" s="22"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="24" t="str">
+        <f>IF(C120&lt;&gt;"",UPPER(LEFT(C120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C120,C120),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B120" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C120" s="22"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="25"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="21" t="str">
-        <f>IF(B121&lt;&gt;"",UPPER(LEFT(B121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B121,B121),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B121" s="22"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="24" t="str">
+        <f>IF(C121&lt;&gt;"",UPPER(LEFT(C121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C121,C121),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B121" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C121" s="22"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="25"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="21" t="str">
-        <f>IF(B122&lt;&gt;"",UPPER(LEFT(B122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B122,B122),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B122" s="22"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="24" t="str">
+        <f>IF(C122&lt;&gt;"",UPPER(LEFT(C122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C122,C122),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B122" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="25"/>
       <c r="H122" s="25"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="21" t="str">
-        <f>IF(B123&lt;&gt;"",UPPER(LEFT(B123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B123,B123),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B123" s="22"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="24" t="str">
+        <f>IF(C123&lt;&gt;"",UPPER(LEFT(C123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C123,C123),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B123" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="25"/>
       <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="21" t="str">
-        <f>IF(B124&lt;&gt;"",UPPER(LEFT(B124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B124,B124),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="24" t="str">
+        <f>IF(C124&lt;&gt;"",UPPER(LEFT(C124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C124,C124),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B124" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="25"/>
       <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="21" t="str">
-        <f>IF(B125&lt;&gt;"",UPPER(LEFT(B125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B125,B125),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="24" t="str">
+        <f>IF(C125&lt;&gt;"",UPPER(LEFT(C125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C125,C125),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B125" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C125" s="22"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="25"/>
       <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="21" t="str">
-        <f>IF(B126&lt;&gt;"",UPPER(LEFT(B126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B126,B126),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="24" t="str">
+        <f>IF(C126&lt;&gt;"",UPPER(LEFT(C126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C126,C126),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B126" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C126" s="22"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="25"/>
       <c r="H126" s="25"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="21" t="str">
-        <f>IF(B127&lt;&gt;"",UPPER(LEFT(B127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B127,B127),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B127" s="22"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="24" t="str">
+        <f>IF(C127&lt;&gt;"",UPPER(LEFT(C127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C127,C127),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B127" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="25"/>
       <c r="H127" s="25"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="21" t="str">
-        <f>IF(B128&lt;&gt;"",UPPER(LEFT(B128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B128,B128),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B128" s="22"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="24" t="str">
+        <f>IF(C128&lt;&gt;"",UPPER(LEFT(C128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C128,C128),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B128" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="25"/>
       <c r="H128" s="25"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="21" t="str">
-        <f>IF(B129&lt;&gt;"",UPPER(LEFT(B129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B129,B129),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B129" s="22"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="24" t="str">
+        <f>IF(C129&lt;&gt;"",UPPER(LEFT(C129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C129,C129),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B129" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C129" s="22"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="25"/>
       <c r="H129" s="25"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="21" t="str">
-        <f>IF(B130&lt;&gt;"",UPPER(LEFT(B130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B130,B130),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B130" s="22"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="24" t="str">
-        <f t="shared" ref="G130:G193" si="2">IF(B130&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
+        <f>IF(C130&lt;&gt;"",UPPER(LEFT(C130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C130,C130),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B130" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C130" s="22"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="25"/>
       <c r="H130" s="25"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="21" t="str">
-        <f>IF(B131&lt;&gt;"",UPPER(LEFT(B131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B131,B131),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B131" s="22"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+        <f>IF(C131&lt;&gt;"",UPPER(LEFT(C131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C131,C131),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B131" s="24" t="str">
+        <f t="shared" ref="B131:B194" si="2">IF(C131&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
+      <c r="C131" s="22"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="25"/>
       <c r="H131" s="25"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="21" t="str">
-        <f>IF(B132&lt;&gt;"",UPPER(LEFT(B132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B132,B132),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B132" s="22"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="24" t="str">
+        <f>IF(C132&lt;&gt;"",UPPER(LEFT(C132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C132,C132),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B132" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C132" s="22"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="25"/>
       <c r="H132" s="25"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="21" t="str">
-        <f>IF(B133&lt;&gt;"",UPPER(LEFT(B133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B133,B133),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B133" s="22"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="24" t="str">
+        <f>IF(C133&lt;&gt;"",UPPER(LEFT(C133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C133,C133),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B133" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C133" s="22"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="25"/>
       <c r="H133" s="25"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="21" t="str">
-        <f>IF(B134&lt;&gt;"",UPPER(LEFT(B134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B134,B134),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="24" t="str">
+        <f>IF(C134&lt;&gt;"",UPPER(LEFT(C134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C134,C134),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B134" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C134" s="22"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="25"/>
       <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="21" t="str">
-        <f>IF(B135&lt;&gt;"",UPPER(LEFT(B135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B135,B135),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B135" s="22"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="24" t="str">
+        <f>IF(C135&lt;&gt;"",UPPER(LEFT(C135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C135,C135),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B135" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C135" s="22"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="25"/>
       <c r="H135" s="25"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="21" t="str">
-        <f>IF(B136&lt;&gt;"",UPPER(LEFT(B136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B136,B136),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B136" s="22"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="24" t="str">
+        <f>IF(C136&lt;&gt;"",UPPER(LEFT(C136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C136,C136),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B136" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C136" s="22"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="25"/>
       <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="21" t="str">
-        <f>IF(B137&lt;&gt;"",UPPER(LEFT(B137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B137,B137),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="24" t="str">
+        <f>IF(C137&lt;&gt;"",UPPER(LEFT(C137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C137,C137),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B137" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C137" s="22"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="25"/>
       <c r="H137" s="25"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="21" t="str">
-        <f>IF(B138&lt;&gt;"",UPPER(LEFT(B138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B138,B138),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B138" s="22"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="24" t="str">
+        <f>IF(C138&lt;&gt;"",UPPER(LEFT(C138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C138,C138),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B138" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C138" s="22"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="25"/>
       <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="21" t="str">
-        <f>IF(B139&lt;&gt;"",UPPER(LEFT(B139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B139,B139),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="24" t="str">
+        <f>IF(C139&lt;&gt;"",UPPER(LEFT(C139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C139,C139),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B139" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C139" s="22"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="25"/>
       <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="21" t="str">
-        <f>IF(B140&lt;&gt;"",UPPER(LEFT(B140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B140,B140),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="24" t="str">
+        <f>IF(C140&lt;&gt;"",UPPER(LEFT(C140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C140,C140),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B140" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C140" s="22"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="25"/>
       <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="21" t="str">
-        <f>IF(B141&lt;&gt;"",UPPER(LEFT(B141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B141,B141),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B141" s="22"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="24" t="str">
+        <f>IF(C141&lt;&gt;"",UPPER(LEFT(C141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C141,C141),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B141" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C141" s="22"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="25"/>
       <c r="H141" s="25"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="21" t="str">
-        <f>IF(B142&lt;&gt;"",UPPER(LEFT(B142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B142,B142),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B142" s="22"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="24" t="str">
+        <f>IF(C142&lt;&gt;"",UPPER(LEFT(C142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C142,C142),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B142" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C142" s="22"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="25"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="21" t="str">
-        <f>IF(B143&lt;&gt;"",UPPER(LEFT(B143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B143,B143),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B143" s="22"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="24" t="str">
+        <f>IF(C143&lt;&gt;"",UPPER(LEFT(C143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C143,C143),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B143" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C143" s="22"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="25"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="21" t="str">
-        <f>IF(B144&lt;&gt;"",UPPER(LEFT(B144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B144,B144),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B144" s="22"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="24" t="str">
+        <f>IF(C144&lt;&gt;"",UPPER(LEFT(C144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C144,C144),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B144" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C144" s="22"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="25"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="21" t="str">
-        <f>IF(B145&lt;&gt;"",UPPER(LEFT(B145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B145,B145),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B145" s="22"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="24" t="str">
+        <f>IF(C145&lt;&gt;"",UPPER(LEFT(C145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C145,C145),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B145" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C145" s="22"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="25"/>
       <c r="H145" s="25"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="21" t="str">
-        <f>IF(B146&lt;&gt;"",UPPER(LEFT(B146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B146,B146),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B146" s="22"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="24" t="str">
+        <f>IF(C146&lt;&gt;"",UPPER(LEFT(C146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C146,C146),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B146" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C146" s="22"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="25"/>
       <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="21" t="str">
-        <f>IF(B147&lt;&gt;"",UPPER(LEFT(B147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B147,B147),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B147" s="22"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="24" t="str">
+        <f>IF(C147&lt;&gt;"",UPPER(LEFT(C147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C147,C147),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B147" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C147" s="22"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="25"/>
       <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="21" t="str">
-        <f>IF(B148&lt;&gt;"",UPPER(LEFT(B148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B148,B148),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B148" s="22"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="24" t="str">
+        <f>IF(C148&lt;&gt;"",UPPER(LEFT(C148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C148,C148),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B148" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C148" s="22"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="25"/>
       <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="21" t="str">
-        <f>IF(B149&lt;&gt;"",UPPER(LEFT(B149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B149,B149),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B149" s="22"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="24" t="str">
+        <f>IF(C149&lt;&gt;"",UPPER(LEFT(C149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C149,C149),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B149" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C149" s="22"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="25"/>
       <c r="H149" s="25"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="21" t="str">
-        <f>IF(B150&lt;&gt;"",UPPER(LEFT(B150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B150,B150),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B150" s="22"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="24" t="str">
+        <f>IF(C150&lt;&gt;"",UPPER(LEFT(C150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C150,C150),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B150" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C150" s="22"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="25"/>
       <c r="H150" s="25"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="21" t="str">
-        <f>IF(B151&lt;&gt;"",UPPER(LEFT(B151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B151,B151),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B151" s="22"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="24" t="str">
+        <f>IF(C151&lt;&gt;"",UPPER(LEFT(C151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C151,C151),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B151" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C151" s="22"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="25"/>
       <c r="H151" s="25"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="21" t="str">
-        <f>IF(B152&lt;&gt;"",UPPER(LEFT(B152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B152,B152),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B152" s="22"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="24" t="str">
+        <f>IF(C152&lt;&gt;"",UPPER(LEFT(C152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C152,C152),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B152" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C152" s="22"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="25"/>
       <c r="H152" s="25"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="21" t="str">
-        <f>IF(B153&lt;&gt;"",UPPER(LEFT(B153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B153,B153),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B153" s="22"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="24" t="str">
+        <f>IF(C153&lt;&gt;"",UPPER(LEFT(C153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C153,C153),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B153" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C153" s="22"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="25"/>
       <c r="H153" s="25"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="21" t="str">
-        <f>IF(B154&lt;&gt;"",UPPER(LEFT(B154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B154,B154),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="24" t="str">
+        <f>IF(C154&lt;&gt;"",UPPER(LEFT(C154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C154,C154),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B154" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C154" s="22"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="25"/>
       <c r="H154" s="25"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="21" t="str">
-        <f>IF(B155&lt;&gt;"",UPPER(LEFT(B155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B155,B155),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B155" s="22"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="24" t="str">
+        <f>IF(C155&lt;&gt;"",UPPER(LEFT(C155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C155,C155),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B155" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C155" s="22"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="25"/>
       <c r="H155" s="25"/>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="21" t="str">
-        <f>IF(B156&lt;&gt;"",UPPER(LEFT(B156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B156,B156),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="24" t="str">
+        <f>IF(C156&lt;&gt;"",UPPER(LEFT(C156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C156,C156),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B156" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C156" s="22"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="25"/>
       <c r="H156" s="25"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="21" t="str">
-        <f>IF(B157&lt;&gt;"",UPPER(LEFT(B157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B157,B157),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B157" s="22"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="24" t="str">
+        <f>IF(C157&lt;&gt;"",UPPER(LEFT(C157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C157,C157),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B157" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C157" s="22"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="25"/>
       <c r="H157" s="25"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="21" t="str">
-        <f>IF(B158&lt;&gt;"",UPPER(LEFT(B158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B158,B158),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B158" s="22"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="22"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="24" t="str">
+        <f>IF(C158&lt;&gt;"",UPPER(LEFT(C158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C158,C158),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B158" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C158" s="22"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="25"/>
       <c r="H158" s="25"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="21" t="str">
-        <f>IF(B159&lt;&gt;"",UPPER(LEFT(B159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B159,B159),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="24" t="str">
+        <f>IF(C159&lt;&gt;"",UPPER(LEFT(C159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C159,C159),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B159" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C159" s="22"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="25"/>
       <c r="H159" s="25"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="21" t="str">
-        <f>IF(B160&lt;&gt;"",UPPER(LEFT(B160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B160,B160),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B160" s="22"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="24" t="str">
+        <f>IF(C160&lt;&gt;"",UPPER(LEFT(C160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C160,C160),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B160" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C160" s="22"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="25"/>
       <c r="H160" s="25"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="21" t="str">
-        <f>IF(B161&lt;&gt;"",UPPER(LEFT(B161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B161,B161),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B161" s="22"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="24" t="str">
+        <f>IF(C161&lt;&gt;"",UPPER(LEFT(C161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C161,C161),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B161" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C161" s="22"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="25"/>
       <c r="H161" s="25"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="21" t="str">
-        <f>IF(B162&lt;&gt;"",UPPER(LEFT(B162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B162,B162),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B162" s="22"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="24" t="str">
+        <f>IF(C162&lt;&gt;"",UPPER(LEFT(C162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C162,C162),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B162" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C162" s="22"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="25"/>
       <c r="H162" s="25"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="21" t="str">
-        <f>IF(B163&lt;&gt;"",UPPER(LEFT(B163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B163,B163),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B163" s="22"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="24" t="str">
+        <f>IF(C163&lt;&gt;"",UPPER(LEFT(C163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C163,C163),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B163" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C163" s="22"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="25"/>
       <c r="H163" s="25"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="21" t="str">
-        <f>IF(B164&lt;&gt;"",UPPER(LEFT(B164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B164,B164),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B164" s="22"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="22"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="24" t="str">
+        <f>IF(C164&lt;&gt;"",UPPER(LEFT(C164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C164,C164),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B164" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C164" s="22"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="25"/>
       <c r="H164" s="25"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="21" t="str">
-        <f>IF(B165&lt;&gt;"",UPPER(LEFT(B165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B165,B165),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B165" s="22"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="24" t="str">
+        <f>IF(C165&lt;&gt;"",UPPER(LEFT(C165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C165,C165),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B165" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C165" s="22"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="25"/>
       <c r="H165" s="25"/>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="21" t="str">
-        <f>IF(B166&lt;&gt;"",UPPER(LEFT(B166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B166,B166),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B166" s="22"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="24" t="str">
+        <f>IF(C166&lt;&gt;"",UPPER(LEFT(C166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C166,C166),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B166" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C166" s="22"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="25"/>
       <c r="H166" s="25"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="21" t="str">
-        <f>IF(B167&lt;&gt;"",UPPER(LEFT(B167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B167,B167),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B167" s="22"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="22"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="24" t="str">
+        <f>IF(C167&lt;&gt;"",UPPER(LEFT(C167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C167,C167),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B167" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C167" s="22"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="25"/>
       <c r="H167" s="25"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="21" t="str">
-        <f>IF(B168&lt;&gt;"",UPPER(LEFT(B168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B168,B168),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B168" s="22"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="24" t="str">
+        <f>IF(C168&lt;&gt;"",UPPER(LEFT(C168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C168,C168),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B168" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C168" s="22"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="25"/>
       <c r="H168" s="25"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="21" t="str">
-        <f>IF(B169&lt;&gt;"",UPPER(LEFT(B169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B169,B169),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B169" s="22"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="24" t="str">
+        <f>IF(C169&lt;&gt;"",UPPER(LEFT(C169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C169,C169),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B169" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C169" s="22"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="25"/>
       <c r="H169" s="25"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="21" t="str">
-        <f>IF(B170&lt;&gt;"",UPPER(LEFT(B170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B170,B170),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B170" s="22"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="22"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="24" t="str">
+        <f>IF(C170&lt;&gt;"",UPPER(LEFT(C170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C170,C170),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B170" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C170" s="22"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="25"/>
       <c r="H170" s="25"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="21" t="str">
-        <f>IF(B171&lt;&gt;"",UPPER(LEFT(B171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B171,B171),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B171" s="22"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="24" t="str">
+        <f>IF(C171&lt;&gt;"",UPPER(LEFT(C171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C171,C171),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B171" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C171" s="22"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="25"/>
       <c r="H171" s="25"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="21" t="str">
-        <f>IF(B172&lt;&gt;"",UPPER(LEFT(B172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B172,B172),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B172" s="22"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="24" t="str">
+        <f>IF(C172&lt;&gt;"",UPPER(LEFT(C172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C172,C172),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B172" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C172" s="22"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="25"/>
       <c r="H172" s="25"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="21" t="str">
-        <f>IF(B173&lt;&gt;"",UPPER(LEFT(B173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B173,B173),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B173" s="22"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="24" t="str">
+        <f>IF(C173&lt;&gt;"",UPPER(LEFT(C173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C173,C173),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B173" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C173" s="22"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="25"/>
       <c r="H173" s="25"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="21" t="str">
-        <f>IF(B174&lt;&gt;"",UPPER(LEFT(B174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B174,B174),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B174" s="22"/>
-      <c r="C174" s="23"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="22"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="24" t="str">
+        <f>IF(C174&lt;&gt;"",UPPER(LEFT(C174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C174,C174),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B174" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="25"/>
       <c r="H174" s="25"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="21" t="str">
-        <f>IF(B175&lt;&gt;"",UPPER(LEFT(B175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B175,B175),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B175" s="22"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="24" t="str">
+        <f>IF(C175&lt;&gt;"",UPPER(LEFT(C175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C175,C175),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B175" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C175" s="22"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="25"/>
       <c r="H175" s="25"/>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="21" t="str">
-        <f>IF(B176&lt;&gt;"",UPPER(LEFT(B176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B176,B176),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B176" s="22"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="22"/>
-      <c r="F176" s="25"/>
-      <c r="G176" s="24" t="str">
+        <f>IF(C176&lt;&gt;"",UPPER(LEFT(C176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C176,C176),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B176" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C176" s="22"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="25"/>
       <c r="H176" s="25"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="21" t="str">
-        <f>IF(B177&lt;&gt;"",UPPER(LEFT(B177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B177,B177),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B177" s="22"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="24" t="str">
+        <f>IF(C177&lt;&gt;"",UPPER(LEFT(C177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C177,C177),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B177" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C177" s="22"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="25"/>
       <c r="H177" s="25"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="21" t="str">
-        <f>IF(B178&lt;&gt;"",UPPER(LEFT(B178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B178,B178),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B178" s="22"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="24" t="str">
+        <f>IF(C178&lt;&gt;"",UPPER(LEFT(C178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C178,C178),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B178" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C178" s="22"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="25"/>
       <c r="H178" s="25"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="21" t="str">
-        <f>IF(B179&lt;&gt;"",UPPER(LEFT(B179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B179,B179),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B179" s="22"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="22"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="24" t="str">
+        <f>IF(C179&lt;&gt;"",UPPER(LEFT(C179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C179,C179),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B179" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C179" s="22"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="25"/>
       <c r="H179" s="25"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="21" t="str">
-        <f>IF(B180&lt;&gt;"",UPPER(LEFT(B180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B180,B180),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B180" s="22"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="22"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="24" t="str">
+        <f>IF(C180&lt;&gt;"",UPPER(LEFT(C180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C180,C180),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B180" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C180" s="22"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="25"/>
       <c r="H180" s="25"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="21" t="str">
-        <f>IF(B181&lt;&gt;"",UPPER(LEFT(B181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B181,B181),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B181" s="22"/>
-      <c r="C181" s="23"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="24" t="str">
+        <f>IF(C181&lt;&gt;"",UPPER(LEFT(C181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C181,C181),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B181" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C181" s="22"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="25"/>
       <c r="H181" s="25"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="21" t="str">
-        <f>IF(B182&lt;&gt;"",UPPER(LEFT(B182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B182,B182),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B182" s="22"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="24" t="str">
+        <f>IF(C182&lt;&gt;"",UPPER(LEFT(C182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C182,C182),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B182" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C182" s="22"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="25"/>
       <c r="H182" s="25"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="21" t="str">
-        <f>IF(B183&lt;&gt;"",UPPER(LEFT(B183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B183,B183),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B183" s="22"/>
-      <c r="C183" s="23"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="24" t="str">
+        <f>IF(C183&lt;&gt;"",UPPER(LEFT(C183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C183,C183),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B183" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C183" s="22"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="25"/>
       <c r="H183" s="25"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="21" t="str">
-        <f>IF(B184&lt;&gt;"",UPPER(LEFT(B184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B184,B184),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B184" s="22"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="24" t="str">
+        <f>IF(C184&lt;&gt;"",UPPER(LEFT(C184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C184,C184),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B184" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C184" s="22"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="25"/>
       <c r="H184" s="25"/>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="21" t="str">
-        <f>IF(B185&lt;&gt;"",UPPER(LEFT(B185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B185,B185),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B185" s="22"/>
-      <c r="C185" s="23"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="24" t="str">
+        <f>IF(C185&lt;&gt;"",UPPER(LEFT(C185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C185,C185),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B185" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C185" s="22"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="25"/>
       <c r="H185" s="25"/>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="21" t="str">
-        <f>IF(B186&lt;&gt;"",UPPER(LEFT(B186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B186,B186),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B186" s="22"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="24" t="str">
+        <f>IF(C186&lt;&gt;"",UPPER(LEFT(C186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C186,C186),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B186" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C186" s="22"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="25"/>
       <c r="H186" s="25"/>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="21" t="str">
-        <f>IF(B187&lt;&gt;"",UPPER(LEFT(B187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B187,B187),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B187" s="22"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="24" t="str">
+        <f>IF(C187&lt;&gt;"",UPPER(LEFT(C187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C187,C187),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B187" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C187" s="22"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="25"/>
       <c r="H187" s="25"/>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="21" t="str">
-        <f>IF(B188&lt;&gt;"",UPPER(LEFT(B188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B188,B188),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B188" s="22"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="24" t="str">
+        <f>IF(C188&lt;&gt;"",UPPER(LEFT(C188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C188,C188),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B188" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C188" s="22"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="25"/>
       <c r="H188" s="25"/>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="21" t="str">
-        <f>IF(B189&lt;&gt;"",UPPER(LEFT(B189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B189,B189),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B189" s="22"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="22"/>
-      <c r="F189" s="25"/>
-      <c r="G189" s="24" t="str">
+        <f>IF(C189&lt;&gt;"",UPPER(LEFT(C189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C189,C189),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B189" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C189" s="22"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="25"/>
       <c r="H189" s="25"/>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="21" t="str">
-        <f>IF(B190&lt;&gt;"",UPPER(LEFT(B190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B190,B190),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B190" s="22"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="22"/>
-      <c r="F190" s="25"/>
-      <c r="G190" s="24" t="str">
+        <f>IF(C190&lt;&gt;"",UPPER(LEFT(C190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C190,C190),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B190" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C190" s="22"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="25"/>
       <c r="H190" s="25"/>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="21" t="str">
-        <f>IF(B191&lt;&gt;"",UPPER(LEFT(B191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B191,B191),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B191" s="22"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="25"/>
-      <c r="G191" s="24" t="str">
+        <f>IF(C191&lt;&gt;"",UPPER(LEFT(C191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C191,C191),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B191" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C191" s="22"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="25"/>
       <c r="H191" s="25"/>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="21" t="str">
-        <f>IF(B192&lt;&gt;"",UPPER(LEFT(B192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B192,B192),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B192" s="22"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="22"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="24" t="str">
+        <f>IF(C192&lt;&gt;"",UPPER(LEFT(C192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C192,C192),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B192" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C192" s="22"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="25"/>
       <c r="H192" s="25"/>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="21" t="str">
-        <f>IF(B193&lt;&gt;"",UPPER(LEFT(B193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B193,B193),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B193" s="22"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="24" t="str">
+        <f>IF(C193&lt;&gt;"",UPPER(LEFT(C193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C193,C193),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B193" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="C193" s="22"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="25"/>
       <c r="H193" s="25"/>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="21" t="str">
-        <f>IF(B194&lt;&gt;"",UPPER(LEFT(B194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B194,B194),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B194" s="22"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="22"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="24" t="str">
-        <f t="shared" ref="G194:G257" si="3">IF(B194&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
+        <f>IF(C194&lt;&gt;"",UPPER(LEFT(C194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C194,C194),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B194" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C194" s="22"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="25"/>
       <c r="H194" s="25"/>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="21" t="str">
-        <f>IF(B195&lt;&gt;"",UPPER(LEFT(B195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B195,B195),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B195" s="22"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="22"/>
-      <c r="F195" s="25"/>
-      <c r="G195" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f>IF(C195&lt;&gt;"",UPPER(LEFT(C195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C195,C195),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B195" s="24" t="str">
+        <f t="shared" ref="B195:B258" si="3">IF(C195&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
+      <c r="C195" s="22"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="25"/>
       <c r="H195" s="25"/>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="21" t="str">
-        <f>IF(B196&lt;&gt;"",UPPER(LEFT(B196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B196,B196),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B196" s="22"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="22"/>
-      <c r="F196" s="25"/>
-      <c r="G196" s="24" t="str">
+        <f>IF(C196&lt;&gt;"",UPPER(LEFT(C196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C196,C196),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B196" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C196" s="22"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="25"/>
       <c r="H196" s="25"/>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="21" t="str">
-        <f>IF(B197&lt;&gt;"",UPPER(LEFT(B197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B197,B197),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B197" s="22"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="25"/>
-      <c r="G197" s="24" t="str">
+        <f>IF(C197&lt;&gt;"",UPPER(LEFT(C197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C197,C197),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B197" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C197" s="22"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="25"/>
       <c r="H197" s="25"/>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="21" t="str">
-        <f>IF(B198&lt;&gt;"",UPPER(LEFT(B198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B198,B198),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B198" s="22"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="25"/>
-      <c r="G198" s="24" t="str">
+        <f>IF(C198&lt;&gt;"",UPPER(LEFT(C198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C198,C198),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B198" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C198" s="22"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="25"/>
       <c r="H198" s="25"/>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="21" t="str">
-        <f>IF(B199&lt;&gt;"",UPPER(LEFT(B199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B199,B199),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B199" s="22"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="25"/>
-      <c r="G199" s="24" t="str">
+        <f>IF(C199&lt;&gt;"",UPPER(LEFT(C199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C199,C199),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B199" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C199" s="22"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="25"/>
       <c r="H199" s="25"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="21" t="str">
-        <f>IF(B200&lt;&gt;"",UPPER(LEFT(B200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B200,B200),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B200" s="22"/>
-      <c r="C200" s="23"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="25"/>
-      <c r="G200" s="24" t="str">
+        <f>IF(C200&lt;&gt;"",UPPER(LEFT(C200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C200,C200),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B200" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C200" s="22"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="25"/>
       <c r="H200" s="25"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="21" t="str">
-        <f>IF(B201&lt;&gt;"",UPPER(LEFT(B201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B201,B201),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B201" s="22"/>
-      <c r="C201" s="23"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="24" t="str">
+        <f>IF(C201&lt;&gt;"",UPPER(LEFT(C201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C201,C201),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B201" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C201" s="22"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="25"/>
       <c r="H201" s="25"/>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="21" t="str">
-        <f>IF(B202&lt;&gt;"",UPPER(LEFT(B202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B202,B202),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B202" s="22"/>
-      <c r="C202" s="23"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="22"/>
-      <c r="F202" s="25"/>
-      <c r="G202" s="24" t="str">
+        <f>IF(C202&lt;&gt;"",UPPER(LEFT(C202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C202,C202),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B202" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C202" s="22"/>
+      <c r="D202" s="23"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="25"/>
       <c r="H202" s="25"/>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="21" t="str">
-        <f>IF(B203&lt;&gt;"",UPPER(LEFT(B203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B203,B203),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B203" s="22"/>
-      <c r="C203" s="23"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="25"/>
-      <c r="G203" s="24" t="str">
+        <f>IF(C203&lt;&gt;"",UPPER(LEFT(C203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C203,C203),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B203" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C203" s="22"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="25"/>
       <c r="H203" s="25"/>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="21" t="str">
-        <f>IF(B204&lt;&gt;"",UPPER(LEFT(B204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B204,B204),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B204" s="22"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="22"/>
-      <c r="F204" s="25"/>
-      <c r="G204" s="24" t="str">
+        <f>IF(C204&lt;&gt;"",UPPER(LEFT(C204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C204,C204),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B204" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C204" s="22"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="25"/>
       <c r="H204" s="25"/>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="21" t="str">
-        <f>IF(B205&lt;&gt;"",UPPER(LEFT(B205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B205,B205),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B205" s="22"/>
-      <c r="C205" s="23"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="24" t="str">
+        <f>IF(C205&lt;&gt;"",UPPER(LEFT(C205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C205,C205),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B205" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C205" s="22"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="25"/>
       <c r="H205" s="25"/>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="21" t="str">
-        <f>IF(B206&lt;&gt;"",UPPER(LEFT(B206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B206,B206),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B206" s="22"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="25"/>
-      <c r="G206" s="24" t="str">
+        <f>IF(C206&lt;&gt;"",UPPER(LEFT(C206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C206,C206),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B206" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C206" s="22"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="25"/>
       <c r="H206" s="25"/>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="21" t="str">
-        <f>IF(B207&lt;&gt;"",UPPER(LEFT(B207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B207,B207),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B207" s="22"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="22"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="24" t="str">
+        <f>IF(C207&lt;&gt;"",UPPER(LEFT(C207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C207,C207),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B207" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C207" s="22"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="25"/>
       <c r="H207" s="25"/>
     </row>
     <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="21" t="str">
-        <f>IF(B208&lt;&gt;"",UPPER(LEFT(B208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B208,B208),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B208" s="22"/>
-      <c r="C208" s="23"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="22"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="24" t="str">
+        <f>IF(C208&lt;&gt;"",UPPER(LEFT(C208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C208,C208),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B208" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C208" s="22"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="25"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="21" t="str">
-        <f>IF(B209&lt;&gt;"",UPPER(LEFT(B209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B209,B209),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B209" s="22"/>
-      <c r="C209" s="23"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="22"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="24" t="str">
+        <f>IF(C209&lt;&gt;"",UPPER(LEFT(C209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C209,C209),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B209" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C209" s="22"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="25"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="21" t="str">
-        <f>IF(B210&lt;&gt;"",UPPER(LEFT(B210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B210,B210),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B210" s="22"/>
-      <c r="C210" s="23"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="22"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="24" t="str">
+        <f>IF(C210&lt;&gt;"",UPPER(LEFT(C210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C210,C210),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B210" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C210" s="22"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="25"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="21" t="str">
-        <f>IF(B211&lt;&gt;"",UPPER(LEFT(B211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B211,B211),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B211" s="22"/>
-      <c r="C211" s="23"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="22"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="24" t="str">
+        <f>IF(C211&lt;&gt;"",UPPER(LEFT(C211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C211,C211),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B211" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C211" s="22"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="25"/>
       <c r="H211" s="25"/>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="21" t="str">
-        <f>IF(B212&lt;&gt;"",UPPER(LEFT(B212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B212,B212),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B212" s="22"/>
-      <c r="C212" s="23"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="22"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="24" t="str">
+        <f>IF(C212&lt;&gt;"",UPPER(LEFT(C212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C212,C212),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B212" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C212" s="22"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="25"/>
       <c r="H212" s="25"/>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="21" t="str">
-        <f>IF(B213&lt;&gt;"",UPPER(LEFT(B213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B213,B213),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B213" s="22"/>
-      <c r="C213" s="23"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="22"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="24" t="str">
+        <f>IF(C213&lt;&gt;"",UPPER(LEFT(C213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C213,C213),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B213" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C213" s="22"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="25"/>
       <c r="H213" s="25"/>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="21" t="str">
-        <f>IF(B214&lt;&gt;"",UPPER(LEFT(B214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B214,B214),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B214" s="22"/>
-      <c r="C214" s="23"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="22"/>
-      <c r="F214" s="25"/>
-      <c r="G214" s="24" t="str">
+        <f>IF(C214&lt;&gt;"",UPPER(LEFT(C214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C214,C214),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B214" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C214" s="22"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="25"/>
       <c r="H214" s="25"/>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="21" t="str">
-        <f>IF(B215&lt;&gt;"",UPPER(LEFT(B215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B215,B215),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B215" s="22"/>
-      <c r="C215" s="23"/>
-      <c r="D215" s="18"/>
-      <c r="E215" s="22"/>
-      <c r="F215" s="25"/>
-      <c r="G215" s="24" t="str">
+        <f>IF(C215&lt;&gt;"",UPPER(LEFT(C215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C215,C215),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B215" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C215" s="22"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="25"/>
       <c r="H215" s="25"/>
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="21" t="str">
-        <f>IF(B216&lt;&gt;"",UPPER(LEFT(B216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B216,B216),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B216" s="22"/>
-      <c r="C216" s="23"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="25"/>
-      <c r="G216" s="24" t="str">
+        <f>IF(C216&lt;&gt;"",UPPER(LEFT(C216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C216,C216),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B216" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C216" s="22"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="25"/>
       <c r="H216" s="25"/>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="21" t="str">
-        <f>IF(B217&lt;&gt;"",UPPER(LEFT(B217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B217,B217),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B217" s="22"/>
-      <c r="C217" s="23"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="22"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="24" t="str">
+        <f>IF(C217&lt;&gt;"",UPPER(LEFT(C217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C217,C217),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B217" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C217" s="22"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="25"/>
       <c r="H217" s="25"/>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="21" t="str">
-        <f>IF(B218&lt;&gt;"",UPPER(LEFT(B218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B218,B218),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B218" s="22"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="22"/>
-      <c r="F218" s="25"/>
-      <c r="G218" s="24" t="str">
+        <f>IF(C218&lt;&gt;"",UPPER(LEFT(C218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C218,C218),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B218" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C218" s="22"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="25"/>
       <c r="H218" s="25"/>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="21" t="str">
-        <f>IF(B219&lt;&gt;"",UPPER(LEFT(B219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B219,B219),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B219" s="22"/>
-      <c r="C219" s="23"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="25"/>
-      <c r="G219" s="24" t="str">
+        <f>IF(C219&lt;&gt;"",UPPER(LEFT(C219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C219,C219),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B219" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C219" s="22"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="25"/>
       <c r="H219" s="25"/>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="21" t="str">
-        <f>IF(B220&lt;&gt;"",UPPER(LEFT(B220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B220,B220),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B220" s="22"/>
-      <c r="C220" s="23"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="22"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="24" t="str">
+        <f>IF(C220&lt;&gt;"",UPPER(LEFT(C220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C220,C220),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B220" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C220" s="22"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="25"/>
       <c r="H220" s="25"/>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="21" t="str">
-        <f>IF(B221&lt;&gt;"",UPPER(LEFT(B221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B221,B221),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B221" s="22"/>
-      <c r="C221" s="23"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="24" t="str">
+        <f>IF(C221&lt;&gt;"",UPPER(LEFT(C221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C221,C221),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B221" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C221" s="22"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="25"/>
       <c r="H221" s="25"/>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="21" t="str">
-        <f>IF(B222&lt;&gt;"",UPPER(LEFT(B222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B222,B222),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B222" s="22"/>
-      <c r="C222" s="23"/>
-      <c r="D222" s="18"/>
-      <c r="E222" s="22"/>
-      <c r="F222" s="25"/>
-      <c r="G222" s="24" t="str">
+        <f>IF(C222&lt;&gt;"",UPPER(LEFT(C222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C222,C222),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B222" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C222" s="22"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="18"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="25"/>
       <c r="H222" s="25"/>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="21" t="str">
-        <f>IF(B223&lt;&gt;"",UPPER(LEFT(B223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B223,B223),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B223" s="22"/>
-      <c r="C223" s="23"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="22"/>
-      <c r="F223" s="25"/>
-      <c r="G223" s="24" t="str">
+        <f>IF(C223&lt;&gt;"",UPPER(LEFT(C223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C223,C223),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B223" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C223" s="22"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="25"/>
       <c r="H223" s="25"/>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="21" t="str">
-        <f>IF(B224&lt;&gt;"",UPPER(LEFT(B224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B224,B224),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B224" s="22"/>
-      <c r="C224" s="23"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="22"/>
-      <c r="F224" s="25"/>
-      <c r="G224" s="24" t="str">
+        <f>IF(C224&lt;&gt;"",UPPER(LEFT(C224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C224,C224),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B224" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C224" s="22"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="25"/>
       <c r="H224" s="25"/>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="21" t="str">
-        <f>IF(B225&lt;&gt;"",UPPER(LEFT(B225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B225,B225),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B225" s="22"/>
-      <c r="C225" s="23"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="22"/>
-      <c r="F225" s="25"/>
-      <c r="G225" s="24" t="str">
+        <f>IF(C225&lt;&gt;"",UPPER(LEFT(C225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C225,C225),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B225" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C225" s="22"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="25"/>
       <c r="H225" s="25"/>
     </row>
     <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="21" t="str">
-        <f>IF(B226&lt;&gt;"",UPPER(LEFT(B226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B226,B226),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B226" s="22"/>
-      <c r="C226" s="23"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="22"/>
-      <c r="F226" s="25"/>
-      <c r="G226" s="24" t="str">
+        <f>IF(C226&lt;&gt;"",UPPER(LEFT(C226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C226,C226),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B226" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C226" s="22"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="25"/>
       <c r="H226" s="25"/>
     </row>
     <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="21" t="str">
-        <f>IF(B227&lt;&gt;"",UPPER(LEFT(B227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B227,B227),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B227" s="22"/>
-      <c r="C227" s="23"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="22"/>
-      <c r="F227" s="25"/>
-      <c r="G227" s="24" t="str">
+        <f>IF(C227&lt;&gt;"",UPPER(LEFT(C227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C227,C227),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B227" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C227" s="22"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="25"/>
       <c r="H227" s="25"/>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="21" t="str">
-        <f>IF(B228&lt;&gt;"",UPPER(LEFT(B228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B228,B228),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B228" s="22"/>
-      <c r="C228" s="23"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="25"/>
-      <c r="G228" s="24" t="str">
+        <f>IF(C228&lt;&gt;"",UPPER(LEFT(C228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C228,C228),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B228" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C228" s="22"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="25"/>
       <c r="H228" s="25"/>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="21" t="str">
-        <f>IF(B229&lt;&gt;"",UPPER(LEFT(B229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B229,B229),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B229" s="22"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="22"/>
-      <c r="F229" s="25"/>
-      <c r="G229" s="24" t="str">
+        <f>IF(C229&lt;&gt;"",UPPER(LEFT(C229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C229,C229),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B229" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C229" s="22"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="25"/>
       <c r="H229" s="25"/>
     </row>
     <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="21" t="str">
-        <f>IF(B230&lt;&gt;"",UPPER(LEFT(B230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B230,B230),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B230" s="22"/>
-      <c r="C230" s="23"/>
-      <c r="D230" s="18"/>
-      <c r="E230" s="22"/>
-      <c r="F230" s="25"/>
-      <c r="G230" s="24" t="str">
+        <f>IF(C230&lt;&gt;"",UPPER(LEFT(C230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C230,C230),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B230" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C230" s="22"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="25"/>
       <c r="H230" s="25"/>
     </row>
     <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="21" t="str">
-        <f>IF(B231&lt;&gt;"",UPPER(LEFT(B231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B231,B231),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B231" s="22"/>
-      <c r="C231" s="23"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="22"/>
-      <c r="F231" s="25"/>
-      <c r="G231" s="24" t="str">
+        <f>IF(C231&lt;&gt;"",UPPER(LEFT(C231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C231,C231),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B231" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C231" s="22"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="25"/>
       <c r="H231" s="25"/>
     </row>
     <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="21" t="str">
-        <f>IF(B232&lt;&gt;"",UPPER(LEFT(B232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B232,B232),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B232" s="22"/>
-      <c r="C232" s="23"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="22"/>
-      <c r="F232" s="25"/>
-      <c r="G232" s="24" t="str">
+        <f>IF(C232&lt;&gt;"",UPPER(LEFT(C232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C232,C232),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B232" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C232" s="22"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="25"/>
       <c r="H232" s="25"/>
     </row>
     <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="21" t="str">
-        <f>IF(B233&lt;&gt;"",UPPER(LEFT(B233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B233,B233),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B233" s="22"/>
-      <c r="C233" s="23"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="22"/>
-      <c r="F233" s="25"/>
-      <c r="G233" s="24" t="str">
+        <f>IF(C233&lt;&gt;"",UPPER(LEFT(C233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C233,C233),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B233" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C233" s="22"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="25"/>
       <c r="H233" s="25"/>
     </row>
     <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="21" t="str">
-        <f>IF(B234&lt;&gt;"",UPPER(LEFT(B234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B234,B234),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B234" s="22"/>
-      <c r="C234" s="23"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="22"/>
-      <c r="F234" s="25"/>
-      <c r="G234" s="24" t="str">
+        <f>IF(C234&lt;&gt;"",UPPER(LEFT(C234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C234,C234),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B234" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C234" s="22"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="25"/>
       <c r="H234" s="25"/>
     </row>
     <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="21" t="str">
-        <f>IF(B235&lt;&gt;"",UPPER(LEFT(B235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B235,B235),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B235" s="22"/>
-      <c r="C235" s="23"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="22"/>
-      <c r="F235" s="25"/>
-      <c r="G235" s="24" t="str">
+        <f>IF(C235&lt;&gt;"",UPPER(LEFT(C235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C235,C235),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B235" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C235" s="22"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="25"/>
       <c r="H235" s="25"/>
     </row>
     <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="21" t="str">
-        <f>IF(B236&lt;&gt;"",UPPER(LEFT(B236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B236,B236),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B236" s="22"/>
-      <c r="C236" s="23"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="22"/>
-      <c r="F236" s="25"/>
-      <c r="G236" s="24" t="str">
+        <f>IF(C236&lt;&gt;"",UPPER(LEFT(C236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C236,C236),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B236" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C236" s="22"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="25"/>
       <c r="H236" s="25"/>
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="21" t="str">
-        <f>IF(B237&lt;&gt;"",UPPER(LEFT(B237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B237,B237),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B237" s="22"/>
-      <c r="C237" s="23"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="22"/>
-      <c r="F237" s="25"/>
-      <c r="G237" s="24" t="str">
+        <f>IF(C237&lt;&gt;"",UPPER(LEFT(C237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C237,C237),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B237" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C237" s="22"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="25"/>
       <c r="H237" s="25"/>
     </row>
     <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="21" t="str">
-        <f>IF(B238&lt;&gt;"",UPPER(LEFT(B238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B238,B238),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B238" s="22"/>
-      <c r="C238" s="23"/>
-      <c r="D238" s="18"/>
-      <c r="E238" s="22"/>
-      <c r="F238" s="25"/>
-      <c r="G238" s="24" t="str">
+        <f>IF(C238&lt;&gt;"",UPPER(LEFT(C238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C238,C238),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B238" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C238" s="22"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="25"/>
       <c r="H238" s="25"/>
     </row>
     <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="21" t="str">
-        <f>IF(B239&lt;&gt;"",UPPER(LEFT(B239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B239,B239),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B239" s="22"/>
-      <c r="C239" s="23"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="22"/>
-      <c r="F239" s="25"/>
-      <c r="G239" s="24" t="str">
+        <f>IF(C239&lt;&gt;"",UPPER(LEFT(C239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C239,C239),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B239" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C239" s="22"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="22"/>
+      <c r="G239" s="25"/>
       <c r="H239" s="25"/>
     </row>
     <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="21" t="str">
-        <f>IF(B240&lt;&gt;"",UPPER(LEFT(B240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B240,B240),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B240" s="22"/>
-      <c r="C240" s="23"/>
-      <c r="D240" s="18"/>
-      <c r="E240" s="22"/>
-      <c r="F240" s="25"/>
-      <c r="G240" s="24" t="str">
+        <f>IF(C240&lt;&gt;"",UPPER(LEFT(C240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C240,C240),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B240" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C240" s="22"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="25"/>
       <c r="H240" s="25"/>
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="21" t="str">
-        <f>IF(B241&lt;&gt;"",UPPER(LEFT(B241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B241,B241),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B241" s="22"/>
-      <c r="C241" s="23"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="22"/>
-      <c r="F241" s="25"/>
-      <c r="G241" s="24" t="str">
+        <f>IF(C241&lt;&gt;"",UPPER(LEFT(C241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C241,C241),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B241" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C241" s="22"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="25"/>
       <c r="H241" s="25"/>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="21" t="str">
-        <f>IF(B242&lt;&gt;"",UPPER(LEFT(B242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B242,B242),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B242" s="22"/>
-      <c r="C242" s="23"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="22"/>
-      <c r="F242" s="25"/>
-      <c r="G242" s="24" t="str">
+        <f>IF(C242&lt;&gt;"",UPPER(LEFT(C242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C242,C242),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B242" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C242" s="22"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="22"/>
+      <c r="G242" s="25"/>
       <c r="H242" s="25"/>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="21" t="str">
-        <f>IF(B243&lt;&gt;"",UPPER(LEFT(B243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B243,B243),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B243" s="22"/>
-      <c r="C243" s="23"/>
-      <c r="D243" s="18"/>
-      <c r="E243" s="22"/>
-      <c r="F243" s="25"/>
-      <c r="G243" s="24" t="str">
+        <f>IF(C243&lt;&gt;"",UPPER(LEFT(C243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C243,C243),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B243" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C243" s="22"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="22"/>
+      <c r="G243" s="25"/>
       <c r="H243" s="25"/>
     </row>
     <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="21" t="str">
-        <f>IF(B244&lt;&gt;"",UPPER(LEFT(B244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B244,B244),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B244" s="22"/>
-      <c r="C244" s="23"/>
-      <c r="D244" s="18"/>
-      <c r="E244" s="22"/>
-      <c r="F244" s="25"/>
-      <c r="G244" s="24" t="str">
+        <f>IF(C244&lt;&gt;"",UPPER(LEFT(C244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C244,C244),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B244" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C244" s="22"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="25"/>
       <c r="H244" s="25"/>
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="21" t="str">
-        <f>IF(B245&lt;&gt;"",UPPER(LEFT(B245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B245,B245),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B245" s="22"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="25"/>
-      <c r="G245" s="24" t="str">
+        <f>IF(C245&lt;&gt;"",UPPER(LEFT(C245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C245,C245),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B245" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C245" s="22"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="22"/>
+      <c r="G245" s="25"/>
       <c r="H245" s="25"/>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="21" t="str">
-        <f>IF(B246&lt;&gt;"",UPPER(LEFT(B246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B246,B246),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B246" s="22"/>
-      <c r="C246" s="23"/>
-      <c r="D246" s="18"/>
-      <c r="E246" s="22"/>
-      <c r="F246" s="25"/>
-      <c r="G246" s="24" t="str">
+        <f>IF(C246&lt;&gt;"",UPPER(LEFT(C246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C246,C246),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B246" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C246" s="22"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="22"/>
+      <c r="G246" s="25"/>
       <c r="H246" s="25"/>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="21" t="str">
-        <f>IF(B247&lt;&gt;"",UPPER(LEFT(B247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B247,B247),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B247" s="22"/>
-      <c r="C247" s="23"/>
-      <c r="D247" s="18"/>
-      <c r="E247" s="22"/>
-      <c r="F247" s="25"/>
-      <c r="G247" s="24" t="str">
+        <f>IF(C247&lt;&gt;"",UPPER(LEFT(C247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C247,C247),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B247" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C247" s="22"/>
+      <c r="D247" s="23"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="22"/>
+      <c r="G247" s="25"/>
       <c r="H247" s="25"/>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="21" t="str">
-        <f>IF(B248&lt;&gt;"",UPPER(LEFT(B248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B248,B248),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B248" s="22"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="18"/>
-      <c r="E248" s="22"/>
-      <c r="F248" s="25"/>
-      <c r="G248" s="24" t="str">
+        <f>IF(C248&lt;&gt;"",UPPER(LEFT(C248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C248,C248),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B248" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C248" s="22"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="22"/>
+      <c r="G248" s="25"/>
       <c r="H248" s="25"/>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="21" t="str">
-        <f>IF(B249&lt;&gt;"",UPPER(LEFT(B249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B249,B249),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="23"/>
-      <c r="D249" s="18"/>
-      <c r="E249" s="22"/>
-      <c r="F249" s="25"/>
-      <c r="G249" s="24" t="str">
+        <f>IF(C249&lt;&gt;"",UPPER(LEFT(C249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C249,C249),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B249" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C249" s="22"/>
+      <c r="D249" s="23"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="25"/>
       <c r="H249" s="25"/>
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="21" t="str">
-        <f>IF(B250&lt;&gt;"",UPPER(LEFT(B250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B250,B250),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B250" s="22"/>
-      <c r="C250" s="23"/>
-      <c r="D250" s="18"/>
-      <c r="E250" s="22"/>
-      <c r="F250" s="25"/>
-      <c r="G250" s="24" t="str">
+        <f>IF(C250&lt;&gt;"",UPPER(LEFT(C250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C250,C250),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B250" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C250" s="22"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="22"/>
+      <c r="G250" s="25"/>
       <c r="H250" s="25"/>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="21" t="str">
-        <f>IF(B251&lt;&gt;"",UPPER(LEFT(B251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B251,B251),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B251" s="22"/>
-      <c r="C251" s="23"/>
-      <c r="D251" s="18"/>
-      <c r="E251" s="22"/>
-      <c r="F251" s="25"/>
-      <c r="G251" s="24" t="str">
+        <f>IF(C251&lt;&gt;"",UPPER(LEFT(C251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C251,C251),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B251" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C251" s="22"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="25"/>
       <c r="H251" s="25"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="21" t="str">
-        <f>IF(B252&lt;&gt;"",UPPER(LEFT(B252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B252,B252),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B252" s="22"/>
-      <c r="C252" s="23"/>
-      <c r="D252" s="18"/>
-      <c r="E252" s="22"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="24" t="str">
+        <f>IF(C252&lt;&gt;"",UPPER(LEFT(C252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C252,C252),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B252" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C252" s="22"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="22"/>
+      <c r="G252" s="25"/>
       <c r="H252" s="25"/>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="21" t="str">
-        <f>IF(B253&lt;&gt;"",UPPER(LEFT(B253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B253,B253),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B253" s="22"/>
-      <c r="C253" s="23"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="22"/>
-      <c r="F253" s="25"/>
-      <c r="G253" s="24" t="str">
+        <f>IF(C253&lt;&gt;"",UPPER(LEFT(C253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C253,C253),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B253" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C253" s="22"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="22"/>
+      <c r="G253" s="25"/>
       <c r="H253" s="25"/>
     </row>
     <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="21" t="str">
-        <f>IF(B254&lt;&gt;"",UPPER(LEFT(B254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B254,B254),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B254" s="22"/>
-      <c r="C254" s="23"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="22"/>
-      <c r="F254" s="25"/>
-      <c r="G254" s="24" t="str">
+        <f>IF(C254&lt;&gt;"",UPPER(LEFT(C254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C254,C254),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B254" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C254" s="22"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="25"/>
       <c r="H254" s="25"/>
     </row>
     <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="21" t="str">
-        <f>IF(B255&lt;&gt;"",UPPER(LEFT(B255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B255,B255),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B255" s="22"/>
-      <c r="C255" s="23"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="22"/>
-      <c r="F255" s="25"/>
-      <c r="G255" s="24" t="str">
+        <f>IF(C255&lt;&gt;"",UPPER(LEFT(C255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C255,C255),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B255" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C255" s="22"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="25"/>
       <c r="H255" s="25"/>
     </row>
     <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="21" t="str">
-        <f>IF(B256&lt;&gt;"",UPPER(LEFT(B256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B256,B256),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B256" s="22"/>
-      <c r="C256" s="23"/>
-      <c r="D256" s="18"/>
-      <c r="E256" s="22"/>
-      <c r="F256" s="25"/>
-      <c r="G256" s="24" t="str">
+        <f>IF(C256&lt;&gt;"",UPPER(LEFT(C256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C256,C256),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B256" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C256" s="22"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="25"/>
       <c r="H256" s="25"/>
     </row>
     <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="21" t="str">
-        <f>IF(B257&lt;&gt;"",UPPER(LEFT(B257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B257,B257),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B257" s="22"/>
-      <c r="C257" s="23"/>
-      <c r="D257" s="18"/>
-      <c r="E257" s="22"/>
-      <c r="F257" s="25"/>
-      <c r="G257" s="24" t="str">
+        <f>IF(C257&lt;&gt;"",UPPER(LEFT(C257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C257,C257),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B257" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="C257" s="22"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="25"/>
       <c r="H257" s="25"/>
     </row>
     <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="21" t="str">
-        <f>IF(B258&lt;&gt;"",UPPER(LEFT(B258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B258,B258),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B258" s="22"/>
-      <c r="C258" s="23"/>
-      <c r="D258" s="18"/>
-      <c r="E258" s="22"/>
-      <c r="F258" s="25"/>
-      <c r="G258" s="24" t="str">
-        <f t="shared" ref="G258:G264" si="4">IF(B258&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
+        <f>IF(C258&lt;&gt;"",UPPER(LEFT(C258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C258,C258),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B258" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C258" s="22"/>
+      <c r="D258" s="23"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="25"/>
       <c r="H258" s="25"/>
     </row>
     <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="21" t="str">
-        <f>IF(B259&lt;&gt;"",UPPER(LEFT(B259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B259,B259),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B259" s="22"/>
-      <c r="C259" s="23"/>
-      <c r="D259" s="18"/>
-      <c r="E259" s="22"/>
-      <c r="F259" s="25"/>
-      <c r="G259" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+        <f>IF(C259&lt;&gt;"",UPPER(LEFT(C259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C259,C259),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B259" s="24" t="str">
+        <f t="shared" ref="B259:B300" si="4">IF(C259&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
+      <c r="C259" s="22"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="25"/>
       <c r="H259" s="25"/>
     </row>
     <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="21" t="str">
-        <f>IF(B260&lt;&gt;"",UPPER(LEFT(B260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B260,B260),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B260" s="22"/>
-      <c r="C260" s="23"/>
-      <c r="D260" s="18"/>
-      <c r="E260" s="22"/>
-      <c r="F260" s="25"/>
-      <c r="G260" s="24" t="str">
+        <f>IF(C260&lt;&gt;"",UPPER(LEFT(C260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C260,C260),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B260" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="C260" s="22"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="22"/>
+      <c r="G260" s="25"/>
       <c r="H260" s="25"/>
     </row>
     <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="21" t="str">
-        <f>IF(B261&lt;&gt;"",UPPER(LEFT(B261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B261,B261),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B261" s="22"/>
-      <c r="C261" s="23"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="22"/>
-      <c r="F261" s="25"/>
-      <c r="G261" s="24" t="str">
+        <f>IF(C261&lt;&gt;"",UPPER(LEFT(C261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C261,C261),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B261" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="C261" s="22"/>
+      <c r="D261" s="23"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="25"/>
       <c r="H261" s="25"/>
     </row>
     <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="21" t="str">
-        <f>IF(B262&lt;&gt;"",UPPER(LEFT(B262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B262,B262),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B262" s="22"/>
-      <c r="C262" s="23"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="22"/>
-      <c r="F262" s="25"/>
-      <c r="G262" s="24" t="str">
+        <f>IF(C262&lt;&gt;"",UPPER(LEFT(C262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C262,C262),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B262" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="C262" s="22"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="25"/>
       <c r="H262" s="25"/>
     </row>
     <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="21" t="str">
-        <f>IF(B263&lt;&gt;"",UPPER(LEFT(B263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B263,B263),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B263" s="22"/>
-      <c r="C263" s="23"/>
-      <c r="D263" s="18"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="25"/>
-      <c r="G263" s="24" t="str">
+        <f>IF(C263&lt;&gt;"",UPPER(LEFT(C263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C263,C263),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B263" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="C263" s="22"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="18"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="25"/>
       <c r="H263" s="25"/>
     </row>
     <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="21" t="str">
-        <f>IF(B264&lt;&gt;"",UPPER(LEFT(B264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B264,B264),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B264" s="22"/>
-      <c r="C264" s="23"/>
-      <c r="D264" s="18"/>
-      <c r="E264" s="22"/>
-      <c r="F264" s="25"/>
-      <c r="G264" s="24" t="str">
+        <f>IF(C264&lt;&gt;"",UPPER(LEFT(C264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C264,C264),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B264" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="C264" s="22"/>
+      <c r="D264" s="23"/>
+      <c r="E264" s="18"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="25"/>
       <c r="H264" s="25"/>
     </row>
     <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="21" t="str">
-        <f>IF(B265&lt;&gt;"",UPPER(LEFT(B265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B265,B265),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B265" s="22"/>
-      <c r="C265" s="23"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="22"/>
-      <c r="F265" s="25"/>
-      <c r="G265" s="24" t="str">
-        <f t="shared" ref="G265:G300" si="5">IF(B265&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
+        <f>IF(C265&lt;&gt;"",UPPER(LEFT(C265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C265,C265),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B265" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C265" s="22"/>
+      <c r="D265" s="23"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="25"/>
       <c r="H265" s="25"/>
     </row>
     <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="21" t="str">
-        <f>IF(B266&lt;&gt;"",UPPER(LEFT(B266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B266,B266),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B266" s="22"/>
-      <c r="C266" s="23"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="22"/>
-      <c r="F266" s="25"/>
-      <c r="G266" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C266&lt;&gt;"",UPPER(LEFT(C266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C266,C266),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B266" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C266" s="22"/>
+      <c r="D266" s="23"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="25"/>
       <c r="H266" s="25"/>
     </row>
     <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="21" t="str">
-        <f>IF(B267&lt;&gt;"",UPPER(LEFT(B267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B267,B267),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B267" s="22"/>
-      <c r="C267" s="23"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="22"/>
-      <c r="F267" s="25"/>
-      <c r="G267" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C267&lt;&gt;"",UPPER(LEFT(C267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C267,C267),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B267" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C267" s="22"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="25"/>
       <c r="H267" s="25"/>
     </row>
     <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="21" t="str">
-        <f>IF(B268&lt;&gt;"",UPPER(LEFT(B268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B268,B268),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B268" s="22"/>
-      <c r="C268" s="23"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="22"/>
-      <c r="F268" s="25"/>
-      <c r="G268" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C268&lt;&gt;"",UPPER(LEFT(C268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C268,C268),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B268" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C268" s="22"/>
+      <c r="D268" s="23"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="25"/>
       <c r="H268" s="25"/>
     </row>
     <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="21" t="str">
-        <f>IF(B269&lt;&gt;"",UPPER(LEFT(B269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B269,B269),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B269" s="22"/>
-      <c r="C269" s="23"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="22"/>
-      <c r="F269" s="25"/>
-      <c r="G269" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C269&lt;&gt;"",UPPER(LEFT(C269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C269,C269),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B269" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C269" s="22"/>
+      <c r="D269" s="23"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="25"/>
       <c r="H269" s="25"/>
     </row>
     <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="21" t="str">
-        <f>IF(B270&lt;&gt;"",UPPER(LEFT(B270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B270,B270),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B270" s="22"/>
-      <c r="C270" s="23"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="22"/>
-      <c r="F270" s="25"/>
-      <c r="G270" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C270&lt;&gt;"",UPPER(LEFT(C270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C270,C270),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B270" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C270" s="22"/>
+      <c r="D270" s="23"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="25"/>
       <c r="H270" s="25"/>
     </row>
     <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="21" t="str">
-        <f>IF(B271&lt;&gt;"",UPPER(LEFT(B271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B271,B271),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B271" s="22"/>
-      <c r="C271" s="23"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="22"/>
-      <c r="F271" s="25"/>
-      <c r="G271" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C271&lt;&gt;"",UPPER(LEFT(C271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C271,C271),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B271" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C271" s="22"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="25"/>
       <c r="H271" s="25"/>
     </row>
     <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="21" t="str">
-        <f>IF(B272&lt;&gt;"",UPPER(LEFT(B272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B272,B272),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B272" s="22"/>
-      <c r="C272" s="23"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="22"/>
-      <c r="F272" s="25"/>
-      <c r="G272" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C272&lt;&gt;"",UPPER(LEFT(C272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C272,C272),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B272" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C272" s="22"/>
+      <c r="D272" s="23"/>
+      <c r="E272" s="18"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="25"/>
       <c r="H272" s="25"/>
     </row>
     <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="21" t="str">
-        <f>IF(B273&lt;&gt;"",UPPER(LEFT(B273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B273,B273),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B273" s="22"/>
-      <c r="C273" s="23"/>
-      <c r="D273" s="18"/>
-      <c r="E273" s="22"/>
-      <c r="F273" s="25"/>
-      <c r="G273" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C273&lt;&gt;"",UPPER(LEFT(C273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C273,C273),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B273" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C273" s="22"/>
+      <c r="D273" s="23"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="25"/>
       <c r="H273" s="25"/>
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="21" t="str">
-        <f>IF(B274&lt;&gt;"",UPPER(LEFT(B274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B274,B274),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B274" s="22"/>
-      <c r="C274" s="23"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="22"/>
-      <c r="F274" s="25"/>
-      <c r="G274" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C274&lt;&gt;"",UPPER(LEFT(C274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C274,C274),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B274" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C274" s="22"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="25"/>
       <c r="H274" s="25"/>
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="21" t="str">
-        <f>IF(B275&lt;&gt;"",UPPER(LEFT(B275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B275,B275),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B275" s="22"/>
-      <c r="C275" s="23"/>
-      <c r="D275" s="18"/>
-      <c r="E275" s="22"/>
-      <c r="F275" s="25"/>
-      <c r="G275" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C275&lt;&gt;"",UPPER(LEFT(C275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C275,C275),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B275" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C275" s="22"/>
+      <c r="D275" s="23"/>
+      <c r="E275" s="18"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="25"/>
       <c r="H275" s="25"/>
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="21" t="str">
-        <f>IF(B276&lt;&gt;"",UPPER(LEFT(B276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B276,B276),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B276" s="22"/>
-      <c r="C276" s="23"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="22"/>
-      <c r="F276" s="25"/>
-      <c r="G276" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C276&lt;&gt;"",UPPER(LEFT(C276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C276,C276),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B276" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C276" s="22"/>
+      <c r="D276" s="23"/>
+      <c r="E276" s="18"/>
+      <c r="F276" s="22"/>
+      <c r="G276" s="25"/>
       <c r="H276" s="25"/>
     </row>
     <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="21" t="str">
-        <f>IF(B277&lt;&gt;"",UPPER(LEFT(B277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B277,B277),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B277" s="22"/>
-      <c r="C277" s="23"/>
-      <c r="D277" s="18"/>
-      <c r="E277" s="22"/>
-      <c r="F277" s="25"/>
-      <c r="G277" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C277&lt;&gt;"",UPPER(LEFT(C277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C277,C277),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B277" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C277" s="22"/>
+      <c r="D277" s="23"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="22"/>
+      <c r="G277" s="25"/>
       <c r="H277" s="25"/>
     </row>
     <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="21" t="str">
-        <f>IF(B278&lt;&gt;"",UPPER(LEFT(B278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B278,B278),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B278" s="22"/>
-      <c r="C278" s="23"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="22"/>
-      <c r="F278" s="25"/>
-      <c r="G278" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C278&lt;&gt;"",UPPER(LEFT(C278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C278,C278),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B278" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C278" s="22"/>
+      <c r="D278" s="23"/>
+      <c r="E278" s="18"/>
+      <c r="F278" s="22"/>
+      <c r="G278" s="25"/>
       <c r="H278" s="25"/>
     </row>
     <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="21" t="str">
-        <f>IF(B279&lt;&gt;"",UPPER(LEFT(B279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B279,B279),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B279" s="22"/>
-      <c r="C279" s="23"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="22"/>
-      <c r="F279" s="25"/>
-      <c r="G279" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C279&lt;&gt;"",UPPER(LEFT(C279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C279,C279),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B279" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C279" s="22"/>
+      <c r="D279" s="23"/>
+      <c r="E279" s="18"/>
+      <c r="F279" s="22"/>
+      <c r="G279" s="25"/>
       <c r="H279" s="25"/>
     </row>
     <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="21" t="str">
-        <f>IF(B280&lt;&gt;"",UPPER(LEFT(B280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B280,B280),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B280" s="22"/>
-      <c r="C280" s="23"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="22"/>
-      <c r="F280" s="25"/>
-      <c r="G280" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C280&lt;&gt;"",UPPER(LEFT(C280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C280,C280),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B280" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C280" s="22"/>
+      <c r="D280" s="23"/>
+      <c r="E280" s="18"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="25"/>
       <c r="H280" s="25"/>
     </row>
     <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="21" t="str">
-        <f>IF(B281&lt;&gt;"",UPPER(LEFT(B281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B281,B281),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B281" s="22"/>
-      <c r="C281" s="23"/>
-      <c r="D281" s="18"/>
-      <c r="E281" s="22"/>
-      <c r="F281" s="25"/>
-      <c r="G281" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C281&lt;&gt;"",UPPER(LEFT(C281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C281,C281),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B281" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C281" s="22"/>
+      <c r="D281" s="23"/>
+      <c r="E281" s="18"/>
+      <c r="F281" s="22"/>
+      <c r="G281" s="25"/>
       <c r="H281" s="25"/>
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="21" t="str">
-        <f>IF(B282&lt;&gt;"",UPPER(LEFT(B282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B282,B282),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B282" s="22"/>
-      <c r="C282" s="23"/>
-      <c r="D282" s="18"/>
-      <c r="E282" s="22"/>
-      <c r="F282" s="25"/>
-      <c r="G282" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C282&lt;&gt;"",UPPER(LEFT(C282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C282,C282),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B282" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C282" s="22"/>
+      <c r="D282" s="23"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="22"/>
+      <c r="G282" s="25"/>
       <c r="H282" s="25"/>
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="21" t="str">
-        <f>IF(B283&lt;&gt;"",UPPER(LEFT(B283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B283,B283),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B283" s="22"/>
-      <c r="C283" s="23"/>
-      <c r="D283" s="18"/>
-      <c r="E283" s="22"/>
-      <c r="F283" s="25"/>
-      <c r="G283" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C283&lt;&gt;"",UPPER(LEFT(C283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C283,C283),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B283" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C283" s="22"/>
+      <c r="D283" s="23"/>
+      <c r="E283" s="18"/>
+      <c r="F283" s="22"/>
+      <c r="G283" s="25"/>
       <c r="H283" s="25"/>
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="21" t="str">
-        <f>IF(B284&lt;&gt;"",UPPER(LEFT(B284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B284,B284),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B284" s="22"/>
-      <c r="C284" s="23"/>
-      <c r="D284" s="18"/>
-      <c r="E284" s="22"/>
-      <c r="F284" s="25"/>
-      <c r="G284" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C284&lt;&gt;"",UPPER(LEFT(C284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C284,C284),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B284" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C284" s="22"/>
+      <c r="D284" s="23"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="25"/>
       <c r="H284" s="25"/>
     </row>
     <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="21" t="str">
-        <f>IF(B285&lt;&gt;"",UPPER(LEFT(B285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B285,B285),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B285" s="22"/>
-      <c r="C285" s="23"/>
-      <c r="D285" s="18"/>
-      <c r="E285" s="22"/>
-      <c r="F285" s="25"/>
-      <c r="G285" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C285&lt;&gt;"",UPPER(LEFT(C285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C285,C285),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B285" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C285" s="22"/>
+      <c r="D285" s="23"/>
+      <c r="E285" s="18"/>
+      <c r="F285" s="22"/>
+      <c r="G285" s="25"/>
       <c r="H285" s="25"/>
     </row>
     <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="21" t="str">
-        <f>IF(B286&lt;&gt;"",UPPER(LEFT(B286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B286,B286),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B286" s="22"/>
-      <c r="C286" s="23"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="22"/>
-      <c r="F286" s="25"/>
-      <c r="G286" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C286&lt;&gt;"",UPPER(LEFT(C286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C286,C286),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B286" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C286" s="22"/>
+      <c r="D286" s="23"/>
+      <c r="E286" s="18"/>
+      <c r="F286" s="22"/>
+      <c r="G286" s="25"/>
       <c r="H286" s="25"/>
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="21" t="str">
-        <f>IF(B287&lt;&gt;"",UPPER(LEFT(B287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B287,B287),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B287" s="22"/>
-      <c r="C287" s="23"/>
-      <c r="D287" s="18"/>
-      <c r="E287" s="22"/>
-      <c r="F287" s="25"/>
-      <c r="G287" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C287&lt;&gt;"",UPPER(LEFT(C287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C287,C287),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B287" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C287" s="22"/>
+      <c r="D287" s="23"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="22"/>
+      <c r="G287" s="25"/>
       <c r="H287" s="25"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="21" t="str">
-        <f>IF(B288&lt;&gt;"",UPPER(LEFT(B288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B288,B288),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B288" s="22"/>
-      <c r="C288" s="23"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="22"/>
-      <c r="F288" s="25"/>
-      <c r="G288" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C288&lt;&gt;"",UPPER(LEFT(C288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C288,C288),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B288" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C288" s="22"/>
+      <c r="D288" s="23"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="22"/>
+      <c r="G288" s="25"/>
       <c r="H288" s="25"/>
     </row>
     <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="21" t="str">
-        <f>IF(B289&lt;&gt;"",UPPER(LEFT(B289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B289,B289),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B289" s="22"/>
-      <c r="C289" s="23"/>
-      <c r="D289" s="18"/>
-      <c r="E289" s="22"/>
-      <c r="F289" s="25"/>
-      <c r="G289" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C289&lt;&gt;"",UPPER(LEFT(C289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C289,C289),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B289" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C289" s="22"/>
+      <c r="D289" s="23"/>
+      <c r="E289" s="18"/>
+      <c r="F289" s="22"/>
+      <c r="G289" s="25"/>
       <c r="H289" s="25"/>
     </row>
     <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="21" t="str">
-        <f>IF(B290&lt;&gt;"",UPPER(LEFT(B290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B290,B290),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B290" s="22"/>
-      <c r="C290" s="23"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="22"/>
-      <c r="F290" s="25"/>
-      <c r="G290" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C290&lt;&gt;"",UPPER(LEFT(C290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C290,C290),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B290" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C290" s="22"/>
+      <c r="D290" s="23"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="25"/>
       <c r="H290" s="25"/>
     </row>
     <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="21" t="str">
-        <f>IF(B291&lt;&gt;"",UPPER(LEFT(B291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B291,B291),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B291" s="22"/>
-      <c r="C291" s="23"/>
-      <c r="D291" s="18"/>
-      <c r="E291" s="22"/>
-      <c r="F291" s="25"/>
-      <c r="G291" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C291&lt;&gt;"",UPPER(LEFT(C291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C291,C291),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B291" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C291" s="22"/>
+      <c r="D291" s="23"/>
+      <c r="E291" s="18"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="25"/>
       <c r="H291" s="25"/>
     </row>
     <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="21" t="str">
-        <f>IF(B292&lt;&gt;"",UPPER(LEFT(B292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B292,B292),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B292" s="22"/>
-      <c r="C292" s="23"/>
-      <c r="D292" s="18"/>
-      <c r="E292" s="22"/>
-      <c r="F292" s="25"/>
-      <c r="G292" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C292&lt;&gt;"",UPPER(LEFT(C292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C292,C292),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B292" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C292" s="22"/>
+      <c r="D292" s="23"/>
+      <c r="E292" s="18"/>
+      <c r="F292" s="22"/>
+      <c r="G292" s="25"/>
       <c r="H292" s="25"/>
     </row>
     <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="21" t="str">
-        <f>IF(B293&lt;&gt;"",UPPER(LEFT(B293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B293,B293),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B293" s="22"/>
-      <c r="C293" s="23"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="22"/>
-      <c r="F293" s="25"/>
-      <c r="G293" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C293&lt;&gt;"",UPPER(LEFT(C293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C293,C293),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B293" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C293" s="22"/>
+      <c r="D293" s="23"/>
+      <c r="E293" s="18"/>
+      <c r="F293" s="22"/>
+      <c r="G293" s="25"/>
       <c r="H293" s="25"/>
     </row>
     <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="21" t="str">
-        <f>IF(B294&lt;&gt;"",UPPER(LEFT(B294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B294,B294),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B294" s="22"/>
-      <c r="C294" s="23"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="22"/>
-      <c r="F294" s="25"/>
-      <c r="G294" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C294&lt;&gt;"",UPPER(LEFT(C294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C294,C294),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B294" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C294" s="22"/>
+      <c r="D294" s="23"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="22"/>
+      <c r="G294" s="25"/>
       <c r="H294" s="25"/>
     </row>
     <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="21" t="str">
-        <f>IF(B295&lt;&gt;"",UPPER(LEFT(B295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B295,B295),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B295" s="22"/>
-      <c r="C295" s="23"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="22"/>
-      <c r="F295" s="25"/>
-      <c r="G295" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C295&lt;&gt;"",UPPER(LEFT(C295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C295,C295),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B295" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C295" s="22"/>
+      <c r="D295" s="23"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="22"/>
+      <c r="G295" s="25"/>
       <c r="H295" s="25"/>
     </row>
     <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="21" t="str">
-        <f>IF(B296&lt;&gt;"",UPPER(LEFT(B296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B296,B296),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B296" s="22"/>
-      <c r="C296" s="23"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="22"/>
-      <c r="F296" s="25"/>
-      <c r="G296" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C296&lt;&gt;"",UPPER(LEFT(C296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C296,C296),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B296" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C296" s="22"/>
+      <c r="D296" s="23"/>
+      <c r="E296" s="18"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="25"/>
       <c r="H296" s="25"/>
     </row>
     <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="21" t="str">
-        <f>IF(B297&lt;&gt;"",UPPER(LEFT(B297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B297,B297),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B297" s="22"/>
-      <c r="C297" s="23"/>
-      <c r="D297" s="18"/>
-      <c r="E297" s="22"/>
-      <c r="F297" s="25"/>
-      <c r="G297" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C297&lt;&gt;"",UPPER(LEFT(C297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C297,C297),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B297" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C297" s="22"/>
+      <c r="D297" s="23"/>
+      <c r="E297" s="18"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="25"/>
       <c r="H297" s="25"/>
     </row>
     <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="21" t="str">
-        <f>IF(B298&lt;&gt;"",UPPER(LEFT(B298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B298,B298),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B298" s="22"/>
-      <c r="C298" s="23"/>
-      <c r="D298" s="18"/>
-      <c r="E298" s="22"/>
-      <c r="F298" s="25"/>
-      <c r="G298" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C298&lt;&gt;"",UPPER(LEFT(C298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C298,C298),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B298" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C298" s="22"/>
+      <c r="D298" s="23"/>
+      <c r="E298" s="18"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="25"/>
       <c r="H298" s="25"/>
     </row>
     <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="21" t="str">
-        <f>IF(B299&lt;&gt;"",UPPER(LEFT(B299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B299,B299),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B299" s="22"/>
-      <c r="C299" s="23"/>
-      <c r="D299" s="18"/>
-      <c r="E299" s="22"/>
-      <c r="F299" s="25"/>
-      <c r="G299" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C299&lt;&gt;"",UPPER(LEFT(C299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C299,C299),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B299" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C299" s="22"/>
+      <c r="D299" s="23"/>
+      <c r="E299" s="18"/>
+      <c r="F299" s="22"/>
+      <c r="G299" s="25"/>
       <c r="H299" s="25"/>
     </row>
     <row r="300" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="21" t="str">
-        <f>IF(B300&lt;&gt;"",UPPER(LEFT(B300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B300,B300),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B300" s="22"/>
-      <c r="C300" s="23"/>
-      <c r="D300" s="18"/>
-      <c r="E300" s="22"/>
-      <c r="F300" s="25"/>
-      <c r="G300" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f>IF(C300&lt;&gt;"",UPPER(LEFT(C300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C300,C300),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B300" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C300" s="22"/>
+      <c r="D300" s="23"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="25"/>
       <c r="H300" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9jdSQzLZJCWLtOeiGiuOVHuQBiHN0X83e5YPCagh9w3B49hDi7DNjEc9VKoGNoNMxc78nRWlJwnsezsGHpg2Bg==" saltValue="fGwceFAEx2Xc3OStnAAi6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="B2:C300 F2:H300">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&gt;0, COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&lt;6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D300">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&gt;0, COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&lt;6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E300">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&gt;0, COUNTA($B2,$C2,$D2,$E2,$F2,$H2)&lt;6)</formula>
+  <sheetProtection algorithmName="SHA-512" hashValue="xFzb2MgVjJMVTTu0WfEHOoFtsZolJodN8GJHouTnGxsjNtTEFRB2642mk1DFMLJ+PFj4Ly444wzJagnSae1Mxg==" saltValue="w6Vsb4RwJrSABhWXt2cv0g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="B2:H300">
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>AND(COUNTA($C2,$D2,$E2,$F2,$G2,$H2)&gt;0, COUNTA($C2,$D2,$E2,$F2,$G2,$H2)&lt;6)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="C2:C300" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="D2:D300" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>EDATE(TODAY(),-10)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G2:G300" xr:uid="{09FBEF7D-851F-3E41-A7FE-AD553C7185E9}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Ngày nhập không hợp lệ " error="Ngày nhập tính từ ngày hôm nay trở về sau" sqref="D2:D300" xr:uid="{6B83C7C2-8B14-9A47-B9FD-B77868DF88C9}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:B300" xr:uid="{09FBEF7D-851F-3E41-A7FE-AD553C7185E9}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Ngày nhập không hợp lệ " error="Ngày nhập tính từ ngày hôm nay trở về sau" sqref="E2:E300" xr:uid="{6B83C7C2-8B14-9A47-B9FD-B77868DF88C9}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E300" xr:uid="{6BE7FCC0-07C7-6943-9C2F-2BE1FECC6F50}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F300" xr:uid="{6BE7FCC0-07C7-6943-9C2F-2BE1FECC6F50}">
       <formula1>"milkingCow,dryCow,youngCow"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5676,13 +5740,13 @@
           <x14:formula1>
             <xm:f>'Cow Type'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B300</xm:sqref>
+          <xm:sqref>C2:C300</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Cow Origin'!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F300</xm:sqref>
+          <xm:sqref>G2:G300</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5697,8 +5761,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17726,7 +17790,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Fb0hhNXAmdsdG+r4YuSgggCg/FEWyFhleKnQJ8azlxY8nvAcDuENz4ovss4PTOSQGBSFUI/lBRfxmiK46BUaLg==" saltValue="0vw604Rkp2/DnDG+ZZCEkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:J300">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>AND($A2&lt;&gt;"", COUNTA($B2:$J2)&lt;COLUMNS($B2:$J2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/static/document/Template Cow Import.xlsx
+++ b/src/main/resources/static/document/Template Cow Import.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Documents/Document_MacOs/CAPSTONE PROJECT/BE 2/backend/src/main/resources/static/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F9941B-63A7-5640-9362-9879295179F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15F3BF6-BC84-B54F-A50C-381EF82D5ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="lIlxBXX1CbpRZCSCnC96nvm+P3RrPstgPhz1dcT5R19hf6UGIy/8lMs6pN9Ze6KEEDW1Nk/8TMZlpHvbtWKTHQ==" workbookSaltValue="No3GJBWLeJbFaIq5cPuZUA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import time" sheetId="1" state="hidden" r:id="rId1"/>
@@ -320,98 +320,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -422,13 +335,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,25 +531,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="totalRow" dxfId="26"/>
-      <tableStyleElement type="firstColumn" dxfId="25"/>
-      <tableStyleElement type="lastColumn" dxfId="24"/>
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
-      <tableStyleElement type="pageFieldValues" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="5"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldValues" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -887,4847 +793,4847 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J300"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="8"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="9"/>
-    <col min="8" max="8" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="9"/>
+    <col min="7" max="7" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="str">
-        <f>IF(C2&lt;&gt;"",UPPER(LEFT(C2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C2,C2),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B2" s="24" t="str">
-        <f t="shared" ref="B2:B66" si="0">IF(C2&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="18"/>
+        <f>IF(B2&lt;&gt;"",UPPER(LEFT(B2,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B2,B2),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="str">
+        <f>IF(B2&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="str">
-        <f>IF(C3&lt;&gt;"",UPPER(LEFT(C3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C3,C3),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B3" s="24" t="str">
+        <f>IF(B3&lt;&gt;"",UPPER(LEFT(B3,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B3,B3),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24" t="str">
+        <f t="shared" ref="H3:H66" si="0">IF(B3&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="str">
+        <f>IF(B4&lt;&gt;"",UPPER(LEFT(B4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B4,B4),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="str">
-        <f>IF(C4&lt;&gt;"",UPPER(LEFT(C4,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C4,C4),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B4" s="24" t="str">
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="str">
+        <f>IF(B5&lt;&gt;"",UPPER(LEFT(B5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B5,B5),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="str">
-        <f>IF(C5&lt;&gt;"",UPPER(LEFT(C5,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C5,C5),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B5" s="24" t="str">
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="str">
+        <f>IF(B6&lt;&gt;"",UPPER(LEFT(B6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B6,B6),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="str">
-        <f>IF(C6&lt;&gt;"",UPPER(LEFT(C6,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C6,C6),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B6" s="24" t="str">
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="str">
+        <f>IF(B7&lt;&gt;"",UPPER(LEFT(B7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B7,B7),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="str">
-        <f>IF(C7&lt;&gt;"",UPPER(LEFT(C7,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C7,C7),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="24" t="str">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="str">
+        <f>IF(B8&lt;&gt;"",UPPER(LEFT(B8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B8,B8),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="25"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="str">
-        <f>IF(C8&lt;&gt;"",UPPER(LEFT(C8,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C8,C8),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="24" t="str">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="str">
+        <f>IF(B9&lt;&gt;"",UPPER(LEFT(B9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B9,B9),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="str">
-        <f>IF(C9&lt;&gt;"",UPPER(LEFT(C9,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C9,C9),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="24" t="str">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="str">
+        <f>IF(B10&lt;&gt;"",UPPER(LEFT(B10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B10,B10),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="str">
-        <f>IF(C10&lt;&gt;"",UPPER(LEFT(C10,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C10,C10),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="24" t="str">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="str">
+        <f>IF(B11&lt;&gt;"",UPPER(LEFT(B11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B11,B11),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="str">
-        <f>IF(C11&lt;&gt;"",UPPER(LEFT(C11,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C11,C11),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="24" t="str">
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="str">
+        <f>IF(B12&lt;&gt;"",UPPER(LEFT(B12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B12,B12),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="str">
-        <f>IF(C12&lt;&gt;"",UPPER(LEFT(C12,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C12,C12),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="24" t="str">
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="str">
+        <f>IF(B13&lt;&gt;"",UPPER(LEFT(B13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B13,B13),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="str">
-        <f>IF(C13&lt;&gt;"",UPPER(LEFT(C13,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C13,C13),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="24" t="str">
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="str">
+        <f>IF(B14&lt;&gt;"",UPPER(LEFT(B14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B14,B14),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="str">
-        <f>IF(C14&lt;&gt;"",UPPER(LEFT(C14,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C14,C14),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="24" t="str">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="str">
+        <f>IF(B15&lt;&gt;"",UPPER(LEFT(B15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B15,B15),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="str">
-        <f>IF(C15&lt;&gt;"",UPPER(LEFT(C15,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C15,C15),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="24" t="str">
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="str">
+        <f>IF(B16&lt;&gt;"",UPPER(LEFT(B16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B16,B16),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="str">
-        <f>IF(C16&lt;&gt;"",UPPER(LEFT(C16,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C16,C16),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="str">
-        <f>IF(C17&lt;&gt;"",UPPER(LEFT(C17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C17,C17),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="24" t="str">
+        <f>IF(B17&lt;&gt;"",UPPER(LEFT(B17,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B17,B17),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="str">
-        <f>IF(C18&lt;&gt;"",UPPER(LEFT(C18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C18,C18),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="24" t="str">
+        <f>IF(B18&lt;&gt;"",UPPER(LEFT(B18,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B18,B18),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="str">
-        <f>IF(C19&lt;&gt;"",UPPER(LEFT(C19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C19,C19),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="24" t="str">
+        <f>IF(B19&lt;&gt;"",UPPER(LEFT(B19,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B19,B19),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="str">
-        <f>IF(C20&lt;&gt;"",UPPER(LEFT(C20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C20,C20),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="24" t="str">
+        <f>IF(B20&lt;&gt;"",UPPER(LEFT(B20,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B20,B20),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="str">
-        <f>IF(C21&lt;&gt;"",UPPER(LEFT(C21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C21,C21),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="24" t="str">
+        <f>IF(B21&lt;&gt;"",UPPER(LEFT(B21,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B21,B21),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="str">
-        <f>IF(C22&lt;&gt;"",UPPER(LEFT(C22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C22,C22),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="24" t="str">
+        <f>IF(B22&lt;&gt;"",UPPER(LEFT(B22,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B22,B22),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="str">
-        <f>IF(C23&lt;&gt;"",UPPER(LEFT(C23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C23,C23),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="24" t="str">
+        <f>IF(B23&lt;&gt;"",UPPER(LEFT(B23,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B23,B23),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="str">
-        <f>IF(C24&lt;&gt;"",UPPER(LEFT(C24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C24,C24),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="24" t="str">
+        <f>IF(B24&lt;&gt;"",UPPER(LEFT(B24,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B24,B24),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="str">
-        <f>IF(C25&lt;&gt;"",UPPER(LEFT(C25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C25,C25),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="24" t="str">
+        <f>IF(B25&lt;&gt;"",UPPER(LEFT(B25,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B25,B25),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="str">
-        <f>IF(C26&lt;&gt;"",UPPER(LEFT(C26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C26,C26),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="24" t="str">
+        <f>IF(B26&lt;&gt;"",UPPER(LEFT(B26,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B26,B26),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="str">
-        <f>IF(C27&lt;&gt;"",UPPER(LEFT(C27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C27,C27),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="24" t="str">
+        <f>IF(B27&lt;&gt;"",UPPER(LEFT(B27,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B27,B27),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="str">
-        <f>IF(C28&lt;&gt;"",UPPER(LEFT(C28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C28,C28),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="24" t="str">
+        <f>IF(B28&lt;&gt;"",UPPER(LEFT(B28,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B28,B28),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="str">
-        <f>IF(C29&lt;&gt;"",UPPER(LEFT(C29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C29,C29),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="24" t="str">
+        <f>IF(B29&lt;&gt;"",UPPER(LEFT(B29,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B29,B29),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="str">
-        <f>IF(C30&lt;&gt;"",UPPER(LEFT(C30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C30,C30),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="24" t="str">
+        <f>IF(B30&lt;&gt;"",UPPER(LEFT(B30,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B30,B30),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="str">
-        <f>IF(C31&lt;&gt;"",UPPER(LEFT(C31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C31,C31),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="24" t="str">
+        <f>IF(B31&lt;&gt;"",UPPER(LEFT(B31,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B31,B31),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="str">
-        <f>IF(C32&lt;&gt;"",UPPER(LEFT(C32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C32,C32),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="24" t="str">
+        <f>IF(B32&lt;&gt;"",UPPER(LEFT(B32,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B32,B32),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="str">
-        <f>IF(C33&lt;&gt;"",UPPER(LEFT(C33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C33,C33),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="24" t="str">
+        <f>IF(B33&lt;&gt;"",UPPER(LEFT(B33,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B33,B33),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="str">
-        <f>IF(C34&lt;&gt;"",UPPER(LEFT(C34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C34,C34),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B34" s="24" t="str">
+        <f>IF(B34&lt;&gt;"",UPPER(LEFT(B34,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B34,B34),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="str">
-        <f>IF(C35&lt;&gt;"",UPPER(LEFT(C35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C35,C35),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B35" s="24" t="str">
+        <f>IF(B35&lt;&gt;"",UPPER(LEFT(B35,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B35,B35),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="str">
-        <f>IF(C36&lt;&gt;"",UPPER(LEFT(C36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C36,C36),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B36" s="24" t="str">
+        <f>IF(B36&lt;&gt;"",UPPER(LEFT(B36,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B36,B36),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21" t="str">
-        <f>IF(C37&lt;&gt;"",UPPER(LEFT(C37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C37,C37),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B37" s="24" t="str">
+        <f>IF(B37&lt;&gt;"",UPPER(LEFT(B37,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B37,B37),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="str">
-        <f>IF(C38&lt;&gt;"",UPPER(LEFT(C38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C38,C38),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B38" s="24" t="str">
+        <f>IF(B38&lt;&gt;"",UPPER(LEFT(B38,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B38,B38),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="str">
-        <f>IF(C39&lt;&gt;"",UPPER(LEFT(C39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C39,C39),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B39" s="24" t="str">
+        <f>IF(B39&lt;&gt;"",UPPER(LEFT(B39,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B39,B39),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21" t="str">
-        <f>IF(C40&lt;&gt;"",UPPER(LEFT(C40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C40,C40),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B40" s="24" t="str">
+        <f>IF(B40&lt;&gt;"",UPPER(LEFT(B40,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B40,B40),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21" t="str">
-        <f>IF(C41&lt;&gt;"",UPPER(LEFT(C41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C41,C41),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B41" s="24" t="str">
+        <f>IF(B41&lt;&gt;"",UPPER(LEFT(B41,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B41,B41),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21" t="str">
-        <f>IF(C42&lt;&gt;"",UPPER(LEFT(C42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C42,C42),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B42" s="24" t="str">
+        <f>IF(B42&lt;&gt;"",UPPER(LEFT(B42,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B42,B42),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21" t="str">
-        <f>IF(C43&lt;&gt;"",UPPER(LEFT(C43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C43,C43),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="24" t="str">
+        <f>IF(B43&lt;&gt;"",UPPER(LEFT(B43,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B43,B43),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21" t="str">
-        <f>IF(C44&lt;&gt;"",UPPER(LEFT(C44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C44,C44),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="24" t="str">
+        <f>IF(B44&lt;&gt;"",UPPER(LEFT(B44,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B44,B44),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21" t="str">
-        <f>IF(C45&lt;&gt;"",UPPER(LEFT(C45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C45,C45),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B45" s="24" t="str">
+        <f>IF(B45&lt;&gt;"",UPPER(LEFT(B45,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B45,B45),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="str">
-        <f>IF(C46&lt;&gt;"",UPPER(LEFT(C46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C46,C46),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B46" s="24" t="str">
+        <f>IF(B46&lt;&gt;"",UPPER(LEFT(B46,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B46,B46),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21" t="str">
-        <f>IF(C47&lt;&gt;"",UPPER(LEFT(C47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C47,C47),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="24" t="str">
+        <f>IF(B47&lt;&gt;"",UPPER(LEFT(B47,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B47,B47),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21" t="str">
-        <f>IF(C48&lt;&gt;"",UPPER(LEFT(C48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C48,C48),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="24" t="str">
+        <f>IF(B48&lt;&gt;"",UPPER(LEFT(B48,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B48,B48),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="str">
-        <f>IF(C49&lt;&gt;"",UPPER(LEFT(C49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C49,C49),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="24" t="str">
+        <f>IF(B49&lt;&gt;"",UPPER(LEFT(B49,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B49,B49),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21" t="str">
-        <f>IF(C50&lt;&gt;"",UPPER(LEFT(C50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C50,C50),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B50" s="24" t="str">
+        <f>IF(B50&lt;&gt;"",UPPER(LEFT(B50,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B50,B50),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="str">
-        <f>IF(C51&lt;&gt;"",UPPER(LEFT(C51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C51,C51),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B51" s="24" t="str">
+        <f>IF(B51&lt;&gt;"",UPPER(LEFT(B51,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B51,B51),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21" t="str">
-        <f>IF(C52&lt;&gt;"",UPPER(LEFT(C52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C52,C52),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B52" s="24" t="str">
+        <f>IF(B52&lt;&gt;"",UPPER(LEFT(B52,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B52,B52),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="21" t="str">
-        <f>IF(C53&lt;&gt;"",UPPER(LEFT(C53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C53,C53),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B53" s="24" t="str">
+        <f>IF(B53&lt;&gt;"",UPPER(LEFT(B53,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B53,B53),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="str">
-        <f>IF(C54&lt;&gt;"",UPPER(LEFT(C54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C54,C54),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="24" t="str">
+        <f>IF(B54&lt;&gt;"",UPPER(LEFT(B54,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B54,B54),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21" t="str">
-        <f>IF(C55&lt;&gt;"",UPPER(LEFT(C55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C55,C55),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B55" s="24" t="str">
+        <f>IF(B55&lt;&gt;"",UPPER(LEFT(B55,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B55,B55),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="21" t="str">
-        <f>IF(C56&lt;&gt;"",UPPER(LEFT(C56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C56,C56),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B56" s="24" t="str">
+        <f>IF(B56&lt;&gt;"",UPPER(LEFT(B56,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B56,B56),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21" t="str">
-        <f>IF(C57&lt;&gt;"",UPPER(LEFT(C57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C57,C57),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B57" s="24" t="str">
+        <f>IF(B57&lt;&gt;"",UPPER(LEFT(B57,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B57,B57),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="str">
-        <f>IF(C58&lt;&gt;"",UPPER(LEFT(C58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C58,C58),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B58" s="24" t="str">
+        <f>IF(B58&lt;&gt;"",UPPER(LEFT(B58,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B58,B58),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="21" t="str">
-        <f>IF(C59&lt;&gt;"",UPPER(LEFT(C59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C59,C59),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="24" t="str">
+        <f>IF(B59&lt;&gt;"",UPPER(LEFT(B59,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B59,B59),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="21" t="str">
-        <f>IF(C60&lt;&gt;"",UPPER(LEFT(C60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C60,C60),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B60" s="24" t="str">
+        <f>IF(B60&lt;&gt;"",UPPER(LEFT(B60,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B60,B60),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="str">
-        <f>IF(C61&lt;&gt;"",UPPER(LEFT(C61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C61,C61),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B61" s="24" t="str">
+        <f>IF(B61&lt;&gt;"",UPPER(LEFT(B61,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B61,B61),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="21" t="str">
-        <f>IF(C62&lt;&gt;"",UPPER(LEFT(C62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C62,C62),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B62" s="24" t="str">
+        <f>IF(B62&lt;&gt;"",UPPER(LEFT(B62,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B62,B62),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="21" t="str">
-        <f>IF(C63&lt;&gt;"",UPPER(LEFT(C63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C63,C63),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B63" s="24" t="str">
+        <f>IF(B63&lt;&gt;"",UPPER(LEFT(B63,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B63,B63),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="21" t="str">
-        <f>IF(C64&lt;&gt;"",UPPER(LEFT(C64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C64,C64),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B64" s="24" t="str">
+        <f>IF(B64&lt;&gt;"",UPPER(LEFT(B64,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B64,B64),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="21" t="str">
-        <f>IF(C65&lt;&gt;"",UPPER(LEFT(C65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C65,C65),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B65" s="24" t="str">
+        <f>IF(B65&lt;&gt;"",UPPER(LEFT(B65,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B65,B65),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="21" t="str">
-        <f>IF(C66&lt;&gt;"",UPPER(LEFT(C66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C66,C66),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B66" s="24" t="str">
+        <f>IF(B66&lt;&gt;"",UPPER(LEFT(B66,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B66,B66),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="str">
-        <f>IF(C67&lt;&gt;"",UPPER(LEFT(C67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C67,C67),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B67" s="24" t="str">
-        <f t="shared" ref="B67:B130" si="1">IF(C67&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="22"/>
+        <f>IF(B67&lt;&gt;"",UPPER(LEFT(B67,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B67,B67),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="24" t="str">
+        <f t="shared" ref="H67:H130" si="1">IF(B67&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="21" t="str">
-        <f>IF(C68&lt;&gt;"",UPPER(LEFT(C68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C68,C68),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B68" s="24" t="str">
+        <f>IF(B68&lt;&gt;"",UPPER(LEFT(B68,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B68,B68),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="21" t="str">
-        <f>IF(C69&lt;&gt;"",UPPER(LEFT(C69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C69,C69),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B69" s="24" t="str">
+        <f>IF(B69&lt;&gt;"",UPPER(LEFT(B69,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B69,B69),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="str">
-        <f>IF(C70&lt;&gt;"",UPPER(LEFT(C70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C70,C70),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B70" s="24" t="str">
+        <f>IF(B70&lt;&gt;"",UPPER(LEFT(B70,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B70,B70),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="21" t="str">
-        <f>IF(C71&lt;&gt;"",UPPER(LEFT(C71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C71,C71),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B71" s="24" t="str">
+        <f>IF(B71&lt;&gt;"",UPPER(LEFT(B71,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B71,B71),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="str">
-        <f>IF(C72&lt;&gt;"",UPPER(LEFT(C72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C72,C72),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B72" s="24" t="str">
+        <f>IF(B72&lt;&gt;"",UPPER(LEFT(B72,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B72,B72),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="21" t="str">
-        <f>IF(C73&lt;&gt;"",UPPER(LEFT(C73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C73,C73),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B73" s="24" t="str">
+        <f>IF(B73&lt;&gt;"",UPPER(LEFT(B73,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B73,B73),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="21" t="str">
-        <f>IF(C74&lt;&gt;"",UPPER(LEFT(C74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C74,C74),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B74" s="24" t="str">
+        <f>IF(B74&lt;&gt;"",UPPER(LEFT(B74,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B74,B74),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="21" t="str">
-        <f>IF(C75&lt;&gt;"",UPPER(LEFT(C75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C75,C75),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B75" s="24" t="str">
+        <f>IF(B75&lt;&gt;"",UPPER(LEFT(B75,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B75,B75),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="21" t="str">
-        <f>IF(C76&lt;&gt;"",UPPER(LEFT(C76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C76,C76),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B76" s="24" t="str">
+        <f>IF(B76&lt;&gt;"",UPPER(LEFT(B76,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B76,B76),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="21" t="str">
-        <f>IF(C77&lt;&gt;"",UPPER(LEFT(C77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C77,C77),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B77" s="24" t="str">
+        <f>IF(B77&lt;&gt;"",UPPER(LEFT(B77,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B77,B77),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="21" t="str">
-        <f>IF(C78&lt;&gt;"",UPPER(LEFT(C78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C78,C78),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B78" s="24" t="str">
+        <f>IF(B78&lt;&gt;"",UPPER(LEFT(B78,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B78,B78),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="21" t="str">
-        <f>IF(C79&lt;&gt;"",UPPER(LEFT(C79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C79,C79),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B79" s="24" t="str">
+        <f>IF(B79&lt;&gt;"",UPPER(LEFT(B79,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B79,B79),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="21" t="str">
-        <f>IF(C80&lt;&gt;"",UPPER(LEFT(C80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C80,C80),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B80" s="24" t="str">
+        <f>IF(B80&lt;&gt;"",UPPER(LEFT(B80,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B80,B80),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="21" t="str">
-        <f>IF(C81&lt;&gt;"",UPPER(LEFT(C81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C81,C81),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B81" s="24" t="str">
+        <f>IF(B81&lt;&gt;"",UPPER(LEFT(B81,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B81,B81),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="21" t="str">
-        <f>IF(C82&lt;&gt;"",UPPER(LEFT(C82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C82,C82),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B82" s="24" t="str">
+        <f>IF(B82&lt;&gt;"",UPPER(LEFT(B82,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B82,B82),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="21" t="str">
-        <f>IF(C83&lt;&gt;"",UPPER(LEFT(C83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C83,C83),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B83" s="24" t="str">
+        <f>IF(B83&lt;&gt;"",UPPER(LEFT(B83,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B83,B83),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="21" t="str">
-        <f>IF(C84&lt;&gt;"",UPPER(LEFT(C84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C84,C84),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B84" s="24" t="str">
+        <f>IF(B84&lt;&gt;"",UPPER(LEFT(B84,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B84,B84),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="21" t="str">
-        <f>IF(C85&lt;&gt;"",UPPER(LEFT(C85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C85,C85),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B85" s="24" t="str">
+        <f>IF(B85&lt;&gt;"",UPPER(LEFT(B85,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B85,B85),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="21" t="str">
-        <f>IF(C86&lt;&gt;"",UPPER(LEFT(C86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C86,C86),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B86" s="24" t="str">
+        <f>IF(B86&lt;&gt;"",UPPER(LEFT(B86,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B86,B86),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="21" t="str">
-        <f>IF(C87&lt;&gt;"",UPPER(LEFT(C87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C87,C87),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B87" s="24" t="str">
+        <f>IF(B87&lt;&gt;"",UPPER(LEFT(B87,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B87,B87),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="21" t="str">
-        <f>IF(C88&lt;&gt;"",UPPER(LEFT(C88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C88,C88),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B88" s="24" t="str">
+        <f>IF(B88&lt;&gt;"",UPPER(LEFT(B88,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B88,B88),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="21" t="str">
-        <f>IF(C89&lt;&gt;"",UPPER(LEFT(C89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C89,C89),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B89" s="24" t="str">
+        <f>IF(B89&lt;&gt;"",UPPER(LEFT(B89,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B89,B89),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="21" t="str">
-        <f>IF(C90&lt;&gt;"",UPPER(LEFT(C90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C90,C90),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B90" s="24" t="str">
+        <f>IF(B90&lt;&gt;"",UPPER(LEFT(B90,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B90,B90),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="21" t="str">
-        <f>IF(C91&lt;&gt;"",UPPER(LEFT(C91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C91,C91),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B91" s="24" t="str">
+        <f>IF(B91&lt;&gt;"",UPPER(LEFT(B91,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B91,B91),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="21" t="str">
-        <f>IF(C92&lt;&gt;"",UPPER(LEFT(C92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C92,C92),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B92" s="24" t="str">
+        <f>IF(B92&lt;&gt;"",UPPER(LEFT(B92,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B92,B92),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="21" t="str">
-        <f>IF(C93&lt;&gt;"",UPPER(LEFT(C93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C93,C93),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B93" s="24" t="str">
+        <f>IF(B93&lt;&gt;"",UPPER(LEFT(B93,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B93,B93),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="21" t="str">
-        <f>IF(C94&lt;&gt;"",UPPER(LEFT(C94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C94,C94),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B94" s="24" t="str">
+        <f>IF(B94&lt;&gt;"",UPPER(LEFT(B94,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B94,B94),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="21" t="str">
-        <f>IF(C95&lt;&gt;"",UPPER(LEFT(C95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C95,C95),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B95" s="24" t="str">
+        <f>IF(B95&lt;&gt;"",UPPER(LEFT(B95,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B95,B95),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="21" t="str">
-        <f>IF(C96&lt;&gt;"",UPPER(LEFT(C96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C96,C96),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B96" s="24" t="str">
+        <f>IF(B96&lt;&gt;"",UPPER(LEFT(B96,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B96,B96),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="21" t="str">
-        <f>IF(C97&lt;&gt;"",UPPER(LEFT(C97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C97,C97),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B97" s="24" t="str">
+        <f>IF(B97&lt;&gt;"",UPPER(LEFT(B97,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B97,B97),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="21" t="str">
-        <f>IF(C98&lt;&gt;"",UPPER(LEFT(C98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C98,C98),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B98" s="24" t="str">
+        <f>IF(B98&lt;&gt;"",UPPER(LEFT(B98,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B98,B98),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="21" t="str">
-        <f>IF(C99&lt;&gt;"",UPPER(LEFT(C99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C99,C99),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B99" s="24" t="str">
+        <f>IF(B99&lt;&gt;"",UPPER(LEFT(B99,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B99,B99),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="21" t="str">
-        <f>IF(C100&lt;&gt;"",UPPER(LEFT(C100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C100,C100),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B100" s="24" t="str">
+        <f>IF(B100&lt;&gt;"",UPPER(LEFT(B100,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B100,B100),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="21" t="str">
-        <f>IF(C101&lt;&gt;"",UPPER(LEFT(C101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C101,C101),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B101" s="24" t="str">
+        <f>IF(B101&lt;&gt;"",UPPER(LEFT(B101,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B101,B101),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="21" t="str">
-        <f>IF(C102&lt;&gt;"",UPPER(LEFT(C102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C102,C102),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B102" s="24" t="str">
+        <f>IF(B102&lt;&gt;"",UPPER(LEFT(B102,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B102,B102),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="21" t="str">
-        <f>IF(C103&lt;&gt;"",UPPER(LEFT(C103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C103,C103),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B103" s="24" t="str">
+        <f>IF(B103&lt;&gt;"",UPPER(LEFT(B103,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B103,B103),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="21" t="str">
-        <f>IF(C104&lt;&gt;"",UPPER(LEFT(C104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C104,C104),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B104" s="24" t="str">
+        <f>IF(B104&lt;&gt;"",UPPER(LEFT(B104,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B104,B104),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="21" t="str">
-        <f>IF(C105&lt;&gt;"",UPPER(LEFT(C105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C105,C105),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B105" s="24" t="str">
+        <f>IF(B105&lt;&gt;"",UPPER(LEFT(B105,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B105,B105),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="21" t="str">
-        <f>IF(C106&lt;&gt;"",UPPER(LEFT(C106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C106,C106),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B106" s="24" t="str">
+        <f>IF(B106&lt;&gt;"",UPPER(LEFT(B106,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B106,B106),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="21" t="str">
-        <f>IF(C107&lt;&gt;"",UPPER(LEFT(C107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C107,C107),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B107" s="24" t="str">
+        <f>IF(B107&lt;&gt;"",UPPER(LEFT(B107,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B107,B107),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B107" s="22"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="21" t="str">
-        <f>IF(C108&lt;&gt;"",UPPER(LEFT(C108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C108,C108),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B108" s="24" t="str">
+        <f>IF(B108&lt;&gt;"",UPPER(LEFT(B108,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B108,B108),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="21" t="str">
-        <f>IF(C109&lt;&gt;"",UPPER(LEFT(C109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C109,C109),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B109" s="24" t="str">
+        <f>IF(B109&lt;&gt;"",UPPER(LEFT(B109,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B109,B109),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B109" s="22"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="21" t="str">
-        <f>IF(C110&lt;&gt;"",UPPER(LEFT(C110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C110,C110),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B110" s="24" t="str">
+        <f>IF(B110&lt;&gt;"",UPPER(LEFT(B110,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B110,B110),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="21" t="str">
-        <f>IF(C111&lt;&gt;"",UPPER(LEFT(C111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C111,C111),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B111" s="24" t="str">
+        <f>IF(B111&lt;&gt;"",UPPER(LEFT(B111,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B111,B111),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="21" t="str">
-        <f>IF(C112&lt;&gt;"",UPPER(LEFT(C112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C112,C112),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B112" s="24" t="str">
+        <f>IF(B112&lt;&gt;"",UPPER(LEFT(B112,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B112,B112),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B112" s="22"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="21" t="str">
-        <f>IF(C113&lt;&gt;"",UPPER(LEFT(C113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C113,C113),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B113" s="24" t="str">
+        <f>IF(B113&lt;&gt;"",UPPER(LEFT(B113,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B113,B113),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="21" t="str">
-        <f>IF(C114&lt;&gt;"",UPPER(LEFT(C114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C114,C114),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B114" s="24" t="str">
+        <f>IF(B114&lt;&gt;"",UPPER(LEFT(B114,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B114,B114),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="21" t="str">
-        <f>IF(C115&lt;&gt;"",UPPER(LEFT(C115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C115,C115),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B115" s="24" t="str">
+        <f>IF(B115&lt;&gt;"",UPPER(LEFT(B115,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B115,B115),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B115" s="22"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C115" s="22"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="21" t="str">
-        <f>IF(C116&lt;&gt;"",UPPER(LEFT(C116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C116,C116),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B116" s="24" t="str">
+        <f>IF(B116&lt;&gt;"",UPPER(LEFT(B116,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B116,B116),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B116" s="22"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="21" t="str">
-        <f>IF(C117&lt;&gt;"",UPPER(LEFT(C117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C117,C117),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B117" s="24" t="str">
+        <f>IF(B117&lt;&gt;"",UPPER(LEFT(B117,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B117,B117),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B117" s="22"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C117" s="22"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="21" t="str">
-        <f>IF(C118&lt;&gt;"",UPPER(LEFT(C118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C118,C118),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B118" s="24" t="str">
+        <f>IF(B118&lt;&gt;"",UPPER(LEFT(B118,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B118,B118),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="21" t="str">
-        <f>IF(C119&lt;&gt;"",UPPER(LEFT(C119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C119,C119),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B119" s="24" t="str">
+        <f>IF(B119&lt;&gt;"",UPPER(LEFT(B119,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B119,B119),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C119" s="22"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="21" t="str">
-        <f>IF(C120&lt;&gt;"",UPPER(LEFT(C120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C120,C120),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B120" s="24" t="str">
+        <f>IF(B120&lt;&gt;"",UPPER(LEFT(B120,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B120,B120),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="21" t="str">
-        <f>IF(C121&lt;&gt;"",UPPER(LEFT(C121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C121,C121),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B121" s="24" t="str">
+        <f>IF(B121&lt;&gt;"",UPPER(LEFT(B121,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B121,B121),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C121" s="22"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="21" t="str">
-        <f>IF(C122&lt;&gt;"",UPPER(LEFT(C122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C122,C122),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B122" s="24" t="str">
+        <f>IF(B122&lt;&gt;"",UPPER(LEFT(B122,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B122,B122),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="21" t="str">
-        <f>IF(C123&lt;&gt;"",UPPER(LEFT(C123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C123,C123),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B123" s="24" t="str">
+        <f>IF(B123&lt;&gt;"",UPPER(LEFT(B123,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B123,B123),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="21" t="str">
-        <f>IF(C124&lt;&gt;"",UPPER(LEFT(C124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C124,C124),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B124" s="24" t="str">
+        <f>IF(B124&lt;&gt;"",UPPER(LEFT(B124,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B124,B124),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B124" s="22"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C124" s="22"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="21" t="str">
-        <f>IF(C125&lt;&gt;"",UPPER(LEFT(C125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C125,C125),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B125" s="24" t="str">
+        <f>IF(B125&lt;&gt;"",UPPER(LEFT(B125,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B125,B125),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B125" s="22"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C125" s="22"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="21" t="str">
-        <f>IF(C126&lt;&gt;"",UPPER(LEFT(C126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C126,C126),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B126" s="24" t="str">
+        <f>IF(B126&lt;&gt;"",UPPER(LEFT(B126,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B126,B126),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C126" s="22"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="21" t="str">
-        <f>IF(C127&lt;&gt;"",UPPER(LEFT(C127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C127,C127),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B127" s="24" t="str">
+        <f>IF(B127&lt;&gt;"",UPPER(LEFT(B127,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B127,B127),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B127" s="22"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C127" s="22"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="21" t="str">
-        <f>IF(C128&lt;&gt;"",UPPER(LEFT(C128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C128,C128),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B128" s="24" t="str">
+        <f>IF(B128&lt;&gt;"",UPPER(LEFT(B128,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B128,B128),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="21" t="str">
-        <f>IF(C129&lt;&gt;"",UPPER(LEFT(C129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C129,C129),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B129" s="24" t="str">
+        <f>IF(B129&lt;&gt;"",UPPER(LEFT(B129,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B129,B129),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C129" s="22"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="21" t="str">
-        <f>IF(C130&lt;&gt;"",UPPER(LEFT(C130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C130,C130),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B130" s="24" t="str">
+        <f>IF(B130&lt;&gt;"",UPPER(LEFT(B130,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B130,B130),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B130" s="22"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C130" s="22"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="21" t="str">
-        <f>IF(C131&lt;&gt;"",UPPER(LEFT(C131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C131,C131),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B131" s="24" t="str">
-        <f t="shared" ref="B131:B194" si="2">IF(C131&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
-      <c r="C131" s="22"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="22"/>
+        <f>IF(B131&lt;&gt;"",UPPER(LEFT(B131,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B131,B131),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B131" s="22"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="25"/>
       <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
+      <c r="H131" s="24" t="str">
+        <f t="shared" ref="H131:H194" si="2">IF(B131&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="21" t="str">
-        <f>IF(C132&lt;&gt;"",UPPER(LEFT(C132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C132,C132),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B132" s="24" t="str">
+        <f>IF(B132&lt;&gt;"",UPPER(LEFT(B132,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B132,B132),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B132" s="22"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="21" t="str">
-        <f>IF(C133&lt;&gt;"",UPPER(LEFT(C133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C133,C133),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B133" s="24" t="str">
+        <f>IF(B133&lt;&gt;"",UPPER(LEFT(B133,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B133,B133),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B133" s="22"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C133" s="22"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="21" t="str">
-        <f>IF(C134&lt;&gt;"",UPPER(LEFT(C134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C134,C134),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B134" s="24" t="str">
+        <f>IF(B134&lt;&gt;"",UPPER(LEFT(B134,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B134,B134),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="21" t="str">
-        <f>IF(C135&lt;&gt;"",UPPER(LEFT(C135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C135,C135),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B135" s="24" t="str">
+        <f>IF(B135&lt;&gt;"",UPPER(LEFT(B135,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B135,B135),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C135" s="22"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="21" t="str">
-        <f>IF(C136&lt;&gt;"",UPPER(LEFT(C136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C136,C136),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B136" s="24" t="str">
+        <f>IF(B136&lt;&gt;"",UPPER(LEFT(B136,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B136,B136),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C136" s="22"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="21" t="str">
-        <f>IF(C137&lt;&gt;"",UPPER(LEFT(C137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C137,C137),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B137" s="24" t="str">
+        <f>IF(B137&lt;&gt;"",UPPER(LEFT(B137,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B137,B137),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B137" s="22"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C137" s="22"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="21" t="str">
-        <f>IF(C138&lt;&gt;"",UPPER(LEFT(C138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C138,C138),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B138" s="24" t="str">
+        <f>IF(B138&lt;&gt;"",UPPER(LEFT(B138,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B138,B138),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B138" s="22"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C138" s="22"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="21" t="str">
-        <f>IF(C139&lt;&gt;"",UPPER(LEFT(C139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C139,C139),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B139" s="24" t="str">
+        <f>IF(B139&lt;&gt;"",UPPER(LEFT(B139,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B139,B139),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B139" s="22"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C139" s="22"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="21" t="str">
-        <f>IF(C140&lt;&gt;"",UPPER(LEFT(C140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C140,C140),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B140" s="24" t="str">
+        <f>IF(B140&lt;&gt;"",UPPER(LEFT(B140,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B140,B140),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B140" s="22"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C140" s="22"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="21" t="str">
-        <f>IF(C141&lt;&gt;"",UPPER(LEFT(C141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C141,C141),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B141" s="24" t="str">
+        <f>IF(B141&lt;&gt;"",UPPER(LEFT(B141,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B141,B141),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B141" s="22"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C141" s="22"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="21" t="str">
-        <f>IF(C142&lt;&gt;"",UPPER(LEFT(C142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C142,C142),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B142" s="24" t="str">
+        <f>IF(B142&lt;&gt;"",UPPER(LEFT(B142,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B142,B142),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B142" s="22"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C142" s="22"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="21" t="str">
-        <f>IF(C143&lt;&gt;"",UPPER(LEFT(C143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C143,C143),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B143" s="24" t="str">
+        <f>IF(B143&lt;&gt;"",UPPER(LEFT(B143,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B143,B143),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B143" s="22"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C143" s="22"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="21" t="str">
-        <f>IF(C144&lt;&gt;"",UPPER(LEFT(C144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C144,C144),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B144" s="24" t="str">
+        <f>IF(B144&lt;&gt;"",UPPER(LEFT(B144,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B144,B144),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B144" s="22"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C144" s="22"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="21" t="str">
-        <f>IF(C145&lt;&gt;"",UPPER(LEFT(C145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C145,C145),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B145" s="24" t="str">
+        <f>IF(B145&lt;&gt;"",UPPER(LEFT(B145,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B145,B145),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C145" s="22"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="21" t="str">
-        <f>IF(C146&lt;&gt;"",UPPER(LEFT(C146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C146,C146),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B146" s="24" t="str">
+        <f>IF(B146&lt;&gt;"",UPPER(LEFT(B146,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B146,B146),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B146" s="22"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="21" t="str">
-        <f>IF(C147&lt;&gt;"",UPPER(LEFT(C147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C147,C147),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B147" s="24" t="str">
+        <f>IF(B147&lt;&gt;"",UPPER(LEFT(B147,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B147,B147),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B147" s="22"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C147" s="22"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="21" t="str">
-        <f>IF(C148&lt;&gt;"",UPPER(LEFT(C148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C148,C148),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B148" s="24" t="str">
+        <f>IF(B148&lt;&gt;"",UPPER(LEFT(B148,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B148,B148),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C148" s="22"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="21" t="str">
-        <f>IF(C149&lt;&gt;"",UPPER(LEFT(C149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C149,C149),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B149" s="24" t="str">
+        <f>IF(B149&lt;&gt;"",UPPER(LEFT(B149,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B149,B149),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C149" s="22"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="21" t="str">
-        <f>IF(C150&lt;&gt;"",UPPER(LEFT(C150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C150,C150),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B150" s="24" t="str">
+        <f>IF(B150&lt;&gt;"",UPPER(LEFT(B150,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B150,B150),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B150" s="22"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C150" s="22"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="21" t="str">
-        <f>IF(C151&lt;&gt;"",UPPER(LEFT(C151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C151,C151),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B151" s="24" t="str">
+        <f>IF(B151&lt;&gt;"",UPPER(LEFT(B151,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B151,B151),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B151" s="22"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C151" s="22"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="21" t="str">
-        <f>IF(C152&lt;&gt;"",UPPER(LEFT(C152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C152,C152),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B152" s="24" t="str">
+        <f>IF(B152&lt;&gt;"",UPPER(LEFT(B152,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B152,B152),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B152" s="22"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C152" s="22"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="25"/>
-      <c r="H152" s="25"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="21" t="str">
-        <f>IF(C153&lt;&gt;"",UPPER(LEFT(C153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C153,C153),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B153" s="24" t="str">
+        <f>IF(B153&lt;&gt;"",UPPER(LEFT(B153,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B153,B153),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B153" s="22"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C153" s="22"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="21" t="str">
-        <f>IF(C154&lt;&gt;"",UPPER(LEFT(C154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C154,C154),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B154" s="24" t="str">
+        <f>IF(B154&lt;&gt;"",UPPER(LEFT(B154,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B154,B154),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B154" s="22"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C154" s="22"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="21" t="str">
-        <f>IF(C155&lt;&gt;"",UPPER(LEFT(C155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C155,C155),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B155" s="24" t="str">
+        <f>IF(B155&lt;&gt;"",UPPER(LEFT(B155,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B155,B155),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B155" s="22"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C155" s="22"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="21" t="str">
-        <f>IF(C156&lt;&gt;"",UPPER(LEFT(C156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C156,C156),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B156" s="24" t="str">
+        <f>IF(B156&lt;&gt;"",UPPER(LEFT(B156,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B156,B156),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B156" s="22"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C156" s="22"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="21" t="str">
-        <f>IF(C157&lt;&gt;"",UPPER(LEFT(C157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C157,C157),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B157" s="24" t="str">
+        <f>IF(B157&lt;&gt;"",UPPER(LEFT(B157,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B157,B157),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B157" s="22"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C157" s="22"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="21" t="str">
-        <f>IF(C158&lt;&gt;"",UPPER(LEFT(C158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C158,C158),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B158" s="24" t="str">
+        <f>IF(B158&lt;&gt;"",UPPER(LEFT(B158,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B158,B158),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C158" s="22"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="21" t="str">
-        <f>IF(C159&lt;&gt;"",UPPER(LEFT(C159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C159,C159),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B159" s="24" t="str">
+        <f>IF(B159&lt;&gt;"",UPPER(LEFT(B159,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B159,B159),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B159" s="22"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C159" s="22"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="21" t="str">
-        <f>IF(C160&lt;&gt;"",UPPER(LEFT(C160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C160,C160),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B160" s="24" t="str">
+        <f>IF(B160&lt;&gt;"",UPPER(LEFT(B160,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B160,B160),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C160" s="22"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="21" t="str">
-        <f>IF(C161&lt;&gt;"",UPPER(LEFT(C161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C161,C161),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B161" s="24" t="str">
+        <f>IF(B161&lt;&gt;"",UPPER(LEFT(B161,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B161,B161),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B161" s="22"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C161" s="22"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="21" t="str">
-        <f>IF(C162&lt;&gt;"",UPPER(LEFT(C162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C162,C162),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B162" s="24" t="str">
+        <f>IF(B162&lt;&gt;"",UPPER(LEFT(B162,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B162,B162),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C162" s="22"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="25"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="21" t="str">
-        <f>IF(C163&lt;&gt;"",UPPER(LEFT(C163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C163,C163),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B163" s="24" t="str">
+        <f>IF(B163&lt;&gt;"",UPPER(LEFT(B163,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B163,B163),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C163" s="22"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="25"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="21" t="str">
-        <f>IF(C164&lt;&gt;"",UPPER(LEFT(C164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C164,C164),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B164" s="24" t="str">
+        <f>IF(B164&lt;&gt;"",UPPER(LEFT(B164,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B164,B164),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B164" s="22"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C164" s="22"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="25"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="21" t="str">
-        <f>IF(C165&lt;&gt;"",UPPER(LEFT(C165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C165,C165),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B165" s="24" t="str">
+        <f>IF(B165&lt;&gt;"",UPPER(LEFT(B165,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B165,B165),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B165" s="22"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C165" s="22"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="25"/>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="21" t="str">
-        <f>IF(C166&lt;&gt;"",UPPER(LEFT(C166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C166,C166),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B166" s="24" t="str">
+        <f>IF(B166&lt;&gt;"",UPPER(LEFT(B166,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B166,B166),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B166" s="22"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C166" s="22"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="25"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="21" t="str">
-        <f>IF(C167&lt;&gt;"",UPPER(LEFT(C167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C167,C167),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B167" s="24" t="str">
+        <f>IF(B167&lt;&gt;"",UPPER(LEFT(B167,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B167,B167),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B167" s="22"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C167" s="22"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="25"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="21" t="str">
-        <f>IF(C168&lt;&gt;"",UPPER(LEFT(C168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C168,C168),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B168" s="24" t="str">
+        <f>IF(B168&lt;&gt;"",UPPER(LEFT(B168,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B168,B168),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B168" s="22"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C168" s="22"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="25"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="21" t="str">
-        <f>IF(C169&lt;&gt;"",UPPER(LEFT(C169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C169,C169),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B169" s="24" t="str">
+        <f>IF(B169&lt;&gt;"",UPPER(LEFT(B169,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B169,B169),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B169" s="22"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C169" s="22"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="25"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="21" t="str">
-        <f>IF(C170&lt;&gt;"",UPPER(LEFT(C170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C170,C170),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B170" s="24" t="str">
+        <f>IF(B170&lt;&gt;"",UPPER(LEFT(B170,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B170,B170),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B170" s="22"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C170" s="22"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="25"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="21" t="str">
-        <f>IF(C171&lt;&gt;"",UPPER(LEFT(C171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C171,C171),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B171" s="24" t="str">
+        <f>IF(B171&lt;&gt;"",UPPER(LEFT(B171,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B171,B171),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B171" s="22"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C171" s="22"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="25"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="21" t="str">
-        <f>IF(C172&lt;&gt;"",UPPER(LEFT(C172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C172,C172),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B172" s="24" t="str">
+        <f>IF(B172&lt;&gt;"",UPPER(LEFT(B172,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B172,B172),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B172" s="22"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C172" s="22"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="25"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="21" t="str">
-        <f>IF(C173&lt;&gt;"",UPPER(LEFT(C173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C173,C173),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B173" s="24" t="str">
+        <f>IF(B173&lt;&gt;"",UPPER(LEFT(B173,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B173,B173),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B173" s="22"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C173" s="22"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="25"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="21" t="str">
-        <f>IF(C174&lt;&gt;"",UPPER(LEFT(C174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C174,C174),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B174" s="24" t="str">
+        <f>IF(B174&lt;&gt;"",UPPER(LEFT(B174,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B174,B174),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B174" s="22"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C174" s="22"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="25"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="21" t="str">
-        <f>IF(C175&lt;&gt;"",UPPER(LEFT(C175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C175,C175),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B175" s="24" t="str">
+        <f>IF(B175&lt;&gt;"",UPPER(LEFT(B175,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B175,B175),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B175" s="22"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C175" s="22"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25"/>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="21" t="str">
-        <f>IF(C176&lt;&gt;"",UPPER(LEFT(C176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C176,C176),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B176" s="24" t="str">
+        <f>IF(B176&lt;&gt;"",UPPER(LEFT(B176,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B176,B176),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B176" s="22"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C176" s="22"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="25"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="21" t="str">
-        <f>IF(C177&lt;&gt;"",UPPER(LEFT(C177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C177,C177),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B177" s="24" t="str">
+        <f>IF(B177&lt;&gt;"",UPPER(LEFT(B177,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B177,B177),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B177" s="22"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C177" s="22"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="21" t="str">
-        <f>IF(C178&lt;&gt;"",UPPER(LEFT(C178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C178,C178),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B178" s="24" t="str">
+        <f>IF(B178&lt;&gt;"",UPPER(LEFT(B178,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B178,B178),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C178" s="22"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="21" t="str">
-        <f>IF(C179&lt;&gt;"",UPPER(LEFT(C179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C179,C179),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B179" s="24" t="str">
+        <f>IF(B179&lt;&gt;"",UPPER(LEFT(B179,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B179,B179),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B179" s="22"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C179" s="22"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="21" t="str">
-        <f>IF(C180&lt;&gt;"",UPPER(LEFT(C180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C180,C180),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B180" s="24" t="str">
+        <f>IF(B180&lt;&gt;"",UPPER(LEFT(B180,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B180,B180),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B180" s="22"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="25"/>
+      <c r="H180" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C180" s="22"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="22"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="25"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="21" t="str">
-        <f>IF(C181&lt;&gt;"",UPPER(LEFT(C181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C181,C181),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B181" s="24" t="str">
+        <f>IF(B181&lt;&gt;"",UPPER(LEFT(B181,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B181,B181),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B181" s="22"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="25"/>
+      <c r="H181" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C181" s="22"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="22"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="25"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="21" t="str">
-        <f>IF(C182&lt;&gt;"",UPPER(LEFT(C182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C182,C182),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B182" s="24" t="str">
+        <f>IF(B182&lt;&gt;"",UPPER(LEFT(B182,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B182,B182),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B182" s="22"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C182" s="22"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="21" t="str">
-        <f>IF(C183&lt;&gt;"",UPPER(LEFT(C183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C183,C183),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B183" s="24" t="str">
+        <f>IF(B183&lt;&gt;"",UPPER(LEFT(B183,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B183,B183),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B183" s="22"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C183" s="22"/>
-      <c r="D183" s="23"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="22"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="21" t="str">
-        <f>IF(C184&lt;&gt;"",UPPER(LEFT(C184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C184,C184),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B184" s="24" t="str">
+        <f>IF(B184&lt;&gt;"",UPPER(LEFT(B184,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B184,B184),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B184" s="22"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="25"/>
+      <c r="H184" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C184" s="22"/>
-      <c r="D184" s="23"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="25"/>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="21" t="str">
-        <f>IF(C185&lt;&gt;"",UPPER(LEFT(C185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C185,C185),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B185" s="24" t="str">
+        <f>IF(B185&lt;&gt;"",UPPER(LEFT(B185,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B185,B185),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B185" s="22"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="18"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="25"/>
+      <c r="H185" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C185" s="22"/>
-      <c r="D185" s="23"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="22"/>
-      <c r="G185" s="25"/>
-      <c r="H185" s="25"/>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="21" t="str">
-        <f>IF(C186&lt;&gt;"",UPPER(LEFT(C186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C186,C186),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B186" s="24" t="str">
+        <f>IF(B186&lt;&gt;"",UPPER(LEFT(B186,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B186,B186),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B186" s="22"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="25"/>
+      <c r="H186" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C186" s="22"/>
-      <c r="D186" s="23"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="22"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="25"/>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="21" t="str">
-        <f>IF(C187&lt;&gt;"",UPPER(LEFT(C187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C187,C187),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B187" s="24" t="str">
+        <f>IF(B187&lt;&gt;"",UPPER(LEFT(B187,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B187,B187),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B187" s="22"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C187" s="22"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="22"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="21" t="str">
-        <f>IF(C188&lt;&gt;"",UPPER(LEFT(C188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C188,C188),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B188" s="24" t="str">
+        <f>IF(B188&lt;&gt;"",UPPER(LEFT(B188,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B188,B188),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B188" s="22"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C188" s="22"/>
-      <c r="D188" s="23"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="22"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="25"/>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="21" t="str">
-        <f>IF(C189&lt;&gt;"",UPPER(LEFT(C189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C189,C189),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B189" s="24" t="str">
+        <f>IF(B189&lt;&gt;"",UPPER(LEFT(B189,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B189,B189),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B189" s="22"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="25"/>
+      <c r="G189" s="25"/>
+      <c r="H189" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C189" s="22"/>
-      <c r="D189" s="23"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="22"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="25"/>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="21" t="str">
-        <f>IF(C190&lt;&gt;"",UPPER(LEFT(C190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C190,C190),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B190" s="24" t="str">
+        <f>IF(B190&lt;&gt;"",UPPER(LEFT(B190,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B190,B190),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B190" s="22"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="25"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C190" s="22"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="22"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="25"/>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="21" t="str">
-        <f>IF(C191&lt;&gt;"",UPPER(LEFT(C191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C191,C191),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B191" s="24" t="str">
+        <f>IF(B191&lt;&gt;"",UPPER(LEFT(B191,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B191,B191),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B191" s="22"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="25"/>
+      <c r="G191" s="25"/>
+      <c r="H191" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C191" s="22"/>
-      <c r="D191" s="23"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="22"/>
-      <c r="G191" s="25"/>
-      <c r="H191" s="25"/>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="21" t="str">
-        <f>IF(C192&lt;&gt;"",UPPER(LEFT(C192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C192,C192),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B192" s="24" t="str">
+        <f>IF(B192&lt;&gt;"",UPPER(LEFT(B192,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B192,B192),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B192" s="22"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="25"/>
+      <c r="H192" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C192" s="22"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="22"/>
-      <c r="G192" s="25"/>
-      <c r="H192" s="25"/>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="21" t="str">
-        <f>IF(C193&lt;&gt;"",UPPER(LEFT(C193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C193,C193),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B193" s="24" t="str">
+        <f>IF(B193&lt;&gt;"",UPPER(LEFT(B193,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B193,B193),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B193" s="22"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C193" s="22"/>
-      <c r="D193" s="23"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="25"/>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="21" t="str">
-        <f>IF(C194&lt;&gt;"",UPPER(LEFT(C194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C194,C194),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B194" s="24" t="str">
+        <f>IF(B194&lt;&gt;"",UPPER(LEFT(B194,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B194,B194),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B194" s="22"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C194" s="22"/>
-      <c r="D194" s="23"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="22"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="25"/>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="21" t="str">
-        <f>IF(C195&lt;&gt;"",UPPER(LEFT(C195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C195,C195),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B195" s="24" t="str">
-        <f t="shared" ref="B195:B258" si="3">IF(C195&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
-      <c r="C195" s="22"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="22"/>
+        <f>IF(B195&lt;&gt;"",UPPER(LEFT(B195,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B195,B195),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B195" s="22"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="25"/>
       <c r="G195" s="25"/>
-      <c r="H195" s="25"/>
+      <c r="H195" s="24" t="str">
+        <f t="shared" ref="H195:H258" si="3">IF(B195&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="21" t="str">
-        <f>IF(C196&lt;&gt;"",UPPER(LEFT(C196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C196,C196),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B196" s="24" t="str">
+        <f>IF(B196&lt;&gt;"",UPPER(LEFT(B196,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B196,B196),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B196" s="22"/>
+      <c r="C196" s="23"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="25"/>
+      <c r="G196" s="25"/>
+      <c r="H196" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C196" s="22"/>
-      <c r="D196" s="23"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="25"/>
-      <c r="H196" s="25"/>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="21" t="str">
-        <f>IF(C197&lt;&gt;"",UPPER(LEFT(C197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C197,C197),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B197" s="24" t="str">
+        <f>IF(B197&lt;&gt;"",UPPER(LEFT(B197,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B197,B197),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B197" s="22"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="25"/>
+      <c r="G197" s="25"/>
+      <c r="H197" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C197" s="22"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="25"/>
-      <c r="H197" s="25"/>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="21" t="str">
-        <f>IF(C198&lt;&gt;"",UPPER(LEFT(C198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C198,C198),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B198" s="24" t="str">
+        <f>IF(B198&lt;&gt;"",UPPER(LEFT(B198,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B198,B198),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B198" s="22"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="25"/>
+      <c r="G198" s="25"/>
+      <c r="H198" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C198" s="22"/>
-      <c r="D198" s="23"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="22"/>
-      <c r="G198" s="25"/>
-      <c r="H198" s="25"/>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="21" t="str">
-        <f>IF(C199&lt;&gt;"",UPPER(LEFT(C199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C199,C199),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B199" s="24" t="str">
+        <f>IF(B199&lt;&gt;"",UPPER(LEFT(B199,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B199,B199),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B199" s="22"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="25"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C199" s="22"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="22"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="25"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="21" t="str">
-        <f>IF(C200&lt;&gt;"",UPPER(LEFT(C200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C200,C200),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B200" s="24" t="str">
+        <f>IF(B200&lt;&gt;"",UPPER(LEFT(B200,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B200,B200),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="25"/>
+      <c r="G200" s="25"/>
+      <c r="H200" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C200" s="22"/>
-      <c r="D200" s="23"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="25"/>
-      <c r="H200" s="25"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="21" t="str">
-        <f>IF(C201&lt;&gt;"",UPPER(LEFT(C201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C201,C201),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B201" s="24" t="str">
+        <f>IF(B201&lt;&gt;"",UPPER(LEFT(B201,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B201,B201),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B201" s="22"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="25"/>
+      <c r="G201" s="25"/>
+      <c r="H201" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C201" s="22"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="22"/>
-      <c r="G201" s="25"/>
-      <c r="H201" s="25"/>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="21" t="str">
-        <f>IF(C202&lt;&gt;"",UPPER(LEFT(C202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C202,C202),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B202" s="24" t="str">
+        <f>IF(B202&lt;&gt;"",UPPER(LEFT(B202,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B202,B202),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B202" s="22"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="25"/>
+      <c r="G202" s="25"/>
+      <c r="H202" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C202" s="22"/>
-      <c r="D202" s="23"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="22"/>
-      <c r="G202" s="25"/>
-      <c r="H202" s="25"/>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="21" t="str">
-        <f>IF(C203&lt;&gt;"",UPPER(LEFT(C203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C203,C203),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B203" s="24" t="str">
+        <f>IF(B203&lt;&gt;"",UPPER(LEFT(B203,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B203,B203),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B203" s="22"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="25"/>
+      <c r="H203" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C203" s="22"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="25"/>
-      <c r="H203" s="25"/>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="21" t="str">
-        <f>IF(C204&lt;&gt;"",UPPER(LEFT(C204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C204,C204),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B204" s="24" t="str">
+        <f>IF(B204&lt;&gt;"",UPPER(LEFT(B204,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B204,B204),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B204" s="22"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C204" s="22"/>
-      <c r="D204" s="23"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="22"/>
-      <c r="G204" s="25"/>
-      <c r="H204" s="25"/>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="21" t="str">
-        <f>IF(C205&lt;&gt;"",UPPER(LEFT(C205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C205,C205),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B205" s="24" t="str">
+        <f>IF(B205&lt;&gt;"",UPPER(LEFT(B205,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B205,B205),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B205" s="22"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C205" s="22"/>
-      <c r="D205" s="23"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="21" t="str">
-        <f>IF(C206&lt;&gt;"",UPPER(LEFT(C206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C206,C206),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B206" s="24" t="str">
+        <f>IF(B206&lt;&gt;"",UPPER(LEFT(B206,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B206,B206),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B206" s="22"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="25"/>
+      <c r="G206" s="25"/>
+      <c r="H206" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C206" s="22"/>
-      <c r="D206" s="23"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="22"/>
-      <c r="G206" s="25"/>
-      <c r="H206" s="25"/>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="21" t="str">
-        <f>IF(C207&lt;&gt;"",UPPER(LEFT(C207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C207,C207),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B207" s="24" t="str">
+        <f>IF(B207&lt;&gt;"",UPPER(LEFT(B207,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B207,B207),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B207" s="22"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C207" s="22"/>
-      <c r="D207" s="23"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="22"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="25"/>
     </row>
     <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="21" t="str">
-        <f>IF(C208&lt;&gt;"",UPPER(LEFT(C208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C208,C208),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B208" s="24" t="str">
+        <f>IF(B208&lt;&gt;"",UPPER(LEFT(B208,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B208,B208),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B208" s="22"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C208" s="22"/>
-      <c r="D208" s="23"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="22"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="21" t="str">
-        <f>IF(C209&lt;&gt;"",UPPER(LEFT(C209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C209,C209),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B209" s="24" t="str">
+        <f>IF(B209&lt;&gt;"",UPPER(LEFT(B209,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B209,B209),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B209" s="22"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="25"/>
+      <c r="G209" s="25"/>
+      <c r="H209" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C209" s="22"/>
-      <c r="D209" s="23"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="22"/>
-      <c r="G209" s="25"/>
-      <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="21" t="str">
-        <f>IF(C210&lt;&gt;"",UPPER(LEFT(C210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C210,C210),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B210" s="24" t="str">
+        <f>IF(B210&lt;&gt;"",UPPER(LEFT(B210,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B210,B210),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B210" s="22"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C210" s="22"/>
-      <c r="D210" s="23"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="22"/>
-      <c r="G210" s="25"/>
-      <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="21" t="str">
-        <f>IF(C211&lt;&gt;"",UPPER(LEFT(C211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C211,C211),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B211" s="24" t="str">
+        <f>IF(B211&lt;&gt;"",UPPER(LEFT(B211,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B211,B211),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B211" s="22"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="25"/>
+      <c r="H211" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C211" s="22"/>
-      <c r="D211" s="23"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="25"/>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="21" t="str">
-        <f>IF(C212&lt;&gt;"",UPPER(LEFT(C212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C212,C212),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B212" s="24" t="str">
+        <f>IF(B212&lt;&gt;"",UPPER(LEFT(B212,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B212,B212),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B212" s="22"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="25"/>
+      <c r="H212" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C212" s="22"/>
-      <c r="D212" s="23"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="25"/>
-      <c r="H212" s="25"/>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="21" t="str">
-        <f>IF(C213&lt;&gt;"",UPPER(LEFT(C213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C213,C213),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B213" s="24" t="str">
+        <f>IF(B213&lt;&gt;"",UPPER(LEFT(B213,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B213,B213),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B213" s="22"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="25"/>
+      <c r="G213" s="25"/>
+      <c r="H213" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C213" s="22"/>
-      <c r="D213" s="23"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="25"/>
-      <c r="H213" s="25"/>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="21" t="str">
-        <f>IF(C214&lt;&gt;"",UPPER(LEFT(C214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C214,C214),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B214" s="24" t="str">
+        <f>IF(B214&lt;&gt;"",UPPER(LEFT(B214,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B214,B214),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B214" s="22"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="25"/>
+      <c r="G214" s="25"/>
+      <c r="H214" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C214" s="22"/>
-      <c r="D214" s="23"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="22"/>
-      <c r="G214" s="25"/>
-      <c r="H214" s="25"/>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="21" t="str">
-        <f>IF(C215&lt;&gt;"",UPPER(LEFT(C215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C215,C215),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B215" s="24" t="str">
+        <f>IF(B215&lt;&gt;"",UPPER(LEFT(B215,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B215,B215),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B215" s="22"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="18"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="25"/>
+      <c r="G215" s="25"/>
+      <c r="H215" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C215" s="22"/>
-      <c r="D215" s="23"/>
-      <c r="E215" s="18"/>
-      <c r="F215" s="22"/>
-      <c r="G215" s="25"/>
-      <c r="H215" s="25"/>
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="21" t="str">
-        <f>IF(C216&lt;&gt;"",UPPER(LEFT(C216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C216,C216),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B216" s="24" t="str">
+        <f>IF(B216&lt;&gt;"",UPPER(LEFT(B216,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B216,B216),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B216" s="22"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="18"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="25"/>
+      <c r="G216" s="25"/>
+      <c r="H216" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C216" s="22"/>
-      <c r="D216" s="23"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="25"/>
-      <c r="H216" s="25"/>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="21" t="str">
-        <f>IF(C217&lt;&gt;"",UPPER(LEFT(C217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C217,C217),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B217" s="24" t="str">
+        <f>IF(B217&lt;&gt;"",UPPER(LEFT(B217,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B217,B217),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B217" s="22"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="25"/>
+      <c r="G217" s="25"/>
+      <c r="H217" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C217" s="22"/>
-      <c r="D217" s="23"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="22"/>
-      <c r="G217" s="25"/>
-      <c r="H217" s="25"/>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="21" t="str">
-        <f>IF(C218&lt;&gt;"",UPPER(LEFT(C218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C218,C218),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B218" s="24" t="str">
+        <f>IF(B218&lt;&gt;"",UPPER(LEFT(B218,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B218,B218),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B218" s="22"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="25"/>
+      <c r="H218" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C218" s="22"/>
-      <c r="D218" s="23"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="22"/>
-      <c r="G218" s="25"/>
-      <c r="H218" s="25"/>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="21" t="str">
-        <f>IF(C219&lt;&gt;"",UPPER(LEFT(C219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C219,C219),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B219" s="24" t="str">
+        <f>IF(B219&lt;&gt;"",UPPER(LEFT(B219,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B219,B219),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B219" s="22"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="18"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="25"/>
+      <c r="G219" s="25"/>
+      <c r="H219" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C219" s="22"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="25"/>
-      <c r="H219" s="25"/>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="21" t="str">
-        <f>IF(C220&lt;&gt;"",UPPER(LEFT(C220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C220,C220),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B220" s="24" t="str">
+        <f>IF(B220&lt;&gt;"",UPPER(LEFT(B220,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B220,B220),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B220" s="22"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="25"/>
+      <c r="G220" s="25"/>
+      <c r="H220" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C220" s="22"/>
-      <c r="D220" s="23"/>
-      <c r="E220" s="18"/>
-      <c r="F220" s="22"/>
-      <c r="G220" s="25"/>
-      <c r="H220" s="25"/>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="21" t="str">
-        <f>IF(C221&lt;&gt;"",UPPER(LEFT(C221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C221,C221),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B221" s="24" t="str">
+        <f>IF(B221&lt;&gt;"",UPPER(LEFT(B221,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B221,B221),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B221" s="22"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C221" s="22"/>
-      <c r="D221" s="23"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="25"/>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="21" t="str">
-        <f>IF(C222&lt;&gt;"",UPPER(LEFT(C222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C222,C222),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B222" s="24" t="str">
+        <f>IF(B222&lt;&gt;"",UPPER(LEFT(B222,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B222,B222),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B222" s="22"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="18"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="25"/>
+      <c r="G222" s="25"/>
+      <c r="H222" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C222" s="22"/>
-      <c r="D222" s="23"/>
-      <c r="E222" s="18"/>
-      <c r="F222" s="22"/>
-      <c r="G222" s="25"/>
-      <c r="H222" s="25"/>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="21" t="str">
-        <f>IF(C223&lt;&gt;"",UPPER(LEFT(C223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C223,C223),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B223" s="24" t="str">
+        <f>IF(B223&lt;&gt;"",UPPER(LEFT(B223,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B223,B223),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B223" s="22"/>
+      <c r="C223" s="23"/>
+      <c r="D223" s="18"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="25"/>
+      <c r="G223" s="25"/>
+      <c r="H223" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C223" s="22"/>
-      <c r="D223" s="23"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="25"/>
-      <c r="H223" s="25"/>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="21" t="str">
-        <f>IF(C224&lt;&gt;"",UPPER(LEFT(C224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C224,C224),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B224" s="24" t="str">
+        <f>IF(B224&lt;&gt;"",UPPER(LEFT(B224,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B224,B224),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B224" s="22"/>
+      <c r="C224" s="23"/>
+      <c r="D224" s="18"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="25"/>
+      <c r="G224" s="25"/>
+      <c r="H224" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C224" s="22"/>
-      <c r="D224" s="23"/>
-      <c r="E224" s="18"/>
-      <c r="F224" s="22"/>
-      <c r="G224" s="25"/>
-      <c r="H224" s="25"/>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="21" t="str">
-        <f>IF(C225&lt;&gt;"",UPPER(LEFT(C225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C225,C225),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B225" s="24" t="str">
+        <f>IF(B225&lt;&gt;"",UPPER(LEFT(B225,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B225,B225),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B225" s="22"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="25"/>
+      <c r="G225" s="25"/>
+      <c r="H225" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C225" s="22"/>
-      <c r="D225" s="23"/>
-      <c r="E225" s="18"/>
-      <c r="F225" s="22"/>
-      <c r="G225" s="25"/>
-      <c r="H225" s="25"/>
     </row>
     <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="21" t="str">
-        <f>IF(C226&lt;&gt;"",UPPER(LEFT(C226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C226,C226),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B226" s="24" t="str">
+        <f>IF(B226&lt;&gt;"",UPPER(LEFT(B226,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B226,B226),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B226" s="22"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="25"/>
+      <c r="G226" s="25"/>
+      <c r="H226" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C226" s="22"/>
-      <c r="D226" s="23"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="22"/>
-      <c r="G226" s="25"/>
-      <c r="H226" s="25"/>
     </row>
     <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="21" t="str">
-        <f>IF(C227&lt;&gt;"",UPPER(LEFT(C227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C227,C227),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B227" s="24" t="str">
+        <f>IF(B227&lt;&gt;"",UPPER(LEFT(B227,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B227,B227),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B227" s="22"/>
+      <c r="C227" s="23"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="25"/>
+      <c r="G227" s="25"/>
+      <c r="H227" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C227" s="22"/>
-      <c r="D227" s="23"/>
-      <c r="E227" s="18"/>
-      <c r="F227" s="22"/>
-      <c r="G227" s="25"/>
-      <c r="H227" s="25"/>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="21" t="str">
-        <f>IF(C228&lt;&gt;"",UPPER(LEFT(C228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C228,C228),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B228" s="24" t="str">
+        <f>IF(B228&lt;&gt;"",UPPER(LEFT(B228,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B228,B228),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B228" s="22"/>
+      <c r="C228" s="23"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="25"/>
+      <c r="G228" s="25"/>
+      <c r="H228" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C228" s="22"/>
-      <c r="D228" s="23"/>
-      <c r="E228" s="18"/>
-      <c r="F228" s="22"/>
-      <c r="G228" s="25"/>
-      <c r="H228" s="25"/>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="21" t="str">
-        <f>IF(C229&lt;&gt;"",UPPER(LEFT(C229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C229,C229),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B229" s="24" t="str">
+        <f>IF(B229&lt;&gt;"",UPPER(LEFT(B229,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B229,B229),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B229" s="22"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="25"/>
+      <c r="G229" s="25"/>
+      <c r="H229" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C229" s="22"/>
-      <c r="D229" s="23"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="22"/>
-      <c r="G229" s="25"/>
-      <c r="H229" s="25"/>
     </row>
     <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="21" t="str">
-        <f>IF(C230&lt;&gt;"",UPPER(LEFT(C230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C230,C230),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B230" s="24" t="str">
+        <f>IF(B230&lt;&gt;"",UPPER(LEFT(B230,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B230,B230),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B230" s="22"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="25"/>
+      <c r="G230" s="25"/>
+      <c r="H230" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C230" s="22"/>
-      <c r="D230" s="23"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="22"/>
-      <c r="G230" s="25"/>
-      <c r="H230" s="25"/>
     </row>
     <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="21" t="str">
-        <f>IF(C231&lt;&gt;"",UPPER(LEFT(C231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C231,C231),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B231" s="24" t="str">
+        <f>IF(B231&lt;&gt;"",UPPER(LEFT(B231,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B231,B231),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B231" s="22"/>
+      <c r="C231" s="23"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="25"/>
+      <c r="G231" s="25"/>
+      <c r="H231" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C231" s="22"/>
-      <c r="D231" s="23"/>
-      <c r="E231" s="18"/>
-      <c r="F231" s="22"/>
-      <c r="G231" s="25"/>
-      <c r="H231" s="25"/>
     </row>
     <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="21" t="str">
-        <f>IF(C232&lt;&gt;"",UPPER(LEFT(C232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C232,C232),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B232" s="24" t="str">
+        <f>IF(B232&lt;&gt;"",UPPER(LEFT(B232,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B232,B232),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B232" s="22"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="25"/>
+      <c r="G232" s="25"/>
+      <c r="H232" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C232" s="22"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="18"/>
-      <c r="F232" s="22"/>
-      <c r="G232" s="25"/>
-      <c r="H232" s="25"/>
     </row>
     <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="21" t="str">
-        <f>IF(C233&lt;&gt;"",UPPER(LEFT(C233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C233,C233),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B233" s="24" t="str">
+        <f>IF(B233&lt;&gt;"",UPPER(LEFT(B233,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B233,B233),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B233" s="22"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="18"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="25"/>
+      <c r="G233" s="25"/>
+      <c r="H233" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C233" s="22"/>
-      <c r="D233" s="23"/>
-      <c r="E233" s="18"/>
-      <c r="F233" s="22"/>
-      <c r="G233" s="25"/>
-      <c r="H233" s="25"/>
     </row>
     <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="21" t="str">
-        <f>IF(C234&lt;&gt;"",UPPER(LEFT(C234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C234,C234),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B234" s="24" t="str">
+        <f>IF(B234&lt;&gt;"",UPPER(LEFT(B234,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B234,B234),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B234" s="22"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="25"/>
+      <c r="G234" s="25"/>
+      <c r="H234" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C234" s="22"/>
-      <c r="D234" s="23"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="22"/>
-      <c r="G234" s="25"/>
-      <c r="H234" s="25"/>
     </row>
     <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="21" t="str">
-        <f>IF(C235&lt;&gt;"",UPPER(LEFT(C235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C235,C235),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B235" s="24" t="str">
+        <f>IF(B235&lt;&gt;"",UPPER(LEFT(B235,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B235,B235),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B235" s="22"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="25"/>
+      <c r="G235" s="25"/>
+      <c r="H235" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C235" s="22"/>
-      <c r="D235" s="23"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="22"/>
-      <c r="G235" s="25"/>
-      <c r="H235" s="25"/>
     </row>
     <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="21" t="str">
-        <f>IF(C236&lt;&gt;"",UPPER(LEFT(C236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C236,C236),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B236" s="24" t="str">
+        <f>IF(B236&lt;&gt;"",UPPER(LEFT(B236,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B236,B236),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B236" s="22"/>
+      <c r="C236" s="23"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="25"/>
+      <c r="G236" s="25"/>
+      <c r="H236" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C236" s="22"/>
-      <c r="D236" s="23"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="22"/>
-      <c r="G236" s="25"/>
-      <c r="H236" s="25"/>
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="21" t="str">
-        <f>IF(C237&lt;&gt;"",UPPER(LEFT(C237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C237,C237),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B237" s="24" t="str">
+        <f>IF(B237&lt;&gt;"",UPPER(LEFT(B237,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B237,B237),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B237" s="22"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="25"/>
+      <c r="G237" s="25"/>
+      <c r="H237" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C237" s="22"/>
-      <c r="D237" s="23"/>
-      <c r="E237" s="18"/>
-      <c r="F237" s="22"/>
-      <c r="G237" s="25"/>
-      <c r="H237" s="25"/>
     </row>
     <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="21" t="str">
-        <f>IF(C238&lt;&gt;"",UPPER(LEFT(C238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C238,C238),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B238" s="24" t="str">
+        <f>IF(B238&lt;&gt;"",UPPER(LEFT(B238,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B238,B238),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B238" s="22"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="25"/>
+      <c r="G238" s="25"/>
+      <c r="H238" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C238" s="22"/>
-      <c r="D238" s="23"/>
-      <c r="E238" s="18"/>
-      <c r="F238" s="22"/>
-      <c r="G238" s="25"/>
-      <c r="H238" s="25"/>
     </row>
     <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="21" t="str">
-        <f>IF(C239&lt;&gt;"",UPPER(LEFT(C239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C239,C239),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B239" s="24" t="str">
+        <f>IF(B239&lt;&gt;"",UPPER(LEFT(B239,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B239,B239),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B239" s="22"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="25"/>
+      <c r="G239" s="25"/>
+      <c r="H239" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C239" s="22"/>
-      <c r="D239" s="23"/>
-      <c r="E239" s="18"/>
-      <c r="F239" s="22"/>
-      <c r="G239" s="25"/>
-      <c r="H239" s="25"/>
     </row>
     <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="21" t="str">
-        <f>IF(C240&lt;&gt;"",UPPER(LEFT(C240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C240,C240),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B240" s="24" t="str">
+        <f>IF(B240&lt;&gt;"",UPPER(LEFT(B240,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B240,B240),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B240" s="22"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="25"/>
+      <c r="G240" s="25"/>
+      <c r="H240" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C240" s="22"/>
-      <c r="D240" s="23"/>
-      <c r="E240" s="18"/>
-      <c r="F240" s="22"/>
-      <c r="G240" s="25"/>
-      <c r="H240" s="25"/>
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="21" t="str">
-        <f>IF(C241&lt;&gt;"",UPPER(LEFT(C241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C241,C241),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B241" s="24" t="str">
+        <f>IF(B241&lt;&gt;"",UPPER(LEFT(B241,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B241,B241),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B241" s="22"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="25"/>
+      <c r="G241" s="25"/>
+      <c r="H241" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C241" s="22"/>
-      <c r="D241" s="23"/>
-      <c r="E241" s="18"/>
-      <c r="F241" s="22"/>
-      <c r="G241" s="25"/>
-      <c r="H241" s="25"/>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="21" t="str">
-        <f>IF(C242&lt;&gt;"",UPPER(LEFT(C242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C242,C242),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B242" s="24" t="str">
+        <f>IF(B242&lt;&gt;"",UPPER(LEFT(B242,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B242,B242),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B242" s="22"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="25"/>
+      <c r="G242" s="25"/>
+      <c r="H242" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C242" s="22"/>
-      <c r="D242" s="23"/>
-      <c r="E242" s="18"/>
-      <c r="F242" s="22"/>
-      <c r="G242" s="25"/>
-      <c r="H242" s="25"/>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="21" t="str">
-        <f>IF(C243&lt;&gt;"",UPPER(LEFT(C243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C243,C243),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B243" s="24" t="str">
+        <f>IF(B243&lt;&gt;"",UPPER(LEFT(B243,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B243,B243),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B243" s="22"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="25"/>
+      <c r="G243" s="25"/>
+      <c r="H243" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C243" s="22"/>
-      <c r="D243" s="23"/>
-      <c r="E243" s="18"/>
-      <c r="F243" s="22"/>
-      <c r="G243" s="25"/>
-      <c r="H243" s="25"/>
     </row>
     <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="21" t="str">
-        <f>IF(C244&lt;&gt;"",UPPER(LEFT(C244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C244,C244),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B244" s="24" t="str">
+        <f>IF(B244&lt;&gt;"",UPPER(LEFT(B244,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B244,B244),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B244" s="22"/>
+      <c r="C244" s="23"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="25"/>
+      <c r="G244" s="25"/>
+      <c r="H244" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C244" s="22"/>
-      <c r="D244" s="23"/>
-      <c r="E244" s="18"/>
-      <c r="F244" s="22"/>
-      <c r="G244" s="25"/>
-      <c r="H244" s="25"/>
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="21" t="str">
-        <f>IF(C245&lt;&gt;"",UPPER(LEFT(C245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C245,C245),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B245" s="24" t="str">
+        <f>IF(B245&lt;&gt;"",UPPER(LEFT(B245,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B245,B245),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B245" s="22"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="25"/>
+      <c r="G245" s="25"/>
+      <c r="H245" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C245" s="22"/>
-      <c r="D245" s="23"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="22"/>
-      <c r="G245" s="25"/>
-      <c r="H245" s="25"/>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="21" t="str">
-        <f>IF(C246&lt;&gt;"",UPPER(LEFT(C246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C246,C246),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B246" s="24" t="str">
+        <f>IF(B246&lt;&gt;"",UPPER(LEFT(B246,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B246,B246),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B246" s="22"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="25"/>
+      <c r="G246" s="25"/>
+      <c r="H246" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C246" s="22"/>
-      <c r="D246" s="23"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="22"/>
-      <c r="G246" s="25"/>
-      <c r="H246" s="25"/>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="21" t="str">
-        <f>IF(C247&lt;&gt;"",UPPER(LEFT(C247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C247,C247),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B247" s="24" t="str">
+        <f>IF(B247&lt;&gt;"",UPPER(LEFT(B247,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B247,B247),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B247" s="22"/>
+      <c r="C247" s="23"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="25"/>
+      <c r="G247" s="25"/>
+      <c r="H247" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C247" s="22"/>
-      <c r="D247" s="23"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="22"/>
-      <c r="G247" s="25"/>
-      <c r="H247" s="25"/>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="21" t="str">
-        <f>IF(C248&lt;&gt;"",UPPER(LEFT(C248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C248,C248),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B248" s="24" t="str">
+        <f>IF(B248&lt;&gt;"",UPPER(LEFT(B248,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B248,B248),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B248" s="22"/>
+      <c r="C248" s="23"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="25"/>
+      <c r="G248" s="25"/>
+      <c r="H248" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C248" s="22"/>
-      <c r="D248" s="23"/>
-      <c r="E248" s="18"/>
-      <c r="F248" s="22"/>
-      <c r="G248" s="25"/>
-      <c r="H248" s="25"/>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="21" t="str">
-        <f>IF(C249&lt;&gt;"",UPPER(LEFT(C249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C249,C249),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B249" s="24" t="str">
+        <f>IF(B249&lt;&gt;"",UPPER(LEFT(B249,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B249,B249),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B249" s="22"/>
+      <c r="C249" s="23"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="25"/>
+      <c r="G249" s="25"/>
+      <c r="H249" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C249" s="22"/>
-      <c r="D249" s="23"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="22"/>
-      <c r="G249" s="25"/>
-      <c r="H249" s="25"/>
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="21" t="str">
-        <f>IF(C250&lt;&gt;"",UPPER(LEFT(C250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C250,C250),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B250" s="24" t="str">
+        <f>IF(B250&lt;&gt;"",UPPER(LEFT(B250,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B250,B250),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B250" s="22"/>
+      <c r="C250" s="23"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="25"/>
+      <c r="G250" s="25"/>
+      <c r="H250" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C250" s="22"/>
-      <c r="D250" s="23"/>
-      <c r="E250" s="18"/>
-      <c r="F250" s="22"/>
-      <c r="G250" s="25"/>
-      <c r="H250" s="25"/>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="21" t="str">
-        <f>IF(C251&lt;&gt;"",UPPER(LEFT(C251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C251,C251),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B251" s="24" t="str">
+        <f>IF(B251&lt;&gt;"",UPPER(LEFT(B251,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B251,B251),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B251" s="22"/>
+      <c r="C251" s="23"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="25"/>
+      <c r="G251" s="25"/>
+      <c r="H251" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C251" s="22"/>
-      <c r="D251" s="23"/>
-      <c r="E251" s="18"/>
-      <c r="F251" s="22"/>
-      <c r="G251" s="25"/>
-      <c r="H251" s="25"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="21" t="str">
-        <f>IF(C252&lt;&gt;"",UPPER(LEFT(C252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C252,C252),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B252" s="24" t="str">
+        <f>IF(B252&lt;&gt;"",UPPER(LEFT(B252,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B252,B252),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B252" s="22"/>
+      <c r="C252" s="23"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="25"/>
+      <c r="G252" s="25"/>
+      <c r="H252" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C252" s="22"/>
-      <c r="D252" s="23"/>
-      <c r="E252" s="18"/>
-      <c r="F252" s="22"/>
-      <c r="G252" s="25"/>
-      <c r="H252" s="25"/>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="21" t="str">
-        <f>IF(C253&lt;&gt;"",UPPER(LEFT(C253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C253,C253),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B253" s="24" t="str">
+        <f>IF(B253&lt;&gt;"",UPPER(LEFT(B253,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B253,B253),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B253" s="22"/>
+      <c r="C253" s="23"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="25"/>
+      <c r="G253" s="25"/>
+      <c r="H253" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C253" s="22"/>
-      <c r="D253" s="23"/>
-      <c r="E253" s="18"/>
-      <c r="F253" s="22"/>
-      <c r="G253" s="25"/>
-      <c r="H253" s="25"/>
     </row>
     <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="21" t="str">
-        <f>IF(C254&lt;&gt;"",UPPER(LEFT(C254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C254,C254),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B254" s="24" t="str">
+        <f>IF(B254&lt;&gt;"",UPPER(LEFT(B254,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B254,B254),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B254" s="22"/>
+      <c r="C254" s="23"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="25"/>
+      <c r="G254" s="25"/>
+      <c r="H254" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C254" s="22"/>
-      <c r="D254" s="23"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="22"/>
-      <c r="G254" s="25"/>
-      <c r="H254" s="25"/>
     </row>
     <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="21" t="str">
-        <f>IF(C255&lt;&gt;"",UPPER(LEFT(C255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C255,C255),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B255" s="24" t="str">
+        <f>IF(B255&lt;&gt;"",UPPER(LEFT(B255,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B255,B255),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B255" s="22"/>
+      <c r="C255" s="23"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="25"/>
+      <c r="G255" s="25"/>
+      <c r="H255" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C255" s="22"/>
-      <c r="D255" s="23"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="22"/>
-      <c r="G255" s="25"/>
-      <c r="H255" s="25"/>
     </row>
     <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="21" t="str">
-        <f>IF(C256&lt;&gt;"",UPPER(LEFT(C256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C256,C256),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B256" s="24" t="str">
+        <f>IF(B256&lt;&gt;"",UPPER(LEFT(B256,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B256,B256),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B256" s="22"/>
+      <c r="C256" s="23"/>
+      <c r="D256" s="18"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="25"/>
+      <c r="G256" s="25"/>
+      <c r="H256" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C256" s="22"/>
-      <c r="D256" s="23"/>
-      <c r="E256" s="18"/>
-      <c r="F256" s="22"/>
-      <c r="G256" s="25"/>
-      <c r="H256" s="25"/>
     </row>
     <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="21" t="str">
-        <f>IF(C257&lt;&gt;"",UPPER(LEFT(C257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C257,C257),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B257" s="24" t="str">
+        <f>IF(B257&lt;&gt;"",UPPER(LEFT(B257,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B257,B257),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B257" s="22"/>
+      <c r="C257" s="23"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="25"/>
+      <c r="G257" s="25"/>
+      <c r="H257" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C257" s="22"/>
-      <c r="D257" s="23"/>
-      <c r="E257" s="18"/>
-      <c r="F257" s="22"/>
-      <c r="G257" s="25"/>
-      <c r="H257" s="25"/>
     </row>
     <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="21" t="str">
-        <f>IF(C258&lt;&gt;"",UPPER(LEFT(C258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C258,C258),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B258" s="24" t="str">
+        <f>IF(B258&lt;&gt;"",UPPER(LEFT(B258,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B258,B258),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B258" s="22"/>
+      <c r="C258" s="23"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="25"/>
+      <c r="G258" s="25"/>
+      <c r="H258" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C258" s="22"/>
-      <c r="D258" s="23"/>
-      <c r="E258" s="18"/>
-      <c r="F258" s="22"/>
-      <c r="G258" s="25"/>
-      <c r="H258" s="25"/>
     </row>
     <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="21" t="str">
-        <f>IF(C259&lt;&gt;"",UPPER(LEFT(C259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C259,C259),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B259" s="24" t="str">
-        <f t="shared" ref="B259:B300" si="4">IF(C259&lt;&gt;"", "female", "")</f>
-        <v/>
-      </c>
-      <c r="C259" s="22"/>
-      <c r="D259" s="23"/>
-      <c r="E259" s="18"/>
-      <c r="F259" s="22"/>
+        <f>IF(B259&lt;&gt;"",UPPER(LEFT(B259,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B259,B259),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B259" s="22"/>
+      <c r="C259" s="23"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="25"/>
       <c r="G259" s="25"/>
-      <c r="H259" s="25"/>
+      <c r="H259" s="24" t="str">
+        <f t="shared" ref="H259:H300" si="4">IF(B259&lt;&gt;"", "female", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="21" t="str">
-        <f>IF(C260&lt;&gt;"",UPPER(LEFT(C260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C260,C260),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B260" s="24" t="str">
+        <f>IF(B260&lt;&gt;"",UPPER(LEFT(B260,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B260,B260),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B260" s="22"/>
+      <c r="C260" s="23"/>
+      <c r="D260" s="18"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="25"/>
+      <c r="G260" s="25"/>
+      <c r="H260" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C260" s="22"/>
-      <c r="D260" s="23"/>
-      <c r="E260" s="18"/>
-      <c r="F260" s="22"/>
-      <c r="G260" s="25"/>
-      <c r="H260" s="25"/>
     </row>
     <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="21" t="str">
-        <f>IF(C261&lt;&gt;"",UPPER(LEFT(C261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C261,C261),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B261" s="24" t="str">
+        <f>IF(B261&lt;&gt;"",UPPER(LEFT(B261,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B261,B261),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B261" s="22"/>
+      <c r="C261" s="23"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="25"/>
+      <c r="G261" s="25"/>
+      <c r="H261" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C261" s="22"/>
-      <c r="D261" s="23"/>
-      <c r="E261" s="18"/>
-      <c r="F261" s="22"/>
-      <c r="G261" s="25"/>
-      <c r="H261" s="25"/>
     </row>
     <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="21" t="str">
-        <f>IF(C262&lt;&gt;"",UPPER(LEFT(C262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C262,C262),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B262" s="24" t="str">
+        <f>IF(B262&lt;&gt;"",UPPER(LEFT(B262,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B262,B262),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B262" s="22"/>
+      <c r="C262" s="23"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="25"/>
+      <c r="G262" s="25"/>
+      <c r="H262" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C262" s="22"/>
-      <c r="D262" s="23"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="22"/>
-      <c r="G262" s="25"/>
-      <c r="H262" s="25"/>
     </row>
     <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="21" t="str">
-        <f>IF(C263&lt;&gt;"",UPPER(LEFT(C263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C263,C263),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B263" s="24" t="str">
+        <f>IF(B263&lt;&gt;"",UPPER(LEFT(B263,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B263,B263),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B263" s="22"/>
+      <c r="C263" s="23"/>
+      <c r="D263" s="18"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="25"/>
+      <c r="G263" s="25"/>
+      <c r="H263" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C263" s="22"/>
-      <c r="D263" s="23"/>
-      <c r="E263" s="18"/>
-      <c r="F263" s="22"/>
-      <c r="G263" s="25"/>
-      <c r="H263" s="25"/>
     </row>
     <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="21" t="str">
-        <f>IF(C264&lt;&gt;"",UPPER(LEFT(C264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C264,C264),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B264" s="24" t="str">
+        <f>IF(B264&lt;&gt;"",UPPER(LEFT(B264,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B264,B264),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B264" s="22"/>
+      <c r="C264" s="23"/>
+      <c r="D264" s="18"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="25"/>
+      <c r="G264" s="25"/>
+      <c r="H264" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C264" s="22"/>
-      <c r="D264" s="23"/>
-      <c r="E264" s="18"/>
-      <c r="F264" s="22"/>
-      <c r="G264" s="25"/>
-      <c r="H264" s="25"/>
     </row>
     <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="21" t="str">
-        <f>IF(C265&lt;&gt;"",UPPER(LEFT(C265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C265,C265),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B265" s="24" t="str">
+        <f>IF(B265&lt;&gt;"",UPPER(LEFT(B265,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B265,B265),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B265" s="22"/>
+      <c r="C265" s="23"/>
+      <c r="D265" s="18"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="25"/>
+      <c r="G265" s="25"/>
+      <c r="H265" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C265" s="22"/>
-      <c r="D265" s="23"/>
-      <c r="E265" s="18"/>
-      <c r="F265" s="22"/>
-      <c r="G265" s="25"/>
-      <c r="H265" s="25"/>
     </row>
     <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="21" t="str">
-        <f>IF(C266&lt;&gt;"",UPPER(LEFT(C266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C266,C266),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B266" s="24" t="str">
+        <f>IF(B266&lt;&gt;"",UPPER(LEFT(B266,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B266,B266),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B266" s="22"/>
+      <c r="C266" s="23"/>
+      <c r="D266" s="18"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="25"/>
+      <c r="G266" s="25"/>
+      <c r="H266" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C266" s="22"/>
-      <c r="D266" s="23"/>
-      <c r="E266" s="18"/>
-      <c r="F266" s="22"/>
-      <c r="G266" s="25"/>
-      <c r="H266" s="25"/>
     </row>
     <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="21" t="str">
-        <f>IF(C267&lt;&gt;"",UPPER(LEFT(C267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C267,C267),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B267" s="24" t="str">
+        <f>IF(B267&lt;&gt;"",UPPER(LEFT(B267,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B267,B267),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B267" s="22"/>
+      <c r="C267" s="23"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="25"/>
+      <c r="G267" s="25"/>
+      <c r="H267" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C267" s="22"/>
-      <c r="D267" s="23"/>
-      <c r="E267" s="18"/>
-      <c r="F267" s="22"/>
-      <c r="G267" s="25"/>
-      <c r="H267" s="25"/>
     </row>
     <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="21" t="str">
-        <f>IF(C268&lt;&gt;"",UPPER(LEFT(C268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C268,C268),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B268" s="24" t="str">
+        <f>IF(B268&lt;&gt;"",UPPER(LEFT(B268,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B268,B268),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B268" s="22"/>
+      <c r="C268" s="23"/>
+      <c r="D268" s="18"/>
+      <c r="E268" s="22"/>
+      <c r="F268" s="25"/>
+      <c r="G268" s="25"/>
+      <c r="H268" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C268" s="22"/>
-      <c r="D268" s="23"/>
-      <c r="E268" s="18"/>
-      <c r="F268" s="22"/>
-      <c r="G268" s="25"/>
-      <c r="H268" s="25"/>
     </row>
     <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="21" t="str">
-        <f>IF(C269&lt;&gt;"",UPPER(LEFT(C269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C269,C269),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B269" s="24" t="str">
+        <f>IF(B269&lt;&gt;"",UPPER(LEFT(B269,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B269,B269),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B269" s="22"/>
+      <c r="C269" s="23"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="25"/>
+      <c r="G269" s="25"/>
+      <c r="H269" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C269" s="22"/>
-      <c r="D269" s="23"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="22"/>
-      <c r="G269" s="25"/>
-      <c r="H269" s="25"/>
     </row>
     <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="21" t="str">
-        <f>IF(C270&lt;&gt;"",UPPER(LEFT(C270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C270,C270),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B270" s="24" t="str">
+        <f>IF(B270&lt;&gt;"",UPPER(LEFT(B270,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B270,B270),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B270" s="22"/>
+      <c r="C270" s="23"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="25"/>
+      <c r="G270" s="25"/>
+      <c r="H270" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C270" s="22"/>
-      <c r="D270" s="23"/>
-      <c r="E270" s="18"/>
-      <c r="F270" s="22"/>
-      <c r="G270" s="25"/>
-      <c r="H270" s="25"/>
     </row>
     <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="21" t="str">
-        <f>IF(C271&lt;&gt;"",UPPER(LEFT(C271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C271,C271),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B271" s="24" t="str">
+        <f>IF(B271&lt;&gt;"",UPPER(LEFT(B271,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B271,B271),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B271" s="22"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="25"/>
+      <c r="G271" s="25"/>
+      <c r="H271" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C271" s="22"/>
-      <c r="D271" s="23"/>
-      <c r="E271" s="18"/>
-      <c r="F271" s="22"/>
-      <c r="G271" s="25"/>
-      <c r="H271" s="25"/>
     </row>
     <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="21" t="str">
-        <f>IF(C272&lt;&gt;"",UPPER(LEFT(C272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C272,C272),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B272" s="24" t="str">
+        <f>IF(B272&lt;&gt;"",UPPER(LEFT(B272,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B272,B272),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B272" s="22"/>
+      <c r="C272" s="23"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="25"/>
+      <c r="G272" s="25"/>
+      <c r="H272" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C272" s="22"/>
-      <c r="D272" s="23"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="22"/>
-      <c r="G272" s="25"/>
-      <c r="H272" s="25"/>
     </row>
     <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="21" t="str">
-        <f>IF(C273&lt;&gt;"",UPPER(LEFT(C273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C273,C273),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B273" s="24" t="str">
+        <f>IF(B273&lt;&gt;"",UPPER(LEFT(B273,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B273,B273),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B273" s="22"/>
+      <c r="C273" s="23"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="25"/>
+      <c r="G273" s="25"/>
+      <c r="H273" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C273" s="22"/>
-      <c r="D273" s="23"/>
-      <c r="E273" s="18"/>
-      <c r="F273" s="22"/>
-      <c r="G273" s="25"/>
-      <c r="H273" s="25"/>
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="21" t="str">
-        <f>IF(C274&lt;&gt;"",UPPER(LEFT(C274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C274,C274),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B274" s="24" t="str">
+        <f>IF(B274&lt;&gt;"",UPPER(LEFT(B274,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B274,B274),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B274" s="22"/>
+      <c r="C274" s="23"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="25"/>
+      <c r="G274" s="25"/>
+      <c r="H274" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C274" s="22"/>
-      <c r="D274" s="23"/>
-      <c r="E274" s="18"/>
-      <c r="F274" s="22"/>
-      <c r="G274" s="25"/>
-      <c r="H274" s="25"/>
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="21" t="str">
-        <f>IF(C275&lt;&gt;"",UPPER(LEFT(C275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C275,C275),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B275" s="24" t="str">
+        <f>IF(B275&lt;&gt;"",UPPER(LEFT(B275,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B275,B275),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B275" s="22"/>
+      <c r="C275" s="23"/>
+      <c r="D275" s="18"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="25"/>
+      <c r="G275" s="25"/>
+      <c r="H275" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C275" s="22"/>
-      <c r="D275" s="23"/>
-      <c r="E275" s="18"/>
-      <c r="F275" s="22"/>
-      <c r="G275" s="25"/>
-      <c r="H275" s="25"/>
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="21" t="str">
-        <f>IF(C276&lt;&gt;"",UPPER(LEFT(C276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C276,C276),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B276" s="24" t="str">
+        <f>IF(B276&lt;&gt;"",UPPER(LEFT(B276,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B276,B276),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B276" s="22"/>
+      <c r="C276" s="23"/>
+      <c r="D276" s="18"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="25"/>
+      <c r="G276" s="25"/>
+      <c r="H276" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C276" s="22"/>
-      <c r="D276" s="23"/>
-      <c r="E276" s="18"/>
-      <c r="F276" s="22"/>
-      <c r="G276" s="25"/>
-      <c r="H276" s="25"/>
     </row>
     <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="21" t="str">
-        <f>IF(C277&lt;&gt;"",UPPER(LEFT(C277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C277,C277),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B277" s="24" t="str">
+        <f>IF(B277&lt;&gt;"",UPPER(LEFT(B277,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B277,B277),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B277" s="22"/>
+      <c r="C277" s="23"/>
+      <c r="D277" s="18"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="25"/>
+      <c r="G277" s="25"/>
+      <c r="H277" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C277" s="22"/>
-      <c r="D277" s="23"/>
-      <c r="E277" s="18"/>
-      <c r="F277" s="22"/>
-      <c r="G277" s="25"/>
-      <c r="H277" s="25"/>
     </row>
     <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="21" t="str">
-        <f>IF(C278&lt;&gt;"",UPPER(LEFT(C278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C278,C278),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B278" s="24" t="str">
+        <f>IF(B278&lt;&gt;"",UPPER(LEFT(B278,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B278,B278),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B278" s="22"/>
+      <c r="C278" s="23"/>
+      <c r="D278" s="18"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="25"/>
+      <c r="G278" s="25"/>
+      <c r="H278" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C278" s="22"/>
-      <c r="D278" s="23"/>
-      <c r="E278" s="18"/>
-      <c r="F278" s="22"/>
-      <c r="G278" s="25"/>
-      <c r="H278" s="25"/>
     </row>
     <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="21" t="str">
-        <f>IF(C279&lt;&gt;"",UPPER(LEFT(C279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C279,C279),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B279" s="24" t="str">
+        <f>IF(B279&lt;&gt;"",UPPER(LEFT(B279,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B279,B279),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B279" s="22"/>
+      <c r="C279" s="23"/>
+      <c r="D279" s="18"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="25"/>
+      <c r="G279" s="25"/>
+      <c r="H279" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C279" s="22"/>
-      <c r="D279" s="23"/>
-      <c r="E279" s="18"/>
-      <c r="F279" s="22"/>
-      <c r="G279" s="25"/>
-      <c r="H279" s="25"/>
     </row>
     <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="21" t="str">
-        <f>IF(C280&lt;&gt;"",UPPER(LEFT(C280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C280,C280),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B280" s="24" t="str">
+        <f>IF(B280&lt;&gt;"",UPPER(LEFT(B280,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B280,B280),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B280" s="22"/>
+      <c r="C280" s="23"/>
+      <c r="D280" s="18"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="25"/>
+      <c r="G280" s="25"/>
+      <c r="H280" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C280" s="22"/>
-      <c r="D280" s="23"/>
-      <c r="E280" s="18"/>
-      <c r="F280" s="22"/>
-      <c r="G280" s="25"/>
-      <c r="H280" s="25"/>
     </row>
     <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="21" t="str">
-        <f>IF(C281&lt;&gt;"",UPPER(LEFT(C281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C281,C281),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B281" s="24" t="str">
+        <f>IF(B281&lt;&gt;"",UPPER(LEFT(B281,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B281,B281),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B281" s="22"/>
+      <c r="C281" s="23"/>
+      <c r="D281" s="18"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="25"/>
+      <c r="G281" s="25"/>
+      <c r="H281" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C281" s="22"/>
-      <c r="D281" s="23"/>
-      <c r="E281" s="18"/>
-      <c r="F281" s="22"/>
-      <c r="G281" s="25"/>
-      <c r="H281" s="25"/>
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="21" t="str">
-        <f>IF(C282&lt;&gt;"",UPPER(LEFT(C282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C282,C282),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B282" s="24" t="str">
+        <f>IF(B282&lt;&gt;"",UPPER(LEFT(B282,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B282,B282),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B282" s="22"/>
+      <c r="C282" s="23"/>
+      <c r="D282" s="18"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="25"/>
+      <c r="G282" s="25"/>
+      <c r="H282" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C282" s="22"/>
-      <c r="D282" s="23"/>
-      <c r="E282" s="18"/>
-      <c r="F282" s="22"/>
-      <c r="G282" s="25"/>
-      <c r="H282" s="25"/>
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="21" t="str">
-        <f>IF(C283&lt;&gt;"",UPPER(LEFT(C283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C283,C283),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B283" s="24" t="str">
+        <f>IF(B283&lt;&gt;"",UPPER(LEFT(B283,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B283,B283),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B283" s="22"/>
+      <c r="C283" s="23"/>
+      <c r="D283" s="18"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="25"/>
+      <c r="G283" s="25"/>
+      <c r="H283" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C283" s="22"/>
-      <c r="D283" s="23"/>
-      <c r="E283" s="18"/>
-      <c r="F283" s="22"/>
-      <c r="G283" s="25"/>
-      <c r="H283" s="25"/>
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="21" t="str">
-        <f>IF(C284&lt;&gt;"",UPPER(LEFT(C284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C284,C284),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B284" s="24" t="str">
+        <f>IF(B284&lt;&gt;"",UPPER(LEFT(B284,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B284,B284),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B284" s="22"/>
+      <c r="C284" s="23"/>
+      <c r="D284" s="18"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="25"/>
+      <c r="G284" s="25"/>
+      <c r="H284" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C284" s="22"/>
-      <c r="D284" s="23"/>
-      <c r="E284" s="18"/>
-      <c r="F284" s="22"/>
-      <c r="G284" s="25"/>
-      <c r="H284" s="25"/>
     </row>
     <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="21" t="str">
-        <f>IF(C285&lt;&gt;"",UPPER(LEFT(C285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C285,C285),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B285" s="24" t="str">
+        <f>IF(B285&lt;&gt;"",UPPER(LEFT(B285,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B285,B285),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B285" s="22"/>
+      <c r="C285" s="23"/>
+      <c r="D285" s="18"/>
+      <c r="E285" s="22"/>
+      <c r="F285" s="25"/>
+      <c r="G285" s="25"/>
+      <c r="H285" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C285" s="22"/>
-      <c r="D285" s="23"/>
-      <c r="E285" s="18"/>
-      <c r="F285" s="22"/>
-      <c r="G285" s="25"/>
-      <c r="H285" s="25"/>
     </row>
     <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="21" t="str">
-        <f>IF(C286&lt;&gt;"",UPPER(LEFT(C286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C286,C286),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B286" s="24" t="str">
+        <f>IF(B286&lt;&gt;"",UPPER(LEFT(B286,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B286,B286),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B286" s="22"/>
+      <c r="C286" s="23"/>
+      <c r="D286" s="18"/>
+      <c r="E286" s="22"/>
+      <c r="F286" s="25"/>
+      <c r="G286" s="25"/>
+      <c r="H286" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C286" s="22"/>
-      <c r="D286" s="23"/>
-      <c r="E286" s="18"/>
-      <c r="F286" s="22"/>
-      <c r="G286" s="25"/>
-      <c r="H286" s="25"/>
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="21" t="str">
-        <f>IF(C287&lt;&gt;"",UPPER(LEFT(C287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C287,C287),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B287" s="24" t="str">
+        <f>IF(B287&lt;&gt;"",UPPER(LEFT(B287,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B287,B287),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B287" s="22"/>
+      <c r="C287" s="23"/>
+      <c r="D287" s="18"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="25"/>
+      <c r="G287" s="25"/>
+      <c r="H287" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C287" s="22"/>
-      <c r="D287" s="23"/>
-      <c r="E287" s="18"/>
-      <c r="F287" s="22"/>
-      <c r="G287" s="25"/>
-      <c r="H287" s="25"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="21" t="str">
-        <f>IF(C288&lt;&gt;"",UPPER(LEFT(C288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C288,C288),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B288" s="24" t="str">
+        <f>IF(B288&lt;&gt;"",UPPER(LEFT(B288,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B288,B288),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B288" s="22"/>
+      <c r="C288" s="23"/>
+      <c r="D288" s="18"/>
+      <c r="E288" s="22"/>
+      <c r="F288" s="25"/>
+      <c r="G288" s="25"/>
+      <c r="H288" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C288" s="22"/>
-      <c r="D288" s="23"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="22"/>
-      <c r="G288" s="25"/>
-      <c r="H288" s="25"/>
     </row>
     <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="21" t="str">
-        <f>IF(C289&lt;&gt;"",UPPER(LEFT(C289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C289,C289),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B289" s="24" t="str">
+        <f>IF(B289&lt;&gt;"",UPPER(LEFT(B289,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B289,B289),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B289" s="22"/>
+      <c r="C289" s="23"/>
+      <c r="D289" s="18"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="25"/>
+      <c r="G289" s="25"/>
+      <c r="H289" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C289" s="22"/>
-      <c r="D289" s="23"/>
-      <c r="E289" s="18"/>
-      <c r="F289" s="22"/>
-      <c r="G289" s="25"/>
-      <c r="H289" s="25"/>
     </row>
     <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="21" t="str">
-        <f>IF(C290&lt;&gt;"",UPPER(LEFT(C290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C290,C290),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B290" s="24" t="str">
+        <f>IF(B290&lt;&gt;"",UPPER(LEFT(B290,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B290,B290),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B290" s="22"/>
+      <c r="C290" s="23"/>
+      <c r="D290" s="18"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="25"/>
+      <c r="G290" s="25"/>
+      <c r="H290" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C290" s="22"/>
-      <c r="D290" s="23"/>
-      <c r="E290" s="18"/>
-      <c r="F290" s="22"/>
-      <c r="G290" s="25"/>
-      <c r="H290" s="25"/>
     </row>
     <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="21" t="str">
-        <f>IF(C291&lt;&gt;"",UPPER(LEFT(C291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C291,C291),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B291" s="24" t="str">
+        <f>IF(B291&lt;&gt;"",UPPER(LEFT(B291,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B291,B291),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B291" s="22"/>
+      <c r="C291" s="23"/>
+      <c r="D291" s="18"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="25"/>
+      <c r="G291" s="25"/>
+      <c r="H291" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C291" s="22"/>
-      <c r="D291" s="23"/>
-      <c r="E291" s="18"/>
-      <c r="F291" s="22"/>
-      <c r="G291" s="25"/>
-      <c r="H291" s="25"/>
     </row>
     <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="21" t="str">
-        <f>IF(C292&lt;&gt;"",UPPER(LEFT(C292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C292,C292),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B292" s="24" t="str">
+        <f>IF(B292&lt;&gt;"",UPPER(LEFT(B292,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B292,B292),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B292" s="22"/>
+      <c r="C292" s="23"/>
+      <c r="D292" s="18"/>
+      <c r="E292" s="22"/>
+      <c r="F292" s="25"/>
+      <c r="G292" s="25"/>
+      <c r="H292" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C292" s="22"/>
-      <c r="D292" s="23"/>
-      <c r="E292" s="18"/>
-      <c r="F292" s="22"/>
-      <c r="G292" s="25"/>
-      <c r="H292" s="25"/>
     </row>
     <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="21" t="str">
-        <f>IF(C293&lt;&gt;"",UPPER(LEFT(C293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C293,C293),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B293" s="24" t="str">
+        <f>IF(B293&lt;&gt;"",UPPER(LEFT(B293,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B293,B293),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B293" s="22"/>
+      <c r="C293" s="23"/>
+      <c r="D293" s="18"/>
+      <c r="E293" s="22"/>
+      <c r="F293" s="25"/>
+      <c r="G293" s="25"/>
+      <c r="H293" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C293" s="22"/>
-      <c r="D293" s="23"/>
-      <c r="E293" s="18"/>
-      <c r="F293" s="22"/>
-      <c r="G293" s="25"/>
-      <c r="H293" s="25"/>
     </row>
     <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="21" t="str">
-        <f>IF(C294&lt;&gt;"",UPPER(LEFT(C294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C294,C294),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B294" s="24" t="str">
+        <f>IF(B294&lt;&gt;"",UPPER(LEFT(B294,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B294,B294),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B294" s="22"/>
+      <c r="C294" s="23"/>
+      <c r="D294" s="18"/>
+      <c r="E294" s="22"/>
+      <c r="F294" s="25"/>
+      <c r="G294" s="25"/>
+      <c r="H294" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C294" s="22"/>
-      <c r="D294" s="23"/>
-      <c r="E294" s="18"/>
-      <c r="F294" s="22"/>
-      <c r="G294" s="25"/>
-      <c r="H294" s="25"/>
     </row>
     <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="21" t="str">
-        <f>IF(C295&lt;&gt;"",UPPER(LEFT(C295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C295,C295),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B295" s="24" t="str">
+        <f>IF(B295&lt;&gt;"",UPPER(LEFT(B295,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B295,B295),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B295" s="22"/>
+      <c r="C295" s="23"/>
+      <c r="D295" s="18"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="25"/>
+      <c r="G295" s="25"/>
+      <c r="H295" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C295" s="22"/>
-      <c r="D295" s="23"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="22"/>
-      <c r="G295" s="25"/>
-      <c r="H295" s="25"/>
     </row>
     <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="21" t="str">
-        <f>IF(C296&lt;&gt;"",UPPER(LEFT(C296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C296,C296),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B296" s="24" t="str">
+        <f>IF(B296&lt;&gt;"",UPPER(LEFT(B296,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B296,B296),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B296" s="22"/>
+      <c r="C296" s="23"/>
+      <c r="D296" s="18"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="25"/>
+      <c r="G296" s="25"/>
+      <c r="H296" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C296" s="22"/>
-      <c r="D296" s="23"/>
-      <c r="E296" s="18"/>
-      <c r="F296" s="22"/>
-      <c r="G296" s="25"/>
-      <c r="H296" s="25"/>
     </row>
     <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="21" t="str">
-        <f>IF(C297&lt;&gt;"",UPPER(LEFT(C297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C297,C297),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B297" s="24" t="str">
+        <f>IF(B297&lt;&gt;"",UPPER(LEFT(B297,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B297,B297),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B297" s="22"/>
+      <c r="C297" s="23"/>
+      <c r="D297" s="18"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="25"/>
+      <c r="G297" s="25"/>
+      <c r="H297" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C297" s="22"/>
-      <c r="D297" s="23"/>
-      <c r="E297" s="18"/>
-      <c r="F297" s="22"/>
-      <c r="G297" s="25"/>
-      <c r="H297" s="25"/>
     </row>
     <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="21" t="str">
-        <f>IF(C298&lt;&gt;"",UPPER(LEFT(C298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C298,C298),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B298" s="24" t="str">
+        <f>IF(B298&lt;&gt;"",UPPER(LEFT(B298,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B298,B298),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B298" s="22"/>
+      <c r="C298" s="23"/>
+      <c r="D298" s="18"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="25"/>
+      <c r="G298" s="25"/>
+      <c r="H298" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C298" s="22"/>
-      <c r="D298" s="23"/>
-      <c r="E298" s="18"/>
-      <c r="F298" s="22"/>
-      <c r="G298" s="25"/>
-      <c r="H298" s="25"/>
     </row>
     <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="21" t="str">
-        <f>IF(C299&lt;&gt;"",UPPER(LEFT(C299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C299,C299),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B299" s="24" t="str">
+        <f>IF(B299&lt;&gt;"",UPPER(LEFT(B299,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B299,B299),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B299" s="22"/>
+      <c r="C299" s="23"/>
+      <c r="D299" s="18"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="25"/>
+      <c r="G299" s="25"/>
+      <c r="H299" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C299" s="22"/>
-      <c r="D299" s="23"/>
-      <c r="E299" s="18"/>
-      <c r="F299" s="22"/>
-      <c r="G299" s="25"/>
-      <c r="H299" s="25"/>
     </row>
     <row r="300" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="21" t="str">
-        <f>IF(C300&lt;&gt;"",UPPER(LEFT(C300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($C$2:C300,C300),"0000"),"")</f>
-        <v/>
-      </c>
-      <c r="B300" s="24" t="str">
+        <f>IF(B300&lt;&gt;"",UPPER(LEFT(B300,1))&amp;"-"&amp;TEXT('Import time'!$A$2,"0000")&amp;"-"&amp;TEXT(COUNTIF($B$2:B300,B300),"0000"),"")</f>
+        <v/>
+      </c>
+      <c r="B300" s="22"/>
+      <c r="C300" s="23"/>
+      <c r="D300" s="18"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="25"/>
+      <c r="G300" s="25"/>
+      <c r="H300" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C300" s="22"/>
-      <c r="D300" s="23"/>
-      <c r="E300" s="18"/>
-      <c r="F300" s="22"/>
-      <c r="G300" s="25"/>
-      <c r="H300" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xFzb2MgVjJMVTTu0WfEHOoFtsZolJodN8GJHouTnGxsjNtTEFRB2642mk1DFMLJ+PFj4Ly444wzJagnSae1Mxg==" saltValue="w6Vsb4RwJrSABhWXt2cv0g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JEFejBMutTaxwO3xZSySeikQ/eWQu5HxBkRuCxTod6BwoNWHUwQn6HuM9ZLTBCopHbIeGkS+6xpn9YVztQipow==" saltValue="cdSoKU4aPPwums3bBXSyYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:H300">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>AND(COUNTA($C2,$D2,$E2,$F2,$G2,$H2)&gt;0, COUNTA($C2,$D2,$E2,$F2,$G2,$H2)&lt;6)</formula>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COUNTA($B2,$C2,$D2,$E2,$F2,$G2)&gt;0, COUNTA($B2,$C2,$D2,$E2,$F2,$G2)&lt;6)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="D2:D300" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a date within 10 months from today." sqref="C2:C300" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>EDATE(TODAY(),-10)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:B300" xr:uid="{09FBEF7D-851F-3E41-A7FE-AD553C7185E9}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Ngày nhập không hợp lệ " error="Ngày nhập tính từ ngày hôm nay trở về sau" sqref="E2:E300" xr:uid="{6B83C7C2-8B14-9A47-B9FD-B77868DF88C9}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H300" xr:uid="{09FBEF7D-851F-3E41-A7FE-AD553C7185E9}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Ngày nhập không hợp lệ " error="Ngày nhập tính từ ngày hôm nay trở về sau" sqref="D2:D300" xr:uid="{6B83C7C2-8B14-9A47-B9FD-B77868DF88C9}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F300" xr:uid="{6BE7FCC0-07C7-6943-9C2F-2BE1FECC6F50}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E300" xr:uid="{6BE7FCC0-07C7-6943-9C2F-2BE1FECC6F50}">
       <formula1>"milkingCow,dryCow,youngCow"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5740,13 +5646,13 @@
           <x14:formula1>
             <xm:f>'Cow Type'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C300</xm:sqref>
+          <xm:sqref>B2:B300</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Cow Origin'!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G300</xm:sqref>
+          <xm:sqref>F2:F300</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5761,7 +5667,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -17790,7 +17696,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Fb0hhNXAmdsdG+r4YuSgggCg/FEWyFhleKnQJ8azlxY8nvAcDuENz4ovss4PTOSQGBSFUI/lBRfxmiK46BUaLg==" saltValue="0vw604Rkp2/DnDG+ZZCEkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:J300">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND($A2&lt;&gt;"", COUNTA($B2:$J2)&lt;COLUMNS($B2:$J2))</formula>
     </cfRule>
   </conditionalFormatting>
